--- a/gantt-diagram.xlsx
+++ b/gantt-diagram.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59BEEE96-5D22-4BC9-961C-A4CAF2209A21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07363DF2-D700-4ABF-A97D-CD23B0E2BADE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="54">
   <si>
     <t>Projekt kezdete:</t>
   </si>
@@ -386,7 +386,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="24">
+  <fills count="25">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -520,6 +520,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -753,7 +759,7 @@
     <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -797,33 +803,15 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="14" fillId="0" borderId="3" xfId="8" applyNumberFormat="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="16" fontId="16" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="14" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="14" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="14" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="167" fontId="19" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -856,9 +844,6 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="11" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
@@ -872,15 +857,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="23" borderId="0" xfId="12" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="12" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="2" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="13" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="14" borderId="0" xfId="13" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -954,40 +930,67 @@
     <xf numFmtId="0" fontId="21" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="25" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="21" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="14" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="14" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="14" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="14" fillId="0" borderId="3" xfId="8" applyNumberFormat="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="12" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="2" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="13" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="25" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="21" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="23" borderId="2" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -995,6 +998,21 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="23" borderId="13" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -1013,427 +1031,7 @@
     <cellStyle name="Task" xfId="11" xr:uid="{6391D789-272B-4DD2-9BF3-2CDCF610FA41}"/>
     <cellStyle name="zHiddenText" xfId="2" xr:uid="{26E66EE6-E33F-4D77-BAE4-0FB4F5BBF673}"/>
   </cellStyles>
-  <dxfs count="285">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="243">
     <dxf>
       <fill>
         <patternFill>
@@ -3870,15 +3468,15 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="284"/>
-      <tableStyleElement type="headerRow" dxfId="283"/>
-      <tableStyleElement type="totalRow" dxfId="282"/>
-      <tableStyleElement type="firstColumn" dxfId="281"/>
-      <tableStyleElement type="lastColumn" dxfId="280"/>
-      <tableStyleElement type="firstRowStripe" dxfId="279"/>
-      <tableStyleElement type="secondRowStripe" dxfId="278"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="277"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="276"/>
+      <tableStyleElement type="wholeTable" dxfId="242"/>
+      <tableStyleElement type="headerRow" dxfId="241"/>
+      <tableStyleElement type="totalRow" dxfId="240"/>
+      <tableStyleElement type="firstColumn" dxfId="239"/>
+      <tableStyleElement type="lastColumn" dxfId="238"/>
+      <tableStyleElement type="firstRowStripe" dxfId="237"/>
+      <tableStyleElement type="secondRowStripe" dxfId="236"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="235"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="234"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -4240,9 +3838,9 @@
   </sheetPr>
   <dimension ref="A1:CE47"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="B1" zoomScale="73" zoomScaleNormal="73" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AG32" sqref="AG32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4366,12 +3964,12 @@
         <v>46</v>
       </c>
       <c r="C2" s="12"/>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="25"/>
+      <c r="E2" s="83"/>
       <c r="F2" s="11"/>
-      <c r="G2" s="26"/>
+      <c r="G2" s="25"/>
       <c r="H2" s="12"/>
       <c r="I2" s="12"/>
       <c r="J2" s="12"/>
@@ -4451,12 +4049,12 @@
     </row>
     <row r="3" spans="1:83" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="23"/>
-      <c r="B3" s="27"/>
+      <c r="B3" s="26"/>
       <c r="C3" s="12"/>
-      <c r="D3" s="25">
+      <c r="D3" s="83">
         <v>45197</v>
       </c>
-      <c r="E3" s="25"/>
+      <c r="E3" s="83"/>
       <c r="F3" s="11"/>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
@@ -4542,438 +4140,438 @@
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="29">
+      <c r="F4" s="84"/>
+      <c r="G4" s="80">
         <f>G5</f>
         <v>45194</v>
       </c>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="29">
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81"/>
+      <c r="K4" s="81"/>
+      <c r="L4" s="81"/>
+      <c r="M4" s="82"/>
+      <c r="N4" s="80">
         <f>N5</f>
         <v>45201</v>
       </c>
-      <c r="O4" s="30"/>
-      <c r="P4" s="30"/>
-      <c r="Q4" s="30"/>
-      <c r="R4" s="30"/>
-      <c r="S4" s="30"/>
-      <c r="T4" s="31"/>
-      <c r="U4" s="29">
+      <c r="O4" s="81"/>
+      <c r="P4" s="81"/>
+      <c r="Q4" s="81"/>
+      <c r="R4" s="81"/>
+      <c r="S4" s="81"/>
+      <c r="T4" s="82"/>
+      <c r="U4" s="80">
         <f>U5</f>
         <v>45208</v>
       </c>
-      <c r="V4" s="30"/>
-      <c r="W4" s="30"/>
-      <c r="X4" s="30"/>
-      <c r="Y4" s="30"/>
-      <c r="Z4" s="30"/>
-      <c r="AA4" s="31"/>
-      <c r="AB4" s="29">
+      <c r="V4" s="81"/>
+      <c r="W4" s="81"/>
+      <c r="X4" s="81"/>
+      <c r="Y4" s="81"/>
+      <c r="Z4" s="81"/>
+      <c r="AA4" s="82"/>
+      <c r="AB4" s="80">
         <f>AB5</f>
         <v>45215</v>
       </c>
-      <c r="AC4" s="30"/>
-      <c r="AD4" s="30"/>
-      <c r="AE4" s="30"/>
-      <c r="AF4" s="30"/>
-      <c r="AG4" s="30"/>
-      <c r="AH4" s="31"/>
-      <c r="AI4" s="29">
+      <c r="AC4" s="81"/>
+      <c r="AD4" s="81"/>
+      <c r="AE4" s="81"/>
+      <c r="AF4" s="81"/>
+      <c r="AG4" s="81"/>
+      <c r="AH4" s="82"/>
+      <c r="AI4" s="80">
         <f>AI5</f>
         <v>45222</v>
       </c>
-      <c r="AJ4" s="30"/>
-      <c r="AK4" s="30"/>
-      <c r="AL4" s="30"/>
-      <c r="AM4" s="30"/>
-      <c r="AN4" s="30"/>
-      <c r="AO4" s="31"/>
-      <c r="AP4" s="29">
+      <c r="AJ4" s="81"/>
+      <c r="AK4" s="81"/>
+      <c r="AL4" s="81"/>
+      <c r="AM4" s="81"/>
+      <c r="AN4" s="81"/>
+      <c r="AO4" s="82"/>
+      <c r="AP4" s="80">
         <f>AP5</f>
         <v>45229</v>
       </c>
-      <c r="AQ4" s="30"/>
-      <c r="AR4" s="30"/>
-      <c r="AS4" s="30"/>
-      <c r="AT4" s="30"/>
-      <c r="AU4" s="30"/>
-      <c r="AV4" s="31"/>
-      <c r="AW4" s="29">
+      <c r="AQ4" s="81"/>
+      <c r="AR4" s="81"/>
+      <c r="AS4" s="81"/>
+      <c r="AT4" s="81"/>
+      <c r="AU4" s="81"/>
+      <c r="AV4" s="82"/>
+      <c r="AW4" s="80">
         <f>AW5</f>
         <v>45236</v>
       </c>
-      <c r="AX4" s="30"/>
-      <c r="AY4" s="30"/>
-      <c r="AZ4" s="30"/>
-      <c r="BA4" s="30"/>
-      <c r="BB4" s="30"/>
-      <c r="BC4" s="31"/>
-      <c r="BD4" s="29">
+      <c r="AX4" s="81"/>
+      <c r="AY4" s="81"/>
+      <c r="AZ4" s="81"/>
+      <c r="BA4" s="81"/>
+      <c r="BB4" s="81"/>
+      <c r="BC4" s="82"/>
+      <c r="BD4" s="80">
         <f>BD5</f>
         <v>45243</v>
       </c>
-      <c r="BE4" s="30"/>
-      <c r="BF4" s="30"/>
-      <c r="BG4" s="30"/>
-      <c r="BH4" s="30"/>
-      <c r="BI4" s="30"/>
-      <c r="BJ4" s="31"/>
-      <c r="BK4" s="29">
+      <c r="BE4" s="81"/>
+      <c r="BF4" s="81"/>
+      <c r="BG4" s="81"/>
+      <c r="BH4" s="81"/>
+      <c r="BI4" s="81"/>
+      <c r="BJ4" s="82"/>
+      <c r="BK4" s="80">
         <f>BK5</f>
         <v>45250</v>
       </c>
-      <c r="BL4" s="30"/>
-      <c r="BM4" s="30"/>
-      <c r="BN4" s="30"/>
-      <c r="BO4" s="30"/>
-      <c r="BP4" s="30"/>
-      <c r="BQ4" s="31"/>
-      <c r="BR4" s="29">
+      <c r="BL4" s="81"/>
+      <c r="BM4" s="81"/>
+      <c r="BN4" s="81"/>
+      <c r="BO4" s="81"/>
+      <c r="BP4" s="81"/>
+      <c r="BQ4" s="82"/>
+      <c r="BR4" s="80">
         <f>BR5</f>
         <v>45257</v>
       </c>
-      <c r="BS4" s="30"/>
-      <c r="BT4" s="30"/>
-      <c r="BU4" s="30"/>
-      <c r="BV4" s="30"/>
-      <c r="BW4" s="30"/>
-      <c r="BX4" s="31"/>
-      <c r="BY4" s="29">
+      <c r="BS4" s="81"/>
+      <c r="BT4" s="81"/>
+      <c r="BU4" s="81"/>
+      <c r="BV4" s="81"/>
+      <c r="BW4" s="81"/>
+      <c r="BX4" s="82"/>
+      <c r="BY4" s="80">
         <f>BY5</f>
         <v>45264</v>
       </c>
-      <c r="BZ4" s="30"/>
-      <c r="CA4" s="30"/>
-      <c r="CB4" s="30"/>
-      <c r="CC4" s="30"/>
-      <c r="CD4" s="30"/>
-      <c r="CE4" s="31"/>
+      <c r="BZ4" s="81"/>
+      <c r="CA4" s="81"/>
+      <c r="CB4" s="81"/>
+      <c r="CC4" s="81"/>
+      <c r="CD4" s="81"/>
+      <c r="CE4" s="82"/>
     </row>
     <row r="5" spans="1:83" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7"/>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="33" t="s">
+      <c r="D5" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="33" t="s">
+      <c r="E5" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="34"/>
-      <c r="G5" s="35">
+      <c r="F5" s="85"/>
+      <c r="G5" s="29">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2</f>
         <v>45194</v>
       </c>
-      <c r="H5" s="36">
+      <c r="H5" s="30">
         <f>G5+1</f>
         <v>45195</v>
       </c>
-      <c r="I5" s="36">
+      <c r="I5" s="30">
         <f t="shared" ref="I5:AV5" si="0">H5+1</f>
         <v>45196</v>
       </c>
-      <c r="J5" s="36">
+      <c r="J5" s="30">
         <f t="shared" si="0"/>
         <v>45197</v>
       </c>
-      <c r="K5" s="36">
+      <c r="K5" s="30">
         <f t="shared" si="0"/>
         <v>45198</v>
       </c>
-      <c r="L5" s="36">
+      <c r="L5" s="30">
         <f t="shared" si="0"/>
         <v>45199</v>
       </c>
-      <c r="M5" s="37">
+      <c r="M5" s="31">
         <f t="shared" si="0"/>
         <v>45200</v>
       </c>
-      <c r="N5" s="35">
+      <c r="N5" s="29">
         <f>M5+1</f>
         <v>45201</v>
       </c>
-      <c r="O5" s="36">
+      <c r="O5" s="30">
         <f>N5+1</f>
         <v>45202</v>
       </c>
-      <c r="P5" s="36">
+      <c r="P5" s="30">
         <f t="shared" si="0"/>
         <v>45203</v>
       </c>
-      <c r="Q5" s="36">
+      <c r="Q5" s="30">
         <f t="shared" si="0"/>
         <v>45204</v>
       </c>
-      <c r="R5" s="36">
+      <c r="R5" s="30">
         <f t="shared" si="0"/>
         <v>45205</v>
       </c>
-      <c r="S5" s="36">
+      <c r="S5" s="30">
         <f t="shared" si="0"/>
         <v>45206</v>
       </c>
-      <c r="T5" s="37">
+      <c r="T5" s="31">
         <f t="shared" si="0"/>
         <v>45207</v>
       </c>
-      <c r="U5" s="35">
+      <c r="U5" s="29">
         <f>T5+1</f>
         <v>45208</v>
       </c>
-      <c r="V5" s="36">
+      <c r="V5" s="30">
         <f>U5+1</f>
         <v>45209</v>
       </c>
-      <c r="W5" s="36">
+      <c r="W5" s="30">
         <f t="shared" si="0"/>
         <v>45210</v>
       </c>
-      <c r="X5" s="36">
+      <c r="X5" s="30">
         <f t="shared" si="0"/>
         <v>45211</v>
       </c>
-      <c r="Y5" s="36">
+      <c r="Y5" s="30">
         <f t="shared" si="0"/>
         <v>45212</v>
       </c>
-      <c r="Z5" s="36">
+      <c r="Z5" s="30">
         <f t="shared" si="0"/>
         <v>45213</v>
       </c>
-      <c r="AA5" s="37">
+      <c r="AA5" s="31">
         <f t="shared" si="0"/>
         <v>45214</v>
       </c>
-      <c r="AB5" s="35">
+      <c r="AB5" s="29">
         <f>AA5+1</f>
         <v>45215</v>
       </c>
-      <c r="AC5" s="36">
+      <c r="AC5" s="30">
         <f>AB5+1</f>
         <v>45216</v>
       </c>
-      <c r="AD5" s="36">
+      <c r="AD5" s="30">
         <f t="shared" si="0"/>
         <v>45217</v>
       </c>
-      <c r="AE5" s="36">
+      <c r="AE5" s="30">
         <f t="shared" si="0"/>
         <v>45218</v>
       </c>
-      <c r="AF5" s="36">
+      <c r="AF5" s="30">
         <f t="shared" si="0"/>
         <v>45219</v>
       </c>
-      <c r="AG5" s="36">
+      <c r="AG5" s="30">
         <f t="shared" si="0"/>
         <v>45220</v>
       </c>
-      <c r="AH5" s="37">
+      <c r="AH5" s="31">
         <f t="shared" si="0"/>
         <v>45221</v>
       </c>
-      <c r="AI5" s="35">
+      <c r="AI5" s="29">
         <f>AH5+1</f>
         <v>45222</v>
       </c>
-      <c r="AJ5" s="36">
+      <c r="AJ5" s="30">
         <f>AI5+1</f>
         <v>45223</v>
       </c>
-      <c r="AK5" s="36">
+      <c r="AK5" s="30">
         <f t="shared" si="0"/>
         <v>45224</v>
       </c>
-      <c r="AL5" s="36">
+      <c r="AL5" s="30">
         <f t="shared" si="0"/>
         <v>45225</v>
       </c>
-      <c r="AM5" s="36">
+      <c r="AM5" s="30">
         <f t="shared" si="0"/>
         <v>45226</v>
       </c>
-      <c r="AN5" s="36">
+      <c r="AN5" s="30">
         <f t="shared" si="0"/>
         <v>45227</v>
       </c>
-      <c r="AO5" s="37">
+      <c r="AO5" s="31">
         <f t="shared" si="0"/>
         <v>45228</v>
       </c>
-      <c r="AP5" s="35">
+      <c r="AP5" s="29">
         <f>AO5+1</f>
         <v>45229</v>
       </c>
-      <c r="AQ5" s="36">
+      <c r="AQ5" s="30">
         <f>AP5+1</f>
         <v>45230</v>
       </c>
-      <c r="AR5" s="36">
+      <c r="AR5" s="30">
         <f t="shared" si="0"/>
         <v>45231</v>
       </c>
-      <c r="AS5" s="36">
+      <c r="AS5" s="30">
         <f t="shared" si="0"/>
         <v>45232</v>
       </c>
-      <c r="AT5" s="36">
+      <c r="AT5" s="30">
         <f t="shared" si="0"/>
         <v>45233</v>
       </c>
-      <c r="AU5" s="36">
+      <c r="AU5" s="30">
         <f t="shared" si="0"/>
         <v>45234</v>
       </c>
-      <c r="AV5" s="37">
+      <c r="AV5" s="31">
         <f t="shared" si="0"/>
         <v>45235</v>
       </c>
-      <c r="AW5" s="35">
+      <c r="AW5" s="29">
         <f>AV5+1</f>
         <v>45236</v>
       </c>
-      <c r="AX5" s="36">
+      <c r="AX5" s="30">
         <f>AW5+1</f>
         <v>45237</v>
       </c>
-      <c r="AY5" s="36">
+      <c r="AY5" s="30">
         <f t="shared" ref="AY5:BC5" si="1">AX5+1</f>
         <v>45238</v>
       </c>
-      <c r="AZ5" s="36">
+      <c r="AZ5" s="30">
         <f t="shared" si="1"/>
         <v>45239</v>
       </c>
-      <c r="BA5" s="36">
+      <c r="BA5" s="30">
         <f t="shared" si="1"/>
         <v>45240</v>
       </c>
-      <c r="BB5" s="36">
+      <c r="BB5" s="30">
         <f t="shared" si="1"/>
         <v>45241</v>
       </c>
-      <c r="BC5" s="37">
+      <c r="BC5" s="31">
         <f t="shared" si="1"/>
         <v>45242</v>
       </c>
-      <c r="BD5" s="35">
+      <c r="BD5" s="29">
         <f>BC5+1</f>
         <v>45243</v>
       </c>
-      <c r="BE5" s="36">
+      <c r="BE5" s="30">
         <f>BD5+1</f>
         <v>45244</v>
       </c>
-      <c r="BF5" s="36">
+      <c r="BF5" s="30">
         <f t="shared" ref="BF5:BK5" si="2">BE5+1</f>
         <v>45245</v>
       </c>
-      <c r="BG5" s="36">
+      <c r="BG5" s="30">
         <f t="shared" si="2"/>
         <v>45246</v>
       </c>
-      <c r="BH5" s="36">
+      <c r="BH5" s="30">
         <f t="shared" si="2"/>
         <v>45247</v>
       </c>
-      <c r="BI5" s="36">
+      <c r="BI5" s="30">
         <f t="shared" si="2"/>
         <v>45248</v>
       </c>
-      <c r="BJ5" s="37">
+      <c r="BJ5" s="31">
         <f t="shared" si="2"/>
         <v>45249</v>
       </c>
-      <c r="BK5" s="35">
+      <c r="BK5" s="29">
         <f t="shared" si="2"/>
         <v>45250</v>
       </c>
-      <c r="BL5" s="36">
+      <c r="BL5" s="30">
         <f t="shared" ref="BL5" si="3">BK5+1</f>
         <v>45251</v>
       </c>
-      <c r="BM5" s="36">
+      <c r="BM5" s="30">
         <f t="shared" ref="BM5" si="4">BL5+1</f>
         <v>45252</v>
       </c>
-      <c r="BN5" s="36">
+      <c r="BN5" s="30">
         <f t="shared" ref="BN5" si="5">BM5+1</f>
         <v>45253</v>
       </c>
-      <c r="BO5" s="36">
+      <c r="BO5" s="30">
         <f t="shared" ref="BO5" si="6">BN5+1</f>
         <v>45254</v>
       </c>
-      <c r="BP5" s="36">
+      <c r="BP5" s="30">
         <f t="shared" ref="BP5" si="7">BO5+1</f>
         <v>45255</v>
       </c>
-      <c r="BQ5" s="37">
+      <c r="BQ5" s="31">
         <f t="shared" ref="BQ5" si="8">BP5+1</f>
         <v>45256</v>
       </c>
-      <c r="BR5" s="35">
+      <c r="BR5" s="29">
         <f t="shared" ref="BR5" si="9">BQ5+1</f>
         <v>45257</v>
       </c>
-      <c r="BS5" s="36">
+      <c r="BS5" s="30">
         <f t="shared" ref="BS5" si="10">BR5+1</f>
         <v>45258</v>
       </c>
-      <c r="BT5" s="36">
+      <c r="BT5" s="30">
         <f t="shared" ref="BT5" si="11">BS5+1</f>
         <v>45259</v>
       </c>
-      <c r="BU5" s="36">
+      <c r="BU5" s="30">
         <f t="shared" ref="BU5" si="12">BT5+1</f>
         <v>45260</v>
       </c>
-      <c r="BV5" s="36">
+      <c r="BV5" s="30">
         <f t="shared" ref="BV5" si="13">BU5+1</f>
         <v>45261</v>
       </c>
-      <c r="BW5" s="36">
+      <c r="BW5" s="30">
         <f t="shared" ref="BW5" si="14">BV5+1</f>
         <v>45262</v>
       </c>
-      <c r="BX5" s="36">
+      <c r="BX5" s="30">
         <f t="shared" ref="BX5" si="15">BW5+1</f>
         <v>45263</v>
       </c>
-      <c r="BY5" s="36">
+      <c r="BY5" s="30">
         <f t="shared" ref="BY5" si="16">BX5+1</f>
         <v>45264</v>
       </c>
-      <c r="BZ5" s="36">
+      <c r="BZ5" s="30">
         <f t="shared" ref="BZ5" si="17">BY5+1</f>
         <v>45265</v>
       </c>
-      <c r="CA5" s="36">
+      <c r="CA5" s="30">
         <f t="shared" ref="CA5" si="18">BZ5+1</f>
         <v>45266</v>
       </c>
-      <c r="CB5" s="36">
+      <c r="CB5" s="30">
         <f t="shared" ref="CB5" si="19">CA5+1</f>
         <v>45267</v>
       </c>
-      <c r="CC5" s="36">
+      <c r="CC5" s="30">
         <f t="shared" ref="CC5" si="20">CB5+1</f>
         <v>45268</v>
       </c>
-      <c r="CD5" s="36">
+      <c r="CD5" s="30">
         <f t="shared" ref="CD5" si="21">CC5+1</f>
         <v>45269</v>
       </c>
-      <c r="CE5" s="78">
+      <c r="CE5" s="68">
         <f t="shared" ref="CE5" si="22">CD5+1</f>
         <v>45270</v>
       </c>
@@ -4981,3419 +4579,3545 @@
     <row r="6" spans="1:83" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="23"/>
       <c r="B6" s="12"/>
-      <c r="C6" s="38"/>
+      <c r="C6" s="32"/>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="40"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="40"/>
-      <c r="R6" s="40"/>
-      <c r="S6" s="40"/>
-      <c r="T6" s="40"/>
-      <c r="U6" s="40"/>
-      <c r="V6" s="40"/>
-      <c r="W6" s="40"/>
-      <c r="X6" s="40"/>
-      <c r="Y6" s="40"/>
-      <c r="Z6" s="40"/>
-      <c r="AA6" s="40"/>
-      <c r="AB6" s="40"/>
-      <c r="AC6" s="40"/>
-      <c r="AD6" s="40"/>
-      <c r="AE6" s="40"/>
-      <c r="AF6" s="40"/>
-      <c r="AG6" s="40"/>
-      <c r="AH6" s="40"/>
-      <c r="AI6" s="40"/>
-      <c r="AJ6" s="40"/>
-      <c r="AK6" s="40"/>
-      <c r="AL6" s="40"/>
-      <c r="AM6" s="40"/>
-      <c r="AN6" s="40"/>
-      <c r="AO6" s="40"/>
-      <c r="AP6" s="40"/>
-      <c r="AQ6" s="40"/>
-      <c r="AR6" s="40"/>
-      <c r="AS6" s="40"/>
-      <c r="AT6" s="40"/>
-      <c r="AU6" s="40"/>
-      <c r="AV6" s="40"/>
-      <c r="AW6" s="40"/>
-      <c r="AX6" s="40"/>
-      <c r="AY6" s="40"/>
-      <c r="AZ6" s="40"/>
-      <c r="BA6" s="40"/>
-      <c r="BB6" s="40"/>
-      <c r="BC6" s="40"/>
-      <c r="BD6" s="40"/>
-      <c r="BE6" s="40"/>
-      <c r="BF6" s="40"/>
-      <c r="BG6" s="40"/>
-      <c r="BH6" s="40"/>
-      <c r="BI6" s="40"/>
-      <c r="BJ6" s="40"/>
-      <c r="BK6" s="40"/>
-      <c r="BL6" s="40"/>
-      <c r="BM6" s="40"/>
-      <c r="BN6" s="40"/>
-      <c r="BO6" s="40"/>
-      <c r="BP6" s="40"/>
-      <c r="BQ6" s="40"/>
-      <c r="BR6" s="40"/>
-      <c r="BS6" s="40"/>
-      <c r="BT6" s="40"/>
-      <c r="BU6" s="40"/>
-      <c r="BV6" s="40"/>
-      <c r="BW6" s="40"/>
-      <c r="BX6" s="40"/>
-      <c r="BY6" s="40"/>
-      <c r="BZ6" s="40"/>
-      <c r="CA6" s="40"/>
-      <c r="CB6" s="40"/>
-      <c r="CC6" s="40"/>
-      <c r="CD6" s="40"/>
-      <c r="CE6" s="40"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
+      <c r="O6" s="34"/>
+      <c r="P6" s="34"/>
+      <c r="Q6" s="34"/>
+      <c r="R6" s="34"/>
+      <c r="S6" s="34"/>
+      <c r="T6" s="34"/>
+      <c r="U6" s="34"/>
+      <c r="V6" s="34"/>
+      <c r="W6" s="34"/>
+      <c r="X6" s="34"/>
+      <c r="Y6" s="34"/>
+      <c r="Z6" s="34"/>
+      <c r="AA6" s="34"/>
+      <c r="AB6" s="34"/>
+      <c r="AC6" s="34"/>
+      <c r="AD6" s="34"/>
+      <c r="AE6" s="34"/>
+      <c r="AF6" s="34"/>
+      <c r="AG6" s="34"/>
+      <c r="AH6" s="34"/>
+      <c r="AI6" s="34"/>
+      <c r="AJ6" s="34"/>
+      <c r="AK6" s="34"/>
+      <c r="AL6" s="34"/>
+      <c r="AM6" s="34"/>
+      <c r="AN6" s="34"/>
+      <c r="AO6" s="34"/>
+      <c r="AP6" s="34"/>
+      <c r="AQ6" s="34"/>
+      <c r="AR6" s="34"/>
+      <c r="AS6" s="34"/>
+      <c r="AT6" s="34"/>
+      <c r="AU6" s="34"/>
+      <c r="AV6" s="34"/>
+      <c r="AW6" s="34"/>
+      <c r="AX6" s="34"/>
+      <c r="AY6" s="34"/>
+      <c r="AZ6" s="34"/>
+      <c r="BA6" s="34"/>
+      <c r="BB6" s="34"/>
+      <c r="BC6" s="34"/>
+      <c r="BD6" s="34"/>
+      <c r="BE6" s="34"/>
+      <c r="BF6" s="34"/>
+      <c r="BG6" s="34"/>
+      <c r="BH6" s="34"/>
+      <c r="BI6" s="34"/>
+      <c r="BJ6" s="34"/>
+      <c r="BK6" s="34"/>
+      <c r="BL6" s="34"/>
+      <c r="BM6" s="34"/>
+      <c r="BN6" s="34"/>
+      <c r="BO6" s="34"/>
+      <c r="BP6" s="34"/>
+      <c r="BQ6" s="34"/>
+      <c r="BR6" s="34"/>
+      <c r="BS6" s="34"/>
+      <c r="BT6" s="34"/>
+      <c r="BU6" s="34"/>
+      <c r="BV6" s="34"/>
+      <c r="BW6" s="34"/>
+      <c r="BX6" s="34"/>
+      <c r="BY6" s="34"/>
+      <c r="BZ6" s="34"/>
+      <c r="CA6" s="34"/>
+      <c r="CB6" s="34"/>
+      <c r="CC6" s="34"/>
+      <c r="CD6" s="34"/>
+      <c r="CE6" s="34"/>
     </row>
     <row r="7" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7"/>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="42"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="82"/>
-      <c r="G7" s="79"/>
-      <c r="H7" s="79"/>
-      <c r="I7" s="79"/>
-      <c r="J7" s="79"/>
-      <c r="K7" s="79"/>
-      <c r="L7" s="79"/>
-      <c r="M7" s="79"/>
-      <c r="N7" s="79"/>
-      <c r="O7" s="79"/>
-      <c r="P7" s="79"/>
-      <c r="Q7" s="79"/>
-      <c r="R7" s="79"/>
-      <c r="S7" s="79"/>
-      <c r="T7" s="79"/>
-      <c r="U7" s="79"/>
-      <c r="V7" s="79"/>
-      <c r="W7" s="79"/>
-      <c r="X7" s="79"/>
-      <c r="Y7" s="79"/>
-      <c r="Z7" s="79"/>
-      <c r="AA7" s="79"/>
-      <c r="AB7" s="79"/>
-      <c r="AC7" s="79"/>
-      <c r="AD7" s="79"/>
-      <c r="AE7" s="79"/>
-      <c r="AF7" s="79"/>
-      <c r="AG7" s="79"/>
-      <c r="AH7" s="79"/>
-      <c r="AI7" s="79"/>
-      <c r="AJ7" s="79"/>
-      <c r="AK7" s="79"/>
-      <c r="AL7" s="79"/>
-      <c r="AM7" s="79"/>
-      <c r="AN7" s="79"/>
-      <c r="AO7" s="79"/>
-      <c r="AP7" s="79"/>
-      <c r="AQ7" s="79"/>
-      <c r="AR7" s="79"/>
-      <c r="AS7" s="79"/>
-      <c r="AT7" s="79"/>
-      <c r="AU7" s="79"/>
-      <c r="AV7" s="79"/>
-      <c r="AW7" s="79"/>
-      <c r="AX7" s="79"/>
-      <c r="AY7" s="79"/>
-      <c r="AZ7" s="79"/>
-      <c r="BA7" s="79"/>
-      <c r="BB7" s="79"/>
-      <c r="BC7" s="79"/>
-      <c r="BD7" s="79"/>
-      <c r="BE7" s="79"/>
-      <c r="BF7" s="79"/>
-      <c r="BG7" s="79"/>
-      <c r="BH7" s="79"/>
-      <c r="BI7" s="79"/>
-      <c r="BJ7" s="79"/>
-      <c r="BK7" s="79"/>
-      <c r="BL7" s="79"/>
-      <c r="BM7" s="79"/>
-      <c r="BN7" s="79"/>
-      <c r="BO7" s="79"/>
-      <c r="BP7" s="79"/>
-      <c r="BQ7" s="79"/>
-      <c r="BR7" s="79"/>
-      <c r="BS7" s="79"/>
-      <c r="BT7" s="79"/>
-      <c r="BU7" s="79"/>
-      <c r="BV7" s="79"/>
-      <c r="BW7" s="79"/>
-      <c r="BX7" s="79"/>
-      <c r="BY7" s="79"/>
-      <c r="BZ7" s="79"/>
-      <c r="CA7" s="79"/>
-      <c r="CB7" s="79"/>
-      <c r="CC7" s="79"/>
-      <c r="CD7" s="79"/>
-      <c r="CE7" s="79"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="69"/>
+      <c r="J7" s="69"/>
+      <c r="K7" s="69"/>
+      <c r="L7" s="69"/>
+      <c r="M7" s="69"/>
+      <c r="N7" s="69"/>
+      <c r="O7" s="69"/>
+      <c r="P7" s="69"/>
+      <c r="Q7" s="69"/>
+      <c r="R7" s="69"/>
+      <c r="S7" s="69"/>
+      <c r="T7" s="69"/>
+      <c r="U7" s="69"/>
+      <c r="V7" s="69"/>
+      <c r="W7" s="69"/>
+      <c r="X7" s="69"/>
+      <c r="Y7" s="69"/>
+      <c r="Z7" s="69"/>
+      <c r="AA7" s="69"/>
+      <c r="AB7" s="69"/>
+      <c r="AC7" s="69"/>
+      <c r="AD7" s="69"/>
+      <c r="AE7" s="69"/>
+      <c r="AF7" s="69"/>
+      <c r="AG7" s="69"/>
+      <c r="AH7" s="69"/>
+      <c r="AI7" s="69"/>
+      <c r="AJ7" s="69"/>
+      <c r="AK7" s="69"/>
+      <c r="AL7" s="69"/>
+      <c r="AM7" s="69"/>
+      <c r="AN7" s="69"/>
+      <c r="AO7" s="69"/>
+      <c r="AP7" s="69"/>
+      <c r="AQ7" s="69"/>
+      <c r="AR7" s="69"/>
+      <c r="AS7" s="69"/>
+      <c r="AT7" s="69"/>
+      <c r="AU7" s="69"/>
+      <c r="AV7" s="69"/>
+      <c r="AW7" s="69"/>
+      <c r="AX7" s="69"/>
+      <c r="AY7" s="69"/>
+      <c r="AZ7" s="69"/>
+      <c r="BA7" s="69"/>
+      <c r="BB7" s="69"/>
+      <c r="BC7" s="69"/>
+      <c r="BD7" s="69"/>
+      <c r="BE7" s="69"/>
+      <c r="BF7" s="69"/>
+      <c r="BG7" s="69"/>
+      <c r="BH7" s="69"/>
+      <c r="BI7" s="69"/>
+      <c r="BJ7" s="69"/>
+      <c r="BK7" s="69"/>
+      <c r="BL7" s="69"/>
+      <c r="BM7" s="69"/>
+      <c r="BN7" s="69"/>
+      <c r="BO7" s="69"/>
+      <c r="BP7" s="69"/>
+      <c r="BQ7" s="69"/>
+      <c r="BR7" s="69"/>
+      <c r="BS7" s="69"/>
+      <c r="BT7" s="69"/>
+      <c r="BU7" s="69"/>
+      <c r="BV7" s="69"/>
+      <c r="BW7" s="69"/>
+      <c r="BX7" s="69"/>
+      <c r="BY7" s="69"/>
+      <c r="BZ7" s="69"/>
+      <c r="CA7" s="69"/>
+      <c r="CB7" s="69"/>
+      <c r="CC7" s="69"/>
+      <c r="CD7" s="69"/>
+      <c r="CE7" s="69"/>
     </row>
     <row r="8" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="7"/>
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="48" t="s">
+      <c r="C8" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="49">
+      <c r="D8" s="42">
         <v>45197</v>
       </c>
-      <c r="E8" s="49">
+      <c r="E8" s="42">
         <f>D8+5</f>
         <v>45202</v>
       </c>
-      <c r="F8" s="83"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="51"/>
-      <c r="L8" s="51"/>
-      <c r="M8" s="92"/>
-      <c r="N8" s="92"/>
-      <c r="O8" s="93"/>
-      <c r="P8" s="40"/>
-      <c r="Q8" s="50"/>
-      <c r="R8" s="40"/>
-      <c r="S8" s="52"/>
-      <c r="T8" s="53"/>
-      <c r="U8" s="54"/>
-      <c r="V8" s="40"/>
-      <c r="W8" s="40"/>
-      <c r="X8" s="40"/>
-      <c r="Y8" s="40"/>
-      <c r="Z8" s="45"/>
-      <c r="AA8" s="45"/>
-      <c r="AB8" s="40"/>
-      <c r="AC8" s="40"/>
-      <c r="AD8" s="40"/>
-      <c r="AE8" s="40"/>
-      <c r="AF8" s="40"/>
-      <c r="AG8" s="45"/>
-      <c r="AH8" s="45"/>
-      <c r="AI8" s="40"/>
-      <c r="AJ8" s="40"/>
-      <c r="AK8" s="40"/>
-      <c r="AL8" s="40"/>
-      <c r="AM8" s="40"/>
-      <c r="AN8" s="45"/>
-      <c r="AO8" s="45"/>
-      <c r="AP8" s="40"/>
-      <c r="AQ8" s="40"/>
-      <c r="AR8" s="40"/>
-      <c r="AS8" s="40"/>
-      <c r="AT8" s="40"/>
-      <c r="AU8" s="45"/>
-      <c r="AV8" s="45"/>
-      <c r="AW8" s="40"/>
-      <c r="AX8" s="40"/>
-      <c r="AY8" s="40"/>
-      <c r="AZ8" s="40"/>
-      <c r="BA8" s="40"/>
-      <c r="BB8" s="45"/>
-      <c r="BC8" s="45"/>
-      <c r="BD8" s="40"/>
-      <c r="BE8" s="40"/>
-      <c r="BF8" s="40"/>
-      <c r="BG8" s="40"/>
-      <c r="BH8" s="40"/>
-      <c r="BI8" s="45"/>
-      <c r="BJ8" s="45"/>
-      <c r="BK8" s="40"/>
-      <c r="BL8" s="40"/>
-      <c r="BM8" s="40"/>
-      <c r="BN8" s="40"/>
-      <c r="BO8" s="40"/>
-      <c r="BP8" s="45"/>
-      <c r="BQ8" s="45"/>
-      <c r="BR8" s="40"/>
-      <c r="BS8" s="40"/>
-      <c r="BT8" s="40"/>
-      <c r="BU8" s="40"/>
-      <c r="BV8" s="40"/>
-      <c r="BW8" s="45"/>
-      <c r="BX8" s="45"/>
-      <c r="BY8" s="40"/>
-      <c r="BZ8" s="40"/>
-      <c r="CA8" s="40"/>
-      <c r="CB8" s="40"/>
-      <c r="CC8" s="40"/>
-      <c r="CD8" s="45"/>
-      <c r="CE8" s="45"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="91"/>
+      <c r="N8" s="91"/>
+      <c r="O8" s="92"/>
+      <c r="P8" s="34"/>
+      <c r="Q8" s="43"/>
+      <c r="R8" s="34"/>
+      <c r="S8" s="86"/>
+      <c r="T8" s="87"/>
+      <c r="U8" s="88"/>
+      <c r="V8" s="34"/>
+      <c r="W8" s="34"/>
+      <c r="X8" s="34"/>
+      <c r="Y8" s="34"/>
+      <c r="Z8" s="39"/>
+      <c r="AA8" s="39"/>
+      <c r="AB8" s="34"/>
+      <c r="AC8" s="34"/>
+      <c r="AD8" s="34"/>
+      <c r="AE8" s="34"/>
+      <c r="AF8" s="34"/>
+      <c r="AG8" s="39"/>
+      <c r="AH8" s="39"/>
+      <c r="AI8" s="34"/>
+      <c r="AJ8" s="34"/>
+      <c r="AK8" s="34"/>
+      <c r="AL8" s="34"/>
+      <c r="AM8" s="34"/>
+      <c r="AN8" s="39"/>
+      <c r="AO8" s="39"/>
+      <c r="AP8" s="34"/>
+      <c r="AQ8" s="34"/>
+      <c r="AR8" s="34"/>
+      <c r="AS8" s="34"/>
+      <c r="AT8" s="34"/>
+      <c r="AU8" s="39"/>
+      <c r="AV8" s="39"/>
+      <c r="AW8" s="34"/>
+      <c r="AX8" s="34"/>
+      <c r="AY8" s="34"/>
+      <c r="AZ8" s="34"/>
+      <c r="BA8" s="34"/>
+      <c r="BB8" s="39"/>
+      <c r="BC8" s="39"/>
+      <c r="BD8" s="34"/>
+      <c r="BE8" s="34"/>
+      <c r="BF8" s="34"/>
+      <c r="BG8" s="34"/>
+      <c r="BH8" s="34"/>
+      <c r="BI8" s="39"/>
+      <c r="BJ8" s="39"/>
+      <c r="BK8" s="34"/>
+      <c r="BL8" s="34"/>
+      <c r="BM8" s="34"/>
+      <c r="BN8" s="34"/>
+      <c r="BO8" s="34"/>
+      <c r="BP8" s="39"/>
+      <c r="BQ8" s="39"/>
+      <c r="BR8" s="34"/>
+      <c r="BS8" s="34"/>
+      <c r="BT8" s="34"/>
+      <c r="BU8" s="34"/>
+      <c r="BV8" s="34"/>
+      <c r="BW8" s="39"/>
+      <c r="BX8" s="39"/>
+      <c r="BY8" s="34"/>
+      <c r="BZ8" s="34"/>
+      <c r="CA8" s="34"/>
+      <c r="CB8" s="34"/>
+      <c r="CC8" s="34"/>
+      <c r="CD8" s="39"/>
+      <c r="CE8" s="39"/>
     </row>
     <row r="9" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="7"/>
-      <c r="B9" s="47" t="s">
+      <c r="B9" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="48" t="s">
+      <c r="C9" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="49">
+      <c r="D9" s="42">
         <v>45209</v>
       </c>
-      <c r="E9" s="49">
+      <c r="E9" s="42">
         <f>D9+1</f>
         <v>45210</v>
       </c>
-      <c r="F9" s="83"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="45"/>
-      <c r="M9" s="45"/>
-      <c r="N9" s="40"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="40"/>
-      <c r="Q9" s="40"/>
-      <c r="R9" s="40"/>
-      <c r="S9" s="45"/>
-      <c r="T9" s="45"/>
-      <c r="U9" s="40"/>
-      <c r="V9" s="55"/>
-      <c r="W9" s="55"/>
-      <c r="X9" s="40"/>
-      <c r="Y9" s="40"/>
-      <c r="Z9" s="45"/>
-      <c r="AA9" s="45"/>
-      <c r="AB9" s="40"/>
-      <c r="AC9" s="40"/>
-      <c r="AD9" s="40"/>
-      <c r="AE9" s="40"/>
-      <c r="AF9" s="40"/>
-      <c r="AG9" s="45"/>
-      <c r="AH9" s="45"/>
-      <c r="AI9" s="40"/>
-      <c r="AJ9" s="40"/>
-      <c r="AK9" s="40"/>
-      <c r="AL9" s="40"/>
-      <c r="AM9" s="40"/>
-      <c r="AN9" s="45"/>
-      <c r="AO9" s="45"/>
-      <c r="AP9" s="40"/>
-      <c r="AQ9" s="40"/>
-      <c r="AR9" s="40"/>
-      <c r="AS9" s="40"/>
-      <c r="AT9" s="40"/>
-      <c r="AU9" s="45"/>
-      <c r="AV9" s="45"/>
-      <c r="AW9" s="40"/>
-      <c r="AX9" s="40"/>
-      <c r="AY9" s="40"/>
-      <c r="AZ9" s="40"/>
-      <c r="BA9" s="40"/>
-      <c r="BB9" s="45"/>
-      <c r="BC9" s="45"/>
-      <c r="BD9" s="40"/>
-      <c r="BE9" s="40"/>
-      <c r="BF9" s="40"/>
-      <c r="BG9" s="40"/>
-      <c r="BH9" s="40"/>
-      <c r="BI9" s="45"/>
-      <c r="BJ9" s="45"/>
-      <c r="BK9" s="40"/>
-      <c r="BL9" s="40"/>
-      <c r="BM9" s="40"/>
-      <c r="BN9" s="40"/>
-      <c r="BO9" s="40"/>
-      <c r="BP9" s="45"/>
-      <c r="BQ9" s="45"/>
-      <c r="BR9" s="40"/>
-      <c r="BS9" s="40"/>
-      <c r="BT9" s="40"/>
-      <c r="BU9" s="40"/>
-      <c r="BV9" s="40"/>
-      <c r="BW9" s="45"/>
-      <c r="BX9" s="45"/>
-      <c r="BY9" s="40"/>
-      <c r="BZ9" s="40"/>
-      <c r="CA9" s="40"/>
-      <c r="CB9" s="40"/>
-      <c r="CC9" s="40"/>
-      <c r="CD9" s="45"/>
-      <c r="CE9" s="45"/>
+      <c r="F9" s="71"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="34"/>
+      <c r="O9" s="34"/>
+      <c r="P9" s="34"/>
+      <c r="Q9" s="34"/>
+      <c r="R9" s="34"/>
+      <c r="S9" s="39"/>
+      <c r="T9" s="39"/>
+      <c r="U9" s="34"/>
+      <c r="V9" s="45"/>
+      <c r="W9" s="45"/>
+      <c r="X9" s="34"/>
+      <c r="Y9" s="34"/>
+      <c r="Z9" s="39"/>
+      <c r="AA9" s="39"/>
+      <c r="AB9" s="34"/>
+      <c r="AC9" s="34"/>
+      <c r="AD9" s="34"/>
+      <c r="AE9" s="34"/>
+      <c r="AF9" s="34"/>
+      <c r="AG9" s="39"/>
+      <c r="AH9" s="39"/>
+      <c r="AI9" s="34"/>
+      <c r="AJ9" s="34"/>
+      <c r="AK9" s="34"/>
+      <c r="AL9" s="34"/>
+      <c r="AM9" s="34"/>
+      <c r="AN9" s="39"/>
+      <c r="AO9" s="39"/>
+      <c r="AP9" s="34"/>
+      <c r="AQ9" s="34"/>
+      <c r="AR9" s="34"/>
+      <c r="AS9" s="34"/>
+      <c r="AT9" s="34"/>
+      <c r="AU9" s="39"/>
+      <c r="AV9" s="39"/>
+      <c r="AW9" s="34"/>
+      <c r="AX9" s="34"/>
+      <c r="AY9" s="34"/>
+      <c r="AZ9" s="34"/>
+      <c r="BA9" s="34"/>
+      <c r="BB9" s="39"/>
+      <c r="BC9" s="39"/>
+      <c r="BD9" s="34"/>
+      <c r="BE9" s="34"/>
+      <c r="BF9" s="34"/>
+      <c r="BG9" s="34"/>
+      <c r="BH9" s="34"/>
+      <c r="BI9" s="39"/>
+      <c r="BJ9" s="39"/>
+      <c r="BK9" s="34"/>
+      <c r="BL9" s="34"/>
+      <c r="BM9" s="34"/>
+      <c r="BN9" s="34"/>
+      <c r="BO9" s="34"/>
+      <c r="BP9" s="39"/>
+      <c r="BQ9" s="39"/>
+      <c r="BR9" s="34"/>
+      <c r="BS9" s="34"/>
+      <c r="BT9" s="34"/>
+      <c r="BU9" s="34"/>
+      <c r="BV9" s="34"/>
+      <c r="BW9" s="39"/>
+      <c r="BX9" s="39"/>
+      <c r="BY9" s="34"/>
+      <c r="BZ9" s="34"/>
+      <c r="CA9" s="34"/>
+      <c r="CB9" s="34"/>
+      <c r="CC9" s="34"/>
+      <c r="CD9" s="39"/>
+      <c r="CE9" s="39"/>
     </row>
     <row r="10" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="7"/>
-      <c r="B10" s="56" t="s">
+      <c r="B10" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="57"/>
-      <c r="D10" s="58"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="83"/>
-      <c r="G10" s="79"/>
-      <c r="H10" s="79"/>
-      <c r="I10" s="79"/>
-      <c r="J10" s="79"/>
-      <c r="K10" s="79"/>
-      <c r="L10" s="79"/>
-      <c r="M10" s="79"/>
-      <c r="N10" s="79"/>
-      <c r="O10" s="79"/>
-      <c r="P10" s="79"/>
-      <c r="Q10" s="79"/>
-      <c r="R10" s="79"/>
-      <c r="S10" s="79"/>
-      <c r="T10" s="79"/>
-      <c r="U10" s="79"/>
-      <c r="V10" s="79"/>
-      <c r="W10" s="79"/>
-      <c r="X10" s="79"/>
-      <c r="Y10" s="79"/>
-      <c r="Z10" s="79"/>
-      <c r="AA10" s="79"/>
-      <c r="AB10" s="79"/>
-      <c r="AC10" s="79"/>
-      <c r="AD10" s="79"/>
-      <c r="AE10" s="79"/>
-      <c r="AF10" s="79"/>
-      <c r="AG10" s="79"/>
-      <c r="AH10" s="79"/>
-      <c r="AI10" s="79"/>
-      <c r="AJ10" s="79"/>
-      <c r="AK10" s="79"/>
-      <c r="AL10" s="79"/>
-      <c r="AM10" s="79"/>
-      <c r="AN10" s="79"/>
-      <c r="AO10" s="79"/>
-      <c r="AP10" s="79"/>
-      <c r="AQ10" s="79"/>
-      <c r="AR10" s="79"/>
-      <c r="AS10" s="79"/>
-      <c r="AT10" s="79"/>
-      <c r="AU10" s="79"/>
-      <c r="AV10" s="79"/>
-      <c r="AW10" s="79"/>
-      <c r="AX10" s="79"/>
-      <c r="AY10" s="79"/>
-      <c r="AZ10" s="79"/>
-      <c r="BA10" s="79"/>
-      <c r="BB10" s="79"/>
-      <c r="BC10" s="79"/>
-      <c r="BD10" s="79"/>
-      <c r="BE10" s="79"/>
-      <c r="BF10" s="79"/>
-      <c r="BG10" s="79"/>
-      <c r="BH10" s="79"/>
-      <c r="BI10" s="79"/>
-      <c r="BJ10" s="79"/>
-      <c r="BK10" s="79"/>
-      <c r="BL10" s="79"/>
-      <c r="BM10" s="79"/>
-      <c r="BN10" s="79"/>
-      <c r="BO10" s="79"/>
-      <c r="BP10" s="79"/>
-      <c r="BQ10" s="79"/>
-      <c r="BR10" s="79"/>
-      <c r="BS10" s="79"/>
-      <c r="BT10" s="79"/>
-      <c r="BU10" s="79"/>
-      <c r="BV10" s="79"/>
-      <c r="BW10" s="79"/>
-      <c r="BX10" s="79"/>
-      <c r="BY10" s="79"/>
-      <c r="BZ10" s="79"/>
-      <c r="CA10" s="79"/>
-      <c r="CB10" s="79"/>
-      <c r="CC10" s="79"/>
-      <c r="CD10" s="79"/>
-      <c r="CE10" s="79"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="69"/>
+      <c r="H10" s="69"/>
+      <c r="I10" s="69"/>
+      <c r="J10" s="69"/>
+      <c r="K10" s="69"/>
+      <c r="L10" s="69"/>
+      <c r="M10" s="69"/>
+      <c r="N10" s="69"/>
+      <c r="O10" s="69"/>
+      <c r="P10" s="69"/>
+      <c r="Q10" s="69"/>
+      <c r="R10" s="69"/>
+      <c r="S10" s="69"/>
+      <c r="T10" s="69"/>
+      <c r="U10" s="69"/>
+      <c r="V10" s="69"/>
+      <c r="W10" s="69"/>
+      <c r="X10" s="69"/>
+      <c r="Y10" s="69"/>
+      <c r="Z10" s="69"/>
+      <c r="AA10" s="69"/>
+      <c r="AB10" s="69"/>
+      <c r="AC10" s="69"/>
+      <c r="AD10" s="69"/>
+      <c r="AE10" s="69"/>
+      <c r="AF10" s="69"/>
+      <c r="AG10" s="69"/>
+      <c r="AH10" s="69"/>
+      <c r="AI10" s="69"/>
+      <c r="AJ10" s="69"/>
+      <c r="AK10" s="69"/>
+      <c r="AL10" s="69"/>
+      <c r="AM10" s="69"/>
+      <c r="AN10" s="69"/>
+      <c r="AO10" s="69"/>
+      <c r="AP10" s="69"/>
+      <c r="AQ10" s="69"/>
+      <c r="AR10" s="69"/>
+      <c r="AS10" s="69"/>
+      <c r="AT10" s="69"/>
+      <c r="AU10" s="69"/>
+      <c r="AV10" s="69"/>
+      <c r="AW10" s="69"/>
+      <c r="AX10" s="69"/>
+      <c r="AY10" s="69"/>
+      <c r="AZ10" s="69"/>
+      <c r="BA10" s="69"/>
+      <c r="BB10" s="69"/>
+      <c r="BC10" s="69"/>
+      <c r="BD10" s="69"/>
+      <c r="BE10" s="69"/>
+      <c r="BF10" s="69"/>
+      <c r="BG10" s="69"/>
+      <c r="BH10" s="69"/>
+      <c r="BI10" s="69"/>
+      <c r="BJ10" s="69"/>
+      <c r="BK10" s="69"/>
+      <c r="BL10" s="69"/>
+      <c r="BM10" s="69"/>
+      <c r="BN10" s="69"/>
+      <c r="BO10" s="69"/>
+      <c r="BP10" s="69"/>
+      <c r="BQ10" s="69"/>
+      <c r="BR10" s="69"/>
+      <c r="BS10" s="69"/>
+      <c r="BT10" s="69"/>
+      <c r="BU10" s="69"/>
+      <c r="BV10" s="69"/>
+      <c r="BW10" s="69"/>
+      <c r="BX10" s="69"/>
+      <c r="BY10" s="69"/>
+      <c r="BZ10" s="69"/>
+      <c r="CA10" s="69"/>
+      <c r="CB10" s="69"/>
+      <c r="CC10" s="69"/>
+      <c r="CD10" s="69"/>
+      <c r="CE10" s="69"/>
     </row>
     <row r="11" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="7"/>
-      <c r="B11" s="60" t="s">
+      <c r="B11" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="61"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="83"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="40"/>
-      <c r="L11" s="45"/>
-      <c r="M11" s="45"/>
-      <c r="N11" s="40"/>
-      <c r="O11" s="40"/>
-      <c r="P11" s="40"/>
-      <c r="Q11" s="40"/>
-      <c r="R11" s="40"/>
-      <c r="S11" s="45"/>
-      <c r="T11" s="45"/>
-      <c r="U11" s="40"/>
-      <c r="V11" s="40"/>
-      <c r="W11" s="40"/>
-      <c r="X11" s="40"/>
-      <c r="Y11" s="40"/>
-      <c r="Z11" s="45"/>
-      <c r="AA11" s="45"/>
-      <c r="AB11" s="40"/>
-      <c r="AC11" s="40"/>
-      <c r="AD11" s="40"/>
-      <c r="AE11" s="40"/>
-      <c r="AF11" s="40"/>
-      <c r="AG11" s="45"/>
-      <c r="AH11" s="45"/>
-      <c r="AI11" s="40"/>
-      <c r="AJ11" s="40"/>
-      <c r="AK11" s="40"/>
-      <c r="AL11" s="40"/>
-      <c r="AM11" s="40"/>
-      <c r="AN11" s="45"/>
-      <c r="AO11" s="45"/>
-      <c r="AP11" s="40"/>
-      <c r="AQ11" s="40"/>
-      <c r="AR11" s="40"/>
-      <c r="AS11" s="40"/>
-      <c r="AT11" s="40"/>
-      <c r="AU11" s="45"/>
-      <c r="AV11" s="45"/>
-      <c r="AW11" s="40"/>
-      <c r="AX11" s="40"/>
-      <c r="AY11" s="40"/>
-      <c r="AZ11" s="40"/>
-      <c r="BA11" s="40"/>
-      <c r="BB11" s="45"/>
-      <c r="BC11" s="45"/>
-      <c r="BD11" s="40"/>
-      <c r="BE11" s="40"/>
-      <c r="BF11" s="40"/>
-      <c r="BG11" s="40"/>
-      <c r="BH11" s="40"/>
-      <c r="BI11" s="45"/>
-      <c r="BJ11" s="45"/>
-      <c r="BK11" s="40"/>
-      <c r="BL11" s="40"/>
-      <c r="BM11" s="40"/>
-      <c r="BN11" s="40"/>
-      <c r="BO11" s="40"/>
-      <c r="BP11" s="45"/>
-      <c r="BQ11" s="45"/>
-      <c r="BR11" s="40"/>
-      <c r="BS11" s="40"/>
-      <c r="BT11" s="40"/>
-      <c r="BU11" s="40"/>
-      <c r="BV11" s="40"/>
-      <c r="BW11" s="45"/>
-      <c r="BX11" s="45"/>
-      <c r="BY11" s="40"/>
-      <c r="BZ11" s="40"/>
-      <c r="CA11" s="40"/>
-      <c r="CB11" s="40"/>
-      <c r="CC11" s="40"/>
-      <c r="CD11" s="45"/>
-      <c r="CE11" s="45"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="52">
+        <v>45214</v>
+      </c>
+      <c r="E11" s="52">
+        <v>45219</v>
+      </c>
+      <c r="F11" s="71"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="39"/>
+      <c r="N11" s="34"/>
+      <c r="O11" s="34"/>
+      <c r="P11" s="34"/>
+      <c r="Q11" s="34"/>
+      <c r="R11" s="34"/>
+      <c r="S11" s="39"/>
+      <c r="T11" s="39"/>
+      <c r="U11" s="34"/>
+      <c r="V11" s="34"/>
+      <c r="W11" s="34"/>
+      <c r="X11" s="34"/>
+      <c r="Y11" s="34"/>
+      <c r="Z11" s="39"/>
+      <c r="AA11" s="39"/>
+      <c r="AB11" s="34"/>
+      <c r="AC11" s="34"/>
+      <c r="AD11" s="34"/>
+      <c r="AE11" s="34"/>
+      <c r="AF11" s="34"/>
+      <c r="AG11" s="39"/>
+      <c r="AH11" s="39"/>
+      <c r="AI11" s="34"/>
+      <c r="AJ11" s="34"/>
+      <c r="AK11" s="34"/>
+      <c r="AL11" s="34"/>
+      <c r="AM11" s="34"/>
+      <c r="AN11" s="39"/>
+      <c r="AO11" s="39"/>
+      <c r="AP11" s="34"/>
+      <c r="AQ11" s="34"/>
+      <c r="AR11" s="34"/>
+      <c r="AS11" s="34"/>
+      <c r="AT11" s="34"/>
+      <c r="AU11" s="39"/>
+      <c r="AV11" s="39"/>
+      <c r="AW11" s="34"/>
+      <c r="AX11" s="34"/>
+      <c r="AY11" s="34"/>
+      <c r="AZ11" s="34"/>
+      <c r="BA11" s="34"/>
+      <c r="BB11" s="39"/>
+      <c r="BC11" s="39"/>
+      <c r="BD11" s="34"/>
+      <c r="BE11" s="34"/>
+      <c r="BF11" s="34"/>
+      <c r="BG11" s="34"/>
+      <c r="BH11" s="34"/>
+      <c r="BI11" s="39"/>
+      <c r="BJ11" s="39"/>
+      <c r="BK11" s="34"/>
+      <c r="BL11" s="34"/>
+      <c r="BM11" s="34"/>
+      <c r="BN11" s="34"/>
+      <c r="BO11" s="34"/>
+      <c r="BP11" s="39"/>
+      <c r="BQ11" s="39"/>
+      <c r="BR11" s="34"/>
+      <c r="BS11" s="34"/>
+      <c r="BT11" s="34"/>
+      <c r="BU11" s="34"/>
+      <c r="BV11" s="34"/>
+      <c r="BW11" s="39"/>
+      <c r="BX11" s="39"/>
+      <c r="BY11" s="34"/>
+      <c r="BZ11" s="34"/>
+      <c r="CA11" s="34"/>
+      <c r="CB11" s="34"/>
+      <c r="CC11" s="34"/>
+      <c r="CD11" s="39"/>
+      <c r="CE11" s="39"/>
     </row>
     <row r="12" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="7"/>
-      <c r="B12" s="60" t="s">
+      <c r="B12" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="61"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="83"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="40"/>
-      <c r="L12" s="45"/>
-      <c r="M12" s="45"/>
-      <c r="N12" s="40"/>
-      <c r="O12" s="40"/>
-      <c r="P12" s="40"/>
-      <c r="Q12" s="40"/>
-      <c r="R12" s="40"/>
-      <c r="S12" s="45"/>
-      <c r="T12" s="45"/>
-      <c r="U12" s="40"/>
-      <c r="V12" s="40"/>
-      <c r="W12" s="40"/>
-      <c r="X12" s="40"/>
-      <c r="Y12" s="40"/>
-      <c r="Z12" s="45"/>
-      <c r="AA12" s="45"/>
-      <c r="AB12" s="40"/>
-      <c r="AC12" s="40"/>
-      <c r="AD12" s="40"/>
-      <c r="AE12" s="40"/>
-      <c r="AF12" s="40"/>
-      <c r="AG12" s="45"/>
-      <c r="AH12" s="45"/>
-      <c r="AI12" s="40"/>
-      <c r="AJ12" s="40"/>
-      <c r="AK12" s="40"/>
-      <c r="AL12" s="40"/>
-      <c r="AM12" s="40"/>
-      <c r="AN12" s="45"/>
-      <c r="AO12" s="45"/>
-      <c r="AP12" s="40"/>
-      <c r="AQ12" s="40"/>
-      <c r="AR12" s="40"/>
-      <c r="AS12" s="40"/>
-      <c r="AT12" s="40"/>
-      <c r="AU12" s="45"/>
-      <c r="AV12" s="45"/>
-      <c r="AW12" s="40"/>
-      <c r="AX12" s="40"/>
-      <c r="AY12" s="40"/>
-      <c r="AZ12" s="40"/>
-      <c r="BA12" s="40"/>
-      <c r="BB12" s="45"/>
-      <c r="BC12" s="45"/>
-      <c r="BD12" s="40"/>
-      <c r="BE12" s="40"/>
-      <c r="BF12" s="40"/>
-      <c r="BG12" s="40"/>
-      <c r="BH12" s="40"/>
-      <c r="BI12" s="45"/>
-      <c r="BJ12" s="45"/>
-      <c r="BK12" s="40"/>
-      <c r="BL12" s="40"/>
-      <c r="BM12" s="40"/>
-      <c r="BN12" s="40"/>
-      <c r="BO12" s="40"/>
-      <c r="BP12" s="45"/>
-      <c r="BQ12" s="45"/>
-      <c r="BR12" s="40"/>
-      <c r="BS12" s="40"/>
-      <c r="BT12" s="40"/>
-      <c r="BU12" s="40"/>
-      <c r="BV12" s="40"/>
-      <c r="BW12" s="45"/>
-      <c r="BX12" s="45"/>
-      <c r="BY12" s="40"/>
-      <c r="BZ12" s="40"/>
-      <c r="CA12" s="40"/>
-      <c r="CB12" s="40"/>
-      <c r="CC12" s="40"/>
-      <c r="CD12" s="45"/>
-      <c r="CE12" s="45"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="52">
+        <v>45215</v>
+      </c>
+      <c r="E12" s="52">
+        <v>45220</v>
+      </c>
+      <c r="F12" s="71"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="39"/>
+      <c r="N12" s="34"/>
+      <c r="O12" s="34"/>
+      <c r="P12" s="34"/>
+      <c r="Q12" s="34"/>
+      <c r="R12" s="34"/>
+      <c r="S12" s="39"/>
+      <c r="T12" s="39"/>
+      <c r="U12" s="34"/>
+      <c r="V12" s="34"/>
+      <c r="W12" s="34"/>
+      <c r="X12" s="34"/>
+      <c r="Y12" s="34"/>
+      <c r="Z12" s="39"/>
+      <c r="AA12" s="39"/>
+      <c r="AB12" s="34"/>
+      <c r="AC12" s="34"/>
+      <c r="AD12" s="34"/>
+      <c r="AE12" s="34"/>
+      <c r="AF12" s="34"/>
+      <c r="AG12" s="39"/>
+      <c r="AH12" s="39"/>
+      <c r="AI12" s="34"/>
+      <c r="AJ12" s="34"/>
+      <c r="AK12" s="34"/>
+      <c r="AL12" s="34"/>
+      <c r="AM12" s="34"/>
+      <c r="AN12" s="39"/>
+      <c r="AO12" s="39"/>
+      <c r="AP12" s="34"/>
+      <c r="AQ12" s="34"/>
+      <c r="AR12" s="34"/>
+      <c r="AS12" s="34"/>
+      <c r="AT12" s="34"/>
+      <c r="AU12" s="39"/>
+      <c r="AV12" s="39"/>
+      <c r="AW12" s="34"/>
+      <c r="AX12" s="34"/>
+      <c r="AY12" s="34"/>
+      <c r="AZ12" s="34"/>
+      <c r="BA12" s="34"/>
+      <c r="BB12" s="39"/>
+      <c r="BC12" s="39"/>
+      <c r="BD12" s="34"/>
+      <c r="BE12" s="34"/>
+      <c r="BF12" s="34"/>
+      <c r="BG12" s="34"/>
+      <c r="BH12" s="34"/>
+      <c r="BI12" s="39"/>
+      <c r="BJ12" s="39"/>
+      <c r="BK12" s="34"/>
+      <c r="BL12" s="34"/>
+      <c r="BM12" s="34"/>
+      <c r="BN12" s="34"/>
+      <c r="BO12" s="34"/>
+      <c r="BP12" s="39"/>
+      <c r="BQ12" s="39"/>
+      <c r="BR12" s="34"/>
+      <c r="BS12" s="34"/>
+      <c r="BT12" s="34"/>
+      <c r="BU12" s="34"/>
+      <c r="BV12" s="34"/>
+      <c r="BW12" s="39"/>
+      <c r="BX12" s="39"/>
+      <c r="BY12" s="34"/>
+      <c r="BZ12" s="34"/>
+      <c r="CA12" s="34"/>
+      <c r="CB12" s="34"/>
+      <c r="CC12" s="34"/>
+      <c r="CD12" s="39"/>
+      <c r="CE12" s="39"/>
     </row>
     <row r="13" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="7"/>
-      <c r="B13" s="60" t="s">
+      <c r="B13" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="61"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="83"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="40"/>
-      <c r="L13" s="45"/>
-      <c r="M13" s="45"/>
-      <c r="N13" s="40"/>
-      <c r="O13" s="40"/>
-      <c r="P13" s="40"/>
-      <c r="Q13" s="40"/>
-      <c r="R13" s="40"/>
-      <c r="S13" s="45"/>
-      <c r="T13" s="45"/>
-      <c r="U13" s="40"/>
-      <c r="V13" s="40"/>
-      <c r="W13" s="40"/>
-      <c r="X13" s="40"/>
-      <c r="Y13" s="40"/>
-      <c r="Z13" s="45"/>
-      <c r="AA13" s="45"/>
-      <c r="AB13" s="40"/>
-      <c r="AC13" s="40"/>
-      <c r="AD13" s="40"/>
-      <c r="AE13" s="40"/>
-      <c r="AF13" s="40"/>
-      <c r="AG13" s="45"/>
-      <c r="AH13" s="45"/>
-      <c r="AI13" s="40"/>
-      <c r="AJ13" s="40"/>
-      <c r="AK13" s="40"/>
-      <c r="AL13" s="40"/>
-      <c r="AM13" s="40"/>
-      <c r="AN13" s="45"/>
-      <c r="AO13" s="45"/>
-      <c r="AP13" s="40"/>
-      <c r="AQ13" s="40"/>
-      <c r="AR13" s="40"/>
-      <c r="AS13" s="40"/>
-      <c r="AT13" s="40"/>
-      <c r="AU13" s="45"/>
-      <c r="AV13" s="45"/>
-      <c r="AW13" s="40"/>
-      <c r="AX13" s="40"/>
-      <c r="AY13" s="40"/>
-      <c r="AZ13" s="40"/>
-      <c r="BA13" s="40"/>
-      <c r="BB13" s="45"/>
-      <c r="BC13" s="45"/>
-      <c r="BD13" s="40"/>
-      <c r="BE13" s="40"/>
-      <c r="BF13" s="40"/>
-      <c r="BG13" s="40"/>
-      <c r="BH13" s="40"/>
-      <c r="BI13" s="45"/>
-      <c r="BJ13" s="45"/>
-      <c r="BK13" s="40"/>
-      <c r="BL13" s="40"/>
-      <c r="BM13" s="40"/>
-      <c r="BN13" s="40"/>
-      <c r="BO13" s="40"/>
-      <c r="BP13" s="45"/>
-      <c r="BQ13" s="45"/>
-      <c r="BR13" s="40"/>
-      <c r="BS13" s="40"/>
-      <c r="BT13" s="40"/>
-      <c r="BU13" s="40"/>
-      <c r="BV13" s="40"/>
-      <c r="BW13" s="45"/>
-      <c r="BX13" s="45"/>
-      <c r="BY13" s="40"/>
-      <c r="BZ13" s="40"/>
-      <c r="CA13" s="40"/>
-      <c r="CB13" s="40"/>
-      <c r="CC13" s="40"/>
-      <c r="CD13" s="45"/>
-      <c r="CE13" s="45"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="52">
+        <v>45216</v>
+      </c>
+      <c r="E13" s="52">
+        <v>45221</v>
+      </c>
+      <c r="F13" s="71"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="39"/>
+      <c r="N13" s="34"/>
+      <c r="O13" s="34"/>
+      <c r="P13" s="34"/>
+      <c r="Q13" s="34"/>
+      <c r="R13" s="34"/>
+      <c r="S13" s="39"/>
+      <c r="T13" s="39"/>
+      <c r="U13" s="34"/>
+      <c r="V13" s="34"/>
+      <c r="W13" s="34"/>
+      <c r="X13" s="34"/>
+      <c r="Y13" s="34"/>
+      <c r="Z13" s="39"/>
+      <c r="AA13" s="39"/>
+      <c r="AB13" s="34"/>
+      <c r="AC13" s="34"/>
+      <c r="AD13" s="34"/>
+      <c r="AE13" s="34"/>
+      <c r="AF13" s="34"/>
+      <c r="AG13" s="39"/>
+      <c r="AH13" s="39"/>
+      <c r="AI13" s="34"/>
+      <c r="AJ13" s="34"/>
+      <c r="AK13" s="34"/>
+      <c r="AL13" s="34"/>
+      <c r="AM13" s="34"/>
+      <c r="AN13" s="39"/>
+      <c r="AO13" s="39"/>
+      <c r="AP13" s="34"/>
+      <c r="AQ13" s="34"/>
+      <c r="AR13" s="34"/>
+      <c r="AS13" s="34"/>
+      <c r="AT13" s="34"/>
+      <c r="AU13" s="39"/>
+      <c r="AV13" s="39"/>
+      <c r="AW13" s="34"/>
+      <c r="AX13" s="34"/>
+      <c r="AY13" s="34"/>
+      <c r="AZ13" s="34"/>
+      <c r="BA13" s="34"/>
+      <c r="BB13" s="39"/>
+      <c r="BC13" s="39"/>
+      <c r="BD13" s="34"/>
+      <c r="BE13" s="34"/>
+      <c r="BF13" s="34"/>
+      <c r="BG13" s="34"/>
+      <c r="BH13" s="34"/>
+      <c r="BI13" s="39"/>
+      <c r="BJ13" s="39"/>
+      <c r="BK13" s="34"/>
+      <c r="BL13" s="34"/>
+      <c r="BM13" s="34"/>
+      <c r="BN13" s="34"/>
+      <c r="BO13" s="34"/>
+      <c r="BP13" s="39"/>
+      <c r="BQ13" s="39"/>
+      <c r="BR13" s="34"/>
+      <c r="BS13" s="34"/>
+      <c r="BT13" s="34"/>
+      <c r="BU13" s="34"/>
+      <c r="BV13" s="34"/>
+      <c r="BW13" s="39"/>
+      <c r="BX13" s="39"/>
+      <c r="BY13" s="34"/>
+      <c r="BZ13" s="34"/>
+      <c r="CA13" s="34"/>
+      <c r="CB13" s="34"/>
+      <c r="CC13" s="34"/>
+      <c r="CD13" s="39"/>
+      <c r="CE13" s="39"/>
     </row>
     <row r="14" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="7"/>
-      <c r="B14" s="60" t="s">
+      <c r="B14" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="61"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="83"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="40"/>
-      <c r="L14" s="45"/>
-      <c r="M14" s="45"/>
-      <c r="N14" s="40"/>
-      <c r="O14" s="40"/>
-      <c r="P14" s="40"/>
-      <c r="Q14" s="40"/>
-      <c r="R14" s="40"/>
-      <c r="S14" s="45"/>
-      <c r="T14" s="45"/>
-      <c r="U14" s="40"/>
-      <c r="V14" s="40"/>
-      <c r="W14" s="40"/>
-      <c r="X14" s="40"/>
-      <c r="Y14" s="40"/>
-      <c r="Z14" s="45"/>
-      <c r="AA14" s="45"/>
-      <c r="AB14" s="40"/>
-      <c r="AC14" s="40"/>
-      <c r="AD14" s="40"/>
-      <c r="AE14" s="40"/>
-      <c r="AF14" s="40"/>
-      <c r="AG14" s="45"/>
-      <c r="AH14" s="45"/>
-      <c r="AI14" s="40"/>
-      <c r="AJ14" s="40"/>
-      <c r="AK14" s="40"/>
-      <c r="AL14" s="40"/>
-      <c r="AM14" s="40"/>
-      <c r="AN14" s="45"/>
-      <c r="AO14" s="45"/>
-      <c r="AP14" s="40"/>
-      <c r="AQ14" s="40"/>
-      <c r="AR14" s="40"/>
-      <c r="AS14" s="40"/>
-      <c r="AT14" s="40"/>
-      <c r="AU14" s="45"/>
-      <c r="AV14" s="45"/>
-      <c r="AW14" s="40"/>
-      <c r="AX14" s="40"/>
-      <c r="AY14" s="40"/>
-      <c r="AZ14" s="40"/>
-      <c r="BA14" s="40"/>
-      <c r="BB14" s="45"/>
-      <c r="BC14" s="45"/>
-      <c r="BD14" s="40"/>
-      <c r="BE14" s="40"/>
-      <c r="BF14" s="40"/>
-      <c r="BG14" s="40"/>
-      <c r="BH14" s="40"/>
-      <c r="BI14" s="45"/>
-      <c r="BJ14" s="45"/>
-      <c r="BK14" s="40"/>
-      <c r="BL14" s="40"/>
-      <c r="BM14" s="40"/>
-      <c r="BN14" s="40"/>
-      <c r="BO14" s="40"/>
-      <c r="BP14" s="45"/>
-      <c r="BQ14" s="45"/>
-      <c r="BR14" s="40"/>
-      <c r="BS14" s="40"/>
-      <c r="BT14" s="40"/>
-      <c r="BU14" s="40"/>
-      <c r="BV14" s="40"/>
-      <c r="BW14" s="45"/>
-      <c r="BX14" s="45"/>
-      <c r="BY14" s="40"/>
-      <c r="BZ14" s="40"/>
-      <c r="CA14" s="40"/>
-      <c r="CB14" s="40"/>
-      <c r="CC14" s="40"/>
-      <c r="CD14" s="45"/>
-      <c r="CE14" s="45"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="52">
+        <v>45217</v>
+      </c>
+      <c r="E14" s="52">
+        <v>45222</v>
+      </c>
+      <c r="F14" s="71"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="39"/>
+      <c r="N14" s="34"/>
+      <c r="O14" s="34"/>
+      <c r="P14" s="34"/>
+      <c r="Q14" s="34"/>
+      <c r="R14" s="34"/>
+      <c r="S14" s="39"/>
+      <c r="T14" s="39"/>
+      <c r="U14" s="34"/>
+      <c r="V14" s="34"/>
+      <c r="W14" s="34"/>
+      <c r="X14" s="34"/>
+      <c r="Y14" s="34"/>
+      <c r="Z14" s="39"/>
+      <c r="AA14" s="39"/>
+      <c r="AB14" s="34"/>
+      <c r="AC14" s="34"/>
+      <c r="AD14" s="34"/>
+      <c r="AE14" s="34"/>
+      <c r="AF14" s="34"/>
+      <c r="AG14" s="39"/>
+      <c r="AH14" s="39"/>
+      <c r="AI14" s="34"/>
+      <c r="AJ14" s="34"/>
+      <c r="AK14" s="34"/>
+      <c r="AL14" s="34"/>
+      <c r="AM14" s="34"/>
+      <c r="AN14" s="39"/>
+      <c r="AO14" s="39"/>
+      <c r="AP14" s="34"/>
+      <c r="AQ14" s="34"/>
+      <c r="AR14" s="34"/>
+      <c r="AS14" s="34"/>
+      <c r="AT14" s="34"/>
+      <c r="AU14" s="39"/>
+      <c r="AV14" s="39"/>
+      <c r="AW14" s="34"/>
+      <c r="AX14" s="34"/>
+      <c r="AY14" s="34"/>
+      <c r="AZ14" s="34"/>
+      <c r="BA14" s="34"/>
+      <c r="BB14" s="39"/>
+      <c r="BC14" s="39"/>
+      <c r="BD14" s="34"/>
+      <c r="BE14" s="34"/>
+      <c r="BF14" s="34"/>
+      <c r="BG14" s="34"/>
+      <c r="BH14" s="34"/>
+      <c r="BI14" s="39"/>
+      <c r="BJ14" s="39"/>
+      <c r="BK14" s="34"/>
+      <c r="BL14" s="34"/>
+      <c r="BM14" s="34"/>
+      <c r="BN14" s="34"/>
+      <c r="BO14" s="34"/>
+      <c r="BP14" s="39"/>
+      <c r="BQ14" s="39"/>
+      <c r="BR14" s="34"/>
+      <c r="BS14" s="34"/>
+      <c r="BT14" s="34"/>
+      <c r="BU14" s="34"/>
+      <c r="BV14" s="34"/>
+      <c r="BW14" s="39"/>
+      <c r="BX14" s="39"/>
+      <c r="BY14" s="34"/>
+      <c r="BZ14" s="34"/>
+      <c r="CA14" s="34"/>
+      <c r="CB14" s="34"/>
+      <c r="CC14" s="34"/>
+      <c r="CD14" s="39"/>
+      <c r="CE14" s="39"/>
     </row>
     <row r="15" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="7"/>
-      <c r="B15" s="60" t="s">
+      <c r="B15" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="61"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="83"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="40"/>
-      <c r="L15" s="45"/>
-      <c r="M15" s="45"/>
-      <c r="N15" s="40"/>
-      <c r="O15" s="40"/>
-      <c r="P15" s="40"/>
-      <c r="Q15" s="40"/>
-      <c r="R15" s="40"/>
-      <c r="S15" s="45"/>
-      <c r="T15" s="45"/>
-      <c r="U15" s="40"/>
-      <c r="V15" s="40"/>
-      <c r="W15" s="40"/>
-      <c r="X15" s="40"/>
-      <c r="Y15" s="40"/>
-      <c r="Z15" s="45"/>
-      <c r="AA15" s="45"/>
-      <c r="AB15" s="40"/>
-      <c r="AC15" s="40"/>
-      <c r="AD15" s="40"/>
-      <c r="AE15" s="40"/>
-      <c r="AF15" s="40"/>
-      <c r="AG15" s="45"/>
-      <c r="AH15" s="45"/>
-      <c r="AI15" s="40"/>
-      <c r="AJ15" s="40"/>
-      <c r="AK15" s="40"/>
-      <c r="AL15" s="40"/>
-      <c r="AM15" s="40"/>
-      <c r="AN15" s="45"/>
-      <c r="AO15" s="45"/>
-      <c r="AP15" s="40"/>
-      <c r="AQ15" s="40"/>
-      <c r="AR15" s="40"/>
-      <c r="AS15" s="40"/>
-      <c r="AT15" s="40"/>
-      <c r="AU15" s="45"/>
-      <c r="AV15" s="45"/>
-      <c r="AW15" s="40"/>
-      <c r="AX15" s="40"/>
-      <c r="AY15" s="40"/>
-      <c r="AZ15" s="40"/>
-      <c r="BA15" s="40"/>
-      <c r="BB15" s="45"/>
-      <c r="BC15" s="45"/>
-      <c r="BD15" s="40"/>
-      <c r="BE15" s="40"/>
-      <c r="BF15" s="40"/>
-      <c r="BG15" s="40"/>
-      <c r="BH15" s="40"/>
-      <c r="BI15" s="45"/>
-      <c r="BJ15" s="45"/>
-      <c r="BK15" s="40"/>
-      <c r="BL15" s="40"/>
-      <c r="BM15" s="40"/>
-      <c r="BN15" s="40"/>
-      <c r="BO15" s="40"/>
-      <c r="BP15" s="45"/>
-      <c r="BQ15" s="45"/>
-      <c r="BR15" s="40"/>
-      <c r="BS15" s="40"/>
-      <c r="BT15" s="40"/>
-      <c r="BU15" s="40"/>
-      <c r="BV15" s="40"/>
-      <c r="BW15" s="45"/>
-      <c r="BX15" s="45"/>
-      <c r="BY15" s="40"/>
-      <c r="BZ15" s="40"/>
-      <c r="CA15" s="40"/>
-      <c r="CB15" s="40"/>
-      <c r="CC15" s="40"/>
-      <c r="CD15" s="45"/>
-      <c r="CE15" s="45"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="52">
+        <v>45218</v>
+      </c>
+      <c r="E15" s="52">
+        <v>45223</v>
+      </c>
+      <c r="F15" s="71"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="39"/>
+      <c r="N15" s="34"/>
+      <c r="O15" s="34"/>
+      <c r="P15" s="34"/>
+      <c r="Q15" s="34"/>
+      <c r="R15" s="34"/>
+      <c r="S15" s="39"/>
+      <c r="T15" s="39"/>
+      <c r="U15" s="34"/>
+      <c r="V15" s="34"/>
+      <c r="W15" s="34"/>
+      <c r="X15" s="34"/>
+      <c r="Y15" s="34"/>
+      <c r="Z15" s="39"/>
+      <c r="AA15" s="39"/>
+      <c r="AB15" s="34"/>
+      <c r="AC15" s="34"/>
+      <c r="AD15" s="34"/>
+      <c r="AE15" s="34"/>
+      <c r="AF15" s="34"/>
+      <c r="AG15" s="39"/>
+      <c r="AH15" s="39"/>
+      <c r="AI15" s="34"/>
+      <c r="AJ15" s="34"/>
+      <c r="AK15" s="34"/>
+      <c r="AL15" s="34"/>
+      <c r="AM15" s="34"/>
+      <c r="AN15" s="39"/>
+      <c r="AO15" s="39"/>
+      <c r="AP15" s="34"/>
+      <c r="AQ15" s="34"/>
+      <c r="AR15" s="34"/>
+      <c r="AS15" s="34"/>
+      <c r="AT15" s="34"/>
+      <c r="AU15" s="39"/>
+      <c r="AV15" s="39"/>
+      <c r="AW15" s="34"/>
+      <c r="AX15" s="34"/>
+      <c r="AY15" s="34"/>
+      <c r="AZ15" s="34"/>
+      <c r="BA15" s="34"/>
+      <c r="BB15" s="39"/>
+      <c r="BC15" s="39"/>
+      <c r="BD15" s="34"/>
+      <c r="BE15" s="34"/>
+      <c r="BF15" s="34"/>
+      <c r="BG15" s="34"/>
+      <c r="BH15" s="34"/>
+      <c r="BI15" s="39"/>
+      <c r="BJ15" s="39"/>
+      <c r="BK15" s="34"/>
+      <c r="BL15" s="34"/>
+      <c r="BM15" s="34"/>
+      <c r="BN15" s="34"/>
+      <c r="BO15" s="34"/>
+      <c r="BP15" s="39"/>
+      <c r="BQ15" s="39"/>
+      <c r="BR15" s="34"/>
+      <c r="BS15" s="34"/>
+      <c r="BT15" s="34"/>
+      <c r="BU15" s="34"/>
+      <c r="BV15" s="34"/>
+      <c r="BW15" s="39"/>
+      <c r="BX15" s="39"/>
+      <c r="BY15" s="34"/>
+      <c r="BZ15" s="34"/>
+      <c r="CA15" s="34"/>
+      <c r="CB15" s="34"/>
+      <c r="CC15" s="34"/>
+      <c r="CD15" s="39"/>
+      <c r="CE15" s="39"/>
     </row>
     <row r="16" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="7"/>
-      <c r="B16" s="60" t="s">
+      <c r="B16" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="61" t="s">
+      <c r="C16" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="62"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="83"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="40"/>
-      <c r="L16" s="45"/>
-      <c r="M16" s="45"/>
-      <c r="N16" s="40"/>
-      <c r="O16" s="40"/>
-      <c r="P16" s="40"/>
-      <c r="Q16" s="40"/>
-      <c r="R16" s="40"/>
-      <c r="S16" s="45"/>
-      <c r="T16" s="45"/>
-      <c r="U16" s="40"/>
-      <c r="V16" s="40"/>
-      <c r="W16" s="40"/>
-      <c r="X16" s="40"/>
-      <c r="Y16" s="40"/>
-      <c r="Z16" s="45"/>
-      <c r="AA16" s="45"/>
-      <c r="AB16" s="40"/>
-      <c r="AC16" s="40"/>
-      <c r="AD16" s="40"/>
-      <c r="AE16" s="40"/>
-      <c r="AF16" s="40"/>
-      <c r="AG16" s="45"/>
-      <c r="AH16" s="45"/>
-      <c r="AI16" s="40"/>
-      <c r="AJ16" s="40"/>
-      <c r="AK16" s="40"/>
-      <c r="AL16" s="40"/>
-      <c r="AM16" s="40"/>
-      <c r="AN16" s="45"/>
-      <c r="AO16" s="45"/>
-      <c r="AP16" s="40"/>
-      <c r="AQ16" s="40"/>
-      <c r="AR16" s="40"/>
-      <c r="AS16" s="40"/>
-      <c r="AT16" s="40"/>
-      <c r="AU16" s="45"/>
-      <c r="AV16" s="45"/>
-      <c r="AW16" s="40"/>
-      <c r="AX16" s="40"/>
-      <c r="AY16" s="40"/>
-      <c r="AZ16" s="40"/>
-      <c r="BA16" s="40"/>
-      <c r="BB16" s="45"/>
-      <c r="BC16" s="45"/>
-      <c r="BD16" s="40"/>
-      <c r="BE16" s="40"/>
-      <c r="BF16" s="40"/>
-      <c r="BG16" s="40"/>
-      <c r="BH16" s="40"/>
-      <c r="BI16" s="45"/>
-      <c r="BJ16" s="45"/>
-      <c r="BK16" s="40"/>
-      <c r="BL16" s="40"/>
-      <c r="BM16" s="40"/>
-      <c r="BN16" s="40"/>
-      <c r="BO16" s="40"/>
-      <c r="BP16" s="45"/>
-      <c r="BQ16" s="45"/>
-      <c r="BR16" s="40"/>
-      <c r="BS16" s="40"/>
-      <c r="BT16" s="40"/>
-      <c r="BU16" s="40"/>
-      <c r="BV16" s="40"/>
-      <c r="BW16" s="45"/>
-      <c r="BX16" s="45"/>
-      <c r="BY16" s="40"/>
-      <c r="BZ16" s="40"/>
-      <c r="CA16" s="40"/>
-      <c r="CB16" s="40"/>
-      <c r="CC16" s="40"/>
-      <c r="CD16" s="45"/>
-      <c r="CE16" s="45"/>
+      <c r="D16" s="52">
+        <v>45219</v>
+      </c>
+      <c r="E16" s="52">
+        <v>45224</v>
+      </c>
+      <c r="F16" s="71"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="39"/>
+      <c r="N16" s="34"/>
+      <c r="O16" s="34"/>
+      <c r="P16" s="34"/>
+      <c r="Q16" s="34"/>
+      <c r="R16" s="34"/>
+      <c r="S16" s="39"/>
+      <c r="T16" s="39"/>
+      <c r="U16" s="34"/>
+      <c r="V16" s="34"/>
+      <c r="W16" s="34"/>
+      <c r="X16" s="34"/>
+      <c r="Y16" s="34"/>
+      <c r="Z16" s="39"/>
+      <c r="AA16" s="39"/>
+      <c r="AB16" s="34"/>
+      <c r="AC16" s="34"/>
+      <c r="AD16" s="34"/>
+      <c r="AE16" s="34"/>
+      <c r="AF16" s="93"/>
+      <c r="AG16" s="94"/>
+      <c r="AH16" s="94"/>
+      <c r="AI16" s="94"/>
+      <c r="AJ16" s="94"/>
+      <c r="AK16" s="95"/>
+      <c r="AL16" s="34"/>
+      <c r="AM16" s="34"/>
+      <c r="AN16" s="39"/>
+      <c r="AO16" s="39"/>
+      <c r="AP16" s="34"/>
+      <c r="AQ16" s="34"/>
+      <c r="AR16" s="34"/>
+      <c r="AS16" s="34"/>
+      <c r="AT16" s="34"/>
+      <c r="AU16" s="39"/>
+      <c r="AV16" s="39"/>
+      <c r="AW16" s="34"/>
+      <c r="AX16" s="34"/>
+      <c r="AY16" s="34"/>
+      <c r="AZ16" s="34"/>
+      <c r="BA16" s="34"/>
+      <c r="BB16" s="39"/>
+      <c r="BC16" s="39"/>
+      <c r="BD16" s="34"/>
+      <c r="BE16" s="34"/>
+      <c r="BF16" s="34"/>
+      <c r="BG16" s="34"/>
+      <c r="BH16" s="34"/>
+      <c r="BI16" s="39"/>
+      <c r="BJ16" s="39"/>
+      <c r="BK16" s="34"/>
+      <c r="BL16" s="34"/>
+      <c r="BM16" s="34"/>
+      <c r="BN16" s="34"/>
+      <c r="BO16" s="34"/>
+      <c r="BP16" s="39"/>
+      <c r="BQ16" s="39"/>
+      <c r="BR16" s="34"/>
+      <c r="BS16" s="34"/>
+      <c r="BT16" s="34"/>
+      <c r="BU16" s="34"/>
+      <c r="BV16" s="34"/>
+      <c r="BW16" s="39"/>
+      <c r="BX16" s="39"/>
+      <c r="BY16" s="34"/>
+      <c r="BZ16" s="34"/>
+      <c r="CA16" s="34"/>
+      <c r="CB16" s="34"/>
+      <c r="CC16" s="34"/>
+      <c r="CD16" s="39"/>
+      <c r="CE16" s="39"/>
     </row>
     <row r="17" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="7"/>
-      <c r="B17" s="60" t="s">
+      <c r="B17" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="61"/>
-      <c r="D17" s="62"/>
-      <c r="E17" s="62"/>
-      <c r="F17" s="81"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="40"/>
-      <c r="L17" s="45"/>
-      <c r="M17" s="45"/>
-      <c r="N17" s="40"/>
-      <c r="O17" s="40"/>
-      <c r="P17" s="40"/>
-      <c r="Q17" s="40"/>
-      <c r="R17" s="40"/>
-      <c r="S17" s="45"/>
-      <c r="T17" s="45"/>
-      <c r="U17" s="40"/>
-      <c r="V17" s="40"/>
-      <c r="W17" s="40"/>
-      <c r="X17" s="40"/>
-      <c r="Y17" s="40"/>
-      <c r="Z17" s="45"/>
-      <c r="AA17" s="45"/>
-      <c r="AB17" s="40"/>
-      <c r="AC17" s="40"/>
-      <c r="AD17" s="40"/>
-      <c r="AE17" s="40"/>
-      <c r="AF17" s="40"/>
-      <c r="AG17" s="45"/>
-      <c r="AH17" s="45"/>
-      <c r="AI17" s="40"/>
-      <c r="AJ17" s="40"/>
-      <c r="AK17" s="40"/>
-      <c r="AL17" s="40"/>
-      <c r="AM17" s="40"/>
-      <c r="AN17" s="45"/>
-      <c r="AO17" s="45"/>
-      <c r="AP17" s="40"/>
-      <c r="AQ17" s="40"/>
-      <c r="AR17" s="40"/>
-      <c r="AS17" s="40"/>
-      <c r="AT17" s="40"/>
-      <c r="AU17" s="45"/>
-      <c r="AV17" s="45"/>
-      <c r="AW17" s="40"/>
-      <c r="AX17" s="40"/>
-      <c r="AY17" s="40"/>
-      <c r="AZ17" s="40"/>
-      <c r="BA17" s="40"/>
-      <c r="BB17" s="45"/>
-      <c r="BC17" s="45"/>
-      <c r="BD17" s="40"/>
-      <c r="BE17" s="40"/>
-      <c r="BF17" s="40"/>
-      <c r="BG17" s="40"/>
-      <c r="BH17" s="40"/>
-      <c r="BI17" s="45"/>
-      <c r="BJ17" s="45"/>
-      <c r="BK17" s="40"/>
-      <c r="BL17" s="40"/>
-      <c r="BM17" s="40"/>
-      <c r="BN17" s="40"/>
-      <c r="BO17" s="40"/>
-      <c r="BP17" s="45"/>
-      <c r="BQ17" s="45"/>
-      <c r="BR17" s="40"/>
-      <c r="BS17" s="40"/>
-      <c r="BT17" s="40"/>
-      <c r="BU17" s="40"/>
-      <c r="BV17" s="40"/>
-      <c r="BW17" s="45"/>
-      <c r="BX17" s="45"/>
-      <c r="BY17" s="40"/>
-      <c r="BZ17" s="40"/>
-      <c r="CA17" s="40"/>
-      <c r="CB17" s="40"/>
-      <c r="CC17" s="40"/>
-      <c r="CD17" s="45"/>
-      <c r="CE17" s="45"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="52">
+        <v>45220</v>
+      </c>
+      <c r="E17" s="52">
+        <v>45225</v>
+      </c>
+      <c r="F17" s="90"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="39"/>
+      <c r="N17" s="34"/>
+      <c r="O17" s="34"/>
+      <c r="P17" s="34"/>
+      <c r="Q17" s="34"/>
+      <c r="R17" s="34"/>
+      <c r="S17" s="39"/>
+      <c r="T17" s="39"/>
+      <c r="U17" s="34"/>
+      <c r="V17" s="34"/>
+      <c r="W17" s="34"/>
+      <c r="X17" s="34"/>
+      <c r="Y17" s="34"/>
+      <c r="Z17" s="39"/>
+      <c r="AA17" s="39"/>
+      <c r="AB17" s="34"/>
+      <c r="AC17" s="34"/>
+      <c r="AD17" s="34"/>
+      <c r="AE17" s="34"/>
+      <c r="AF17" s="34"/>
+      <c r="AG17" s="39"/>
+      <c r="AH17" s="39"/>
+      <c r="AI17" s="34"/>
+      <c r="AJ17" s="34"/>
+      <c r="AK17" s="34"/>
+      <c r="AL17" s="34"/>
+      <c r="AM17" s="34"/>
+      <c r="AN17" s="39"/>
+      <c r="AO17" s="39"/>
+      <c r="AP17" s="34"/>
+      <c r="AQ17" s="34"/>
+      <c r="AR17" s="34"/>
+      <c r="AS17" s="34"/>
+      <c r="AT17" s="34"/>
+      <c r="AU17" s="39"/>
+      <c r="AV17" s="39"/>
+      <c r="AW17" s="34"/>
+      <c r="AX17" s="34"/>
+      <c r="AY17" s="34"/>
+      <c r="AZ17" s="34"/>
+      <c r="BA17" s="34"/>
+      <c r="BB17" s="39"/>
+      <c r="BC17" s="39"/>
+      <c r="BD17" s="34"/>
+      <c r="BE17" s="34"/>
+      <c r="BF17" s="34"/>
+      <c r="BG17" s="34"/>
+      <c r="BH17" s="34"/>
+      <c r="BI17" s="39"/>
+      <c r="BJ17" s="39"/>
+      <c r="BK17" s="34"/>
+      <c r="BL17" s="34"/>
+      <c r="BM17" s="34"/>
+      <c r="BN17" s="34"/>
+      <c r="BO17" s="34"/>
+      <c r="BP17" s="39"/>
+      <c r="BQ17" s="39"/>
+      <c r="BR17" s="34"/>
+      <c r="BS17" s="34"/>
+      <c r="BT17" s="34"/>
+      <c r="BU17" s="34"/>
+      <c r="BV17" s="34"/>
+      <c r="BW17" s="39"/>
+      <c r="BX17" s="39"/>
+      <c r="BY17" s="34"/>
+      <c r="BZ17" s="34"/>
+      <c r="CA17" s="34"/>
+      <c r="CB17" s="34"/>
+      <c r="CC17" s="34"/>
+      <c r="CD17" s="39"/>
+      <c r="CE17" s="39"/>
     </row>
     <row r="18" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="7"/>
-      <c r="B18" s="63" t="s">
+      <c r="B18" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="64"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="66"/>
-      <c r="F18" s="81"/>
-      <c r="G18" s="86"/>
-      <c r="H18" s="86"/>
-      <c r="I18" s="86"/>
-      <c r="J18" s="86"/>
-      <c r="K18" s="86"/>
-      <c r="L18" s="86"/>
-      <c r="M18" s="86"/>
-      <c r="N18" s="86"/>
-      <c r="O18" s="86"/>
-      <c r="P18" s="86"/>
-      <c r="Q18" s="86"/>
-      <c r="R18" s="86"/>
-      <c r="S18" s="86"/>
-      <c r="T18" s="86"/>
-      <c r="U18" s="86"/>
-      <c r="V18" s="86"/>
-      <c r="W18" s="86"/>
-      <c r="X18" s="86"/>
-      <c r="Y18" s="86"/>
-      <c r="Z18" s="86"/>
-      <c r="AA18" s="86"/>
-      <c r="AB18" s="86"/>
-      <c r="AC18" s="86"/>
-      <c r="AD18" s="86"/>
-      <c r="AE18" s="86"/>
-      <c r="AF18" s="86"/>
-      <c r="AG18" s="86"/>
-      <c r="AH18" s="86"/>
-      <c r="AI18" s="86"/>
-      <c r="AJ18" s="86"/>
-      <c r="AK18" s="86"/>
-      <c r="AL18" s="86"/>
-      <c r="AM18" s="86"/>
-      <c r="AN18" s="86"/>
-      <c r="AO18" s="86"/>
-      <c r="AP18" s="86"/>
-      <c r="AQ18" s="86"/>
-      <c r="AR18" s="86"/>
-      <c r="AS18" s="86"/>
-      <c r="AT18" s="86"/>
-      <c r="AU18" s="86"/>
-      <c r="AV18" s="86"/>
-      <c r="AW18" s="86"/>
-      <c r="AX18" s="86"/>
-      <c r="AY18" s="86"/>
-      <c r="AZ18" s="86"/>
-      <c r="BA18" s="86"/>
-      <c r="BB18" s="86"/>
-      <c r="BC18" s="86"/>
-      <c r="BD18" s="86"/>
-      <c r="BE18" s="86"/>
-      <c r="BF18" s="86"/>
-      <c r="BG18" s="86"/>
-      <c r="BH18" s="86"/>
-      <c r="BI18" s="86"/>
-      <c r="BJ18" s="86"/>
-      <c r="BK18" s="86"/>
-      <c r="BL18" s="86"/>
-      <c r="BM18" s="86"/>
-      <c r="BN18" s="86"/>
-      <c r="BO18" s="86"/>
-      <c r="BP18" s="86"/>
-      <c r="BQ18" s="86"/>
-      <c r="BR18" s="86"/>
-      <c r="BS18" s="86"/>
-      <c r="BT18" s="86"/>
-      <c r="BU18" s="86"/>
-      <c r="BV18" s="86"/>
-      <c r="BW18" s="86"/>
-      <c r="BX18" s="86"/>
-      <c r="BY18" s="86"/>
-      <c r="BZ18" s="86"/>
-      <c r="CA18" s="86"/>
-      <c r="CB18" s="86"/>
-      <c r="CC18" s="86"/>
-      <c r="CD18" s="86"/>
-      <c r="CE18" s="87"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="90"/>
+      <c r="G18" s="74"/>
+      <c r="H18" s="74"/>
+      <c r="I18" s="74"/>
+      <c r="J18" s="74"/>
+      <c r="K18" s="74"/>
+      <c r="L18" s="74"/>
+      <c r="M18" s="74"/>
+      <c r="N18" s="74"/>
+      <c r="O18" s="74"/>
+      <c r="P18" s="74"/>
+      <c r="Q18" s="74"/>
+      <c r="R18" s="74"/>
+      <c r="S18" s="74"/>
+      <c r="T18" s="74"/>
+      <c r="U18" s="74"/>
+      <c r="V18" s="74"/>
+      <c r="W18" s="74"/>
+      <c r="X18" s="74"/>
+      <c r="Y18" s="74"/>
+      <c r="Z18" s="74"/>
+      <c r="AA18" s="74"/>
+      <c r="AB18" s="74"/>
+      <c r="AC18" s="74"/>
+      <c r="AD18" s="74"/>
+      <c r="AE18" s="74"/>
+      <c r="AF18" s="74"/>
+      <c r="AG18" s="74"/>
+      <c r="AH18" s="74"/>
+      <c r="AI18" s="74"/>
+      <c r="AJ18" s="74"/>
+      <c r="AK18" s="74"/>
+      <c r="AL18" s="74"/>
+      <c r="AM18" s="74"/>
+      <c r="AN18" s="74"/>
+      <c r="AO18" s="74"/>
+      <c r="AP18" s="74"/>
+      <c r="AQ18" s="74"/>
+      <c r="AR18" s="74"/>
+      <c r="AS18" s="74"/>
+      <c r="AT18" s="74"/>
+      <c r="AU18" s="74"/>
+      <c r="AV18" s="74"/>
+      <c r="AW18" s="74"/>
+      <c r="AX18" s="74"/>
+      <c r="AY18" s="74"/>
+      <c r="AZ18" s="74"/>
+      <c r="BA18" s="74"/>
+      <c r="BB18" s="74"/>
+      <c r="BC18" s="74"/>
+      <c r="BD18" s="74"/>
+      <c r="BE18" s="74"/>
+      <c r="BF18" s="74"/>
+      <c r="BG18" s="74"/>
+      <c r="BH18" s="74"/>
+      <c r="BI18" s="74"/>
+      <c r="BJ18" s="74"/>
+      <c r="BK18" s="74"/>
+      <c r="BL18" s="74"/>
+      <c r="BM18" s="74"/>
+      <c r="BN18" s="74"/>
+      <c r="BO18" s="74"/>
+      <c r="BP18" s="74"/>
+      <c r="BQ18" s="74"/>
+      <c r="BR18" s="74"/>
+      <c r="BS18" s="74"/>
+      <c r="BT18" s="74"/>
+      <c r="BU18" s="74"/>
+      <c r="BV18" s="74"/>
+      <c r="BW18" s="74"/>
+      <c r="BX18" s="74"/>
+      <c r="BY18" s="74"/>
+      <c r="BZ18" s="74"/>
+      <c r="CA18" s="74"/>
+      <c r="CB18" s="74"/>
+      <c r="CC18" s="74"/>
+      <c r="CD18" s="74"/>
+      <c r="CE18" s="75"/>
     </row>
     <row r="19" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="7">
         <v>1</v>
       </c>
-      <c r="B19" s="67" t="s">
+      <c r="B19" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="68"/>
-      <c r="D19" s="69"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="83"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="40"/>
-      <c r="I19" s="40"/>
-      <c r="J19" s="40"/>
-      <c r="K19" s="40"/>
-      <c r="L19" s="45"/>
-      <c r="M19" s="45"/>
-      <c r="N19" s="40"/>
-      <c r="O19" s="40"/>
-      <c r="P19" s="40"/>
-      <c r="Q19" s="40"/>
-      <c r="R19" s="40"/>
-      <c r="S19" s="45"/>
-      <c r="T19" s="45"/>
-      <c r="U19" s="40"/>
-      <c r="V19" s="40"/>
-      <c r="W19" s="40"/>
-      <c r="X19" s="40"/>
-      <c r="Y19" s="40"/>
-      <c r="Z19" s="45"/>
-      <c r="AA19" s="45"/>
-      <c r="AB19" s="40"/>
-      <c r="AC19" s="40"/>
-      <c r="AD19" s="40"/>
-      <c r="AE19" s="40"/>
-      <c r="AF19" s="40"/>
-      <c r="AG19" s="45"/>
-      <c r="AH19" s="45"/>
-      <c r="AI19" s="40"/>
-      <c r="AJ19" s="40"/>
-      <c r="AK19" s="40"/>
-      <c r="AL19" s="40"/>
-      <c r="AM19" s="40"/>
-      <c r="AN19" s="45"/>
-      <c r="AO19" s="45"/>
-      <c r="AP19" s="40"/>
-      <c r="AQ19" s="40"/>
-      <c r="AR19" s="40"/>
-      <c r="AS19" s="40"/>
-      <c r="AT19" s="40"/>
-      <c r="AU19" s="45"/>
-      <c r="AV19" s="45"/>
-      <c r="AW19" s="40"/>
-      <c r="AX19" s="40"/>
-      <c r="AY19" s="40"/>
-      <c r="AZ19" s="40"/>
-      <c r="BA19" s="40"/>
-      <c r="BB19" s="45"/>
-      <c r="BC19" s="45"/>
-      <c r="BD19" s="40"/>
-      <c r="BE19" s="40"/>
-      <c r="BF19" s="40"/>
-      <c r="BG19" s="40"/>
-      <c r="BH19" s="40"/>
-      <c r="BI19" s="45"/>
-      <c r="BJ19" s="45"/>
-      <c r="BK19" s="40"/>
-      <c r="BL19" s="40"/>
-      <c r="BM19" s="40"/>
-      <c r="BN19" s="40"/>
-      <c r="BO19" s="40"/>
-      <c r="BP19" s="45"/>
-      <c r="BQ19" s="45"/>
-      <c r="BR19" s="40"/>
-      <c r="BS19" s="40"/>
-      <c r="BT19" s="40"/>
-      <c r="BU19" s="40"/>
-      <c r="BV19" s="40"/>
-      <c r="BW19" s="45"/>
-      <c r="BX19" s="45"/>
-      <c r="BY19" s="40"/>
-      <c r="BZ19" s="40"/>
-      <c r="CA19" s="40"/>
-      <c r="CB19" s="40"/>
-      <c r="CC19" s="40"/>
-      <c r="CD19" s="45"/>
-      <c r="CE19" s="45"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="59">
+        <v>45222</v>
+      </c>
+      <c r="E19" s="59">
+        <v>45227</v>
+      </c>
+      <c r="F19" s="71"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="39"/>
+      <c r="N19" s="34"/>
+      <c r="O19" s="34"/>
+      <c r="P19" s="34"/>
+      <c r="Q19" s="34"/>
+      <c r="R19" s="34"/>
+      <c r="S19" s="39"/>
+      <c r="T19" s="39"/>
+      <c r="U19" s="34"/>
+      <c r="V19" s="34"/>
+      <c r="W19" s="34"/>
+      <c r="X19" s="34"/>
+      <c r="Y19" s="34"/>
+      <c r="Z19" s="39"/>
+      <c r="AA19" s="39"/>
+      <c r="AB19" s="34"/>
+      <c r="AC19" s="34"/>
+      <c r="AD19" s="34"/>
+      <c r="AE19" s="34"/>
+      <c r="AF19" s="34"/>
+      <c r="AG19" s="39"/>
+      <c r="AH19" s="39"/>
+      <c r="AI19" s="34"/>
+      <c r="AJ19" s="34"/>
+      <c r="AK19" s="34"/>
+      <c r="AL19" s="34"/>
+      <c r="AM19" s="34"/>
+      <c r="AN19" s="39"/>
+      <c r="AO19" s="39"/>
+      <c r="AP19" s="34"/>
+      <c r="AQ19" s="34"/>
+      <c r="AR19" s="34"/>
+      <c r="AS19" s="34"/>
+      <c r="AT19" s="34"/>
+      <c r="AU19" s="39"/>
+      <c r="AV19" s="39"/>
+      <c r="AW19" s="34"/>
+      <c r="AX19" s="34"/>
+      <c r="AY19" s="34"/>
+      <c r="AZ19" s="34"/>
+      <c r="BA19" s="34"/>
+      <c r="BB19" s="39"/>
+      <c r="BC19" s="39"/>
+      <c r="BD19" s="34"/>
+      <c r="BE19" s="34"/>
+      <c r="BF19" s="34"/>
+      <c r="BG19" s="34"/>
+      <c r="BH19" s="34"/>
+      <c r="BI19" s="39"/>
+      <c r="BJ19" s="39"/>
+      <c r="BK19" s="34"/>
+      <c r="BL19" s="34"/>
+      <c r="BM19" s="34"/>
+      <c r="BN19" s="34"/>
+      <c r="BO19" s="34"/>
+      <c r="BP19" s="39"/>
+      <c r="BQ19" s="39"/>
+      <c r="BR19" s="34"/>
+      <c r="BS19" s="34"/>
+      <c r="BT19" s="34"/>
+      <c r="BU19" s="34"/>
+      <c r="BV19" s="34"/>
+      <c r="BW19" s="39"/>
+      <c r="BX19" s="39"/>
+      <c r="BY19" s="34"/>
+      <c r="BZ19" s="34"/>
+      <c r="CA19" s="34"/>
+      <c r="CB19" s="34"/>
+      <c r="CC19" s="34"/>
+      <c r="CD19" s="39"/>
+      <c r="CE19" s="39"/>
     </row>
     <row r="20" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="7"/>
-      <c r="B20" s="67" t="s">
+      <c r="B20" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="68"/>
-      <c r="D20" s="69"/>
-      <c r="E20" s="69"/>
-      <c r="F20" s="85"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="40"/>
-      <c r="L20" s="45"/>
-      <c r="M20" s="45"/>
-      <c r="N20" s="40"/>
-      <c r="O20" s="40"/>
-      <c r="P20" s="40"/>
-      <c r="Q20" s="40"/>
-      <c r="R20" s="40"/>
-      <c r="S20" s="45"/>
-      <c r="T20" s="45"/>
-      <c r="U20" s="40"/>
-      <c r="V20" s="40"/>
-      <c r="W20" s="40"/>
-      <c r="X20" s="40"/>
-      <c r="Y20" s="40"/>
-      <c r="Z20" s="45"/>
-      <c r="AA20" s="45"/>
-      <c r="AB20" s="40"/>
-      <c r="AC20" s="40"/>
-      <c r="AD20" s="40"/>
-      <c r="AE20" s="40"/>
-      <c r="AF20" s="40"/>
-      <c r="AG20" s="45"/>
-      <c r="AH20" s="45"/>
-      <c r="AI20" s="40"/>
-      <c r="AJ20" s="40"/>
-      <c r="AK20" s="40"/>
-      <c r="AL20" s="40"/>
-      <c r="AM20" s="40"/>
-      <c r="AN20" s="45"/>
-      <c r="AO20" s="45"/>
-      <c r="AP20" s="40"/>
-      <c r="AQ20" s="40"/>
-      <c r="AR20" s="40"/>
-      <c r="AS20" s="40"/>
-      <c r="AT20" s="40"/>
-      <c r="AU20" s="45"/>
-      <c r="AV20" s="45"/>
-      <c r="AW20" s="40"/>
-      <c r="AX20" s="40"/>
-      <c r="AY20" s="40"/>
-      <c r="AZ20" s="40"/>
-      <c r="BA20" s="40"/>
-      <c r="BB20" s="45"/>
-      <c r="BC20" s="45"/>
-      <c r="BD20" s="40"/>
-      <c r="BE20" s="40"/>
-      <c r="BF20" s="40"/>
-      <c r="BG20" s="40"/>
-      <c r="BH20" s="40"/>
-      <c r="BI20" s="45"/>
-      <c r="BJ20" s="45"/>
-      <c r="BK20" s="40"/>
-      <c r="BL20" s="40"/>
-      <c r="BM20" s="40"/>
-      <c r="BN20" s="40"/>
-      <c r="BO20" s="40"/>
-      <c r="BP20" s="45"/>
-      <c r="BQ20" s="45"/>
-      <c r="BR20" s="40"/>
-      <c r="BS20" s="40"/>
-      <c r="BT20" s="40"/>
-      <c r="BU20" s="40"/>
-      <c r="BV20" s="40"/>
-      <c r="BW20" s="45"/>
-      <c r="BX20" s="45"/>
-      <c r="BY20" s="40"/>
-      <c r="BZ20" s="40"/>
-      <c r="CA20" s="40"/>
-      <c r="CB20" s="40"/>
-      <c r="CC20" s="40"/>
-      <c r="CD20" s="45"/>
-      <c r="CE20" s="45"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="59">
+        <v>45223</v>
+      </c>
+      <c r="E20" s="59">
+        <v>45228</v>
+      </c>
+      <c r="F20" s="73"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="39"/>
+      <c r="N20" s="34"/>
+      <c r="O20" s="34"/>
+      <c r="P20" s="34"/>
+      <c r="Q20" s="34"/>
+      <c r="R20" s="34"/>
+      <c r="S20" s="39"/>
+      <c r="T20" s="39"/>
+      <c r="U20" s="34"/>
+      <c r="V20" s="34"/>
+      <c r="W20" s="34"/>
+      <c r="X20" s="34"/>
+      <c r="Y20" s="34"/>
+      <c r="Z20" s="39"/>
+      <c r="AA20" s="39"/>
+      <c r="AB20" s="34"/>
+      <c r="AC20" s="34"/>
+      <c r="AD20" s="34"/>
+      <c r="AE20" s="34"/>
+      <c r="AF20" s="34"/>
+      <c r="AG20" s="39"/>
+      <c r="AH20" s="39"/>
+      <c r="AI20" s="34"/>
+      <c r="AJ20" s="34"/>
+      <c r="AK20" s="34"/>
+      <c r="AL20" s="34"/>
+      <c r="AM20" s="34"/>
+      <c r="AN20" s="39"/>
+      <c r="AO20" s="39"/>
+      <c r="AP20" s="34"/>
+      <c r="AQ20" s="34"/>
+      <c r="AR20" s="34"/>
+      <c r="AS20" s="34"/>
+      <c r="AT20" s="34"/>
+      <c r="AU20" s="39"/>
+      <c r="AV20" s="39"/>
+      <c r="AW20" s="34"/>
+      <c r="AX20" s="34"/>
+      <c r="AY20" s="34"/>
+      <c r="AZ20" s="34"/>
+      <c r="BA20" s="34"/>
+      <c r="BB20" s="39"/>
+      <c r="BC20" s="39"/>
+      <c r="BD20" s="34"/>
+      <c r="BE20" s="34"/>
+      <c r="BF20" s="34"/>
+      <c r="BG20" s="34"/>
+      <c r="BH20" s="34"/>
+      <c r="BI20" s="39"/>
+      <c r="BJ20" s="39"/>
+      <c r="BK20" s="34"/>
+      <c r="BL20" s="34"/>
+      <c r="BM20" s="34"/>
+      <c r="BN20" s="34"/>
+      <c r="BO20" s="34"/>
+      <c r="BP20" s="39"/>
+      <c r="BQ20" s="39"/>
+      <c r="BR20" s="34"/>
+      <c r="BS20" s="34"/>
+      <c r="BT20" s="34"/>
+      <c r="BU20" s="34"/>
+      <c r="BV20" s="34"/>
+      <c r="BW20" s="39"/>
+      <c r="BX20" s="39"/>
+      <c r="BY20" s="34"/>
+      <c r="BZ20" s="34"/>
+      <c r="CA20" s="34"/>
+      <c r="CB20" s="34"/>
+      <c r="CC20" s="34"/>
+      <c r="CD20" s="39"/>
+      <c r="CE20" s="39"/>
     </row>
     <row r="21" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="7"/>
-      <c r="B21" s="67" t="s">
+      <c r="B21" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="68"/>
-      <c r="D21" s="69"/>
-      <c r="E21" s="69"/>
-      <c r="F21" s="85"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="40"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="40"/>
-      <c r="L21" s="45"/>
-      <c r="M21" s="45"/>
-      <c r="N21" s="40"/>
-      <c r="O21" s="40"/>
-      <c r="P21" s="40"/>
-      <c r="Q21" s="40"/>
-      <c r="R21" s="40"/>
-      <c r="S21" s="45"/>
-      <c r="T21" s="45"/>
-      <c r="U21" s="40"/>
-      <c r="V21" s="40"/>
-      <c r="W21" s="40"/>
-      <c r="X21" s="40"/>
-      <c r="Y21" s="40"/>
-      <c r="Z21" s="45"/>
-      <c r="AA21" s="45"/>
-      <c r="AB21" s="40"/>
-      <c r="AC21" s="40"/>
-      <c r="AD21" s="40"/>
-      <c r="AE21" s="40"/>
-      <c r="AF21" s="40"/>
-      <c r="AG21" s="45"/>
-      <c r="AH21" s="45"/>
-      <c r="AI21" s="40"/>
-      <c r="AJ21" s="40"/>
-      <c r="AK21" s="40"/>
-      <c r="AL21" s="40"/>
-      <c r="AM21" s="40"/>
-      <c r="AN21" s="45"/>
-      <c r="AO21" s="45"/>
-      <c r="AP21" s="40"/>
-      <c r="AQ21" s="40"/>
-      <c r="AR21" s="40"/>
-      <c r="AS21" s="40"/>
-      <c r="AT21" s="40"/>
-      <c r="AU21" s="45"/>
-      <c r="AV21" s="45"/>
-      <c r="AW21" s="40"/>
-      <c r="AX21" s="40"/>
-      <c r="AY21" s="40"/>
-      <c r="AZ21" s="40"/>
-      <c r="BA21" s="40"/>
-      <c r="BB21" s="45"/>
-      <c r="BC21" s="45"/>
-      <c r="BD21" s="40"/>
-      <c r="BE21" s="40"/>
-      <c r="BF21" s="40"/>
-      <c r="BG21" s="40"/>
-      <c r="BH21" s="40"/>
-      <c r="BI21" s="45"/>
-      <c r="BJ21" s="45"/>
-      <c r="BK21" s="40"/>
-      <c r="BL21" s="40"/>
-      <c r="BM21" s="40"/>
-      <c r="BN21" s="40"/>
-      <c r="BO21" s="40"/>
-      <c r="BP21" s="45"/>
-      <c r="BQ21" s="45"/>
-      <c r="BR21" s="40"/>
-      <c r="BS21" s="40"/>
-      <c r="BT21" s="40"/>
-      <c r="BU21" s="40"/>
-      <c r="BV21" s="40"/>
-      <c r="BW21" s="45"/>
-      <c r="BX21" s="45"/>
-      <c r="BY21" s="40"/>
-      <c r="BZ21" s="40"/>
-      <c r="CA21" s="40"/>
-      <c r="CB21" s="40"/>
-      <c r="CC21" s="40"/>
-      <c r="CD21" s="45"/>
-      <c r="CE21" s="45"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="59">
+        <v>45224</v>
+      </c>
+      <c r="E21" s="59">
+        <v>45229</v>
+      </c>
+      <c r="F21" s="73"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="34"/>
+      <c r="K21" s="34"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="39"/>
+      <c r="N21" s="34"/>
+      <c r="O21" s="34"/>
+      <c r="P21" s="34"/>
+      <c r="Q21" s="34"/>
+      <c r="R21" s="34"/>
+      <c r="S21" s="39"/>
+      <c r="T21" s="39"/>
+      <c r="U21" s="34"/>
+      <c r="V21" s="34"/>
+      <c r="W21" s="34"/>
+      <c r="X21" s="34"/>
+      <c r="Y21" s="34"/>
+      <c r="Z21" s="39"/>
+      <c r="AA21" s="39"/>
+      <c r="AB21" s="34"/>
+      <c r="AC21" s="34"/>
+      <c r="AD21" s="34"/>
+      <c r="AE21" s="34"/>
+      <c r="AF21" s="34"/>
+      <c r="AG21" s="39"/>
+      <c r="AH21" s="39"/>
+      <c r="AI21" s="34"/>
+      <c r="AJ21" s="34"/>
+      <c r="AK21" s="34"/>
+      <c r="AL21" s="34"/>
+      <c r="AM21" s="34"/>
+      <c r="AN21" s="39"/>
+      <c r="AO21" s="39"/>
+      <c r="AP21" s="34"/>
+      <c r="AQ21" s="34"/>
+      <c r="AR21" s="34"/>
+      <c r="AS21" s="34"/>
+      <c r="AT21" s="34"/>
+      <c r="AU21" s="39"/>
+      <c r="AV21" s="39"/>
+      <c r="AW21" s="34"/>
+      <c r="AX21" s="34"/>
+      <c r="AY21" s="34"/>
+      <c r="AZ21" s="34"/>
+      <c r="BA21" s="34"/>
+      <c r="BB21" s="39"/>
+      <c r="BC21" s="39"/>
+      <c r="BD21" s="34"/>
+      <c r="BE21" s="34"/>
+      <c r="BF21" s="34"/>
+      <c r="BG21" s="34"/>
+      <c r="BH21" s="34"/>
+      <c r="BI21" s="39"/>
+      <c r="BJ21" s="39"/>
+      <c r="BK21" s="34"/>
+      <c r="BL21" s="34"/>
+      <c r="BM21" s="34"/>
+      <c r="BN21" s="34"/>
+      <c r="BO21" s="34"/>
+      <c r="BP21" s="39"/>
+      <c r="BQ21" s="39"/>
+      <c r="BR21" s="34"/>
+      <c r="BS21" s="34"/>
+      <c r="BT21" s="34"/>
+      <c r="BU21" s="34"/>
+      <c r="BV21" s="34"/>
+      <c r="BW21" s="39"/>
+      <c r="BX21" s="39"/>
+      <c r="BY21" s="34"/>
+      <c r="BZ21" s="34"/>
+      <c r="CA21" s="34"/>
+      <c r="CB21" s="34"/>
+      <c r="CC21" s="34"/>
+      <c r="CD21" s="39"/>
+      <c r="CE21" s="39"/>
     </row>
     <row r="22" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="7"/>
-      <c r="B22" s="67" t="s">
+      <c r="B22" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="68"/>
-      <c r="D22" s="69"/>
-      <c r="E22" s="69"/>
-      <c r="F22" s="85"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="40"/>
-      <c r="L22" s="45"/>
-      <c r="M22" s="45"/>
-      <c r="N22" s="40"/>
-      <c r="O22" s="40"/>
-      <c r="P22" s="40"/>
-      <c r="Q22" s="40"/>
-      <c r="R22" s="40"/>
-      <c r="S22" s="45"/>
-      <c r="T22" s="45"/>
-      <c r="U22" s="40"/>
-      <c r="V22" s="40"/>
-      <c r="W22" s="40"/>
-      <c r="X22" s="40"/>
-      <c r="Y22" s="40"/>
-      <c r="Z22" s="45"/>
-      <c r="AA22" s="45"/>
-      <c r="AB22" s="40"/>
-      <c r="AC22" s="40"/>
-      <c r="AD22" s="40"/>
-      <c r="AE22" s="40"/>
-      <c r="AF22" s="40"/>
-      <c r="AG22" s="45"/>
-      <c r="AH22" s="45"/>
-      <c r="AI22" s="40"/>
-      <c r="AJ22" s="40"/>
-      <c r="AK22" s="40"/>
-      <c r="AL22" s="40"/>
-      <c r="AM22" s="40"/>
-      <c r="AN22" s="45"/>
-      <c r="AO22" s="45"/>
-      <c r="AP22" s="40"/>
-      <c r="AQ22" s="40"/>
-      <c r="AR22" s="40"/>
-      <c r="AS22" s="40"/>
-      <c r="AT22" s="40"/>
-      <c r="AU22" s="45"/>
-      <c r="AV22" s="45"/>
-      <c r="AW22" s="40"/>
-      <c r="AX22" s="40"/>
-      <c r="AY22" s="40"/>
-      <c r="AZ22" s="40"/>
-      <c r="BA22" s="40"/>
-      <c r="BB22" s="45"/>
-      <c r="BC22" s="45"/>
-      <c r="BD22" s="40"/>
-      <c r="BE22" s="40"/>
-      <c r="BF22" s="40"/>
-      <c r="BG22" s="40"/>
-      <c r="BH22" s="40"/>
-      <c r="BI22" s="45"/>
-      <c r="BJ22" s="45"/>
-      <c r="BK22" s="40"/>
-      <c r="BL22" s="40"/>
-      <c r="BM22" s="40"/>
-      <c r="BN22" s="40"/>
-      <c r="BO22" s="40"/>
-      <c r="BP22" s="45"/>
-      <c r="BQ22" s="45"/>
-      <c r="BR22" s="40"/>
-      <c r="BS22" s="40"/>
-      <c r="BT22" s="40"/>
-      <c r="BU22" s="40"/>
-      <c r="BV22" s="40"/>
-      <c r="BW22" s="45"/>
-      <c r="BX22" s="45"/>
-      <c r="BY22" s="40"/>
-      <c r="BZ22" s="40"/>
-      <c r="CA22" s="40"/>
-      <c r="CB22" s="40"/>
-      <c r="CC22" s="40"/>
-      <c r="CD22" s="45"/>
-      <c r="CE22" s="45"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="59">
+        <v>45225</v>
+      </c>
+      <c r="E22" s="59">
+        <v>45230</v>
+      </c>
+      <c r="F22" s="73"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="34"/>
+      <c r="L22" s="39"/>
+      <c r="M22" s="39"/>
+      <c r="N22" s="34"/>
+      <c r="O22" s="34"/>
+      <c r="P22" s="34"/>
+      <c r="Q22" s="34"/>
+      <c r="R22" s="34"/>
+      <c r="S22" s="39"/>
+      <c r="T22" s="39"/>
+      <c r="U22" s="34"/>
+      <c r="V22" s="34"/>
+      <c r="W22" s="34"/>
+      <c r="X22" s="34"/>
+      <c r="Y22" s="34"/>
+      <c r="Z22" s="39"/>
+      <c r="AA22" s="39"/>
+      <c r="AB22" s="34"/>
+      <c r="AC22" s="34"/>
+      <c r="AD22" s="34"/>
+      <c r="AE22" s="34"/>
+      <c r="AF22" s="34"/>
+      <c r="AG22" s="39"/>
+      <c r="AH22" s="39"/>
+      <c r="AI22" s="34"/>
+      <c r="AJ22" s="34"/>
+      <c r="AK22" s="34"/>
+      <c r="AL22" s="34"/>
+      <c r="AM22" s="34"/>
+      <c r="AN22" s="39"/>
+      <c r="AO22" s="39"/>
+      <c r="AP22" s="34"/>
+      <c r="AQ22" s="34"/>
+      <c r="AR22" s="34"/>
+      <c r="AS22" s="34"/>
+      <c r="AT22" s="34"/>
+      <c r="AU22" s="39"/>
+      <c r="AV22" s="39"/>
+      <c r="AW22" s="34"/>
+      <c r="AX22" s="34"/>
+      <c r="AY22" s="34"/>
+      <c r="AZ22" s="34"/>
+      <c r="BA22" s="34"/>
+      <c r="BB22" s="39"/>
+      <c r="BC22" s="39"/>
+      <c r="BD22" s="34"/>
+      <c r="BE22" s="34"/>
+      <c r="BF22" s="34"/>
+      <c r="BG22" s="34"/>
+      <c r="BH22" s="34"/>
+      <c r="BI22" s="39"/>
+      <c r="BJ22" s="39"/>
+      <c r="BK22" s="34"/>
+      <c r="BL22" s="34"/>
+      <c r="BM22" s="34"/>
+      <c r="BN22" s="34"/>
+      <c r="BO22" s="34"/>
+      <c r="BP22" s="39"/>
+      <c r="BQ22" s="39"/>
+      <c r="BR22" s="34"/>
+      <c r="BS22" s="34"/>
+      <c r="BT22" s="34"/>
+      <c r="BU22" s="34"/>
+      <c r="BV22" s="34"/>
+      <c r="BW22" s="39"/>
+      <c r="BX22" s="39"/>
+      <c r="BY22" s="34"/>
+      <c r="BZ22" s="34"/>
+      <c r="CA22" s="34"/>
+      <c r="CB22" s="34"/>
+      <c r="CC22" s="34"/>
+      <c r="CD22" s="39"/>
+      <c r="CE22" s="39"/>
     </row>
     <row r="23" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="7"/>
-      <c r="B23" s="67" t="s">
+      <c r="B23" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="68"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="85"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="40"/>
-      <c r="I23" s="40"/>
-      <c r="J23" s="40"/>
-      <c r="K23" s="40"/>
-      <c r="L23" s="45"/>
-      <c r="M23" s="45"/>
-      <c r="N23" s="40"/>
-      <c r="O23" s="40"/>
-      <c r="P23" s="40"/>
-      <c r="Q23" s="40"/>
-      <c r="R23" s="40"/>
-      <c r="S23" s="45"/>
-      <c r="T23" s="45"/>
-      <c r="U23" s="40"/>
-      <c r="V23" s="40"/>
-      <c r="W23" s="40"/>
-      <c r="X23" s="40"/>
-      <c r="Y23" s="40"/>
-      <c r="Z23" s="45"/>
-      <c r="AA23" s="45"/>
-      <c r="AB23" s="40"/>
-      <c r="AC23" s="40"/>
-      <c r="AD23" s="40"/>
-      <c r="AE23" s="40"/>
-      <c r="AF23" s="40"/>
-      <c r="AG23" s="45"/>
-      <c r="AH23" s="45"/>
-      <c r="AI23" s="40"/>
-      <c r="AJ23" s="40"/>
-      <c r="AK23" s="40"/>
-      <c r="AL23" s="40"/>
-      <c r="AM23" s="40"/>
-      <c r="AN23" s="45"/>
-      <c r="AO23" s="45"/>
-      <c r="AP23" s="40"/>
-      <c r="AQ23" s="40"/>
-      <c r="AR23" s="40"/>
-      <c r="AS23" s="40"/>
-      <c r="AT23" s="40"/>
-      <c r="AU23" s="45"/>
-      <c r="AV23" s="45"/>
-      <c r="AW23" s="40"/>
-      <c r="AX23" s="40"/>
-      <c r="AY23" s="40"/>
-      <c r="AZ23" s="40"/>
-      <c r="BA23" s="40"/>
-      <c r="BB23" s="45"/>
-      <c r="BC23" s="45"/>
-      <c r="BD23" s="40"/>
-      <c r="BE23" s="40"/>
-      <c r="BF23" s="40"/>
-      <c r="BG23" s="40"/>
-      <c r="BH23" s="40"/>
-      <c r="BI23" s="45"/>
-      <c r="BJ23" s="45"/>
-      <c r="BK23" s="40"/>
-      <c r="BL23" s="40"/>
-      <c r="BM23" s="40"/>
-      <c r="BN23" s="40"/>
-      <c r="BO23" s="40"/>
-      <c r="BP23" s="45"/>
-      <c r="BQ23" s="45"/>
-      <c r="BR23" s="40"/>
-      <c r="BS23" s="40"/>
-      <c r="BT23" s="40"/>
-      <c r="BU23" s="40"/>
-      <c r="BV23" s="40"/>
-      <c r="BW23" s="45"/>
-      <c r="BX23" s="45"/>
-      <c r="BY23" s="40"/>
-      <c r="BZ23" s="40"/>
-      <c r="CA23" s="40"/>
-      <c r="CB23" s="40"/>
-      <c r="CC23" s="40"/>
-      <c r="CD23" s="45"/>
-      <c r="CE23" s="45"/>
+      <c r="C23" s="58"/>
+      <c r="D23" s="59">
+        <v>45226</v>
+      </c>
+      <c r="E23" s="59">
+        <v>45231</v>
+      </c>
+      <c r="F23" s="73"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="34"/>
+      <c r="L23" s="39"/>
+      <c r="M23" s="39"/>
+      <c r="N23" s="34"/>
+      <c r="O23" s="34"/>
+      <c r="P23" s="34"/>
+      <c r="Q23" s="34"/>
+      <c r="R23" s="34"/>
+      <c r="S23" s="39"/>
+      <c r="T23" s="39"/>
+      <c r="U23" s="34"/>
+      <c r="V23" s="34"/>
+      <c r="W23" s="34"/>
+      <c r="X23" s="34"/>
+      <c r="Y23" s="34"/>
+      <c r="Z23" s="39"/>
+      <c r="AA23" s="39"/>
+      <c r="AB23" s="34"/>
+      <c r="AC23" s="34"/>
+      <c r="AD23" s="34"/>
+      <c r="AE23" s="34"/>
+      <c r="AF23" s="34"/>
+      <c r="AG23" s="39"/>
+      <c r="AH23" s="39"/>
+      <c r="AI23" s="34"/>
+      <c r="AJ23" s="34"/>
+      <c r="AK23" s="34"/>
+      <c r="AL23" s="34"/>
+      <c r="AM23" s="34"/>
+      <c r="AN23" s="39"/>
+      <c r="AO23" s="39"/>
+      <c r="AP23" s="34"/>
+      <c r="AQ23" s="34"/>
+      <c r="AR23" s="34"/>
+      <c r="AS23" s="34"/>
+      <c r="AT23" s="34"/>
+      <c r="AU23" s="39"/>
+      <c r="AV23" s="39"/>
+      <c r="AW23" s="34"/>
+      <c r="AX23" s="34"/>
+      <c r="AY23" s="34"/>
+      <c r="AZ23" s="34"/>
+      <c r="BA23" s="34"/>
+      <c r="BB23" s="39"/>
+      <c r="BC23" s="39"/>
+      <c r="BD23" s="34"/>
+      <c r="BE23" s="34"/>
+      <c r="BF23" s="34"/>
+      <c r="BG23" s="34"/>
+      <c r="BH23" s="34"/>
+      <c r="BI23" s="39"/>
+      <c r="BJ23" s="39"/>
+      <c r="BK23" s="34"/>
+      <c r="BL23" s="34"/>
+      <c r="BM23" s="34"/>
+      <c r="BN23" s="34"/>
+      <c r="BO23" s="34"/>
+      <c r="BP23" s="39"/>
+      <c r="BQ23" s="39"/>
+      <c r="BR23" s="34"/>
+      <c r="BS23" s="34"/>
+      <c r="BT23" s="34"/>
+      <c r="BU23" s="34"/>
+      <c r="BV23" s="34"/>
+      <c r="BW23" s="39"/>
+      <c r="BX23" s="39"/>
+      <c r="BY23" s="34"/>
+      <c r="BZ23" s="34"/>
+      <c r="CA23" s="34"/>
+      <c r="CB23" s="34"/>
+      <c r="CC23" s="34"/>
+      <c r="CD23" s="39"/>
+      <c r="CE23" s="39"/>
     </row>
     <row r="24" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="7"/>
-      <c r="B24" s="67" t="s">
+      <c r="B24" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="68"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="85"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="40"/>
-      <c r="I24" s="40"/>
-      <c r="J24" s="40"/>
-      <c r="K24" s="40"/>
-      <c r="L24" s="45"/>
-      <c r="M24" s="45"/>
-      <c r="N24" s="40"/>
-      <c r="O24" s="40"/>
-      <c r="P24" s="40"/>
-      <c r="Q24" s="40"/>
-      <c r="R24" s="40"/>
-      <c r="S24" s="45"/>
-      <c r="T24" s="45"/>
-      <c r="U24" s="40"/>
-      <c r="V24" s="40"/>
-      <c r="W24" s="40"/>
-      <c r="X24" s="40"/>
-      <c r="Y24" s="40"/>
-      <c r="Z24" s="45"/>
-      <c r="AA24" s="45"/>
-      <c r="AB24" s="40"/>
-      <c r="AC24" s="40"/>
-      <c r="AD24" s="40"/>
-      <c r="AE24" s="40"/>
-      <c r="AF24" s="40"/>
-      <c r="AG24" s="45"/>
-      <c r="AH24" s="45"/>
-      <c r="AI24" s="40"/>
-      <c r="AJ24" s="40"/>
-      <c r="AK24" s="40"/>
-      <c r="AL24" s="40"/>
-      <c r="AM24" s="40"/>
-      <c r="AN24" s="45"/>
-      <c r="AO24" s="45"/>
-      <c r="AP24" s="40"/>
-      <c r="AQ24" s="40"/>
-      <c r="AR24" s="40"/>
-      <c r="AS24" s="40"/>
-      <c r="AT24" s="40"/>
-      <c r="AU24" s="45"/>
-      <c r="AV24" s="45"/>
-      <c r="AW24" s="40"/>
-      <c r="AX24" s="40"/>
-      <c r="AY24" s="40"/>
-      <c r="AZ24" s="40"/>
-      <c r="BA24" s="40"/>
-      <c r="BB24" s="45"/>
-      <c r="BC24" s="45"/>
-      <c r="BD24" s="40"/>
-      <c r="BE24" s="40"/>
-      <c r="BF24" s="40"/>
-      <c r="BG24" s="40"/>
-      <c r="BH24" s="40"/>
-      <c r="BI24" s="45"/>
-      <c r="BJ24" s="45"/>
-      <c r="BK24" s="40"/>
-      <c r="BL24" s="40"/>
-      <c r="BM24" s="40"/>
-      <c r="BN24" s="40"/>
-      <c r="BO24" s="40"/>
-      <c r="BP24" s="45"/>
-      <c r="BQ24" s="45"/>
-      <c r="BR24" s="40"/>
-      <c r="BS24" s="40"/>
-      <c r="BT24" s="40"/>
-      <c r="BU24" s="40"/>
-      <c r="BV24" s="40"/>
-      <c r="BW24" s="45"/>
-      <c r="BX24" s="45"/>
-      <c r="BY24" s="40"/>
-      <c r="BZ24" s="40"/>
-      <c r="CA24" s="40"/>
-      <c r="CB24" s="40"/>
-      <c r="CC24" s="40"/>
-      <c r="CD24" s="45"/>
-      <c r="CE24" s="45"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="59">
+        <v>45227</v>
+      </c>
+      <c r="E24" s="59">
+        <v>45232</v>
+      </c>
+      <c r="F24" s="73"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="34"/>
+      <c r="L24" s="39"/>
+      <c r="M24" s="39"/>
+      <c r="N24" s="34"/>
+      <c r="O24" s="34"/>
+      <c r="P24" s="34"/>
+      <c r="Q24" s="34"/>
+      <c r="R24" s="34"/>
+      <c r="S24" s="39"/>
+      <c r="T24" s="39"/>
+      <c r="U24" s="34"/>
+      <c r="V24" s="34"/>
+      <c r="W24" s="34"/>
+      <c r="X24" s="34"/>
+      <c r="Y24" s="34"/>
+      <c r="Z24" s="39"/>
+      <c r="AA24" s="39"/>
+      <c r="AB24" s="34"/>
+      <c r="AC24" s="34"/>
+      <c r="AD24" s="34"/>
+      <c r="AE24" s="34"/>
+      <c r="AF24" s="34"/>
+      <c r="AG24" s="39"/>
+      <c r="AH24" s="39"/>
+      <c r="AI24" s="34"/>
+      <c r="AJ24" s="34"/>
+      <c r="AK24" s="34"/>
+      <c r="AL24" s="34"/>
+      <c r="AM24" s="34"/>
+      <c r="AN24" s="39"/>
+      <c r="AO24" s="39"/>
+      <c r="AP24" s="34"/>
+      <c r="AQ24" s="34"/>
+      <c r="AR24" s="34"/>
+      <c r="AS24" s="34"/>
+      <c r="AT24" s="34"/>
+      <c r="AU24" s="39"/>
+      <c r="AV24" s="39"/>
+      <c r="AW24" s="34"/>
+      <c r="AX24" s="34"/>
+      <c r="AY24" s="34"/>
+      <c r="AZ24" s="34"/>
+      <c r="BA24" s="34"/>
+      <c r="BB24" s="39"/>
+      <c r="BC24" s="39"/>
+      <c r="BD24" s="34"/>
+      <c r="BE24" s="34"/>
+      <c r="BF24" s="34"/>
+      <c r="BG24" s="34"/>
+      <c r="BH24" s="34"/>
+      <c r="BI24" s="39"/>
+      <c r="BJ24" s="39"/>
+      <c r="BK24" s="34"/>
+      <c r="BL24" s="34"/>
+      <c r="BM24" s="34"/>
+      <c r="BN24" s="34"/>
+      <c r="BO24" s="34"/>
+      <c r="BP24" s="39"/>
+      <c r="BQ24" s="39"/>
+      <c r="BR24" s="34"/>
+      <c r="BS24" s="34"/>
+      <c r="BT24" s="34"/>
+      <c r="BU24" s="34"/>
+      <c r="BV24" s="34"/>
+      <c r="BW24" s="39"/>
+      <c r="BX24" s="39"/>
+      <c r="BY24" s="34"/>
+      <c r="BZ24" s="34"/>
+      <c r="CA24" s="34"/>
+      <c r="CB24" s="34"/>
+      <c r="CC24" s="34"/>
+      <c r="CD24" s="39"/>
+      <c r="CE24" s="39"/>
     </row>
     <row r="25" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="7"/>
-      <c r="B25" s="70" t="s">
+      <c r="B25" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="68" t="s">
+      <c r="C25" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="85"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="40"/>
-      <c r="I25" s="40"/>
-      <c r="J25" s="40"/>
-      <c r="K25" s="40"/>
-      <c r="L25" s="45"/>
-      <c r="M25" s="45"/>
-      <c r="N25" s="40"/>
-      <c r="O25" s="40"/>
-      <c r="P25" s="40"/>
-      <c r="Q25" s="40"/>
-      <c r="R25" s="40"/>
-      <c r="S25" s="45"/>
-      <c r="T25" s="45"/>
-      <c r="U25" s="40"/>
-      <c r="V25" s="40"/>
-      <c r="W25" s="40"/>
-      <c r="X25" s="40"/>
-      <c r="Y25" s="40"/>
-      <c r="Z25" s="45"/>
-      <c r="AA25" s="45"/>
-      <c r="AB25" s="40"/>
-      <c r="AC25" s="40"/>
-      <c r="AD25" s="40"/>
-      <c r="AE25" s="40"/>
-      <c r="AF25" s="40"/>
-      <c r="AG25" s="45"/>
-      <c r="AH25" s="45"/>
-      <c r="AI25" s="40"/>
-      <c r="AJ25" s="40"/>
-      <c r="AK25" s="40"/>
-      <c r="AL25" s="40"/>
-      <c r="AM25" s="40"/>
-      <c r="AN25" s="45"/>
-      <c r="AO25" s="45"/>
-      <c r="AP25" s="40"/>
-      <c r="AQ25" s="40"/>
-      <c r="AR25" s="40"/>
-      <c r="AS25" s="40"/>
-      <c r="AT25" s="40"/>
-      <c r="AU25" s="45"/>
-      <c r="AV25" s="45"/>
-      <c r="AW25" s="40"/>
-      <c r="AX25" s="40"/>
-      <c r="AY25" s="40"/>
-      <c r="AZ25" s="40"/>
-      <c r="BA25" s="40"/>
-      <c r="BB25" s="45"/>
-      <c r="BC25" s="45"/>
-      <c r="BD25" s="40"/>
-      <c r="BE25" s="40"/>
-      <c r="BF25" s="40"/>
-      <c r="BG25" s="40"/>
-      <c r="BH25" s="40"/>
-      <c r="BI25" s="45"/>
-      <c r="BJ25" s="45"/>
-      <c r="BK25" s="40"/>
-      <c r="BL25" s="40"/>
-      <c r="BM25" s="40"/>
-      <c r="BN25" s="40"/>
-      <c r="BO25" s="40"/>
-      <c r="BP25" s="45"/>
-      <c r="BQ25" s="45"/>
-      <c r="BR25" s="40"/>
-      <c r="BS25" s="40"/>
-      <c r="BT25" s="40"/>
-      <c r="BU25" s="40"/>
-      <c r="BV25" s="40"/>
-      <c r="BW25" s="45"/>
-      <c r="BX25" s="45"/>
-      <c r="BY25" s="40"/>
-      <c r="BZ25" s="40"/>
-      <c r="CA25" s="40"/>
-      <c r="CB25" s="40"/>
-      <c r="CC25" s="40"/>
-      <c r="CD25" s="45"/>
-      <c r="CE25" s="45"/>
+      <c r="D25" s="59">
+        <v>45228</v>
+      </c>
+      <c r="E25" s="59">
+        <v>45233</v>
+      </c>
+      <c r="F25" s="73"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="34"/>
+      <c r="L25" s="39"/>
+      <c r="M25" s="39"/>
+      <c r="N25" s="34"/>
+      <c r="O25" s="34"/>
+      <c r="P25" s="34"/>
+      <c r="Q25" s="34"/>
+      <c r="R25" s="34"/>
+      <c r="S25" s="39"/>
+      <c r="T25" s="39"/>
+      <c r="U25" s="34"/>
+      <c r="V25" s="34"/>
+      <c r="W25" s="34"/>
+      <c r="X25" s="34"/>
+      <c r="Y25" s="34"/>
+      <c r="Z25" s="39"/>
+      <c r="AA25" s="39"/>
+      <c r="AB25" s="34"/>
+      <c r="AC25" s="34"/>
+      <c r="AD25" s="34"/>
+      <c r="AE25" s="34"/>
+      <c r="AF25" s="34"/>
+      <c r="AG25" s="39"/>
+      <c r="AH25" s="39"/>
+      <c r="AI25" s="34"/>
+      <c r="AJ25" s="34"/>
+      <c r="AK25" s="34"/>
+      <c r="AL25" s="34"/>
+      <c r="AM25" s="34"/>
+      <c r="AN25" s="39"/>
+      <c r="AO25" s="93"/>
+      <c r="AP25" s="94"/>
+      <c r="AQ25" s="94"/>
+      <c r="AR25" s="94"/>
+      <c r="AS25" s="94"/>
+      <c r="AT25" s="95"/>
+      <c r="AU25" s="39"/>
+      <c r="AV25" s="39"/>
+      <c r="AW25" s="34"/>
+      <c r="AX25" s="34"/>
+      <c r="AY25" s="34"/>
+      <c r="AZ25" s="34"/>
+      <c r="BA25" s="34"/>
+      <c r="BB25" s="39"/>
+      <c r="BC25" s="39"/>
+      <c r="BD25" s="34"/>
+      <c r="BE25" s="34"/>
+      <c r="BF25" s="34"/>
+      <c r="BG25" s="34"/>
+      <c r="BH25" s="34"/>
+      <c r="BI25" s="39"/>
+      <c r="BJ25" s="39"/>
+      <c r="BK25" s="34"/>
+      <c r="BL25" s="34"/>
+      <c r="BM25" s="34"/>
+      <c r="BN25" s="34"/>
+      <c r="BO25" s="34"/>
+      <c r="BP25" s="39"/>
+      <c r="BQ25" s="39"/>
+      <c r="BR25" s="34"/>
+      <c r="BS25" s="34"/>
+      <c r="BT25" s="34"/>
+      <c r="BU25" s="34"/>
+      <c r="BV25" s="34"/>
+      <c r="BW25" s="39"/>
+      <c r="BX25" s="39"/>
+      <c r="BY25" s="34"/>
+      <c r="BZ25" s="34"/>
+      <c r="CA25" s="34"/>
+      <c r="CB25" s="34"/>
+      <c r="CC25" s="34"/>
+      <c r="CD25" s="39"/>
+      <c r="CE25" s="39"/>
     </row>
     <row r="26" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="7"/>
-      <c r="B26" s="70" t="s">
+      <c r="B26" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="68" t="s">
+      <c r="C26" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="69"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="85"/>
-      <c r="G26" s="40"/>
-      <c r="H26" s="40"/>
-      <c r="I26" s="40"/>
-      <c r="J26" s="40"/>
-      <c r="K26" s="40"/>
-      <c r="L26" s="45"/>
-      <c r="M26" s="45"/>
-      <c r="N26" s="40"/>
-      <c r="O26" s="40"/>
-      <c r="P26" s="40"/>
-      <c r="Q26" s="40"/>
-      <c r="R26" s="40"/>
-      <c r="S26" s="45"/>
-      <c r="T26" s="45"/>
-      <c r="U26" s="40"/>
-      <c r="V26" s="40"/>
-      <c r="W26" s="40"/>
-      <c r="X26" s="40"/>
-      <c r="Y26" s="40"/>
-      <c r="Z26" s="45"/>
-      <c r="AA26" s="45"/>
-      <c r="AB26" s="40"/>
-      <c r="AC26" s="40"/>
-      <c r="AD26" s="40"/>
-      <c r="AE26" s="40"/>
-      <c r="AF26" s="40"/>
-      <c r="AG26" s="45"/>
-      <c r="AH26" s="45"/>
-      <c r="AI26" s="40"/>
-      <c r="AJ26" s="40"/>
-      <c r="AK26" s="40"/>
-      <c r="AL26" s="40"/>
-      <c r="AM26" s="40"/>
-      <c r="AN26" s="45"/>
-      <c r="AO26" s="45"/>
-      <c r="AP26" s="40"/>
-      <c r="AQ26" s="40"/>
-      <c r="AR26" s="40"/>
-      <c r="AS26" s="40"/>
-      <c r="AT26" s="40"/>
-      <c r="AU26" s="45"/>
-      <c r="AV26" s="45"/>
-      <c r="AW26" s="40"/>
-      <c r="AX26" s="40"/>
-      <c r="AY26" s="40"/>
-      <c r="AZ26" s="40"/>
-      <c r="BA26" s="40"/>
-      <c r="BB26" s="45"/>
-      <c r="BC26" s="45"/>
-      <c r="BD26" s="40"/>
-      <c r="BE26" s="40"/>
-      <c r="BF26" s="40"/>
-      <c r="BG26" s="40"/>
-      <c r="BH26" s="40"/>
-      <c r="BI26" s="45"/>
-      <c r="BJ26" s="45"/>
-      <c r="BK26" s="40"/>
-      <c r="BL26" s="40"/>
-      <c r="BM26" s="40"/>
-      <c r="BN26" s="40"/>
-      <c r="BO26" s="40"/>
-      <c r="BP26" s="45"/>
-      <c r="BQ26" s="45"/>
-      <c r="BR26" s="40"/>
-      <c r="BS26" s="40"/>
-      <c r="BT26" s="40"/>
-      <c r="BU26" s="40"/>
-      <c r="BV26" s="40"/>
-      <c r="BW26" s="45"/>
-      <c r="BX26" s="45"/>
-      <c r="BY26" s="40"/>
-      <c r="BZ26" s="40"/>
-      <c r="CA26" s="40"/>
-      <c r="CB26" s="40"/>
-      <c r="CC26" s="40"/>
-      <c r="CD26" s="45"/>
-      <c r="CE26" s="45"/>
+      <c r="D26" s="59">
+        <v>45229</v>
+      </c>
+      <c r="E26" s="59">
+        <v>45234</v>
+      </c>
+      <c r="F26" s="73"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="39"/>
+      <c r="M26" s="39"/>
+      <c r="N26" s="34"/>
+      <c r="O26" s="34"/>
+      <c r="P26" s="34"/>
+      <c r="Q26" s="34"/>
+      <c r="R26" s="34"/>
+      <c r="S26" s="39"/>
+      <c r="T26" s="39"/>
+      <c r="U26" s="34"/>
+      <c r="V26" s="34"/>
+      <c r="W26" s="34"/>
+      <c r="X26" s="34"/>
+      <c r="Y26" s="34"/>
+      <c r="Z26" s="39"/>
+      <c r="AA26" s="39"/>
+      <c r="AB26" s="34"/>
+      <c r="AC26" s="34"/>
+      <c r="AD26" s="34"/>
+      <c r="AE26" s="34"/>
+      <c r="AF26" s="34"/>
+      <c r="AG26" s="39"/>
+      <c r="AH26" s="39"/>
+      <c r="AI26" s="34"/>
+      <c r="AJ26" s="34"/>
+      <c r="AK26" s="34"/>
+      <c r="AL26" s="34"/>
+      <c r="AM26" s="34"/>
+      <c r="AN26" s="39"/>
+      <c r="AO26" s="39"/>
+      <c r="AP26" s="93"/>
+      <c r="AQ26" s="94"/>
+      <c r="AR26" s="94"/>
+      <c r="AS26" s="94"/>
+      <c r="AT26" s="94"/>
+      <c r="AU26" s="95"/>
+      <c r="AV26" s="39"/>
+      <c r="AW26" s="34"/>
+      <c r="AX26" s="34"/>
+      <c r="AY26" s="34"/>
+      <c r="AZ26" s="34"/>
+      <c r="BA26" s="34"/>
+      <c r="BB26" s="39"/>
+      <c r="BC26" s="39"/>
+      <c r="BD26" s="34"/>
+      <c r="BE26" s="34"/>
+      <c r="BF26" s="34"/>
+      <c r="BG26" s="34"/>
+      <c r="BH26" s="34"/>
+      <c r="BI26" s="39"/>
+      <c r="BJ26" s="39"/>
+      <c r="BK26" s="34"/>
+      <c r="BL26" s="34"/>
+      <c r="BM26" s="34"/>
+      <c r="BN26" s="34"/>
+      <c r="BO26" s="34"/>
+      <c r="BP26" s="39"/>
+      <c r="BQ26" s="39"/>
+      <c r="BR26" s="34"/>
+      <c r="BS26" s="34"/>
+      <c r="BT26" s="34"/>
+      <c r="BU26" s="34"/>
+      <c r="BV26" s="34"/>
+      <c r="BW26" s="39"/>
+      <c r="BX26" s="39"/>
+      <c r="BY26" s="34"/>
+      <c r="BZ26" s="34"/>
+      <c r="CA26" s="34"/>
+      <c r="CB26" s="34"/>
+      <c r="CC26" s="34"/>
+      <c r="CD26" s="39"/>
+      <c r="CE26" s="39"/>
     </row>
     <row r="27" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="7"/>
-      <c r="B27" s="67" t="s">
+      <c r="B27" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="C27" s="68" t="s">
+      <c r="C27" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="D27" s="69"/>
-      <c r="E27" s="69"/>
-      <c r="F27" s="85"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="40"/>
-      <c r="I27" s="40"/>
-      <c r="J27" s="40"/>
-      <c r="K27" s="40"/>
-      <c r="L27" s="45"/>
-      <c r="M27" s="45"/>
-      <c r="N27" s="40"/>
-      <c r="O27" s="40"/>
-      <c r="P27" s="40"/>
-      <c r="Q27" s="40"/>
-      <c r="R27" s="40"/>
-      <c r="S27" s="45"/>
-      <c r="T27" s="45"/>
-      <c r="U27" s="40"/>
-      <c r="V27" s="40"/>
-      <c r="W27" s="40"/>
-      <c r="X27" s="40"/>
-      <c r="Y27" s="40"/>
-      <c r="Z27" s="45"/>
-      <c r="AA27" s="45"/>
-      <c r="AB27" s="40"/>
-      <c r="AC27" s="40"/>
-      <c r="AD27" s="40"/>
-      <c r="AE27" s="40"/>
-      <c r="AF27" s="40"/>
-      <c r="AG27" s="45"/>
-      <c r="AH27" s="45"/>
-      <c r="AI27" s="40"/>
-      <c r="AJ27" s="40"/>
-      <c r="AK27" s="40"/>
-      <c r="AL27" s="40"/>
-      <c r="AM27" s="40"/>
-      <c r="AN27" s="45"/>
-      <c r="AO27" s="45"/>
-      <c r="AP27" s="40"/>
-      <c r="AQ27" s="40"/>
-      <c r="AR27" s="40"/>
-      <c r="AS27" s="40"/>
-      <c r="AT27" s="40"/>
-      <c r="AU27" s="45"/>
-      <c r="AV27" s="45"/>
-      <c r="AW27" s="40"/>
-      <c r="AX27" s="40"/>
-      <c r="AY27" s="40"/>
-      <c r="AZ27" s="40"/>
-      <c r="BA27" s="40"/>
-      <c r="BB27" s="45"/>
-      <c r="BC27" s="45"/>
-      <c r="BD27" s="40"/>
-      <c r="BE27" s="40"/>
-      <c r="BF27" s="40"/>
-      <c r="BG27" s="40"/>
-      <c r="BH27" s="40"/>
-      <c r="BI27" s="45"/>
-      <c r="BJ27" s="45"/>
-      <c r="BK27" s="40"/>
-      <c r="BL27" s="40"/>
-      <c r="BM27" s="40"/>
-      <c r="BN27" s="40"/>
-      <c r="BO27" s="40"/>
-      <c r="BP27" s="45"/>
-      <c r="BQ27" s="45"/>
-      <c r="BR27" s="40"/>
-      <c r="BS27" s="40"/>
-      <c r="BT27" s="40"/>
-      <c r="BU27" s="40"/>
-      <c r="BV27" s="40"/>
-      <c r="BW27" s="45"/>
-      <c r="BX27" s="45"/>
-      <c r="BY27" s="40"/>
-      <c r="BZ27" s="40"/>
-      <c r="CA27" s="40"/>
-      <c r="CB27" s="40"/>
-      <c r="CC27" s="40"/>
-      <c r="CD27" s="45"/>
-      <c r="CE27" s="45"/>
+      <c r="D27" s="59">
+        <v>45230</v>
+      </c>
+      <c r="E27" s="59">
+        <v>45235</v>
+      </c>
+      <c r="F27" s="73"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="34"/>
+      <c r="K27" s="34"/>
+      <c r="L27" s="39"/>
+      <c r="M27" s="39"/>
+      <c r="N27" s="34"/>
+      <c r="O27" s="34"/>
+      <c r="P27" s="34"/>
+      <c r="Q27" s="34"/>
+      <c r="R27" s="34"/>
+      <c r="S27" s="39"/>
+      <c r="T27" s="39"/>
+      <c r="U27" s="34"/>
+      <c r="V27" s="34"/>
+      <c r="W27" s="34"/>
+      <c r="X27" s="34"/>
+      <c r="Y27" s="34"/>
+      <c r="Z27" s="39"/>
+      <c r="AA27" s="39"/>
+      <c r="AB27" s="34"/>
+      <c r="AC27" s="34"/>
+      <c r="AD27" s="34"/>
+      <c r="AE27" s="34"/>
+      <c r="AF27" s="34"/>
+      <c r="AG27" s="39"/>
+      <c r="AH27" s="39"/>
+      <c r="AI27" s="34"/>
+      <c r="AJ27" s="34"/>
+      <c r="AK27" s="34"/>
+      <c r="AL27" s="34"/>
+      <c r="AM27" s="34"/>
+      <c r="AN27" s="39"/>
+      <c r="AO27" s="39"/>
+      <c r="AP27" s="34"/>
+      <c r="AQ27" s="93"/>
+      <c r="AR27" s="94"/>
+      <c r="AS27" s="94"/>
+      <c r="AT27" s="94"/>
+      <c r="AU27" s="94"/>
+      <c r="AV27" s="95"/>
+      <c r="AW27" s="34"/>
+      <c r="AX27" s="34"/>
+      <c r="AY27" s="34"/>
+      <c r="AZ27" s="34"/>
+      <c r="BA27" s="34"/>
+      <c r="BB27" s="39"/>
+      <c r="BC27" s="39"/>
+      <c r="BD27" s="34"/>
+      <c r="BE27" s="34"/>
+      <c r="BF27" s="34"/>
+      <c r="BG27" s="34"/>
+      <c r="BH27" s="34"/>
+      <c r="BI27" s="39"/>
+      <c r="BJ27" s="39"/>
+      <c r="BK27" s="34"/>
+      <c r="BL27" s="34"/>
+      <c r="BM27" s="34"/>
+      <c r="BN27" s="34"/>
+      <c r="BO27" s="34"/>
+      <c r="BP27" s="39"/>
+      <c r="BQ27" s="39"/>
+      <c r="BR27" s="34"/>
+      <c r="BS27" s="34"/>
+      <c r="BT27" s="34"/>
+      <c r="BU27" s="34"/>
+      <c r="BV27" s="34"/>
+      <c r="BW27" s="39"/>
+      <c r="BX27" s="39"/>
+      <c r="BY27" s="34"/>
+      <c r="BZ27" s="34"/>
+      <c r="CA27" s="34"/>
+      <c r="CB27" s="34"/>
+      <c r="CC27" s="34"/>
+      <c r="CD27" s="39"/>
+      <c r="CE27" s="39"/>
     </row>
     <row r="28" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="7"/>
-      <c r="B28" s="67" t="s">
+      <c r="B28" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="68"/>
-      <c r="D28" s="69"/>
-      <c r="E28" s="69"/>
-      <c r="F28" s="85"/>
-      <c r="G28" s="40"/>
-      <c r="H28" s="40"/>
-      <c r="I28" s="40"/>
-      <c r="J28" s="40"/>
-      <c r="K28" s="40"/>
-      <c r="L28" s="45"/>
-      <c r="M28" s="45"/>
-      <c r="N28" s="40"/>
-      <c r="O28" s="40"/>
-      <c r="P28" s="40"/>
-      <c r="Q28" s="40"/>
-      <c r="R28" s="40"/>
-      <c r="S28" s="45"/>
-      <c r="T28" s="45"/>
-      <c r="U28" s="40"/>
-      <c r="V28" s="40"/>
-      <c r="W28" s="40"/>
-      <c r="X28" s="40"/>
-      <c r="Y28" s="40"/>
-      <c r="Z28" s="45"/>
-      <c r="AA28" s="45"/>
-      <c r="AB28" s="40"/>
-      <c r="AC28" s="40"/>
-      <c r="AD28" s="40"/>
-      <c r="AE28" s="40"/>
-      <c r="AF28" s="40"/>
-      <c r="AG28" s="45"/>
-      <c r="AH28" s="45"/>
-      <c r="AI28" s="40"/>
-      <c r="AJ28" s="40"/>
-      <c r="AK28" s="40"/>
-      <c r="AL28" s="40"/>
-      <c r="AM28" s="40"/>
-      <c r="AN28" s="45"/>
-      <c r="AO28" s="45"/>
-      <c r="AP28" s="40"/>
-      <c r="AQ28" s="40"/>
-      <c r="AR28" s="40"/>
-      <c r="AS28" s="40"/>
-      <c r="AT28" s="40"/>
-      <c r="AU28" s="45"/>
-      <c r="AV28" s="45"/>
-      <c r="AW28" s="40"/>
-      <c r="AX28" s="40"/>
-      <c r="AY28" s="40"/>
-      <c r="AZ28" s="40"/>
-      <c r="BA28" s="40"/>
-      <c r="BB28" s="45"/>
-      <c r="BC28" s="45"/>
-      <c r="BD28" s="40"/>
-      <c r="BE28" s="40"/>
-      <c r="BF28" s="40"/>
-      <c r="BG28" s="40"/>
-      <c r="BH28" s="40"/>
-      <c r="BI28" s="45"/>
-      <c r="BJ28" s="45"/>
-      <c r="BK28" s="40"/>
-      <c r="BL28" s="40"/>
-      <c r="BM28" s="40"/>
-      <c r="BN28" s="40"/>
-      <c r="BO28" s="40"/>
-      <c r="BP28" s="45"/>
-      <c r="BQ28" s="45"/>
-      <c r="BR28" s="40"/>
-      <c r="BS28" s="40"/>
-      <c r="BT28" s="40"/>
-      <c r="BU28" s="40"/>
-      <c r="BV28" s="40"/>
-      <c r="BW28" s="45"/>
-      <c r="BX28" s="45"/>
-      <c r="BY28" s="40"/>
-      <c r="BZ28" s="40"/>
-      <c r="CA28" s="40"/>
-      <c r="CB28" s="40"/>
-      <c r="CC28" s="40"/>
-      <c r="CD28" s="45"/>
-      <c r="CE28" s="45"/>
+      <c r="C28" s="58"/>
+      <c r="D28" s="59">
+        <v>45231</v>
+      </c>
+      <c r="E28" s="59">
+        <v>45236</v>
+      </c>
+      <c r="F28" s="73"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="34"/>
+      <c r="K28" s="34"/>
+      <c r="L28" s="39"/>
+      <c r="M28" s="39"/>
+      <c r="N28" s="34"/>
+      <c r="O28" s="34"/>
+      <c r="P28" s="34"/>
+      <c r="Q28" s="34"/>
+      <c r="R28" s="34"/>
+      <c r="S28" s="39"/>
+      <c r="T28" s="39"/>
+      <c r="U28" s="34"/>
+      <c r="V28" s="34"/>
+      <c r="W28" s="34"/>
+      <c r="X28" s="34"/>
+      <c r="Y28" s="34"/>
+      <c r="Z28" s="39"/>
+      <c r="AA28" s="39"/>
+      <c r="AB28" s="34"/>
+      <c r="AC28" s="34"/>
+      <c r="AD28" s="34"/>
+      <c r="AE28" s="34"/>
+      <c r="AF28" s="34"/>
+      <c r="AG28" s="39"/>
+      <c r="AH28" s="39"/>
+      <c r="AI28" s="34"/>
+      <c r="AJ28" s="34"/>
+      <c r="AK28" s="34"/>
+      <c r="AL28" s="34"/>
+      <c r="AM28" s="34"/>
+      <c r="AN28" s="39"/>
+      <c r="AO28" s="39"/>
+      <c r="AP28" s="34"/>
+      <c r="AQ28" s="34"/>
+      <c r="AR28" s="34"/>
+      <c r="AS28" s="34"/>
+      <c r="AT28" s="34"/>
+      <c r="AU28" s="39"/>
+      <c r="AV28" s="39"/>
+      <c r="AW28" s="34"/>
+      <c r="AX28" s="34"/>
+      <c r="AY28" s="34"/>
+      <c r="AZ28" s="34"/>
+      <c r="BA28" s="34"/>
+      <c r="BB28" s="39"/>
+      <c r="BC28" s="39"/>
+      <c r="BD28" s="34"/>
+      <c r="BE28" s="34"/>
+      <c r="BF28" s="34"/>
+      <c r="BG28" s="34"/>
+      <c r="BH28" s="34"/>
+      <c r="BI28" s="39"/>
+      <c r="BJ28" s="39"/>
+      <c r="BK28" s="34"/>
+      <c r="BL28" s="34"/>
+      <c r="BM28" s="34"/>
+      <c r="BN28" s="34"/>
+      <c r="BO28" s="34"/>
+      <c r="BP28" s="39"/>
+      <c r="BQ28" s="39"/>
+      <c r="BR28" s="34"/>
+      <c r="BS28" s="34"/>
+      <c r="BT28" s="34"/>
+      <c r="BU28" s="34"/>
+      <c r="BV28" s="34"/>
+      <c r="BW28" s="39"/>
+      <c r="BX28" s="39"/>
+      <c r="BY28" s="34"/>
+      <c r="BZ28" s="34"/>
+      <c r="CA28" s="34"/>
+      <c r="CB28" s="34"/>
+      <c r="CC28" s="34"/>
+      <c r="CD28" s="39"/>
+      <c r="CE28" s="39"/>
     </row>
     <row r="29" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="7"/>
-      <c r="B29" s="67" t="s">
+      <c r="B29" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="68" t="s">
+      <c r="C29" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="D29" s="69"/>
-      <c r="E29" s="69"/>
-      <c r="F29" s="85"/>
-      <c r="G29" s="40"/>
-      <c r="H29" s="40"/>
-      <c r="I29" s="40"/>
-      <c r="J29" s="40"/>
-      <c r="K29" s="40"/>
-      <c r="L29" s="45"/>
-      <c r="M29" s="45"/>
-      <c r="N29" s="40"/>
-      <c r="O29" s="40"/>
-      <c r="P29" s="40"/>
-      <c r="Q29" s="40"/>
-      <c r="R29" s="40"/>
-      <c r="S29" s="45"/>
-      <c r="T29" s="45"/>
-      <c r="U29" s="40"/>
-      <c r="V29" s="40"/>
-      <c r="W29" s="40"/>
-      <c r="X29" s="40"/>
-      <c r="Y29" s="40"/>
-      <c r="Z29" s="45"/>
-      <c r="AA29" s="45"/>
-      <c r="AB29" s="40"/>
-      <c r="AC29" s="40"/>
-      <c r="AD29" s="40"/>
-      <c r="AE29" s="40"/>
-      <c r="AF29" s="40"/>
-      <c r="AG29" s="45"/>
-      <c r="AH29" s="45"/>
-      <c r="AI29" s="40"/>
-      <c r="AJ29" s="40"/>
-      <c r="AK29" s="40"/>
-      <c r="AL29" s="40"/>
-      <c r="AM29" s="40"/>
-      <c r="AN29" s="45"/>
-      <c r="AO29" s="45"/>
-      <c r="AP29" s="40"/>
-      <c r="AQ29" s="40"/>
-      <c r="AR29" s="40"/>
-      <c r="AS29" s="40"/>
-      <c r="AT29" s="40"/>
-      <c r="AU29" s="45"/>
-      <c r="AV29" s="45"/>
-      <c r="AW29" s="40"/>
-      <c r="AX29" s="40"/>
-      <c r="AY29" s="40"/>
-      <c r="AZ29" s="40"/>
-      <c r="BA29" s="40"/>
-      <c r="BB29" s="45"/>
-      <c r="BC29" s="45"/>
-      <c r="BD29" s="40"/>
-      <c r="BE29" s="40"/>
-      <c r="BF29" s="40"/>
-      <c r="BG29" s="40"/>
-      <c r="BH29" s="40"/>
-      <c r="BI29" s="45"/>
-      <c r="BJ29" s="45"/>
-      <c r="BK29" s="40"/>
-      <c r="BL29" s="40"/>
-      <c r="BM29" s="40"/>
-      <c r="BN29" s="40"/>
-      <c r="BO29" s="40"/>
-      <c r="BP29" s="45"/>
-      <c r="BQ29" s="45"/>
-      <c r="BR29" s="40"/>
-      <c r="BS29" s="40"/>
-      <c r="BT29" s="40"/>
-      <c r="BU29" s="40"/>
-      <c r="BV29" s="40"/>
-      <c r="BW29" s="45"/>
-      <c r="BX29" s="45"/>
-      <c r="BY29" s="40"/>
-      <c r="BZ29" s="40"/>
-      <c r="CA29" s="40"/>
-      <c r="CB29" s="40"/>
-      <c r="CC29" s="40"/>
-      <c r="CD29" s="45"/>
-      <c r="CE29" s="45"/>
+      <c r="D29" s="59">
+        <v>45232</v>
+      </c>
+      <c r="E29" s="59">
+        <v>45237</v>
+      </c>
+      <c r="F29" s="73"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="34"/>
+      <c r="J29" s="34"/>
+      <c r="K29" s="34"/>
+      <c r="L29" s="39"/>
+      <c r="M29" s="39"/>
+      <c r="N29" s="34"/>
+      <c r="O29" s="34"/>
+      <c r="P29" s="34"/>
+      <c r="Q29" s="34"/>
+      <c r="R29" s="34"/>
+      <c r="S29" s="39"/>
+      <c r="T29" s="39"/>
+      <c r="U29" s="34"/>
+      <c r="V29" s="34"/>
+      <c r="W29" s="34"/>
+      <c r="X29" s="34"/>
+      <c r="Y29" s="34"/>
+      <c r="Z29" s="39"/>
+      <c r="AA29" s="39"/>
+      <c r="AB29" s="34"/>
+      <c r="AC29" s="34"/>
+      <c r="AD29" s="34"/>
+      <c r="AE29" s="34"/>
+      <c r="AF29" s="34"/>
+      <c r="AG29" s="39"/>
+      <c r="AH29" s="39"/>
+      <c r="AI29" s="34"/>
+      <c r="AJ29" s="34"/>
+      <c r="AK29" s="34"/>
+      <c r="AL29" s="34"/>
+      <c r="AM29" s="34"/>
+      <c r="AN29" s="39"/>
+      <c r="AO29" s="39"/>
+      <c r="AP29" s="34"/>
+      <c r="AQ29" s="34"/>
+      <c r="AR29" s="34"/>
+      <c r="AS29" s="93"/>
+      <c r="AT29" s="94"/>
+      <c r="AU29" s="94"/>
+      <c r="AV29" s="94"/>
+      <c r="AW29" s="94"/>
+      <c r="AX29" s="95"/>
+      <c r="AY29" s="34"/>
+      <c r="AZ29" s="34"/>
+      <c r="BA29" s="34"/>
+      <c r="BB29" s="39"/>
+      <c r="BC29" s="39"/>
+      <c r="BD29" s="34"/>
+      <c r="BE29" s="34"/>
+      <c r="BF29" s="34"/>
+      <c r="BG29" s="34"/>
+      <c r="BH29" s="34"/>
+      <c r="BI29" s="39"/>
+      <c r="BJ29" s="39"/>
+      <c r="BK29" s="34"/>
+      <c r="BL29" s="34"/>
+      <c r="BM29" s="34"/>
+      <c r="BN29" s="34"/>
+      <c r="BO29" s="34"/>
+      <c r="BP29" s="39"/>
+      <c r="BQ29" s="39"/>
+      <c r="BR29" s="34"/>
+      <c r="BS29" s="34"/>
+      <c r="BT29" s="34"/>
+      <c r="BU29" s="34"/>
+      <c r="BV29" s="34"/>
+      <c r="BW29" s="39"/>
+      <c r="BX29" s="39"/>
+      <c r="BY29" s="34"/>
+      <c r="BZ29" s="34"/>
+      <c r="CA29" s="34"/>
+      <c r="CB29" s="34"/>
+      <c r="CC29" s="34"/>
+      <c r="CD29" s="39"/>
+      <c r="CE29" s="39"/>
     </row>
     <row r="30" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="7"/>
-      <c r="B30" s="67" t="s">
+      <c r="B30" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="68"/>
-      <c r="D30" s="69"/>
-      <c r="E30" s="69"/>
-      <c r="F30" s="85"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="40"/>
-      <c r="I30" s="40"/>
-      <c r="J30" s="40"/>
-      <c r="K30" s="40"/>
-      <c r="L30" s="45"/>
-      <c r="M30" s="45"/>
-      <c r="N30" s="40"/>
-      <c r="O30" s="40"/>
-      <c r="P30" s="40"/>
-      <c r="Q30" s="40"/>
-      <c r="R30" s="40"/>
-      <c r="S30" s="45"/>
-      <c r="T30" s="45"/>
-      <c r="U30" s="40"/>
-      <c r="V30" s="40"/>
-      <c r="W30" s="40"/>
-      <c r="X30" s="40"/>
-      <c r="Y30" s="40"/>
-      <c r="Z30" s="45"/>
-      <c r="AA30" s="45"/>
-      <c r="AB30" s="40"/>
-      <c r="AC30" s="40"/>
-      <c r="AD30" s="40"/>
-      <c r="AE30" s="40"/>
-      <c r="AF30" s="40"/>
-      <c r="AG30" s="45"/>
-      <c r="AH30" s="45"/>
-      <c r="AI30" s="40"/>
-      <c r="AJ30" s="40"/>
-      <c r="AK30" s="40"/>
-      <c r="AL30" s="40"/>
-      <c r="AM30" s="40"/>
-      <c r="AN30" s="45"/>
-      <c r="AO30" s="45"/>
-      <c r="AP30" s="40"/>
-      <c r="AQ30" s="40"/>
-      <c r="AR30" s="40"/>
-      <c r="AS30" s="40"/>
-      <c r="AT30" s="40"/>
-      <c r="AU30" s="45"/>
-      <c r="AV30" s="45"/>
-      <c r="AW30" s="40"/>
-      <c r="AX30" s="40"/>
-      <c r="AY30" s="40"/>
-      <c r="AZ30" s="40"/>
-      <c r="BA30" s="40"/>
-      <c r="BB30" s="45"/>
-      <c r="BC30" s="45"/>
-      <c r="BD30" s="40"/>
-      <c r="BE30" s="40"/>
-      <c r="BF30" s="40"/>
-      <c r="BG30" s="40"/>
-      <c r="BH30" s="40"/>
-      <c r="BI30" s="45"/>
-      <c r="BJ30" s="45"/>
-      <c r="BK30" s="40"/>
-      <c r="BL30" s="40"/>
-      <c r="BM30" s="40"/>
-      <c r="BN30" s="40"/>
-      <c r="BO30" s="40"/>
-      <c r="BP30" s="45"/>
-      <c r="BQ30" s="45"/>
-      <c r="BR30" s="40"/>
-      <c r="BS30" s="40"/>
-      <c r="BT30" s="40"/>
-      <c r="BU30" s="40"/>
-      <c r="BV30" s="40"/>
-      <c r="BW30" s="45"/>
-      <c r="BX30" s="45"/>
-      <c r="BY30" s="40"/>
-      <c r="BZ30" s="40"/>
-      <c r="CA30" s="40"/>
-      <c r="CB30" s="40"/>
-      <c r="CC30" s="40"/>
-      <c r="CD30" s="45"/>
-      <c r="CE30" s="45"/>
+      <c r="C30" s="58"/>
+      <c r="D30" s="59">
+        <v>45233</v>
+      </c>
+      <c r="E30" s="59">
+        <v>45238</v>
+      </c>
+      <c r="F30" s="73"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="34"/>
+      <c r="I30" s="34"/>
+      <c r="J30" s="34"/>
+      <c r="K30" s="34"/>
+      <c r="L30" s="39"/>
+      <c r="M30" s="39"/>
+      <c r="N30" s="34"/>
+      <c r="O30" s="34"/>
+      <c r="P30" s="34"/>
+      <c r="Q30" s="34"/>
+      <c r="R30" s="34"/>
+      <c r="S30" s="39"/>
+      <c r="T30" s="39"/>
+      <c r="U30" s="34"/>
+      <c r="V30" s="34"/>
+      <c r="W30" s="34"/>
+      <c r="X30" s="34"/>
+      <c r="Y30" s="34"/>
+      <c r="Z30" s="39"/>
+      <c r="AA30" s="39"/>
+      <c r="AB30" s="34"/>
+      <c r="AC30" s="34"/>
+      <c r="AD30" s="34"/>
+      <c r="AE30" s="34"/>
+      <c r="AF30" s="34"/>
+      <c r="AG30" s="39"/>
+      <c r="AH30" s="39"/>
+      <c r="AI30" s="34"/>
+      <c r="AJ30" s="34"/>
+      <c r="AK30" s="34"/>
+      <c r="AL30" s="34"/>
+      <c r="AM30" s="34"/>
+      <c r="AN30" s="39"/>
+      <c r="AO30" s="39"/>
+      <c r="AP30" s="34"/>
+      <c r="AQ30" s="34"/>
+      <c r="AR30" s="34"/>
+      <c r="AS30" s="34"/>
+      <c r="AT30" s="34"/>
+      <c r="AU30" s="39"/>
+      <c r="AV30" s="39"/>
+      <c r="AW30" s="34"/>
+      <c r="AX30" s="34"/>
+      <c r="AY30" s="34"/>
+      <c r="AZ30" s="34"/>
+      <c r="BA30" s="34"/>
+      <c r="BB30" s="39"/>
+      <c r="BC30" s="39"/>
+      <c r="BD30" s="34"/>
+      <c r="BE30" s="34"/>
+      <c r="BF30" s="34"/>
+      <c r="BG30" s="34"/>
+      <c r="BH30" s="34"/>
+      <c r="BI30" s="39"/>
+      <c r="BJ30" s="39"/>
+      <c r="BK30" s="34"/>
+      <c r="BL30" s="34"/>
+      <c r="BM30" s="34"/>
+      <c r="BN30" s="34"/>
+      <c r="BO30" s="34"/>
+      <c r="BP30" s="39"/>
+      <c r="BQ30" s="39"/>
+      <c r="BR30" s="34"/>
+      <c r="BS30" s="34"/>
+      <c r="BT30" s="34"/>
+      <c r="BU30" s="34"/>
+      <c r="BV30" s="34"/>
+      <c r="BW30" s="39"/>
+      <c r="BX30" s="39"/>
+      <c r="BY30" s="34"/>
+      <c r="BZ30" s="34"/>
+      <c r="CA30" s="34"/>
+      <c r="CB30" s="34"/>
+      <c r="CC30" s="34"/>
+      <c r="CD30" s="39"/>
+      <c r="CE30" s="39"/>
     </row>
     <row r="31" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="7"/>
-      <c r="B31" s="67" t="s">
+      <c r="B31" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="68"/>
-      <c r="D31" s="69"/>
-      <c r="E31" s="69"/>
-      <c r="F31" s="85"/>
-      <c r="G31" s="40"/>
-      <c r="H31" s="40"/>
-      <c r="I31" s="40"/>
-      <c r="J31" s="40"/>
-      <c r="K31" s="40"/>
-      <c r="L31" s="45"/>
-      <c r="M31" s="45"/>
-      <c r="N31" s="40"/>
-      <c r="O31" s="40"/>
-      <c r="P31" s="40"/>
-      <c r="Q31" s="40"/>
-      <c r="R31" s="40"/>
-      <c r="S31" s="45"/>
-      <c r="T31" s="45"/>
-      <c r="U31" s="40"/>
-      <c r="V31" s="40"/>
-      <c r="W31" s="40"/>
-      <c r="X31" s="40"/>
-      <c r="Y31" s="40"/>
-      <c r="Z31" s="45"/>
-      <c r="AA31" s="45"/>
-      <c r="AB31" s="40"/>
-      <c r="AC31" s="40"/>
-      <c r="AD31" s="40"/>
-      <c r="AE31" s="40"/>
-      <c r="AF31" s="40"/>
-      <c r="AG31" s="45"/>
-      <c r="AH31" s="45"/>
-      <c r="AI31" s="40"/>
-      <c r="AJ31" s="40"/>
-      <c r="AK31" s="40"/>
-      <c r="AL31" s="40"/>
-      <c r="AM31" s="40"/>
-      <c r="AN31" s="45"/>
-      <c r="AO31" s="45"/>
-      <c r="AP31" s="40"/>
-      <c r="AQ31" s="40"/>
-      <c r="AR31" s="40"/>
-      <c r="AS31" s="40"/>
-      <c r="AT31" s="40"/>
-      <c r="AU31" s="45"/>
-      <c r="AV31" s="45"/>
-      <c r="AW31" s="40"/>
-      <c r="AX31" s="40"/>
-      <c r="AY31" s="40"/>
-      <c r="AZ31" s="40"/>
-      <c r="BA31" s="40"/>
-      <c r="BB31" s="45"/>
-      <c r="BC31" s="45"/>
-      <c r="BD31" s="40"/>
-      <c r="BE31" s="40"/>
-      <c r="BF31" s="40"/>
-      <c r="BG31" s="40"/>
-      <c r="BH31" s="40"/>
-      <c r="BI31" s="45"/>
-      <c r="BJ31" s="45"/>
-      <c r="BK31" s="40"/>
-      <c r="BL31" s="40"/>
-      <c r="BM31" s="40"/>
-      <c r="BN31" s="40"/>
-      <c r="BO31" s="40"/>
-      <c r="BP31" s="45"/>
-      <c r="BQ31" s="45"/>
-      <c r="BR31" s="40"/>
-      <c r="BS31" s="40"/>
-      <c r="BT31" s="40"/>
-      <c r="BU31" s="40"/>
-      <c r="BV31" s="40"/>
-      <c r="BW31" s="45"/>
-      <c r="BX31" s="45"/>
-      <c r="BY31" s="40"/>
-      <c r="BZ31" s="40"/>
-      <c r="CA31" s="40"/>
-      <c r="CB31" s="40"/>
-      <c r="CC31" s="40"/>
-      <c r="CD31" s="45"/>
-      <c r="CE31" s="45"/>
+      <c r="C31" s="58"/>
+      <c r="D31" s="59">
+        <v>45234</v>
+      </c>
+      <c r="E31" s="59">
+        <v>45239</v>
+      </c>
+      <c r="F31" s="73"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="34"/>
+      <c r="J31" s="34"/>
+      <c r="K31" s="34"/>
+      <c r="L31" s="39"/>
+      <c r="M31" s="39"/>
+      <c r="N31" s="34"/>
+      <c r="O31" s="34"/>
+      <c r="P31" s="34"/>
+      <c r="Q31" s="34"/>
+      <c r="R31" s="34"/>
+      <c r="S31" s="39"/>
+      <c r="T31" s="39"/>
+      <c r="U31" s="34"/>
+      <c r="V31" s="34"/>
+      <c r="W31" s="34"/>
+      <c r="X31" s="34"/>
+      <c r="Y31" s="34"/>
+      <c r="Z31" s="39"/>
+      <c r="AA31" s="39"/>
+      <c r="AB31" s="34"/>
+      <c r="AC31" s="34"/>
+      <c r="AD31" s="34"/>
+      <c r="AE31" s="34"/>
+      <c r="AF31" s="34"/>
+      <c r="AG31" s="39"/>
+      <c r="AH31" s="39"/>
+      <c r="AI31" s="34"/>
+      <c r="AJ31" s="34"/>
+      <c r="AK31" s="34"/>
+      <c r="AL31" s="34"/>
+      <c r="AM31" s="34"/>
+      <c r="AN31" s="39"/>
+      <c r="AO31" s="39"/>
+      <c r="AP31" s="34"/>
+      <c r="AQ31" s="34"/>
+      <c r="AR31" s="34"/>
+      <c r="AS31" s="34"/>
+      <c r="AT31" s="34"/>
+      <c r="AU31" s="39"/>
+      <c r="AV31" s="39"/>
+      <c r="AW31" s="34"/>
+      <c r="AX31" s="34"/>
+      <c r="AY31" s="34"/>
+      <c r="AZ31" s="34"/>
+      <c r="BA31" s="34"/>
+      <c r="BB31" s="39"/>
+      <c r="BC31" s="39"/>
+      <c r="BD31" s="34"/>
+      <c r="BE31" s="34"/>
+      <c r="BF31" s="34"/>
+      <c r="BG31" s="34"/>
+      <c r="BH31" s="34"/>
+      <c r="BI31" s="39"/>
+      <c r="BJ31" s="39"/>
+      <c r="BK31" s="34"/>
+      <c r="BL31" s="34"/>
+      <c r="BM31" s="34"/>
+      <c r="BN31" s="34"/>
+      <c r="BO31" s="34"/>
+      <c r="BP31" s="39"/>
+      <c r="BQ31" s="39"/>
+      <c r="BR31" s="34"/>
+      <c r="BS31" s="34"/>
+      <c r="BT31" s="34"/>
+      <c r="BU31" s="34"/>
+      <c r="BV31" s="34"/>
+      <c r="BW31" s="39"/>
+      <c r="BX31" s="39"/>
+      <c r="BY31" s="34"/>
+      <c r="BZ31" s="34"/>
+      <c r="CA31" s="34"/>
+      <c r="CB31" s="34"/>
+      <c r="CC31" s="34"/>
+      <c r="CD31" s="39"/>
+      <c r="CE31" s="39"/>
     </row>
     <row r="32" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="7"/>
-      <c r="B32" s="67" t="s">
+      <c r="B32" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="68"/>
-      <c r="D32" s="69"/>
-      <c r="E32" s="69"/>
-      <c r="F32" s="81"/>
-      <c r="G32" s="40"/>
-      <c r="H32" s="40"/>
-      <c r="I32" s="40"/>
-      <c r="J32" s="40"/>
-      <c r="K32" s="40"/>
-      <c r="L32" s="45"/>
-      <c r="M32" s="45"/>
-      <c r="N32" s="40"/>
-      <c r="O32" s="40"/>
-      <c r="P32" s="40"/>
-      <c r="Q32" s="40"/>
-      <c r="R32" s="40"/>
-      <c r="S32" s="45"/>
-      <c r="T32" s="45"/>
-      <c r="U32" s="40"/>
-      <c r="V32" s="40"/>
-      <c r="W32" s="40"/>
-      <c r="X32" s="40"/>
-      <c r="Y32" s="40"/>
-      <c r="Z32" s="45"/>
-      <c r="AA32" s="45"/>
-      <c r="AB32" s="40"/>
-      <c r="AC32" s="40"/>
-      <c r="AD32" s="40"/>
-      <c r="AE32" s="40"/>
-      <c r="AF32" s="40"/>
-      <c r="AG32" s="45"/>
-      <c r="AH32" s="45"/>
-      <c r="AI32" s="40"/>
-      <c r="AJ32" s="40"/>
-      <c r="AK32" s="40"/>
-      <c r="AL32" s="40"/>
-      <c r="AM32" s="40"/>
-      <c r="AN32" s="45"/>
-      <c r="AO32" s="45"/>
-      <c r="AP32" s="40"/>
-      <c r="AQ32" s="40"/>
-      <c r="AR32" s="40"/>
-      <c r="AS32" s="40"/>
-      <c r="AT32" s="40"/>
-      <c r="AU32" s="45"/>
-      <c r="AV32" s="45"/>
-      <c r="AW32" s="40"/>
-      <c r="AX32" s="40"/>
-      <c r="AY32" s="40"/>
-      <c r="AZ32" s="40"/>
-      <c r="BA32" s="40"/>
-      <c r="BB32" s="45"/>
-      <c r="BC32" s="45"/>
-      <c r="BD32" s="40"/>
-      <c r="BE32" s="40"/>
-      <c r="BF32" s="40"/>
-      <c r="BG32" s="40"/>
-      <c r="BH32" s="40"/>
-      <c r="BI32" s="45"/>
-      <c r="BJ32" s="45"/>
-      <c r="BK32" s="40"/>
-      <c r="BL32" s="40"/>
-      <c r="BM32" s="40"/>
-      <c r="BN32" s="40"/>
-      <c r="BO32" s="40"/>
-      <c r="BP32" s="45"/>
-      <c r="BQ32" s="45"/>
-      <c r="BR32" s="40"/>
-      <c r="BS32" s="40"/>
-      <c r="BT32" s="40"/>
-      <c r="BU32" s="40"/>
-      <c r="BV32" s="40"/>
-      <c r="BW32" s="45"/>
-      <c r="BX32" s="45"/>
-      <c r="BY32" s="40"/>
-      <c r="BZ32" s="40"/>
-      <c r="CA32" s="40"/>
-      <c r="CB32" s="40"/>
-      <c r="CC32" s="40"/>
-      <c r="CD32" s="45"/>
-      <c r="CE32" s="45"/>
+      <c r="C32" s="58"/>
+      <c r="D32" s="59">
+        <v>45235</v>
+      </c>
+      <c r="E32" s="59">
+        <v>45240</v>
+      </c>
+      <c r="F32" s="90"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="34"/>
+      <c r="I32" s="34"/>
+      <c r="J32" s="34"/>
+      <c r="K32" s="34"/>
+      <c r="L32" s="39"/>
+      <c r="M32" s="39"/>
+      <c r="N32" s="34"/>
+      <c r="O32" s="34"/>
+      <c r="P32" s="34"/>
+      <c r="Q32" s="34"/>
+      <c r="R32" s="34"/>
+      <c r="S32" s="39"/>
+      <c r="T32" s="39"/>
+      <c r="U32" s="34"/>
+      <c r="V32" s="34"/>
+      <c r="W32" s="34"/>
+      <c r="X32" s="34"/>
+      <c r="Y32" s="34"/>
+      <c r="Z32" s="39"/>
+      <c r="AA32" s="39"/>
+      <c r="AB32" s="34"/>
+      <c r="AC32" s="34"/>
+      <c r="AD32" s="34"/>
+      <c r="AE32" s="34"/>
+      <c r="AF32" s="34"/>
+      <c r="AG32" s="39"/>
+      <c r="AH32" s="39"/>
+      <c r="AI32" s="34"/>
+      <c r="AJ32" s="34"/>
+      <c r="AK32" s="34"/>
+      <c r="AL32" s="34"/>
+      <c r="AM32" s="34"/>
+      <c r="AN32" s="39"/>
+      <c r="AO32" s="39"/>
+      <c r="AP32" s="34"/>
+      <c r="AQ32" s="34"/>
+      <c r="AR32" s="34"/>
+      <c r="AS32" s="34"/>
+      <c r="AT32" s="34"/>
+      <c r="AU32" s="39"/>
+      <c r="AV32" s="39"/>
+      <c r="AW32" s="34"/>
+      <c r="AX32" s="34"/>
+      <c r="AY32" s="34"/>
+      <c r="AZ32" s="34"/>
+      <c r="BA32" s="34"/>
+      <c r="BB32" s="39"/>
+      <c r="BC32" s="39"/>
+      <c r="BD32" s="34"/>
+      <c r="BE32" s="34"/>
+      <c r="BF32" s="34"/>
+      <c r="BG32" s="34"/>
+      <c r="BH32" s="34"/>
+      <c r="BI32" s="39"/>
+      <c r="BJ32" s="39"/>
+      <c r="BK32" s="34"/>
+      <c r="BL32" s="34"/>
+      <c r="BM32" s="34"/>
+      <c r="BN32" s="34"/>
+      <c r="BO32" s="34"/>
+      <c r="BP32" s="39"/>
+      <c r="BQ32" s="39"/>
+      <c r="BR32" s="34"/>
+      <c r="BS32" s="34"/>
+      <c r="BT32" s="34"/>
+      <c r="BU32" s="34"/>
+      <c r="BV32" s="34"/>
+      <c r="BW32" s="39"/>
+      <c r="BX32" s="39"/>
+      <c r="BY32" s="34"/>
+      <c r="BZ32" s="34"/>
+      <c r="CA32" s="34"/>
+      <c r="CB32" s="34"/>
+      <c r="CC32" s="34"/>
+      <c r="CD32" s="39"/>
+      <c r="CE32" s="39"/>
     </row>
     <row r="33" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="7"/>
-      <c r="B33" s="71" t="s">
+      <c r="B33" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="C33" s="72"/>
-      <c r="D33" s="73"/>
-      <c r="E33" s="74"/>
-      <c r="F33" s="81"/>
-      <c r="G33" s="86"/>
-      <c r="H33" s="86"/>
-      <c r="I33" s="86"/>
-      <c r="J33" s="86"/>
-      <c r="K33" s="86"/>
-      <c r="L33" s="86"/>
-      <c r="M33" s="86"/>
-      <c r="N33" s="86"/>
-      <c r="O33" s="86"/>
-      <c r="P33" s="86"/>
-      <c r="Q33" s="86"/>
-      <c r="R33" s="86"/>
-      <c r="S33" s="86"/>
-      <c r="T33" s="86"/>
-      <c r="U33" s="86"/>
-      <c r="V33" s="86"/>
-      <c r="W33" s="86"/>
-      <c r="X33" s="86"/>
-      <c r="Y33" s="86"/>
-      <c r="Z33" s="86"/>
-      <c r="AA33" s="86"/>
-      <c r="AB33" s="86"/>
-      <c r="AC33" s="86"/>
-      <c r="AD33" s="86"/>
-      <c r="AE33" s="86"/>
-      <c r="AF33" s="86"/>
-      <c r="AG33" s="86"/>
-      <c r="AH33" s="86"/>
-      <c r="AI33" s="86"/>
-      <c r="AJ33" s="86"/>
-      <c r="AK33" s="86"/>
-      <c r="AL33" s="86"/>
-      <c r="AM33" s="86"/>
-      <c r="AN33" s="86"/>
-      <c r="AO33" s="86"/>
-      <c r="AP33" s="86"/>
-      <c r="AQ33" s="86"/>
-      <c r="AR33" s="86"/>
-      <c r="AS33" s="86"/>
-      <c r="AT33" s="86"/>
-      <c r="AU33" s="86"/>
-      <c r="AV33" s="86"/>
-      <c r="AW33" s="86"/>
-      <c r="AX33" s="86"/>
-      <c r="AY33" s="86"/>
-      <c r="AZ33" s="86"/>
-      <c r="BA33" s="86"/>
-      <c r="BB33" s="86"/>
-      <c r="BC33" s="86"/>
-      <c r="BD33" s="86"/>
-      <c r="BE33" s="86"/>
-      <c r="BF33" s="86"/>
-      <c r="BG33" s="86"/>
-      <c r="BH33" s="86"/>
-      <c r="BI33" s="86"/>
-      <c r="BJ33" s="86"/>
-      <c r="BK33" s="86"/>
-      <c r="BL33" s="86"/>
-      <c r="BM33" s="86"/>
-      <c r="BN33" s="86"/>
-      <c r="BO33" s="86"/>
-      <c r="BP33" s="86"/>
-      <c r="BQ33" s="86"/>
-      <c r="BR33" s="86"/>
-      <c r="BS33" s="86"/>
-      <c r="BT33" s="86"/>
-      <c r="BU33" s="86"/>
-      <c r="BV33" s="86"/>
-      <c r="BW33" s="86"/>
-      <c r="BX33" s="86"/>
-      <c r="BY33" s="86"/>
-      <c r="BZ33" s="86"/>
-      <c r="CA33" s="86"/>
-      <c r="CB33" s="86"/>
-      <c r="CC33" s="86"/>
-      <c r="CD33" s="86"/>
-      <c r="CE33" s="86"/>
+      <c r="C33" s="62"/>
+      <c r="D33" s="63"/>
+      <c r="E33" s="64"/>
+      <c r="F33" s="90"/>
+      <c r="G33" s="74"/>
+      <c r="H33" s="74"/>
+      <c r="I33" s="74"/>
+      <c r="J33" s="74"/>
+      <c r="K33" s="74"/>
+      <c r="L33" s="74"/>
+      <c r="M33" s="74"/>
+      <c r="N33" s="74"/>
+      <c r="O33" s="74"/>
+      <c r="P33" s="74"/>
+      <c r="Q33" s="74"/>
+      <c r="R33" s="74"/>
+      <c r="S33" s="74"/>
+      <c r="T33" s="74"/>
+      <c r="U33" s="74"/>
+      <c r="V33" s="74"/>
+      <c r="W33" s="74"/>
+      <c r="X33" s="74"/>
+      <c r="Y33" s="74"/>
+      <c r="Z33" s="74"/>
+      <c r="AA33" s="74"/>
+      <c r="AB33" s="74"/>
+      <c r="AC33" s="74"/>
+      <c r="AD33" s="74"/>
+      <c r="AE33" s="74"/>
+      <c r="AF33" s="74"/>
+      <c r="AG33" s="74"/>
+      <c r="AH33" s="74"/>
+      <c r="AI33" s="74"/>
+      <c r="AJ33" s="74"/>
+      <c r="AK33" s="74"/>
+      <c r="AL33" s="74"/>
+      <c r="AM33" s="74"/>
+      <c r="AN33" s="74"/>
+      <c r="AO33" s="74"/>
+      <c r="AP33" s="74"/>
+      <c r="AQ33" s="74"/>
+      <c r="AR33" s="74"/>
+      <c r="AS33" s="74"/>
+      <c r="AT33" s="74"/>
+      <c r="AU33" s="74"/>
+      <c r="AV33" s="74"/>
+      <c r="AW33" s="74"/>
+      <c r="AX33" s="74"/>
+      <c r="AY33" s="74"/>
+      <c r="AZ33" s="74"/>
+      <c r="BA33" s="74"/>
+      <c r="BB33" s="74"/>
+      <c r="BC33" s="74"/>
+      <c r="BD33" s="74"/>
+      <c r="BE33" s="74"/>
+      <c r="BF33" s="74"/>
+      <c r="BG33" s="74"/>
+      <c r="BH33" s="74"/>
+      <c r="BI33" s="74"/>
+      <c r="BJ33" s="74"/>
+      <c r="BK33" s="74"/>
+      <c r="BL33" s="74"/>
+      <c r="BM33" s="74"/>
+      <c r="BN33" s="74"/>
+      <c r="BO33" s="74"/>
+      <c r="BP33" s="74"/>
+      <c r="BQ33" s="74"/>
+      <c r="BR33" s="74"/>
+      <c r="BS33" s="74"/>
+      <c r="BT33" s="74"/>
+      <c r="BU33" s="74"/>
+      <c r="BV33" s="74"/>
+      <c r="BW33" s="74"/>
+      <c r="BX33" s="74"/>
+      <c r="BY33" s="74"/>
+      <c r="BZ33" s="74"/>
+      <c r="CA33" s="74"/>
+      <c r="CB33" s="74"/>
+      <c r="CC33" s="74"/>
+      <c r="CD33" s="74"/>
+      <c r="CE33" s="74"/>
     </row>
     <row r="34" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="7"/>
-      <c r="B34" s="75" t="s">
+      <c r="B34" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="C34" s="76"/>
-      <c r="D34" s="77"/>
-      <c r="E34" s="77"/>
-      <c r="F34" s="81"/>
-      <c r="G34" s="40"/>
-      <c r="H34" s="40"/>
-      <c r="I34" s="40"/>
-      <c r="J34" s="40"/>
-      <c r="K34" s="40"/>
-      <c r="L34" s="45"/>
-      <c r="M34" s="45"/>
-      <c r="N34" s="40"/>
-      <c r="O34" s="40"/>
-      <c r="P34" s="40"/>
-      <c r="Q34" s="40"/>
-      <c r="R34" s="40"/>
-      <c r="S34" s="45"/>
-      <c r="T34" s="45"/>
-      <c r="U34" s="40"/>
-      <c r="V34" s="40"/>
-      <c r="W34" s="40"/>
-      <c r="X34" s="40"/>
-      <c r="Y34" s="40"/>
-      <c r="Z34" s="45"/>
-      <c r="AA34" s="45"/>
-      <c r="AB34" s="40"/>
-      <c r="AC34" s="40"/>
-      <c r="AD34" s="40"/>
-      <c r="AE34" s="40"/>
-      <c r="AF34" s="40"/>
-      <c r="AG34" s="45"/>
-      <c r="AH34" s="45"/>
-      <c r="AI34" s="40"/>
-      <c r="AJ34" s="40"/>
-      <c r="AK34" s="40"/>
-      <c r="AL34" s="40"/>
-      <c r="AM34" s="40"/>
-      <c r="AN34" s="45"/>
-      <c r="AO34" s="45"/>
-      <c r="AP34" s="40"/>
-      <c r="AQ34" s="40"/>
-      <c r="AR34" s="40"/>
-      <c r="AS34" s="40"/>
-      <c r="AT34" s="40"/>
-      <c r="AU34" s="45"/>
-      <c r="AV34" s="45"/>
-      <c r="AW34" s="40"/>
-      <c r="AX34" s="40"/>
-      <c r="AY34" s="40"/>
-      <c r="AZ34" s="40"/>
-      <c r="BA34" s="40"/>
-      <c r="BB34" s="45"/>
-      <c r="BC34" s="45"/>
-      <c r="BD34" s="40"/>
-      <c r="BE34" s="40"/>
-      <c r="BF34" s="40"/>
-      <c r="BG34" s="40"/>
-      <c r="BH34" s="40"/>
-      <c r="BI34" s="45"/>
-      <c r="BJ34" s="45"/>
-      <c r="BK34" s="40"/>
-      <c r="BL34" s="40"/>
-      <c r="BM34" s="40"/>
-      <c r="BN34" s="40"/>
-      <c r="BO34" s="40"/>
-      <c r="BP34" s="45"/>
-      <c r="BQ34" s="45"/>
-      <c r="BR34" s="40"/>
-      <c r="BS34" s="40"/>
-      <c r="BT34" s="40"/>
-      <c r="BU34" s="40"/>
-      <c r="BV34" s="40"/>
-      <c r="BW34" s="45"/>
-      <c r="BX34" s="45"/>
-      <c r="BY34" s="45"/>
-      <c r="BZ34" s="40"/>
-      <c r="CA34" s="40"/>
-      <c r="CB34" s="40"/>
-      <c r="CC34" s="40"/>
-      <c r="CD34" s="45"/>
-      <c r="CE34" s="45"/>
+      <c r="C34" s="66"/>
+      <c r="D34" s="67">
+        <v>45241</v>
+      </c>
+      <c r="E34" s="67">
+        <v>45244</v>
+      </c>
+      <c r="F34" s="90"/>
+      <c r="G34" s="34"/>
+      <c r="H34" s="34"/>
+      <c r="I34" s="34"/>
+      <c r="J34" s="34"/>
+      <c r="K34" s="34"/>
+      <c r="L34" s="39"/>
+      <c r="M34" s="39"/>
+      <c r="N34" s="34"/>
+      <c r="O34" s="34"/>
+      <c r="P34" s="34"/>
+      <c r="Q34" s="34"/>
+      <c r="R34" s="34"/>
+      <c r="S34" s="39"/>
+      <c r="T34" s="39"/>
+      <c r="U34" s="34"/>
+      <c r="V34" s="34"/>
+      <c r="W34" s="34"/>
+      <c r="X34" s="34"/>
+      <c r="Y34" s="34"/>
+      <c r="Z34" s="39"/>
+      <c r="AA34" s="39"/>
+      <c r="AB34" s="34"/>
+      <c r="AC34" s="34"/>
+      <c r="AD34" s="34"/>
+      <c r="AE34" s="34"/>
+      <c r="AF34" s="34"/>
+      <c r="AG34" s="39"/>
+      <c r="AH34" s="39"/>
+      <c r="AI34" s="34"/>
+      <c r="AJ34" s="34"/>
+      <c r="AK34" s="34"/>
+      <c r="AL34" s="34"/>
+      <c r="AM34" s="34"/>
+      <c r="AN34" s="39"/>
+      <c r="AO34" s="39"/>
+      <c r="AP34" s="34"/>
+      <c r="AQ34" s="34"/>
+      <c r="AR34" s="34"/>
+      <c r="AS34" s="34"/>
+      <c r="AT34" s="34"/>
+      <c r="AU34" s="39"/>
+      <c r="AV34" s="39"/>
+      <c r="AW34" s="34"/>
+      <c r="AX34" s="34"/>
+      <c r="AY34" s="34"/>
+      <c r="AZ34" s="34"/>
+      <c r="BA34" s="34"/>
+      <c r="BB34" s="39"/>
+      <c r="BC34" s="39"/>
+      <c r="BD34" s="34"/>
+      <c r="BE34" s="34"/>
+      <c r="BF34" s="34"/>
+      <c r="BG34" s="34"/>
+      <c r="BH34" s="34"/>
+      <c r="BI34" s="39"/>
+      <c r="BJ34" s="39"/>
+      <c r="BK34" s="34"/>
+      <c r="BL34" s="34"/>
+      <c r="BM34" s="34"/>
+      <c r="BN34" s="34"/>
+      <c r="BO34" s="34"/>
+      <c r="BP34" s="39"/>
+      <c r="BQ34" s="39"/>
+      <c r="BR34" s="34"/>
+      <c r="BS34" s="34"/>
+      <c r="BT34" s="34"/>
+      <c r="BU34" s="34"/>
+      <c r="BV34" s="34"/>
+      <c r="BW34" s="39"/>
+      <c r="BX34" s="39"/>
+      <c r="BY34" s="39"/>
+      <c r="BZ34" s="34"/>
+      <c r="CA34" s="34"/>
+      <c r="CB34" s="34"/>
+      <c r="CC34" s="34"/>
+      <c r="CD34" s="39"/>
+      <c r="CE34" s="39"/>
     </row>
     <row r="35" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="7"/>
-      <c r="B35" s="75" t="s">
+      <c r="B35" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="C35" s="76"/>
-      <c r="D35" s="77"/>
-      <c r="E35" s="77"/>
-      <c r="F35" s="83"/>
-      <c r="G35" s="40"/>
-      <c r="H35" s="40"/>
-      <c r="I35" s="40"/>
-      <c r="J35" s="40"/>
-      <c r="K35" s="40"/>
-      <c r="L35" s="45"/>
-      <c r="M35" s="45"/>
-      <c r="N35" s="40"/>
-      <c r="O35" s="40"/>
-      <c r="P35" s="40"/>
-      <c r="Q35" s="40"/>
-      <c r="R35" s="40"/>
-      <c r="S35" s="45"/>
-      <c r="T35" s="45"/>
-      <c r="U35" s="40"/>
-      <c r="V35" s="40"/>
-      <c r="W35" s="40"/>
-      <c r="X35" s="40"/>
-      <c r="Y35" s="40"/>
-      <c r="Z35" s="45"/>
-      <c r="AA35" s="45"/>
-      <c r="AB35" s="40"/>
-      <c r="AC35" s="40"/>
-      <c r="AD35" s="40"/>
-      <c r="AE35" s="40"/>
-      <c r="AF35" s="40"/>
-      <c r="AG35" s="45"/>
-      <c r="AH35" s="45"/>
-      <c r="AI35" s="40"/>
-      <c r="AJ35" s="40"/>
-      <c r="AK35" s="40"/>
-      <c r="AL35" s="40"/>
-      <c r="AM35" s="40"/>
-      <c r="AN35" s="45"/>
-      <c r="AO35" s="45"/>
-      <c r="AP35" s="40"/>
-      <c r="AQ35" s="40"/>
-      <c r="AR35" s="40"/>
-      <c r="AS35" s="40"/>
-      <c r="AT35" s="40"/>
-      <c r="AU35" s="45"/>
-      <c r="AV35" s="45"/>
-      <c r="AW35" s="40"/>
-      <c r="AX35" s="40"/>
-      <c r="AY35" s="40"/>
-      <c r="AZ35" s="40"/>
-      <c r="BA35" s="40"/>
-      <c r="BB35" s="45"/>
-      <c r="BC35" s="45"/>
-      <c r="BD35" s="40"/>
-      <c r="BE35" s="40"/>
-      <c r="BF35" s="40"/>
-      <c r="BG35" s="40"/>
-      <c r="BH35" s="40"/>
-      <c r="BI35" s="45"/>
-      <c r="BJ35" s="45"/>
-      <c r="BK35" s="40"/>
-      <c r="BL35" s="40"/>
-      <c r="BM35" s="40"/>
-      <c r="BN35" s="40"/>
-      <c r="BO35" s="40"/>
-      <c r="BP35" s="45"/>
-      <c r="BQ35" s="45"/>
-      <c r="BR35" s="40"/>
-      <c r="BS35" s="40"/>
-      <c r="BT35" s="40"/>
-      <c r="BU35" s="40"/>
-      <c r="BV35" s="40"/>
-      <c r="BW35" s="45"/>
-      <c r="BX35" s="45"/>
-      <c r="BY35" s="45"/>
-      <c r="BZ35" s="40"/>
-      <c r="CA35" s="40"/>
-      <c r="CB35" s="40"/>
-      <c r="CC35" s="40"/>
-      <c r="CD35" s="45"/>
-      <c r="CE35" s="45"/>
+      <c r="C35" s="66"/>
+      <c r="D35" s="67">
+        <v>45245</v>
+      </c>
+      <c r="E35" s="67">
+        <v>45249</v>
+      </c>
+      <c r="F35" s="71"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="34"/>
+      <c r="I35" s="34"/>
+      <c r="J35" s="34"/>
+      <c r="K35" s="34"/>
+      <c r="L35" s="39"/>
+      <c r="M35" s="39"/>
+      <c r="N35" s="34"/>
+      <c r="O35" s="34"/>
+      <c r="P35" s="34"/>
+      <c r="Q35" s="34"/>
+      <c r="R35" s="34"/>
+      <c r="S35" s="39"/>
+      <c r="T35" s="39"/>
+      <c r="U35" s="34"/>
+      <c r="V35" s="34"/>
+      <c r="W35" s="34"/>
+      <c r="X35" s="34"/>
+      <c r="Y35" s="34"/>
+      <c r="Z35" s="39"/>
+      <c r="AA35" s="39"/>
+      <c r="AB35" s="34"/>
+      <c r="AC35" s="34"/>
+      <c r="AD35" s="34"/>
+      <c r="AE35" s="34"/>
+      <c r="AF35" s="34"/>
+      <c r="AG35" s="39"/>
+      <c r="AH35" s="39"/>
+      <c r="AI35" s="34"/>
+      <c r="AJ35" s="34"/>
+      <c r="AK35" s="34"/>
+      <c r="AL35" s="34"/>
+      <c r="AM35" s="34"/>
+      <c r="AN35" s="39"/>
+      <c r="AO35" s="39"/>
+      <c r="AP35" s="34"/>
+      <c r="AQ35" s="34"/>
+      <c r="AR35" s="34"/>
+      <c r="AS35" s="34"/>
+      <c r="AT35" s="34"/>
+      <c r="AU35" s="39"/>
+      <c r="AV35" s="39"/>
+      <c r="AW35" s="34"/>
+      <c r="AX35" s="34"/>
+      <c r="AY35" s="34"/>
+      <c r="AZ35" s="34"/>
+      <c r="BA35" s="34"/>
+      <c r="BB35" s="39"/>
+      <c r="BC35" s="39"/>
+      <c r="BD35" s="34"/>
+      <c r="BE35" s="34"/>
+      <c r="BF35" s="34"/>
+      <c r="BG35" s="34"/>
+      <c r="BH35" s="34"/>
+      <c r="BI35" s="39"/>
+      <c r="BJ35" s="39"/>
+      <c r="BK35" s="34"/>
+      <c r="BL35" s="34"/>
+      <c r="BM35" s="34"/>
+      <c r="BN35" s="34"/>
+      <c r="BO35" s="34"/>
+      <c r="BP35" s="39"/>
+      <c r="BQ35" s="39"/>
+      <c r="BR35" s="34"/>
+      <c r="BS35" s="34"/>
+      <c r="BT35" s="34"/>
+      <c r="BU35" s="34"/>
+      <c r="BV35" s="34"/>
+      <c r="BW35" s="39"/>
+      <c r="BX35" s="39"/>
+      <c r="BY35" s="39"/>
+      <c r="BZ35" s="34"/>
+      <c r="CA35" s="34"/>
+      <c r="CB35" s="34"/>
+      <c r="CC35" s="34"/>
+      <c r="CD35" s="39"/>
+      <c r="CE35" s="39"/>
     </row>
     <row r="36" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="7"/>
-      <c r="B36" s="75" t="s">
+      <c r="B36" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="C36" s="76"/>
-      <c r="D36" s="77"/>
-      <c r="E36" s="77"/>
-      <c r="F36" s="83"/>
-      <c r="G36" s="40"/>
-      <c r="H36" s="40"/>
-      <c r="I36" s="40"/>
-      <c r="J36" s="40"/>
-      <c r="K36" s="40"/>
-      <c r="L36" s="45"/>
-      <c r="M36" s="45"/>
-      <c r="N36" s="40"/>
-      <c r="O36" s="40"/>
-      <c r="P36" s="40"/>
-      <c r="Q36" s="40"/>
-      <c r="R36" s="40"/>
-      <c r="S36" s="45"/>
-      <c r="T36" s="45"/>
-      <c r="U36" s="40"/>
-      <c r="V36" s="40"/>
-      <c r="W36" s="40"/>
-      <c r="X36" s="40"/>
-      <c r="Y36" s="40"/>
-      <c r="Z36" s="45"/>
-      <c r="AA36" s="45"/>
-      <c r="AB36" s="40"/>
-      <c r="AC36" s="40"/>
-      <c r="AD36" s="40"/>
-      <c r="AE36" s="40"/>
-      <c r="AF36" s="40"/>
-      <c r="AG36" s="45"/>
-      <c r="AH36" s="45"/>
-      <c r="AI36" s="40"/>
-      <c r="AJ36" s="40"/>
-      <c r="AK36" s="40"/>
-      <c r="AL36" s="40"/>
-      <c r="AM36" s="40"/>
-      <c r="AN36" s="45"/>
-      <c r="AO36" s="45"/>
-      <c r="AP36" s="40"/>
-      <c r="AQ36" s="40"/>
-      <c r="AR36" s="40"/>
-      <c r="AS36" s="40"/>
-      <c r="AT36" s="40"/>
-      <c r="AU36" s="45"/>
-      <c r="AV36" s="45"/>
-      <c r="AW36" s="40"/>
-      <c r="AX36" s="40"/>
-      <c r="AY36" s="40"/>
-      <c r="AZ36" s="40"/>
-      <c r="BA36" s="40"/>
-      <c r="BB36" s="45"/>
-      <c r="BC36" s="45"/>
-      <c r="BD36" s="40"/>
-      <c r="BE36" s="40"/>
-      <c r="BF36" s="40"/>
-      <c r="BG36" s="40"/>
-      <c r="BH36" s="40"/>
-      <c r="BI36" s="45"/>
-      <c r="BJ36" s="45"/>
-      <c r="BK36" s="40"/>
-      <c r="BL36" s="40"/>
-      <c r="BM36" s="40"/>
-      <c r="BN36" s="40"/>
-      <c r="BO36" s="40"/>
-      <c r="BP36" s="45"/>
-      <c r="BQ36" s="45"/>
-      <c r="BR36" s="40"/>
-      <c r="BS36" s="40"/>
-      <c r="BT36" s="40"/>
-      <c r="BU36" s="40"/>
-      <c r="BV36" s="40"/>
-      <c r="BW36" s="45"/>
-      <c r="BX36" s="45"/>
-      <c r="BY36" s="45"/>
-      <c r="BZ36" s="40"/>
-      <c r="CA36" s="40"/>
-      <c r="CB36" s="40"/>
-      <c r="CC36" s="40"/>
-      <c r="CD36" s="45"/>
-      <c r="CE36" s="45"/>
+      <c r="C36" s="66"/>
+      <c r="D36" s="67">
+        <v>45246</v>
+      </c>
+      <c r="E36" s="67">
+        <v>45250</v>
+      </c>
+      <c r="F36" s="71"/>
+      <c r="G36" s="34"/>
+      <c r="H36" s="34"/>
+      <c r="I36" s="34"/>
+      <c r="J36" s="34"/>
+      <c r="K36" s="34"/>
+      <c r="L36" s="39"/>
+      <c r="M36" s="39"/>
+      <c r="N36" s="34"/>
+      <c r="O36" s="34"/>
+      <c r="P36" s="34"/>
+      <c r="Q36" s="34"/>
+      <c r="R36" s="34"/>
+      <c r="S36" s="39"/>
+      <c r="T36" s="39"/>
+      <c r="U36" s="34"/>
+      <c r="V36" s="34"/>
+      <c r="W36" s="34"/>
+      <c r="X36" s="34"/>
+      <c r="Y36" s="34"/>
+      <c r="Z36" s="39"/>
+      <c r="AA36" s="39"/>
+      <c r="AB36" s="34"/>
+      <c r="AC36" s="34"/>
+      <c r="AD36" s="34"/>
+      <c r="AE36" s="34"/>
+      <c r="AF36" s="34"/>
+      <c r="AG36" s="39"/>
+      <c r="AH36" s="39"/>
+      <c r="AI36" s="34"/>
+      <c r="AJ36" s="34"/>
+      <c r="AK36" s="34"/>
+      <c r="AL36" s="34"/>
+      <c r="AM36" s="34"/>
+      <c r="AN36" s="39"/>
+      <c r="AO36" s="39"/>
+      <c r="AP36" s="34"/>
+      <c r="AQ36" s="34"/>
+      <c r="AR36" s="34"/>
+      <c r="AS36" s="34"/>
+      <c r="AT36" s="34"/>
+      <c r="AU36" s="39"/>
+      <c r="AV36" s="39"/>
+      <c r="AW36" s="34"/>
+      <c r="AX36" s="34"/>
+      <c r="AY36" s="34"/>
+      <c r="AZ36" s="34"/>
+      <c r="BA36" s="34"/>
+      <c r="BB36" s="39"/>
+      <c r="BC36" s="39"/>
+      <c r="BD36" s="34"/>
+      <c r="BE36" s="34"/>
+      <c r="BF36" s="34"/>
+      <c r="BG36" s="34"/>
+      <c r="BH36" s="34"/>
+      <c r="BI36" s="39"/>
+      <c r="BJ36" s="39"/>
+      <c r="BK36" s="34"/>
+      <c r="BL36" s="34"/>
+      <c r="BM36" s="34"/>
+      <c r="BN36" s="34"/>
+      <c r="BO36" s="34"/>
+      <c r="BP36" s="39"/>
+      <c r="BQ36" s="39"/>
+      <c r="BR36" s="34"/>
+      <c r="BS36" s="34"/>
+      <c r="BT36" s="34"/>
+      <c r="BU36" s="34"/>
+      <c r="BV36" s="34"/>
+      <c r="BW36" s="39"/>
+      <c r="BX36" s="39"/>
+      <c r="BY36" s="39"/>
+      <c r="BZ36" s="34"/>
+      <c r="CA36" s="34"/>
+      <c r="CB36" s="34"/>
+      <c r="CC36" s="34"/>
+      <c r="CD36" s="39"/>
+      <c r="CE36" s="39"/>
     </row>
     <row r="37" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="7"/>
-      <c r="B37" s="75" t="s">
+      <c r="B37" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="C37" s="76"/>
-      <c r="D37" s="77"/>
-      <c r="E37" s="77"/>
-      <c r="F37" s="83"/>
-      <c r="G37" s="40"/>
-      <c r="H37" s="40"/>
-      <c r="I37" s="40"/>
-      <c r="J37" s="40"/>
-      <c r="K37" s="40"/>
-      <c r="L37" s="45"/>
-      <c r="M37" s="45"/>
-      <c r="N37" s="40"/>
-      <c r="O37" s="40"/>
-      <c r="P37" s="40"/>
-      <c r="Q37" s="40"/>
-      <c r="R37" s="40"/>
-      <c r="S37" s="45"/>
-      <c r="T37" s="45"/>
-      <c r="U37" s="40"/>
-      <c r="V37" s="40"/>
-      <c r="W37" s="40"/>
-      <c r="X37" s="40"/>
-      <c r="Y37" s="40"/>
-      <c r="Z37" s="45"/>
-      <c r="AA37" s="45"/>
-      <c r="AB37" s="40"/>
-      <c r="AC37" s="40"/>
-      <c r="AD37" s="40"/>
-      <c r="AE37" s="40"/>
-      <c r="AF37" s="40"/>
-      <c r="AG37" s="45"/>
-      <c r="AH37" s="45"/>
-      <c r="AI37" s="40"/>
-      <c r="AJ37" s="40"/>
-      <c r="AK37" s="40"/>
-      <c r="AL37" s="40"/>
-      <c r="AM37" s="40"/>
-      <c r="AN37" s="45"/>
-      <c r="AO37" s="45"/>
-      <c r="AP37" s="40"/>
-      <c r="AQ37" s="40"/>
-      <c r="AR37" s="40"/>
-      <c r="AS37" s="40"/>
-      <c r="AT37" s="40"/>
-      <c r="AU37" s="45"/>
-      <c r="AV37" s="45"/>
-      <c r="AW37" s="40"/>
-      <c r="AX37" s="40"/>
-      <c r="AY37" s="40"/>
-      <c r="AZ37" s="40"/>
-      <c r="BA37" s="40"/>
-      <c r="BB37" s="45"/>
-      <c r="BC37" s="45"/>
-      <c r="BD37" s="40"/>
-      <c r="BE37" s="40"/>
-      <c r="BF37" s="40"/>
-      <c r="BG37" s="40"/>
-      <c r="BH37" s="40"/>
-      <c r="BI37" s="45"/>
-      <c r="BJ37" s="45"/>
-      <c r="BK37" s="40"/>
-      <c r="BL37" s="40"/>
-      <c r="BM37" s="40"/>
-      <c r="BN37" s="40"/>
-      <c r="BO37" s="40"/>
-      <c r="BP37" s="45"/>
-      <c r="BQ37" s="45"/>
-      <c r="BR37" s="40"/>
-      <c r="BS37" s="40"/>
-      <c r="BT37" s="40"/>
-      <c r="BU37" s="40"/>
-      <c r="BV37" s="40"/>
-      <c r="BW37" s="45"/>
-      <c r="BX37" s="45"/>
-      <c r="BY37" s="45"/>
-      <c r="BZ37" s="40"/>
-      <c r="CA37" s="40"/>
-      <c r="CB37" s="40"/>
-      <c r="CC37" s="40"/>
-      <c r="CD37" s="45"/>
-      <c r="CE37" s="45"/>
+      <c r="C37" s="66"/>
+      <c r="D37" s="67">
+        <v>45247</v>
+      </c>
+      <c r="E37" s="67">
+        <v>45251</v>
+      </c>
+      <c r="F37" s="71"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="34"/>
+      <c r="I37" s="34"/>
+      <c r="J37" s="34"/>
+      <c r="K37" s="34"/>
+      <c r="L37" s="39"/>
+      <c r="M37" s="39"/>
+      <c r="N37" s="34"/>
+      <c r="O37" s="34"/>
+      <c r="P37" s="34"/>
+      <c r="Q37" s="34"/>
+      <c r="R37" s="34"/>
+      <c r="S37" s="39"/>
+      <c r="T37" s="39"/>
+      <c r="U37" s="34"/>
+      <c r="V37" s="34"/>
+      <c r="W37" s="34"/>
+      <c r="X37" s="34"/>
+      <c r="Y37" s="34"/>
+      <c r="Z37" s="39"/>
+      <c r="AA37" s="39"/>
+      <c r="AB37" s="34"/>
+      <c r="AC37" s="34"/>
+      <c r="AD37" s="34"/>
+      <c r="AE37" s="34"/>
+      <c r="AF37" s="34"/>
+      <c r="AG37" s="39"/>
+      <c r="AH37" s="39"/>
+      <c r="AI37" s="34"/>
+      <c r="AJ37" s="34"/>
+      <c r="AK37" s="34"/>
+      <c r="AL37" s="34"/>
+      <c r="AM37" s="34"/>
+      <c r="AN37" s="39"/>
+      <c r="AO37" s="39"/>
+      <c r="AP37" s="34"/>
+      <c r="AQ37" s="34"/>
+      <c r="AR37" s="34"/>
+      <c r="AS37" s="34"/>
+      <c r="AT37" s="34"/>
+      <c r="AU37" s="39"/>
+      <c r="AV37" s="39"/>
+      <c r="AW37" s="34"/>
+      <c r="AX37" s="34"/>
+      <c r="AY37" s="34"/>
+      <c r="AZ37" s="34"/>
+      <c r="BA37" s="34"/>
+      <c r="BB37" s="39"/>
+      <c r="BC37" s="39"/>
+      <c r="BD37" s="34"/>
+      <c r="BE37" s="34"/>
+      <c r="BF37" s="34"/>
+      <c r="BG37" s="34"/>
+      <c r="BH37" s="34"/>
+      <c r="BI37" s="39"/>
+      <c r="BJ37" s="39"/>
+      <c r="BK37" s="34"/>
+      <c r="BL37" s="34"/>
+      <c r="BM37" s="34"/>
+      <c r="BN37" s="34"/>
+      <c r="BO37" s="34"/>
+      <c r="BP37" s="39"/>
+      <c r="BQ37" s="39"/>
+      <c r="BR37" s="34"/>
+      <c r="BS37" s="34"/>
+      <c r="BT37" s="34"/>
+      <c r="BU37" s="34"/>
+      <c r="BV37" s="34"/>
+      <c r="BW37" s="39"/>
+      <c r="BX37" s="39"/>
+      <c r="BY37" s="39"/>
+      <c r="BZ37" s="34"/>
+      <c r="CA37" s="34"/>
+      <c r="CB37" s="34"/>
+      <c r="CC37" s="34"/>
+      <c r="CD37" s="39"/>
+      <c r="CE37" s="39"/>
     </row>
     <row r="38" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="7"/>
-      <c r="B38" s="75" t="s">
+      <c r="B38" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="C38" s="76"/>
-      <c r="D38" s="77"/>
-      <c r="E38" s="77"/>
-      <c r="F38" s="83"/>
-      <c r="G38" s="40"/>
-      <c r="H38" s="40"/>
-      <c r="I38" s="40"/>
-      <c r="J38" s="40"/>
-      <c r="K38" s="40"/>
-      <c r="L38" s="45"/>
-      <c r="M38" s="45"/>
-      <c r="N38" s="40"/>
-      <c r="O38" s="40"/>
-      <c r="P38" s="40"/>
-      <c r="Q38" s="40"/>
-      <c r="R38" s="40"/>
-      <c r="S38" s="45"/>
-      <c r="T38" s="45"/>
-      <c r="U38" s="40"/>
-      <c r="V38" s="40"/>
-      <c r="W38" s="40"/>
-      <c r="X38" s="40"/>
-      <c r="Y38" s="40"/>
-      <c r="Z38" s="45"/>
-      <c r="AA38" s="45"/>
-      <c r="AB38" s="40"/>
-      <c r="AC38" s="40"/>
-      <c r="AD38" s="40"/>
-      <c r="AE38" s="40"/>
-      <c r="AF38" s="40"/>
-      <c r="AG38" s="45"/>
-      <c r="AH38" s="45"/>
-      <c r="AI38" s="40"/>
-      <c r="AJ38" s="40"/>
-      <c r="AK38" s="40"/>
-      <c r="AL38" s="40"/>
-      <c r="AM38" s="40"/>
-      <c r="AN38" s="45"/>
-      <c r="AO38" s="45"/>
-      <c r="AP38" s="40"/>
-      <c r="AQ38" s="40"/>
-      <c r="AR38" s="40"/>
-      <c r="AS38" s="40"/>
-      <c r="AT38" s="40"/>
-      <c r="AU38" s="45"/>
-      <c r="AV38" s="45"/>
-      <c r="AW38" s="40"/>
-      <c r="AX38" s="40"/>
-      <c r="AY38" s="40"/>
-      <c r="AZ38" s="40"/>
-      <c r="BA38" s="40"/>
-      <c r="BB38" s="45"/>
-      <c r="BC38" s="45"/>
-      <c r="BD38" s="40"/>
-      <c r="BE38" s="40"/>
-      <c r="BF38" s="40"/>
-      <c r="BG38" s="40"/>
-      <c r="BH38" s="40"/>
-      <c r="BI38" s="45"/>
-      <c r="BJ38" s="45"/>
-      <c r="BK38" s="40"/>
-      <c r="BL38" s="40"/>
-      <c r="BM38" s="40"/>
-      <c r="BN38" s="40"/>
-      <c r="BO38" s="40"/>
-      <c r="BP38" s="45"/>
-      <c r="BQ38" s="45"/>
-      <c r="BR38" s="40"/>
-      <c r="BS38" s="40"/>
-      <c r="BT38" s="40"/>
-      <c r="BU38" s="40"/>
-      <c r="BV38" s="40"/>
-      <c r="BW38" s="45"/>
-      <c r="BX38" s="45"/>
-      <c r="BY38" s="45"/>
-      <c r="BZ38" s="40"/>
-      <c r="CA38" s="40"/>
-      <c r="CB38" s="40"/>
-      <c r="CC38" s="40"/>
-      <c r="CD38" s="45"/>
-      <c r="CE38" s="45"/>
+      <c r="C38" s="66"/>
+      <c r="D38" s="67">
+        <v>45248</v>
+      </c>
+      <c r="E38" s="67">
+        <v>44522</v>
+      </c>
+      <c r="F38" s="71"/>
+      <c r="G38" s="34"/>
+      <c r="H38" s="34"/>
+      <c r="I38" s="34"/>
+      <c r="J38" s="34"/>
+      <c r="K38" s="34"/>
+      <c r="L38" s="39"/>
+      <c r="M38" s="39"/>
+      <c r="N38" s="34"/>
+      <c r="O38" s="34"/>
+      <c r="P38" s="34"/>
+      <c r="Q38" s="34"/>
+      <c r="R38" s="34"/>
+      <c r="S38" s="39"/>
+      <c r="T38" s="39"/>
+      <c r="U38" s="34"/>
+      <c r="V38" s="34"/>
+      <c r="W38" s="34"/>
+      <c r="X38" s="34"/>
+      <c r="Y38" s="34"/>
+      <c r="Z38" s="39"/>
+      <c r="AA38" s="39"/>
+      <c r="AB38" s="34"/>
+      <c r="AC38" s="34"/>
+      <c r="AD38" s="34"/>
+      <c r="AE38" s="34"/>
+      <c r="AF38" s="34"/>
+      <c r="AG38" s="39"/>
+      <c r="AH38" s="39"/>
+      <c r="AI38" s="34"/>
+      <c r="AJ38" s="34"/>
+      <c r="AK38" s="34"/>
+      <c r="AL38" s="34"/>
+      <c r="AM38" s="34"/>
+      <c r="AN38" s="39"/>
+      <c r="AO38" s="39"/>
+      <c r="AP38" s="34"/>
+      <c r="AQ38" s="34"/>
+      <c r="AR38" s="34"/>
+      <c r="AS38" s="34"/>
+      <c r="AT38" s="34"/>
+      <c r="AU38" s="39"/>
+      <c r="AV38" s="39"/>
+      <c r="AW38" s="34"/>
+      <c r="AX38" s="34"/>
+      <c r="AY38" s="34"/>
+      <c r="AZ38" s="34"/>
+      <c r="BA38" s="34"/>
+      <c r="BB38" s="39"/>
+      <c r="BC38" s="39"/>
+      <c r="BD38" s="34"/>
+      <c r="BE38" s="34"/>
+      <c r="BF38" s="34"/>
+      <c r="BG38" s="34"/>
+      <c r="BH38" s="34"/>
+      <c r="BI38" s="39"/>
+      <c r="BJ38" s="39"/>
+      <c r="BK38" s="34"/>
+      <c r="BL38" s="34"/>
+      <c r="BM38" s="34"/>
+      <c r="BN38" s="34"/>
+      <c r="BO38" s="34"/>
+      <c r="BP38" s="39"/>
+      <c r="BQ38" s="39"/>
+      <c r="BR38" s="34"/>
+      <c r="BS38" s="34"/>
+      <c r="BT38" s="34"/>
+      <c r="BU38" s="34"/>
+      <c r="BV38" s="34"/>
+      <c r="BW38" s="39"/>
+      <c r="BX38" s="39"/>
+      <c r="BY38" s="39"/>
+      <c r="BZ38" s="34"/>
+      <c r="CA38" s="34"/>
+      <c r="CB38" s="34"/>
+      <c r="CC38" s="34"/>
+      <c r="CD38" s="39"/>
+      <c r="CE38" s="39"/>
     </row>
     <row r="39" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="7"/>
-      <c r="B39" s="75" t="s">
+      <c r="B39" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="C39" s="76"/>
-      <c r="D39" s="77"/>
-      <c r="E39" s="77"/>
-      <c r="F39" s="83"/>
-      <c r="G39" s="40"/>
-      <c r="H39" s="40"/>
-      <c r="I39" s="40"/>
-      <c r="J39" s="40"/>
-      <c r="K39" s="40"/>
-      <c r="L39" s="45"/>
-      <c r="M39" s="45"/>
-      <c r="N39" s="40"/>
-      <c r="O39" s="40"/>
-      <c r="P39" s="40"/>
-      <c r="Q39" s="40"/>
-      <c r="R39" s="40"/>
-      <c r="S39" s="45"/>
-      <c r="T39" s="45"/>
-      <c r="U39" s="40"/>
-      <c r="V39" s="40"/>
-      <c r="W39" s="40"/>
-      <c r="X39" s="40"/>
-      <c r="Y39" s="40"/>
-      <c r="Z39" s="45"/>
-      <c r="AA39" s="45"/>
-      <c r="AB39" s="40"/>
-      <c r="AC39" s="40"/>
-      <c r="AD39" s="40"/>
-      <c r="AE39" s="40"/>
-      <c r="AF39" s="40"/>
-      <c r="AG39" s="45"/>
-      <c r="AH39" s="45"/>
-      <c r="AI39" s="40"/>
-      <c r="AJ39" s="40"/>
-      <c r="AK39" s="40"/>
-      <c r="AL39" s="40"/>
-      <c r="AM39" s="40"/>
-      <c r="AN39" s="45"/>
-      <c r="AO39" s="45"/>
-      <c r="AP39" s="40"/>
-      <c r="AQ39" s="40"/>
-      <c r="AR39" s="40"/>
-      <c r="AS39" s="40"/>
-      <c r="AT39" s="40"/>
-      <c r="AU39" s="45"/>
-      <c r="AV39" s="45"/>
-      <c r="AW39" s="40"/>
-      <c r="AX39" s="40"/>
-      <c r="AY39" s="40"/>
-      <c r="AZ39" s="40"/>
-      <c r="BA39" s="40"/>
-      <c r="BB39" s="45"/>
-      <c r="BC39" s="45"/>
-      <c r="BD39" s="40"/>
-      <c r="BE39" s="40"/>
-      <c r="BF39" s="40"/>
-      <c r="BG39" s="40"/>
-      <c r="BH39" s="40"/>
-      <c r="BI39" s="45"/>
-      <c r="BJ39" s="45"/>
-      <c r="BK39" s="40"/>
-      <c r="BL39" s="40"/>
-      <c r="BM39" s="40"/>
-      <c r="BN39" s="40"/>
-      <c r="BO39" s="40"/>
-      <c r="BP39" s="45"/>
-      <c r="BQ39" s="45"/>
-      <c r="BR39" s="40"/>
-      <c r="BS39" s="40"/>
-      <c r="BT39" s="40"/>
-      <c r="BU39" s="40"/>
-      <c r="BV39" s="40"/>
-      <c r="BW39" s="45"/>
-      <c r="BX39" s="45"/>
-      <c r="BY39" s="45"/>
-      <c r="BZ39" s="40"/>
-      <c r="CA39" s="40"/>
-      <c r="CB39" s="40"/>
-      <c r="CC39" s="40"/>
-      <c r="CD39" s="45"/>
-      <c r="CE39" s="45"/>
+      <c r="C39" s="66"/>
+      <c r="D39" s="67">
+        <v>45249</v>
+      </c>
+      <c r="E39" s="67">
+        <v>44522</v>
+      </c>
+      <c r="F39" s="71"/>
+      <c r="G39" s="34"/>
+      <c r="H39" s="34"/>
+      <c r="I39" s="34"/>
+      <c r="J39" s="34"/>
+      <c r="K39" s="34"/>
+      <c r="L39" s="39"/>
+      <c r="M39" s="39"/>
+      <c r="N39" s="34"/>
+      <c r="O39" s="34"/>
+      <c r="P39" s="34"/>
+      <c r="Q39" s="34"/>
+      <c r="R39" s="34"/>
+      <c r="S39" s="39"/>
+      <c r="T39" s="39"/>
+      <c r="U39" s="34"/>
+      <c r="V39" s="34"/>
+      <c r="W39" s="34"/>
+      <c r="X39" s="34"/>
+      <c r="Y39" s="34"/>
+      <c r="Z39" s="39"/>
+      <c r="AA39" s="39"/>
+      <c r="AB39" s="34"/>
+      <c r="AC39" s="34"/>
+      <c r="AD39" s="34"/>
+      <c r="AE39" s="34"/>
+      <c r="AF39" s="34"/>
+      <c r="AG39" s="39"/>
+      <c r="AH39" s="39"/>
+      <c r="AI39" s="34"/>
+      <c r="AJ39" s="34"/>
+      <c r="AK39" s="34"/>
+      <c r="AL39" s="34"/>
+      <c r="AM39" s="34"/>
+      <c r="AN39" s="39"/>
+      <c r="AO39" s="39"/>
+      <c r="AP39" s="34"/>
+      <c r="AQ39" s="34"/>
+      <c r="AR39" s="34"/>
+      <c r="AS39" s="34"/>
+      <c r="AT39" s="34"/>
+      <c r="AU39" s="39"/>
+      <c r="AV39" s="39"/>
+      <c r="AW39" s="34"/>
+      <c r="AX39" s="34"/>
+      <c r="AY39" s="34"/>
+      <c r="AZ39" s="34"/>
+      <c r="BA39" s="34"/>
+      <c r="BB39" s="39"/>
+      <c r="BC39" s="39"/>
+      <c r="BD39" s="34"/>
+      <c r="BE39" s="34"/>
+      <c r="BF39" s="34"/>
+      <c r="BG39" s="34"/>
+      <c r="BH39" s="34"/>
+      <c r="BI39" s="39"/>
+      <c r="BJ39" s="39"/>
+      <c r="BK39" s="34"/>
+      <c r="BL39" s="34"/>
+      <c r="BM39" s="34"/>
+      <c r="BN39" s="34"/>
+      <c r="BO39" s="34"/>
+      <c r="BP39" s="39"/>
+      <c r="BQ39" s="39"/>
+      <c r="BR39" s="34"/>
+      <c r="BS39" s="34"/>
+      <c r="BT39" s="34"/>
+      <c r="BU39" s="34"/>
+      <c r="BV39" s="34"/>
+      <c r="BW39" s="39"/>
+      <c r="BX39" s="39"/>
+      <c r="BY39" s="39"/>
+      <c r="BZ39" s="34"/>
+      <c r="CA39" s="34"/>
+      <c r="CB39" s="34"/>
+      <c r="CC39" s="34"/>
+      <c r="CD39" s="39"/>
+      <c r="CE39" s="39"/>
     </row>
     <row r="40" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="7"/>
-      <c r="B40" s="75" t="s">
+      <c r="B40" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="C40" s="76"/>
-      <c r="D40" s="77"/>
-      <c r="E40" s="77"/>
-      <c r="F40" s="83"/>
-      <c r="G40" s="40"/>
-      <c r="H40" s="40"/>
-      <c r="I40" s="40"/>
-      <c r="J40" s="40"/>
-      <c r="K40" s="40"/>
-      <c r="L40" s="45"/>
-      <c r="M40" s="45"/>
-      <c r="N40" s="40"/>
-      <c r="O40" s="40"/>
-      <c r="P40" s="40"/>
-      <c r="Q40" s="40"/>
-      <c r="R40" s="40"/>
-      <c r="S40" s="45"/>
-      <c r="T40" s="45"/>
-      <c r="U40" s="40"/>
-      <c r="V40" s="40"/>
-      <c r="W40" s="40"/>
-      <c r="X40" s="40"/>
-      <c r="Y40" s="40"/>
-      <c r="Z40" s="45"/>
-      <c r="AA40" s="45"/>
-      <c r="AB40" s="40"/>
-      <c r="AC40" s="40"/>
-      <c r="AD40" s="40"/>
-      <c r="AE40" s="40"/>
-      <c r="AF40" s="40"/>
-      <c r="AG40" s="45"/>
-      <c r="AH40" s="45"/>
-      <c r="AI40" s="40"/>
-      <c r="AJ40" s="40"/>
-      <c r="AK40" s="40"/>
-      <c r="AL40" s="40"/>
-      <c r="AM40" s="40"/>
-      <c r="AN40" s="45"/>
-      <c r="AO40" s="45"/>
-      <c r="AP40" s="40"/>
-      <c r="AQ40" s="40"/>
-      <c r="AR40" s="40"/>
-      <c r="AS40" s="40"/>
-      <c r="AT40" s="40"/>
-      <c r="AU40" s="45"/>
-      <c r="AV40" s="45"/>
-      <c r="AW40" s="40"/>
-      <c r="AX40" s="40"/>
-      <c r="AY40" s="40"/>
-      <c r="AZ40" s="40"/>
-      <c r="BA40" s="40"/>
-      <c r="BB40" s="45"/>
-      <c r="BC40" s="45"/>
-      <c r="BD40" s="40"/>
-      <c r="BE40" s="40"/>
-      <c r="BF40" s="40"/>
-      <c r="BG40" s="40"/>
-      <c r="BH40" s="40"/>
-      <c r="BI40" s="45"/>
-      <c r="BJ40" s="45"/>
-      <c r="BK40" s="40"/>
-      <c r="BL40" s="40"/>
-      <c r="BM40" s="40"/>
-      <c r="BN40" s="40"/>
-      <c r="BO40" s="40"/>
-      <c r="BP40" s="45"/>
-      <c r="BQ40" s="45"/>
-      <c r="BR40" s="40"/>
-      <c r="BS40" s="40"/>
-      <c r="BT40" s="40"/>
-      <c r="BU40" s="40"/>
-      <c r="BV40" s="40"/>
-      <c r="BW40" s="45"/>
-      <c r="BX40" s="45"/>
-      <c r="BY40" s="45"/>
-      <c r="BZ40" s="40"/>
-      <c r="CA40" s="40"/>
-      <c r="CB40" s="40"/>
-      <c r="CC40" s="40"/>
-      <c r="CD40" s="45"/>
-      <c r="CE40" s="45"/>
+      <c r="C40" s="66"/>
+      <c r="D40" s="67">
+        <v>45250</v>
+      </c>
+      <c r="E40" s="67">
+        <v>44523</v>
+      </c>
+      <c r="F40" s="71"/>
+      <c r="G40" s="34"/>
+      <c r="H40" s="34"/>
+      <c r="I40" s="34"/>
+      <c r="J40" s="34"/>
+      <c r="K40" s="34"/>
+      <c r="L40" s="39"/>
+      <c r="M40" s="39"/>
+      <c r="N40" s="34"/>
+      <c r="O40" s="34"/>
+      <c r="P40" s="34"/>
+      <c r="Q40" s="34"/>
+      <c r="R40" s="34"/>
+      <c r="S40" s="39"/>
+      <c r="T40" s="39"/>
+      <c r="U40" s="34"/>
+      <c r="V40" s="34"/>
+      <c r="W40" s="34"/>
+      <c r="X40" s="34"/>
+      <c r="Y40" s="34"/>
+      <c r="Z40" s="39"/>
+      <c r="AA40" s="39"/>
+      <c r="AB40" s="34"/>
+      <c r="AC40" s="34"/>
+      <c r="AD40" s="34"/>
+      <c r="AE40" s="34"/>
+      <c r="AF40" s="34"/>
+      <c r="AG40" s="39"/>
+      <c r="AH40" s="39"/>
+      <c r="AI40" s="34"/>
+      <c r="AJ40" s="34"/>
+      <c r="AK40" s="34"/>
+      <c r="AL40" s="34"/>
+      <c r="AM40" s="34"/>
+      <c r="AN40" s="39"/>
+      <c r="AO40" s="39"/>
+      <c r="AP40" s="34"/>
+      <c r="AQ40" s="34"/>
+      <c r="AR40" s="34"/>
+      <c r="AS40" s="34"/>
+      <c r="AT40" s="34"/>
+      <c r="AU40" s="39"/>
+      <c r="AV40" s="39"/>
+      <c r="AW40" s="34"/>
+      <c r="AX40" s="34"/>
+      <c r="AY40" s="34"/>
+      <c r="AZ40" s="34"/>
+      <c r="BA40" s="34"/>
+      <c r="BB40" s="39"/>
+      <c r="BC40" s="39"/>
+      <c r="BD40" s="34"/>
+      <c r="BE40" s="34"/>
+      <c r="BF40" s="34"/>
+      <c r="BG40" s="34"/>
+      <c r="BH40" s="34"/>
+      <c r="BI40" s="39"/>
+      <c r="BJ40" s="39"/>
+      <c r="BK40" s="34"/>
+      <c r="BL40" s="34"/>
+      <c r="BM40" s="34"/>
+      <c r="BN40" s="34"/>
+      <c r="BO40" s="34"/>
+      <c r="BP40" s="39"/>
+      <c r="BQ40" s="39"/>
+      <c r="BR40" s="34"/>
+      <c r="BS40" s="34"/>
+      <c r="BT40" s="34"/>
+      <c r="BU40" s="34"/>
+      <c r="BV40" s="34"/>
+      <c r="BW40" s="39"/>
+      <c r="BX40" s="39"/>
+      <c r="BY40" s="39"/>
+      <c r="BZ40" s="34"/>
+      <c r="CA40" s="34"/>
+      <c r="CB40" s="34"/>
+      <c r="CC40" s="34"/>
+      <c r="CD40" s="39"/>
+      <c r="CE40" s="39"/>
     </row>
     <row r="41" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="7"/>
-      <c r="B41" s="75" t="s">
+      <c r="B41" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="C41" s="76"/>
-      <c r="D41" s="77"/>
-      <c r="E41" s="77"/>
-      <c r="F41" s="83"/>
-      <c r="G41" s="40"/>
-      <c r="H41" s="40"/>
-      <c r="I41" s="40"/>
-      <c r="J41" s="40"/>
-      <c r="K41" s="40"/>
-      <c r="L41" s="45"/>
-      <c r="M41" s="45"/>
-      <c r="N41" s="40"/>
-      <c r="O41" s="40"/>
-      <c r="P41" s="40"/>
-      <c r="Q41" s="40"/>
-      <c r="R41" s="40"/>
-      <c r="S41" s="45"/>
-      <c r="T41" s="45"/>
-      <c r="U41" s="40"/>
-      <c r="V41" s="40"/>
-      <c r="W41" s="40"/>
-      <c r="X41" s="40"/>
-      <c r="Y41" s="40"/>
-      <c r="Z41" s="45"/>
-      <c r="AA41" s="45"/>
-      <c r="AB41" s="40"/>
-      <c r="AC41" s="40"/>
-      <c r="AD41" s="40"/>
-      <c r="AE41" s="40"/>
-      <c r="AF41" s="40"/>
-      <c r="AG41" s="45"/>
-      <c r="AH41" s="45"/>
-      <c r="AI41" s="40"/>
-      <c r="AJ41" s="40"/>
-      <c r="AK41" s="40"/>
-      <c r="AL41" s="40"/>
-      <c r="AM41" s="40"/>
-      <c r="AN41" s="45"/>
-      <c r="AO41" s="45"/>
-      <c r="AP41" s="40"/>
-      <c r="AQ41" s="40"/>
-      <c r="AR41" s="40"/>
-      <c r="AS41" s="40"/>
-      <c r="AT41" s="40"/>
-      <c r="AU41" s="45"/>
-      <c r="AV41" s="45"/>
-      <c r="AW41" s="40"/>
-      <c r="AX41" s="40"/>
-      <c r="AY41" s="40"/>
-      <c r="AZ41" s="40"/>
-      <c r="BA41" s="40"/>
-      <c r="BB41" s="45"/>
-      <c r="BC41" s="45"/>
-      <c r="BD41" s="40"/>
-      <c r="BE41" s="40"/>
-      <c r="BF41" s="40"/>
-      <c r="BG41" s="40"/>
-      <c r="BH41" s="40"/>
-      <c r="BI41" s="45"/>
-      <c r="BJ41" s="45"/>
-      <c r="BK41" s="40"/>
-      <c r="BL41" s="40"/>
-      <c r="BM41" s="40"/>
-      <c r="BN41" s="40"/>
-      <c r="BO41" s="40"/>
-      <c r="BP41" s="45"/>
-      <c r="BQ41" s="45"/>
-      <c r="BR41" s="40"/>
-      <c r="BS41" s="40"/>
-      <c r="BT41" s="40"/>
-      <c r="BU41" s="40"/>
-      <c r="BV41" s="40"/>
-      <c r="BW41" s="45"/>
-      <c r="BX41" s="45"/>
-      <c r="BY41" s="45"/>
-      <c r="BZ41" s="40"/>
-      <c r="CA41" s="40"/>
-      <c r="CB41" s="40"/>
-      <c r="CC41" s="40"/>
-      <c r="CD41" s="45"/>
-      <c r="CE41" s="45"/>
+      <c r="C41" s="66" t="s">
+        <v>28</v>
+      </c>
+      <c r="D41" s="67">
+        <v>45251</v>
+      </c>
+      <c r="E41" s="67">
+        <v>44525</v>
+      </c>
+      <c r="F41" s="71"/>
+      <c r="G41" s="34"/>
+      <c r="H41" s="34"/>
+      <c r="I41" s="34"/>
+      <c r="J41" s="34"/>
+      <c r="K41" s="34"/>
+      <c r="L41" s="39"/>
+      <c r="M41" s="39"/>
+      <c r="N41" s="34"/>
+      <c r="O41" s="34"/>
+      <c r="P41" s="34"/>
+      <c r="Q41" s="34"/>
+      <c r="R41" s="34"/>
+      <c r="S41" s="39"/>
+      <c r="T41" s="39"/>
+      <c r="U41" s="34"/>
+      <c r="V41" s="34"/>
+      <c r="W41" s="34"/>
+      <c r="X41" s="34"/>
+      <c r="Y41" s="34"/>
+      <c r="Z41" s="39"/>
+      <c r="AA41" s="39"/>
+      <c r="AB41" s="34"/>
+      <c r="AC41" s="34"/>
+      <c r="AD41" s="34"/>
+      <c r="AE41" s="34"/>
+      <c r="AF41" s="34"/>
+      <c r="AG41" s="39"/>
+      <c r="AH41" s="39"/>
+      <c r="AI41" s="34"/>
+      <c r="AJ41" s="34"/>
+      <c r="AK41" s="34"/>
+      <c r="AL41" s="34"/>
+      <c r="AM41" s="34"/>
+      <c r="AN41" s="39"/>
+      <c r="AO41" s="39"/>
+      <c r="AP41" s="34"/>
+      <c r="AQ41" s="34"/>
+      <c r="AR41" s="34"/>
+      <c r="AS41" s="34"/>
+      <c r="AT41" s="34"/>
+      <c r="AU41" s="39"/>
+      <c r="AV41" s="39"/>
+      <c r="AW41" s="34"/>
+      <c r="AX41" s="34"/>
+      <c r="AY41" s="34"/>
+      <c r="AZ41" s="34"/>
+      <c r="BA41" s="34"/>
+      <c r="BB41" s="96"/>
+      <c r="BC41" s="97"/>
+      <c r="BD41" s="97"/>
+      <c r="BE41" s="97"/>
+      <c r="BF41" s="97"/>
+      <c r="BG41" s="97"/>
+      <c r="BH41" s="97"/>
+      <c r="BI41" s="97"/>
+      <c r="BJ41" s="97"/>
+      <c r="BK41" s="97"/>
+      <c r="BL41" s="97"/>
+      <c r="BM41" s="97"/>
+      <c r="BN41" s="97"/>
+      <c r="BO41" s="94"/>
+      <c r="BP41" s="95"/>
+      <c r="BQ41" s="39"/>
+      <c r="BR41" s="34"/>
+      <c r="BS41" s="34"/>
+      <c r="BT41" s="34"/>
+      <c r="BU41" s="34"/>
+      <c r="BV41" s="34"/>
+      <c r="BW41" s="39"/>
+      <c r="BX41" s="39"/>
+      <c r="BY41" s="39"/>
+      <c r="BZ41" s="34"/>
+      <c r="CA41" s="34"/>
+      <c r="CB41" s="34"/>
+      <c r="CC41" s="34"/>
+      <c r="CD41" s="39"/>
+      <c r="CE41" s="39"/>
     </row>
     <row r="42" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="7"/>
-      <c r="B42" s="75" t="s">
+      <c r="B42" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="C42" s="76"/>
-      <c r="D42" s="77"/>
-      <c r="E42" s="77"/>
-      <c r="F42" s="83"/>
-      <c r="G42" s="40"/>
-      <c r="H42" s="40"/>
-      <c r="I42" s="40"/>
-      <c r="J42" s="40"/>
-      <c r="K42" s="40"/>
-      <c r="L42" s="45"/>
-      <c r="M42" s="45"/>
-      <c r="N42" s="40"/>
-      <c r="O42" s="40"/>
-      <c r="P42" s="40"/>
-      <c r="Q42" s="40"/>
-      <c r="R42" s="40"/>
-      <c r="S42" s="45"/>
-      <c r="T42" s="45"/>
-      <c r="U42" s="40"/>
-      <c r="V42" s="40"/>
-      <c r="W42" s="40"/>
-      <c r="X42" s="40"/>
-      <c r="Y42" s="40"/>
-      <c r="Z42" s="45"/>
-      <c r="AA42" s="45"/>
-      <c r="AB42" s="40"/>
-      <c r="AC42" s="40"/>
-      <c r="AD42" s="40"/>
-      <c r="AE42" s="40"/>
-      <c r="AF42" s="40"/>
-      <c r="AG42" s="45"/>
-      <c r="AH42" s="45"/>
-      <c r="AI42" s="40"/>
-      <c r="AJ42" s="40"/>
-      <c r="AK42" s="40"/>
-      <c r="AL42" s="40"/>
-      <c r="AM42" s="40"/>
-      <c r="AN42" s="45"/>
-      <c r="AO42" s="45"/>
-      <c r="AP42" s="40"/>
-      <c r="AQ42" s="40"/>
-      <c r="AR42" s="40"/>
-      <c r="AS42" s="40"/>
-      <c r="AT42" s="40"/>
-      <c r="AU42" s="45"/>
-      <c r="AV42" s="45"/>
-      <c r="AW42" s="40"/>
-      <c r="AX42" s="40"/>
-      <c r="AY42" s="40"/>
-      <c r="AZ42" s="40"/>
-      <c r="BA42" s="40"/>
-      <c r="BB42" s="45"/>
-      <c r="BC42" s="45"/>
-      <c r="BD42" s="40"/>
-      <c r="BE42" s="40"/>
-      <c r="BF42" s="40"/>
-      <c r="BG42" s="40"/>
-      <c r="BH42" s="40"/>
-      <c r="BI42" s="45"/>
-      <c r="BJ42" s="45"/>
-      <c r="BK42" s="40"/>
-      <c r="BL42" s="40"/>
-      <c r="BM42" s="40"/>
-      <c r="BN42" s="40"/>
-      <c r="BO42" s="40"/>
-      <c r="BP42" s="45"/>
-      <c r="BQ42" s="45"/>
-      <c r="BR42" s="40"/>
-      <c r="BS42" s="40"/>
-      <c r="BT42" s="40"/>
-      <c r="BU42" s="40"/>
-      <c r="BV42" s="40"/>
-      <c r="BW42" s="45"/>
-      <c r="BX42" s="45"/>
-      <c r="BY42" s="45"/>
-      <c r="BZ42" s="40"/>
-      <c r="CA42" s="40"/>
-      <c r="CB42" s="40"/>
-      <c r="CC42" s="40"/>
-      <c r="CD42" s="45"/>
-      <c r="CE42" s="45"/>
+      <c r="C42" s="66"/>
+      <c r="D42" s="67">
+        <v>45252</v>
+      </c>
+      <c r="E42" s="67">
+        <v>44524</v>
+      </c>
+      <c r="F42" s="71"/>
+      <c r="G42" s="34"/>
+      <c r="H42" s="34"/>
+      <c r="I42" s="34"/>
+      <c r="J42" s="34"/>
+      <c r="K42" s="34"/>
+      <c r="L42" s="39"/>
+      <c r="M42" s="39"/>
+      <c r="N42" s="34"/>
+      <c r="O42" s="34"/>
+      <c r="P42" s="34"/>
+      <c r="Q42" s="34"/>
+      <c r="R42" s="34"/>
+      <c r="S42" s="39"/>
+      <c r="T42" s="39"/>
+      <c r="U42" s="34"/>
+      <c r="V42" s="34"/>
+      <c r="W42" s="34"/>
+      <c r="X42" s="34"/>
+      <c r="Y42" s="34"/>
+      <c r="Z42" s="39"/>
+      <c r="AA42" s="39"/>
+      <c r="AB42" s="34"/>
+      <c r="AC42" s="34"/>
+      <c r="AD42" s="34"/>
+      <c r="AE42" s="34"/>
+      <c r="AF42" s="34"/>
+      <c r="AG42" s="39"/>
+      <c r="AH42" s="39"/>
+      <c r="AI42" s="34"/>
+      <c r="AJ42" s="34"/>
+      <c r="AK42" s="34"/>
+      <c r="AL42" s="34"/>
+      <c r="AM42" s="34"/>
+      <c r="AN42" s="39"/>
+      <c r="AO42" s="39"/>
+      <c r="AP42" s="34"/>
+      <c r="AQ42" s="34"/>
+      <c r="AR42" s="34"/>
+      <c r="AS42" s="34"/>
+      <c r="AT42" s="34"/>
+      <c r="AU42" s="39"/>
+      <c r="AV42" s="39"/>
+      <c r="AW42" s="34"/>
+      <c r="AX42" s="34"/>
+      <c r="AY42" s="34"/>
+      <c r="AZ42" s="34"/>
+      <c r="BA42" s="34"/>
+      <c r="BB42" s="39"/>
+      <c r="BC42" s="39"/>
+      <c r="BD42" s="34"/>
+      <c r="BE42" s="34"/>
+      <c r="BF42" s="34"/>
+      <c r="BG42" s="34"/>
+      <c r="BH42" s="34"/>
+      <c r="BI42" s="39"/>
+      <c r="BJ42" s="39"/>
+      <c r="BK42" s="34"/>
+      <c r="BL42" s="34"/>
+      <c r="BM42" s="34"/>
+      <c r="BN42" s="34"/>
+      <c r="BO42" s="34"/>
+      <c r="BP42" s="39"/>
+      <c r="BQ42" s="39"/>
+      <c r="BR42" s="34"/>
+      <c r="BS42" s="34"/>
+      <c r="BT42" s="34"/>
+      <c r="BU42" s="34"/>
+      <c r="BV42" s="34"/>
+      <c r="BW42" s="39"/>
+      <c r="BX42" s="39"/>
+      <c r="BY42" s="39"/>
+      <c r="BZ42" s="34"/>
+      <c r="CA42" s="34"/>
+      <c r="CB42" s="34"/>
+      <c r="CC42" s="34"/>
+      <c r="CD42" s="39"/>
+      <c r="CE42" s="39"/>
     </row>
     <row r="43" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="7"/>
-      <c r="B43" s="75" t="s">
+      <c r="B43" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="C43" s="76"/>
-      <c r="D43" s="77"/>
-      <c r="E43" s="77"/>
-      <c r="F43" s="83"/>
-      <c r="G43" s="40"/>
-      <c r="H43" s="40"/>
-      <c r="I43" s="40"/>
-      <c r="J43" s="40"/>
-      <c r="K43" s="40"/>
-      <c r="L43" s="45"/>
-      <c r="M43" s="45"/>
-      <c r="N43" s="40"/>
-      <c r="O43" s="40"/>
-      <c r="P43" s="40"/>
-      <c r="Q43" s="40"/>
-      <c r="R43" s="40"/>
-      <c r="S43" s="45"/>
-      <c r="T43" s="45"/>
-      <c r="U43" s="40"/>
-      <c r="V43" s="40"/>
-      <c r="W43" s="40"/>
-      <c r="X43" s="40"/>
-      <c r="Y43" s="40"/>
-      <c r="Z43" s="45"/>
-      <c r="AA43" s="45"/>
-      <c r="AB43" s="40"/>
-      <c r="AC43" s="40"/>
-      <c r="AD43" s="40"/>
-      <c r="AE43" s="40"/>
-      <c r="AF43" s="40"/>
-      <c r="AG43" s="45"/>
-      <c r="AH43" s="45"/>
-      <c r="AI43" s="40"/>
-      <c r="AJ43" s="40"/>
-      <c r="AK43" s="40"/>
-      <c r="AL43" s="40"/>
-      <c r="AM43" s="40"/>
-      <c r="AN43" s="45"/>
-      <c r="AO43" s="45"/>
-      <c r="AP43" s="40"/>
-      <c r="AQ43" s="40"/>
-      <c r="AR43" s="40"/>
-      <c r="AS43" s="40"/>
-      <c r="AT43" s="40"/>
-      <c r="AU43" s="45"/>
-      <c r="AV43" s="45"/>
-      <c r="AW43" s="40"/>
-      <c r="AX43" s="40"/>
-      <c r="AY43" s="40"/>
-      <c r="AZ43" s="40"/>
-      <c r="BA43" s="40"/>
-      <c r="BB43" s="45"/>
-      <c r="BC43" s="45"/>
-      <c r="BD43" s="40"/>
-      <c r="BE43" s="40"/>
-      <c r="BF43" s="40"/>
-      <c r="BG43" s="40"/>
-      <c r="BH43" s="40"/>
-      <c r="BI43" s="45"/>
-      <c r="BJ43" s="45"/>
-      <c r="BK43" s="40"/>
-      <c r="BL43" s="40"/>
-      <c r="BM43" s="40"/>
-      <c r="BN43" s="40"/>
-      <c r="BO43" s="40"/>
-      <c r="BP43" s="45"/>
-      <c r="BQ43" s="45"/>
-      <c r="BR43" s="40"/>
-      <c r="BS43" s="40"/>
-      <c r="BT43" s="40"/>
-      <c r="BU43" s="40"/>
-      <c r="BV43" s="40"/>
-      <c r="BW43" s="45"/>
-      <c r="BX43" s="45"/>
-      <c r="BY43" s="45"/>
-      <c r="BZ43" s="40"/>
-      <c r="CA43" s="40"/>
-      <c r="CB43" s="40"/>
-      <c r="CC43" s="40"/>
-      <c r="CD43" s="45"/>
-      <c r="CE43" s="45"/>
+      <c r="C43" s="66"/>
+      <c r="D43" s="67">
+        <v>45253</v>
+      </c>
+      <c r="E43" s="67">
+        <v>44524</v>
+      </c>
+      <c r="F43" s="71"/>
+      <c r="G43" s="34"/>
+      <c r="H43" s="34"/>
+      <c r="I43" s="34"/>
+      <c r="J43" s="34"/>
+      <c r="K43" s="34"/>
+      <c r="L43" s="39"/>
+      <c r="M43" s="39"/>
+      <c r="N43" s="34"/>
+      <c r="O43" s="34"/>
+      <c r="P43" s="34"/>
+      <c r="Q43" s="34"/>
+      <c r="R43" s="34"/>
+      <c r="S43" s="39"/>
+      <c r="T43" s="39"/>
+      <c r="U43" s="34"/>
+      <c r="V43" s="34"/>
+      <c r="W43" s="34"/>
+      <c r="X43" s="34"/>
+      <c r="Y43" s="34"/>
+      <c r="Z43" s="39"/>
+      <c r="AA43" s="39"/>
+      <c r="AB43" s="34"/>
+      <c r="AC43" s="34"/>
+      <c r="AD43" s="34"/>
+      <c r="AE43" s="34"/>
+      <c r="AF43" s="34"/>
+      <c r="AG43" s="39"/>
+      <c r="AH43" s="39"/>
+      <c r="AI43" s="34"/>
+      <c r="AJ43" s="34"/>
+      <c r="AK43" s="34"/>
+      <c r="AL43" s="34"/>
+      <c r="AM43" s="34"/>
+      <c r="AN43" s="39"/>
+      <c r="AO43" s="39"/>
+      <c r="AP43" s="34"/>
+      <c r="AQ43" s="34"/>
+      <c r="AR43" s="34"/>
+      <c r="AS43" s="34"/>
+      <c r="AT43" s="34"/>
+      <c r="AU43" s="39"/>
+      <c r="AV43" s="39"/>
+      <c r="AW43" s="34"/>
+      <c r="AX43" s="34"/>
+      <c r="AY43" s="34"/>
+      <c r="AZ43" s="34"/>
+      <c r="BA43" s="34"/>
+      <c r="BB43" s="39"/>
+      <c r="BC43" s="39"/>
+      <c r="BD43" s="34"/>
+      <c r="BE43" s="34"/>
+      <c r="BF43" s="34"/>
+      <c r="BG43" s="34"/>
+      <c r="BH43" s="34"/>
+      <c r="BI43" s="39"/>
+      <c r="BJ43" s="39"/>
+      <c r="BK43" s="34"/>
+      <c r="BL43" s="34"/>
+      <c r="BM43" s="34"/>
+      <c r="BN43" s="34"/>
+      <c r="BO43" s="34"/>
+      <c r="BP43" s="39"/>
+      <c r="BQ43" s="39"/>
+      <c r="BR43" s="34"/>
+      <c r="BS43" s="34"/>
+      <c r="BT43" s="34"/>
+      <c r="BU43" s="34"/>
+      <c r="BV43" s="34"/>
+      <c r="BW43" s="39"/>
+      <c r="BX43" s="39"/>
+      <c r="BY43" s="39"/>
+      <c r="BZ43" s="34"/>
+      <c r="CA43" s="34"/>
+      <c r="CB43" s="34"/>
+      <c r="CC43" s="34"/>
+      <c r="CD43" s="39"/>
+      <c r="CE43" s="39"/>
     </row>
     <row r="44" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="7"/>
-      <c r="B44" s="88" t="s">
+      <c r="B44" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="C44" s="89"/>
-      <c r="D44" s="90"/>
-      <c r="E44" s="91"/>
-      <c r="F44" s="84"/>
-      <c r="G44" s="80"/>
-      <c r="H44" s="80"/>
-      <c r="I44" s="80"/>
-      <c r="J44" s="80"/>
-      <c r="K44" s="80"/>
-      <c r="L44" s="80"/>
-      <c r="M44" s="80"/>
-      <c r="N44" s="80"/>
-      <c r="O44" s="80"/>
-      <c r="P44" s="80"/>
-      <c r="Q44" s="80"/>
-      <c r="R44" s="80"/>
-      <c r="S44" s="80"/>
-      <c r="T44" s="80"/>
-      <c r="U44" s="80"/>
-      <c r="V44" s="80"/>
-      <c r="W44" s="80"/>
-      <c r="X44" s="80"/>
-      <c r="Y44" s="80"/>
-      <c r="Z44" s="80"/>
-      <c r="AA44" s="80"/>
-      <c r="AB44" s="80"/>
-      <c r="AC44" s="80"/>
-      <c r="AD44" s="80"/>
-      <c r="AE44" s="80"/>
-      <c r="AF44" s="80"/>
-      <c r="AG44" s="80"/>
-      <c r="AH44" s="80"/>
-      <c r="AI44" s="80"/>
-      <c r="AJ44" s="80"/>
-      <c r="AK44" s="80"/>
-      <c r="AL44" s="80"/>
-      <c r="AM44" s="80"/>
-      <c r="AN44" s="80"/>
-      <c r="AO44" s="80"/>
-      <c r="AP44" s="80"/>
-      <c r="AQ44" s="80"/>
-      <c r="AR44" s="80"/>
-      <c r="AS44" s="80"/>
-      <c r="AT44" s="80"/>
-      <c r="AU44" s="80"/>
-      <c r="AV44" s="80"/>
-      <c r="AW44" s="80"/>
-      <c r="AX44" s="80"/>
-      <c r="AY44" s="80"/>
-      <c r="AZ44" s="80"/>
-      <c r="BA44" s="80"/>
-      <c r="BB44" s="80"/>
-      <c r="BC44" s="80"/>
-      <c r="BD44" s="80"/>
-      <c r="BE44" s="80"/>
-      <c r="BF44" s="80"/>
-      <c r="BG44" s="80"/>
-      <c r="BH44" s="80"/>
-      <c r="BI44" s="80"/>
-      <c r="BJ44" s="80"/>
-      <c r="BK44" s="80"/>
-      <c r="BL44" s="80"/>
-      <c r="BM44" s="80"/>
-      <c r="BN44" s="80"/>
-      <c r="BO44" s="80"/>
-      <c r="BP44" s="80"/>
-      <c r="BQ44" s="80"/>
-      <c r="BR44" s="80"/>
-      <c r="BS44" s="80"/>
-      <c r="BT44" s="80"/>
-      <c r="BU44" s="80"/>
-      <c r="BV44" s="80"/>
-      <c r="BW44" s="80"/>
-      <c r="BX44" s="80"/>
-      <c r="BY44" s="80"/>
-      <c r="BZ44" s="80"/>
-      <c r="CA44" s="80"/>
-      <c r="CB44" s="80"/>
-      <c r="CC44" s="80"/>
-      <c r="CD44" s="80"/>
-      <c r="CE44" s="80"/>
+      <c r="C44" s="77"/>
+      <c r="D44" s="78"/>
+      <c r="E44" s="79"/>
+      <c r="F44" s="72"/>
+      <c r="G44" s="89"/>
+      <c r="H44" s="89"/>
+      <c r="I44" s="89"/>
+      <c r="J44" s="89"/>
+      <c r="K44" s="89"/>
+      <c r="L44" s="89"/>
+      <c r="M44" s="89"/>
+      <c r="N44" s="89"/>
+      <c r="O44" s="89"/>
+      <c r="P44" s="89"/>
+      <c r="Q44" s="89"/>
+      <c r="R44" s="89"/>
+      <c r="S44" s="89"/>
+      <c r="T44" s="89"/>
+      <c r="U44" s="89"/>
+      <c r="V44" s="89"/>
+      <c r="W44" s="89"/>
+      <c r="X44" s="89"/>
+      <c r="Y44" s="89"/>
+      <c r="Z44" s="89"/>
+      <c r="AA44" s="89"/>
+      <c r="AB44" s="89"/>
+      <c r="AC44" s="89"/>
+      <c r="AD44" s="89"/>
+      <c r="AE44" s="89"/>
+      <c r="AF44" s="89"/>
+      <c r="AG44" s="89"/>
+      <c r="AH44" s="89"/>
+      <c r="AI44" s="89"/>
+      <c r="AJ44" s="89"/>
+      <c r="AK44" s="89"/>
+      <c r="AL44" s="89"/>
+      <c r="AM44" s="89"/>
+      <c r="AN44" s="89"/>
+      <c r="AO44" s="89"/>
+      <c r="AP44" s="89"/>
+      <c r="AQ44" s="89"/>
+      <c r="AR44" s="89"/>
+      <c r="AS44" s="89"/>
+      <c r="AT44" s="89"/>
+      <c r="AU44" s="89"/>
+      <c r="AV44" s="89"/>
+      <c r="AW44" s="89"/>
+      <c r="AX44" s="89"/>
+      <c r="AY44" s="89"/>
+      <c r="AZ44" s="89"/>
+      <c r="BA44" s="89"/>
+      <c r="BB44" s="89"/>
+      <c r="BC44" s="89"/>
+      <c r="BD44" s="89"/>
+      <c r="BE44" s="89"/>
+      <c r="BF44" s="89"/>
+      <c r="BG44" s="89"/>
+      <c r="BH44" s="89"/>
+      <c r="BI44" s="89"/>
+      <c r="BJ44" s="89"/>
+      <c r="BK44" s="89"/>
+      <c r="BL44" s="89"/>
+      <c r="BM44" s="89"/>
+      <c r="BN44" s="89"/>
+      <c r="BO44" s="89"/>
+      <c r="BP44" s="89"/>
+      <c r="BQ44" s="89"/>
+      <c r="BR44" s="89"/>
+      <c r="BS44" s="89"/>
+      <c r="BT44" s="89"/>
+      <c r="BU44" s="89"/>
+      <c r="BV44" s="89"/>
+      <c r="BW44" s="89"/>
+      <c r="BX44" s="89"/>
+      <c r="BY44" s="89"/>
+      <c r="BZ44" s="89"/>
+      <c r="CA44" s="89"/>
+      <c r="CB44" s="89"/>
+      <c r="CC44" s="89"/>
+      <c r="CD44" s="89"/>
+      <c r="CE44" s="89"/>
     </row>
     <row r="46" spans="1:83" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C46" s="3"/>
@@ -8403,12 +8127,18 @@
       <c r="C47" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="25">
     <mergeCell ref="S8:U8"/>
     <mergeCell ref="G44:CE44"/>
     <mergeCell ref="F17:F18"/>
     <mergeCell ref="F32:F34"/>
     <mergeCell ref="M8:O8"/>
+    <mergeCell ref="AF16:AK16"/>
+    <mergeCell ref="AO25:AT25"/>
+    <mergeCell ref="AP26:AU26"/>
+    <mergeCell ref="AQ27:AV27"/>
+    <mergeCell ref="AS29:AX29"/>
+    <mergeCell ref="BO41:BP41"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="AI4:AO4"/>
     <mergeCell ref="AP4:AV4"/>
@@ -8424,172 +8154,172 @@
     <mergeCell ref="AW4:BC4"/>
     <mergeCell ref="BD4:BJ4"/>
   </mergeCells>
-  <conditionalFormatting sqref="G5:BW6 BY6:CD6 AI11:AM17 AP11:AT17 AW11:BA17 BD11:BH17 BK11:BO17 BR11:BV17 Z34:Z43 AP34:AT43 AB34:AM43 BY9:CC9 BR9:BV9 BK9:BO9 BD9:BH9 AI9:AM9 AB9:AF9 AP8:AT9 AW8:BA9 AB8:AM8 BD8:CE8 X8:Y9 AB11:AF17 U11:Y17 L34:M43 AW34:BX43 BW9:BX17 BP9:BQ17 BI9:BJ17 AG9:AH17 BB8:BC17 S10:T17 CD9:CE17 AN8:AO17 AU8:AV17 G19:CE32 S34:T43 CD34:CE43">
-    <cfRule type="expression" dxfId="95" priority="152">
+  <conditionalFormatting sqref="G5:BW6 BY6:CD6 AI11:AM15 AP11:AT17 AW11:BA17 BD11:BH17 BK11:BO17 BR11:BV17 Z34:Z43 AP34:AT43 AB34:AM43 BY9:CC9 BR9:BV9 BK9:BO9 BD9:BH9 AI9:AM9 AB9:AF9 AP8:AT9 AW8:BA9 AB8:AM8 BD8:CE8 X8:Y9 AB11:AF15 U11:Y17 L34:M43 AW34:BX40 BW9:BX17 BP9:BQ17 BI9:BJ17 AG9:AH15 BB8:BC17 S10:T17 CD9:CE17 AN8:AO17 AU8:AV17 G19:CE24 S34:T43 CD34:CE43 AB16:AE16 AB17:AM17 AL16:AM16 G28:CE28 G25:AN25 AU25:CE25 G26:AO26 AV26:CE26 G27:AP27 AW27:CE27 G30:CE32 G29:AR29 AY29:CE29 AW42:BX43 AW41:BB41 BQ41:BX41">
+    <cfRule type="expression" dxfId="233" priority="152">
       <formula>AND(TODAY()&gt;=G$5,TODAY()&lt;H$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G6:BW6 BY6:CD6 AI11:AM17 AP11:AT17 AW11:BA17 BD11:BH17 BK11:BO17 BR11:BV17 Z34:Z43 AP34:AT43 AB34:AM43 BY9:CC9 BR9:BV9 BK9:BO9 BD9:BH9 AI9:AM9 AB9:AF9 AP8:AT9 AW8:BA9 AB8:AM8 BD8:CE8 X8:Y9 AB11:AF17 U11:Y17 L34:M43 AW34:BX43 BW9:BX17 BP9:BQ17 BI9:BJ17 AG9:AH17 BB8:BC17 S10:T17 CD9:CE17 AN8:AO17 AU8:AV17 G19:CE32 S34:T43 CD34:CE43">
-    <cfRule type="expression" dxfId="94" priority="146">
+  <conditionalFormatting sqref="G6:BW6 BY6:CD6 AI11:AM15 AP11:AT17 AW11:BA17 BD11:BH17 BK11:BO17 BR11:BV17 Z34:Z43 AP34:AT43 AB34:AM43 BY9:CC9 BR9:BV9 BK9:BO9 BD9:BH9 AI9:AM9 AB9:AF9 AP8:AT9 AW8:BA9 AB8:AM8 BD8:CE8 X8:Y9 AB11:AF15 U11:Y17 L34:M43 AW34:BX40 BW9:BX17 BP9:BQ17 BI9:BJ17 AG9:AH15 BB8:BC17 S10:T17 CD9:CE17 AN8:AO17 AU8:AV17 G19:CE24 S34:T43 CD34:CE43 AB16:AE16 AB17:AM17 AL16:AM16 G28:CE28 G25:AN25 AU25:CE25 G26:AO26 AV26:CE26 G27:AP27 AW27:CE27 G30:CE32 G29:AR29 AY29:CE29 AW42:BX43 AW41:BB41 BQ41:BX41">
+    <cfRule type="expression" dxfId="232" priority="146">
       <formula>AND(task_start&lt;=G$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=G$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="147" stopIfTrue="1">
+    <cfRule type="expression" dxfId="231" priority="147" stopIfTrue="1">
       <formula>AND(task_end&gt;=G$5,task_start&lt;H$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BY5:CE5 BX5:BX6 CE6">
-    <cfRule type="expression" dxfId="92" priority="154">
+    <cfRule type="expression" dxfId="230" priority="154">
       <formula>AND(TODAY()&gt;=BX$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BX6 CE6">
-    <cfRule type="expression" dxfId="91" priority="157">
+    <cfRule type="expression" dxfId="229" priority="157">
       <formula>AND(task_start&lt;=BX$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BX$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="158" stopIfTrue="1">
+    <cfRule type="expression" dxfId="228" priority="158" stopIfTrue="1">
       <formula>AND(task_end&gt;=BX$5,task_start&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BY10:CC10 U10:Y10 AB10:AF10 AI10:AM10 AP10:AT10 AW10:BA10 BD10:BH10 BK10:BO10 BR10:BV10 G10:R10">
-    <cfRule type="expression" dxfId="89" priority="103">
+    <cfRule type="expression" dxfId="227" priority="103">
       <formula>AND(TODAY()&gt;=G$5,TODAY()&lt;H$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BY10:CC10 U10:Y10 AB10:AF10 AI10:AM10 AP10:AT10 AW10:BA10 BD10:BH10 BK10:BO10 BR10:BV10 G10:R10">
-    <cfRule type="expression" dxfId="88" priority="101">
+    <cfRule type="expression" dxfId="226" priority="101">
       <formula>AND(task_start&lt;=G$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=G$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="102" stopIfTrue="1">
+    <cfRule type="expression" dxfId="225" priority="102" stopIfTrue="1">
       <formula>AND(task_end&gt;=G$5,task_start&lt;H$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BY11:CC17 G11:R17">
-    <cfRule type="expression" dxfId="86" priority="97">
+    <cfRule type="expression" dxfId="224" priority="97">
       <formula>AND(TODAY()&gt;=G$5,TODAY()&lt;H$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BY11:CC17 G11:R17">
-    <cfRule type="expression" dxfId="85" priority="95">
+    <cfRule type="expression" dxfId="223" priority="95">
       <formula>AND(task_start&lt;=G$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=G$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="96" stopIfTrue="1">
+    <cfRule type="expression" dxfId="222" priority="96" stopIfTrue="1">
       <formula>AND(task_end&gt;=G$5,task_start&lt;H$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34:K43 BZ34:CC43 U34:Y43 N34:R43">
-    <cfRule type="expression" dxfId="77" priority="73">
+    <cfRule type="expression" dxfId="221" priority="73">
       <formula>AND(TODAY()&gt;=G$5,TODAY()&lt;H$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34:K43 BZ34:CC43 U34:Y43 N34:R43">
-    <cfRule type="expression" dxfId="76" priority="71">
+    <cfRule type="expression" dxfId="220" priority="71">
       <formula>AND(task_start&lt;=G$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=G$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="72" stopIfTrue="1">
+    <cfRule type="expression" dxfId="219" priority="72" stopIfTrue="1">
       <formula>AND(task_end&gt;=G$5,task_start&lt;H$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z8:AA17">
-    <cfRule type="expression" dxfId="74" priority="61">
+    <cfRule type="expression" dxfId="218" priority="61">
       <formula>AND(TODAY()&gt;=Z$5,TODAY()&lt;AA$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z8:AA17">
-    <cfRule type="expression" dxfId="73" priority="59">
+    <cfRule type="expression" dxfId="217" priority="59">
       <formula>AND(task_start&lt;=Z$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=Z$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="60" stopIfTrue="1">
+    <cfRule type="expression" dxfId="216" priority="60" stopIfTrue="1">
       <formula>AND(task_end&gt;=Z$5,task_start&lt;AA$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN34:AO43">
-    <cfRule type="expression" dxfId="71" priority="24">
+    <cfRule type="expression" dxfId="215" priority="24">
       <formula>AND(TODAY()&gt;=AN$5,TODAY()&lt;AO$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN34:AO43">
-    <cfRule type="expression" dxfId="70" priority="22">
+    <cfRule type="expression" dxfId="214" priority="22">
       <formula>AND(task_start&lt;=AN$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AN$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="213" priority="23" stopIfTrue="1">
       <formula>AND(task_end&gt;=AN$5,task_start&lt;AO$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU34:AV43">
-    <cfRule type="expression" dxfId="68" priority="21">
+    <cfRule type="expression" dxfId="212" priority="21">
       <formula>AND(TODAY()&gt;=AU$5,TODAY()&lt;AV$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU34:AV43">
-    <cfRule type="expression" dxfId="67" priority="19">
+    <cfRule type="expression" dxfId="211" priority="19">
       <formula>AND(task_start&lt;=AU$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AU$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="210" priority="20" stopIfTrue="1">
       <formula>AND(task_end&gt;=AU$5,task_start&lt;AV$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA34:AA43 BY34:BY43">
-    <cfRule type="expression" dxfId="65" priority="18">
+    <cfRule type="expression" dxfId="209" priority="18">
       <formula>AND(TODAY()&gt;=AA$5,TODAY()&lt;AB$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA34:AA43 BY34:BY43">
-    <cfRule type="expression" dxfId="64" priority="16">
+    <cfRule type="expression" dxfId="208" priority="16">
       <formula>AND(task_start&lt;=AA$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AA$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="207" priority="17" stopIfTrue="1">
       <formula>AND(task_end&gt;=AA$5,task_start&lt;AB$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G44">
-    <cfRule type="expression" dxfId="62" priority="15">
+    <cfRule type="expression" dxfId="206" priority="15">
       <formula>AND(TODAY()&gt;=G$5,TODAY()&lt;H$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G44">
-    <cfRule type="expression" dxfId="61" priority="13">
+    <cfRule type="expression" dxfId="205" priority="13">
       <formula>AND(task_start&lt;=G$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=G$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="204" priority="14" stopIfTrue="1">
       <formula>AND(task_end&gt;=G$5,task_start&lt;H$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N9:U9 V8:W8 G9:K9 G8 P8:S8">
-    <cfRule type="expression" dxfId="56" priority="9">
+    <cfRule type="expression" dxfId="203" priority="9">
       <formula>AND(TODAY()&gt;=G$5,TODAY()&lt;H$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N9:U9 V8:W8 G9:K9 G8 P8:S8">
-    <cfRule type="expression" dxfId="55" priority="7">
+    <cfRule type="expression" dxfId="202" priority="7">
       <formula>AND(task_start&lt;=G$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=G$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="201" priority="8" stopIfTrue="1">
       <formula>AND(task_end&gt;=G$5,task_start&lt;H$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8 P8:R8">
-    <cfRule type="expression" dxfId="53" priority="6">
+    <cfRule type="expression" dxfId="200" priority="6">
       <formula>AND(TODAY()&gt;=G$5,TODAY()&lt;H$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8 P8:R8">
-    <cfRule type="expression" dxfId="52" priority="4">
+    <cfRule type="expression" dxfId="199" priority="4">
       <formula>AND(task_start&lt;=G$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=G$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="198" priority="5" stopIfTrue="1">
       <formula>AND(task_end&gt;=G$5,task_start&lt;H$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9:K9 N9:R9">
-    <cfRule type="expression" dxfId="50" priority="3">
+    <cfRule type="expression" dxfId="197" priority="3">
       <formula>AND(TODAY()&gt;=G$5,TODAY()&lt;H$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9:K9 N9:R9">
-    <cfRule type="expression" dxfId="49" priority="1">
+    <cfRule type="expression" dxfId="196" priority="1">
       <formula>AND(task_start&lt;=G$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=G$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="195" priority="2" stopIfTrue="1">
       <formula>AND(task_end&gt;=G$5,task_start&lt;H$5)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/gantt-diagram.xlsx
+++ b/gantt-diagram.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07363DF2-D700-4ABF-A97D-CD23B0E2BADE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12720"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt-diagram" sheetId="11" r:id="rId1"/>
@@ -19,9 +18,9 @@
     <definedName name="task_start" localSheetId="0">'Gantt-diagram'!$D1</definedName>
     <definedName name="today" localSheetId="0">TODAY()</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="55">
   <si>
     <t>Projekt kezdete:</t>
   </si>
@@ -200,11 +199,14 @@
   <si>
     <t>Pszichológus oldal</t>
   </si>
+  <si>
+    <t>urbán Judit</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="m/d/yy;@"/>
@@ -213,7 +215,7 @@
     <numFmt numFmtId="168" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="169" formatCode="\ yyyy/\ mmm/\ d/"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -960,6 +962,45 @@
     <xf numFmtId="165" fontId="21" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="12" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="2" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="13" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="2" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="13" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="14" fillId="0" borderId="3" xfId="8" applyNumberFormat="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="169" fontId="14" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -969,50 +1010,11 @@
     <xf numFmtId="169" fontId="14" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="169" fontId="14" fillId="0" borderId="3" xfId="8" applyNumberFormat="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="12" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="2" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="13" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="2" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="13" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -1020,1968 +1022,18 @@
     <cellStyle name="Címsor 1" xfId="5" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Címsor 2" xfId="6" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Címsor 3" xfId="7" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Date" xfId="9" xr:uid="{229918B6-DD13-4F5A-97B9-305F7E002AA3}"/>
+    <cellStyle name="Date" xfId="9"/>
     <cellStyle name="Ezres" xfId="3" builtinId="3" customBuiltin="1"/>
     <cellStyle name="Hivatkozás" xfId="1" builtinId="8" customBuiltin="1"/>
-    <cellStyle name="Jelölőszín 5" xfId="13" builtinId="45"/>
-    <cellStyle name="Name" xfId="10" xr:uid="{B2D3C1EE-6B41-4801-AAFC-C2274E49E503}"/>
+    <cellStyle name="Jelölőszín (5)" xfId="13" builtinId="45"/>
+    <cellStyle name="Name" xfId="10"/>
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
-    <cellStyle name="Project Start" xfId="8" xr:uid="{8EB8A09A-C31C-40A3-B2C1-9449520178B8}"/>
+    <cellStyle name="Project Start" xfId="8"/>
     <cellStyle name="Semleges" xfId="12" builtinId="28"/>
-    <cellStyle name="Task" xfId="11" xr:uid="{6391D789-272B-4DD2-9BF3-2CDCF610FA41}"/>
-    <cellStyle name="zHiddenText" xfId="2" xr:uid="{26E66EE6-E33F-4D77-BAE4-0FB4F5BBF673}"/>
+    <cellStyle name="Task" xfId="11"/>
+    <cellStyle name="zHiddenText" xfId="2"/>
   </cellStyles>
-  <dxfs count="243">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="48">
     <dxf>
       <fill>
         <patternFill>
@@ -3467,16 +1519,16 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="242"/>
-      <tableStyleElement type="headerRow" dxfId="241"/>
-      <tableStyleElement type="totalRow" dxfId="240"/>
-      <tableStyleElement type="firstColumn" dxfId="239"/>
-      <tableStyleElement type="lastColumn" dxfId="238"/>
-      <tableStyleElement type="firstRowStripe" dxfId="237"/>
-      <tableStyleElement type="secondRowStripe" dxfId="236"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="235"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="234"/>
+    <tableStyle name="ToDoList" pivot="0" count="9">
+      <tableStyleElement type="wholeTable" dxfId="47"/>
+      <tableStyleElement type="headerRow" dxfId="46"/>
+      <tableStyleElement type="totalRow" dxfId="45"/>
+      <tableStyleElement type="firstColumn" dxfId="44"/>
+      <tableStyleElement type="lastColumn" dxfId="43"/>
+      <tableStyleElement type="firstRowStripe" dxfId="42"/>
+      <tableStyleElement type="secondRowStripe" dxfId="41"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="40"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="39"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -3613,7 +1665,7 @@
     </a:clrScheme>
     <a:fontScheme name="Calibri">
       <a:majorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="メイリオ"/>
@@ -3648,7 +1700,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="メイリオ"/>
@@ -3825,35 +1877,35 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:CE47"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="B1" zoomScale="73" zoomScaleNormal="73" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AG32" sqref="AG32"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="78.33203125" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="83" width="2.5546875" customWidth="1"/>
+    <col min="1" max="1" width="2.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="78.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="83" width="2.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:83" ht="25.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:83" ht="25.5" customHeight="1">
       <c r="A1" s="7"/>
       <c r="B1" s="8" t="s">
         <v>53</v>
@@ -3958,16 +2010,16 @@
       <c r="CD1" s="12"/>
       <c r="CE1" s="12"/>
     </row>
-    <row r="2" spans="1:83" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:83" ht="25.5" customHeight="1">
       <c r="A2" s="23"/>
       <c r="B2" s="24" t="s">
         <v>46</v>
       </c>
       <c r="C2" s="12"/>
-      <c r="D2" s="83" t="s">
+      <c r="D2" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="83"/>
+      <c r="E2" s="92"/>
       <c r="F2" s="11"/>
       <c r="G2" s="25"/>
       <c r="H2" s="12"/>
@@ -4047,14 +2099,14 @@
       <c r="CD2" s="12"/>
       <c r="CE2" s="12"/>
     </row>
-    <row r="3" spans="1:83" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:83" ht="25.5" customHeight="1">
       <c r="A3" s="23"/>
       <c r="B3" s="26"/>
       <c r="C3" s="12"/>
-      <c r="D3" s="83">
+      <c r="D3" s="92">
         <v>45197</v>
       </c>
-      <c r="E3" s="83"/>
+      <c r="E3" s="92"/>
       <c r="F3" s="11"/>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
@@ -4134,125 +2186,125 @@
       <c r="CD3" s="12"/>
       <c r="CE3" s="12"/>
     </row>
-    <row r="4" spans="1:83" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:83" ht="25.5" customHeight="1">
       <c r="A4" s="7"/>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="80">
+      <c r="F4" s="96"/>
+      <c r="G4" s="93">
         <f>G5</f>
         <v>45194</v>
       </c>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="81"/>
-      <c r="K4" s="81"/>
-      <c r="L4" s="81"/>
-      <c r="M4" s="82"/>
-      <c r="N4" s="80">
+      <c r="H4" s="94"/>
+      <c r="I4" s="94"/>
+      <c r="J4" s="94"/>
+      <c r="K4" s="94"/>
+      <c r="L4" s="94"/>
+      <c r="M4" s="95"/>
+      <c r="N4" s="93">
         <f>N5</f>
         <v>45201</v>
       </c>
-      <c r="O4" s="81"/>
-      <c r="P4" s="81"/>
-      <c r="Q4" s="81"/>
-      <c r="R4" s="81"/>
-      <c r="S4" s="81"/>
-      <c r="T4" s="82"/>
-      <c r="U4" s="80">
+      <c r="O4" s="94"/>
+      <c r="P4" s="94"/>
+      <c r="Q4" s="94"/>
+      <c r="R4" s="94"/>
+      <c r="S4" s="94"/>
+      <c r="T4" s="95"/>
+      <c r="U4" s="93">
         <f>U5</f>
         <v>45208</v>
       </c>
-      <c r="V4" s="81"/>
-      <c r="W4" s="81"/>
-      <c r="X4" s="81"/>
-      <c r="Y4" s="81"/>
-      <c r="Z4" s="81"/>
-      <c r="AA4" s="82"/>
-      <c r="AB4" s="80">
+      <c r="V4" s="94"/>
+      <c r="W4" s="94"/>
+      <c r="X4" s="94"/>
+      <c r="Y4" s="94"/>
+      <c r="Z4" s="94"/>
+      <c r="AA4" s="95"/>
+      <c r="AB4" s="93">
         <f>AB5</f>
         <v>45215</v>
       </c>
-      <c r="AC4" s="81"/>
-      <c r="AD4" s="81"/>
-      <c r="AE4" s="81"/>
-      <c r="AF4" s="81"/>
-      <c r="AG4" s="81"/>
-      <c r="AH4" s="82"/>
-      <c r="AI4" s="80">
+      <c r="AC4" s="94"/>
+      <c r="AD4" s="94"/>
+      <c r="AE4" s="94"/>
+      <c r="AF4" s="94"/>
+      <c r="AG4" s="94"/>
+      <c r="AH4" s="95"/>
+      <c r="AI4" s="93">
         <f>AI5</f>
         <v>45222</v>
       </c>
-      <c r="AJ4" s="81"/>
-      <c r="AK4" s="81"/>
-      <c r="AL4" s="81"/>
-      <c r="AM4" s="81"/>
-      <c r="AN4" s="81"/>
-      <c r="AO4" s="82"/>
-      <c r="AP4" s="80">
+      <c r="AJ4" s="94"/>
+      <c r="AK4" s="94"/>
+      <c r="AL4" s="94"/>
+      <c r="AM4" s="94"/>
+      <c r="AN4" s="94"/>
+      <c r="AO4" s="95"/>
+      <c r="AP4" s="93">
         <f>AP5</f>
         <v>45229</v>
       </c>
-      <c r="AQ4" s="81"/>
-      <c r="AR4" s="81"/>
-      <c r="AS4" s="81"/>
-      <c r="AT4" s="81"/>
-      <c r="AU4" s="81"/>
-      <c r="AV4" s="82"/>
-      <c r="AW4" s="80">
+      <c r="AQ4" s="94"/>
+      <c r="AR4" s="94"/>
+      <c r="AS4" s="94"/>
+      <c r="AT4" s="94"/>
+      <c r="AU4" s="94"/>
+      <c r="AV4" s="95"/>
+      <c r="AW4" s="93">
         <f>AW5</f>
         <v>45236</v>
       </c>
-      <c r="AX4" s="81"/>
-      <c r="AY4" s="81"/>
-      <c r="AZ4" s="81"/>
-      <c r="BA4" s="81"/>
-      <c r="BB4" s="81"/>
-      <c r="BC4" s="82"/>
-      <c r="BD4" s="80">
+      <c r="AX4" s="94"/>
+      <c r="AY4" s="94"/>
+      <c r="AZ4" s="94"/>
+      <c r="BA4" s="94"/>
+      <c r="BB4" s="94"/>
+      <c r="BC4" s="95"/>
+      <c r="BD4" s="93">
         <f>BD5</f>
         <v>45243</v>
       </c>
-      <c r="BE4" s="81"/>
-      <c r="BF4" s="81"/>
-      <c r="BG4" s="81"/>
-      <c r="BH4" s="81"/>
-      <c r="BI4" s="81"/>
-      <c r="BJ4" s="82"/>
-      <c r="BK4" s="80">
+      <c r="BE4" s="94"/>
+      <c r="BF4" s="94"/>
+      <c r="BG4" s="94"/>
+      <c r="BH4" s="94"/>
+      <c r="BI4" s="94"/>
+      <c r="BJ4" s="95"/>
+      <c r="BK4" s="93">
         <f>BK5</f>
         <v>45250</v>
       </c>
-      <c r="BL4" s="81"/>
-      <c r="BM4" s="81"/>
-      <c r="BN4" s="81"/>
-      <c r="BO4" s="81"/>
-      <c r="BP4" s="81"/>
-      <c r="BQ4" s="82"/>
-      <c r="BR4" s="80">
+      <c r="BL4" s="94"/>
+      <c r="BM4" s="94"/>
+      <c r="BN4" s="94"/>
+      <c r="BO4" s="94"/>
+      <c r="BP4" s="94"/>
+      <c r="BQ4" s="95"/>
+      <c r="BR4" s="93">
         <f>BR5</f>
         <v>45257</v>
       </c>
-      <c r="BS4" s="81"/>
-      <c r="BT4" s="81"/>
-      <c r="BU4" s="81"/>
-      <c r="BV4" s="81"/>
-      <c r="BW4" s="81"/>
-      <c r="BX4" s="82"/>
-      <c r="BY4" s="80">
+      <c r="BS4" s="94"/>
+      <c r="BT4" s="94"/>
+      <c r="BU4" s="94"/>
+      <c r="BV4" s="94"/>
+      <c r="BW4" s="94"/>
+      <c r="BX4" s="95"/>
+      <c r="BY4" s="93">
         <f>BY5</f>
         <v>45264</v>
       </c>
-      <c r="BZ4" s="81"/>
-      <c r="CA4" s="81"/>
-      <c r="CB4" s="81"/>
-      <c r="CC4" s="81"/>
-      <c r="CD4" s="81"/>
-      <c r="CE4" s="82"/>
+      <c r="BZ4" s="94"/>
+      <c r="CA4" s="94"/>
+      <c r="CB4" s="94"/>
+      <c r="CC4" s="94"/>
+      <c r="CD4" s="94"/>
+      <c r="CE4" s="95"/>
     </row>
-    <row r="5" spans="1:83" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:83" ht="25.5" customHeight="1" thickBot="1">
       <c r="A5" s="7"/>
       <c r="B5" s="27" t="s">
         <v>1</v>
@@ -4266,7 +2318,7 @@
       <c r="E5" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="85"/>
+      <c r="F5" s="97"/>
       <c r="G5" s="29">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2</f>
         <v>45194</v>
@@ -4576,7 +2628,7 @@
         <v>45270</v>
       </c>
     </row>
-    <row r="6" spans="1:83" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:83" ht="30" hidden="1" customHeight="1" thickBot="1">
       <c r="A6" s="23"/>
       <c r="B6" s="12"/>
       <c r="C6" s="32"/>
@@ -4661,7 +2713,7 @@
       <c r="CD6" s="34"/>
       <c r="CE6" s="34"/>
     </row>
-    <row r="7" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A7" s="7"/>
       <c r="B7" s="35" t="s">
         <v>5</v>
@@ -4748,7 +2800,7 @@
       <c r="CD7" s="69"/>
       <c r="CE7" s="69"/>
     </row>
-    <row r="8" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A8" s="7"/>
       <c r="B8" s="40" t="s">
         <v>11</v>
@@ -4770,15 +2822,15 @@
       <c r="J8" s="44"/>
       <c r="K8" s="44"/>
       <c r="L8" s="44"/>
-      <c r="M8" s="91"/>
-      <c r="N8" s="91"/>
-      <c r="O8" s="92"/>
+      <c r="M8" s="87"/>
+      <c r="N8" s="87"/>
+      <c r="O8" s="88"/>
       <c r="P8" s="34"/>
       <c r="Q8" s="43"/>
       <c r="R8" s="34"/>
-      <c r="S8" s="86"/>
-      <c r="T8" s="87"/>
-      <c r="U8" s="88"/>
+      <c r="S8" s="82"/>
+      <c r="T8" s="83"/>
+      <c r="U8" s="84"/>
       <c r="V8" s="34"/>
       <c r="W8" s="34"/>
       <c r="X8" s="34"/>
@@ -4842,7 +2894,7 @@
       <c r="CD8" s="39"/>
       <c r="CE8" s="39"/>
     </row>
-    <row r="9" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A9" s="7"/>
       <c r="B9" s="40" t="s">
         <v>12</v>
@@ -4936,7 +2988,7 @@
       <c r="CD9" s="39"/>
       <c r="CE9" s="39"/>
     </row>
-    <row r="10" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A10" s="7"/>
       <c r="B10" s="46" t="s">
         <v>6</v>
@@ -5023,7 +3075,7 @@
       <c r="CD10" s="69"/>
       <c r="CE10" s="69"/>
     </row>
-    <row r="11" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A11" s="7"/>
       <c r="B11" s="50" t="s">
         <v>13</v>
@@ -5114,7 +3166,7 @@
       <c r="CD11" s="39"/>
       <c r="CE11" s="39"/>
     </row>
-    <row r="12" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A12" s="7"/>
       <c r="B12" s="50" t="s">
         <v>14</v>
@@ -5205,7 +3257,7 @@
       <c r="CD12" s="39"/>
       <c r="CE12" s="39"/>
     </row>
-    <row r="13" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A13" s="7"/>
       <c r="B13" s="50" t="s">
         <v>15</v>
@@ -5296,7 +3348,7 @@
       <c r="CD13" s="39"/>
       <c r="CE13" s="39"/>
     </row>
-    <row r="14" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A14" s="7"/>
       <c r="B14" s="50" t="s">
         <v>16</v>
@@ -5387,7 +3439,7 @@
       <c r="CD14" s="39"/>
       <c r="CE14" s="39"/>
     </row>
-    <row r="15" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A15" s="7"/>
       <c r="B15" s="50" t="s">
         <v>17</v>
@@ -5478,7 +3530,7 @@
       <c r="CD15" s="39"/>
       <c r="CE15" s="39"/>
     </row>
-    <row r="16" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A16" s="7"/>
       <c r="B16" s="50" t="s">
         <v>18</v>
@@ -5518,12 +3570,12 @@
       <c r="AC16" s="34"/>
       <c r="AD16" s="34"/>
       <c r="AE16" s="34"/>
-      <c r="AF16" s="93"/>
-      <c r="AG16" s="94"/>
-      <c r="AH16" s="94"/>
-      <c r="AI16" s="94"/>
-      <c r="AJ16" s="94"/>
-      <c r="AK16" s="95"/>
+      <c r="AF16" s="89"/>
+      <c r="AG16" s="90"/>
+      <c r="AH16" s="90"/>
+      <c r="AI16" s="90"/>
+      <c r="AJ16" s="90"/>
+      <c r="AK16" s="91"/>
       <c r="AL16" s="34"/>
       <c r="AM16" s="34"/>
       <c r="AN16" s="39"/>
@@ -5571,19 +3623,21 @@
       <c r="CD16" s="39"/>
       <c r="CE16" s="39"/>
     </row>
-    <row r="17" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A17" s="7"/>
       <c r="B17" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="51"/>
+      <c r="C17" s="51" t="s">
+        <v>54</v>
+      </c>
       <c r="D17" s="52">
         <v>45220</v>
       </c>
       <c r="E17" s="52">
         <v>45225</v>
       </c>
-      <c r="F17" s="90"/>
+      <c r="F17" s="86"/>
       <c r="G17" s="34"/>
       <c r="H17" s="34"/>
       <c r="I17" s="34"/>
@@ -5662,7 +3716,7 @@
       <c r="CD17" s="39"/>
       <c r="CE17" s="39"/>
     </row>
-    <row r="18" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A18" s="7"/>
       <c r="B18" s="53" t="s">
         <v>9</v>
@@ -5670,7 +3724,7 @@
       <c r="C18" s="54"/>
       <c r="D18" s="55"/>
       <c r="E18" s="56"/>
-      <c r="F18" s="90"/>
+      <c r="F18" s="86"/>
       <c r="G18" s="74"/>
       <c r="H18" s="74"/>
       <c r="I18" s="74"/>
@@ -5749,7 +3803,7 @@
       <c r="CD18" s="74"/>
       <c r="CE18" s="75"/>
     </row>
-    <row r="19" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A19" s="7">
         <v>1</v>
       </c>
@@ -5842,7 +3896,7 @@
       <c r="CD19" s="39"/>
       <c r="CE19" s="39"/>
     </row>
-    <row r="20" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A20" s="7"/>
       <c r="B20" s="57" t="s">
         <v>48</v>
@@ -5933,7 +3987,7 @@
       <c r="CD20" s="39"/>
       <c r="CE20" s="39"/>
     </row>
-    <row r="21" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A21" s="7"/>
       <c r="B21" s="57" t="s">
         <v>52</v>
@@ -6024,7 +4078,7 @@
       <c r="CD21" s="39"/>
       <c r="CE21" s="39"/>
     </row>
-    <row r="22" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A22" s="7"/>
       <c r="B22" s="57" t="s">
         <v>20</v>
@@ -6115,7 +4169,7 @@
       <c r="CD22" s="39"/>
       <c r="CE22" s="39"/>
     </row>
-    <row r="23" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A23" s="7"/>
       <c r="B23" s="57" t="s">
         <v>49</v>
@@ -6206,7 +4260,7 @@
       <c r="CD23" s="39"/>
       <c r="CE23" s="39"/>
     </row>
-    <row r="24" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A24" s="7"/>
       <c r="B24" s="57" t="s">
         <v>50</v>
@@ -6297,7 +4351,7 @@
       <c r="CD24" s="39"/>
       <c r="CE24" s="39"/>
     </row>
-    <row r="25" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A25" s="7"/>
       <c r="B25" s="60" t="s">
         <v>34</v>
@@ -6346,12 +4400,12 @@
       <c r="AL25" s="34"/>
       <c r="AM25" s="34"/>
       <c r="AN25" s="39"/>
-      <c r="AO25" s="93"/>
-      <c r="AP25" s="94"/>
-      <c r="AQ25" s="94"/>
-      <c r="AR25" s="94"/>
-      <c r="AS25" s="94"/>
-      <c r="AT25" s="95"/>
+      <c r="AO25" s="89"/>
+      <c r="AP25" s="90"/>
+      <c r="AQ25" s="90"/>
+      <c r="AR25" s="90"/>
+      <c r="AS25" s="90"/>
+      <c r="AT25" s="91"/>
       <c r="AU25" s="39"/>
       <c r="AV25" s="39"/>
       <c r="AW25" s="34"/>
@@ -6390,7 +4444,7 @@
       <c r="CD25" s="39"/>
       <c r="CE25" s="39"/>
     </row>
-    <row r="26" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A26" s="7"/>
       <c r="B26" s="60" t="s">
         <v>35</v>
@@ -6440,12 +4494,12 @@
       <c r="AM26" s="34"/>
       <c r="AN26" s="39"/>
       <c r="AO26" s="39"/>
-      <c r="AP26" s="93"/>
-      <c r="AQ26" s="94"/>
-      <c r="AR26" s="94"/>
-      <c r="AS26" s="94"/>
-      <c r="AT26" s="94"/>
-      <c r="AU26" s="95"/>
+      <c r="AP26" s="89"/>
+      <c r="AQ26" s="90"/>
+      <c r="AR26" s="90"/>
+      <c r="AS26" s="90"/>
+      <c r="AT26" s="90"/>
+      <c r="AU26" s="91"/>
       <c r="AV26" s="39"/>
       <c r="AW26" s="34"/>
       <c r="AX26" s="34"/>
@@ -6483,7 +4537,7 @@
       <c r="CD26" s="39"/>
       <c r="CE26" s="39"/>
     </row>
-    <row r="27" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A27" s="7"/>
       <c r="B27" s="57" t="s">
         <v>36</v>
@@ -6534,12 +4588,12 @@
       <c r="AN27" s="39"/>
       <c r="AO27" s="39"/>
       <c r="AP27" s="34"/>
-      <c r="AQ27" s="93"/>
-      <c r="AR27" s="94"/>
-      <c r="AS27" s="94"/>
-      <c r="AT27" s="94"/>
-      <c r="AU27" s="94"/>
-      <c r="AV27" s="95"/>
+      <c r="AQ27" s="89"/>
+      <c r="AR27" s="90"/>
+      <c r="AS27" s="90"/>
+      <c r="AT27" s="90"/>
+      <c r="AU27" s="90"/>
+      <c r="AV27" s="91"/>
       <c r="AW27" s="34"/>
       <c r="AX27" s="34"/>
       <c r="AY27" s="34"/>
@@ -6576,7 +4630,7 @@
       <c r="CD27" s="39"/>
       <c r="CE27" s="39"/>
     </row>
-    <row r="28" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A28" s="7"/>
       <c r="B28" s="57" t="s">
         <v>37</v>
@@ -6667,7 +4721,7 @@
       <c r="CD28" s="39"/>
       <c r="CE28" s="39"/>
     </row>
-    <row r="29" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A29" s="7"/>
       <c r="B29" s="57" t="s">
         <v>51</v>
@@ -6720,12 +4774,12 @@
       <c r="AP29" s="34"/>
       <c r="AQ29" s="34"/>
       <c r="AR29" s="34"/>
-      <c r="AS29" s="93"/>
-      <c r="AT29" s="94"/>
-      <c r="AU29" s="94"/>
-      <c r="AV29" s="94"/>
-      <c r="AW29" s="94"/>
-      <c r="AX29" s="95"/>
+      <c r="AS29" s="89"/>
+      <c r="AT29" s="90"/>
+      <c r="AU29" s="90"/>
+      <c r="AV29" s="90"/>
+      <c r="AW29" s="90"/>
+      <c r="AX29" s="91"/>
       <c r="AY29" s="34"/>
       <c r="AZ29" s="34"/>
       <c r="BA29" s="34"/>
@@ -6760,7 +4814,7 @@
       <c r="CD29" s="39"/>
       <c r="CE29" s="39"/>
     </row>
-    <row r="30" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A30" s="7"/>
       <c r="B30" s="57" t="s">
         <v>38</v>
@@ -6851,7 +4905,7 @@
       <c r="CD30" s="39"/>
       <c r="CE30" s="39"/>
     </row>
-    <row r="31" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A31" s="7"/>
       <c r="B31" s="57" t="s">
         <v>39</v>
@@ -6942,19 +4996,21 @@
       <c r="CD31" s="39"/>
       <c r="CE31" s="39"/>
     </row>
-    <row r="32" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A32" s="7"/>
       <c r="B32" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="58"/>
+      <c r="C32" s="58" t="s">
+        <v>26</v>
+      </c>
       <c r="D32" s="59">
         <v>45235</v>
       </c>
       <c r="E32" s="59">
         <v>45240</v>
       </c>
-      <c r="F32" s="90"/>
+      <c r="F32" s="86"/>
       <c r="G32" s="34"/>
       <c r="H32" s="34"/>
       <c r="I32" s="34"/>
@@ -7033,7 +5089,7 @@
       <c r="CD32" s="39"/>
       <c r="CE32" s="39"/>
     </row>
-    <row r="33" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A33" s="7"/>
       <c r="B33" s="61" t="s">
         <v>7</v>
@@ -7041,7 +5097,7 @@
       <c r="C33" s="62"/>
       <c r="D33" s="63"/>
       <c r="E33" s="64"/>
-      <c r="F33" s="90"/>
+      <c r="F33" s="86"/>
       <c r="G33" s="74"/>
       <c r="H33" s="74"/>
       <c r="I33" s="74"/>
@@ -7120,7 +5176,7 @@
       <c r="CD33" s="74"/>
       <c r="CE33" s="74"/>
     </row>
-    <row r="34" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A34" s="7"/>
       <c r="B34" s="65" t="s">
         <v>21</v>
@@ -7132,7 +5188,7 @@
       <c r="E34" s="67">
         <v>45244</v>
       </c>
-      <c r="F34" s="90"/>
+      <c r="F34" s="86"/>
       <c r="G34" s="34"/>
       <c r="H34" s="34"/>
       <c r="I34" s="34"/>
@@ -7211,7 +5267,7 @@
       <c r="CD34" s="39"/>
       <c r="CE34" s="39"/>
     </row>
-    <row r="35" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A35" s="7"/>
       <c r="B35" s="65" t="s">
         <v>22</v>
@@ -7302,7 +5358,7 @@
       <c r="CD35" s="39"/>
       <c r="CE35" s="39"/>
     </row>
-    <row r="36" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A36" s="7"/>
       <c r="B36" s="65" t="s">
         <v>23</v>
@@ -7393,7 +5449,7 @@
       <c r="CD36" s="39"/>
       <c r="CE36" s="39"/>
     </row>
-    <row r="37" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A37" s="7"/>
       <c r="B37" s="65" t="s">
         <v>24</v>
@@ -7484,7 +5540,7 @@
       <c r="CD37" s="39"/>
       <c r="CE37" s="39"/>
     </row>
-    <row r="38" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A38" s="7"/>
       <c r="B38" s="65" t="s">
         <v>41</v>
@@ -7575,7 +5631,7 @@
       <c r="CD38" s="39"/>
       <c r="CE38" s="39"/>
     </row>
-    <row r="39" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A39" s="7"/>
       <c r="B39" s="65" t="s">
         <v>42</v>
@@ -7666,7 +5722,7 @@
       <c r="CD39" s="39"/>
       <c r="CE39" s="39"/>
     </row>
-    <row r="40" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A40" s="7"/>
       <c r="B40" s="65" t="s">
         <v>43</v>
@@ -7757,7 +5813,7 @@
       <c r="CD40" s="39"/>
       <c r="CE40" s="39"/>
     </row>
-    <row r="41" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A41" s="7"/>
       <c r="B41" s="65" t="s">
         <v>25</v>
@@ -7819,21 +5875,21 @@
       <c r="AY41" s="34"/>
       <c r="AZ41" s="34"/>
       <c r="BA41" s="34"/>
-      <c r="BB41" s="96"/>
-      <c r="BC41" s="97"/>
-      <c r="BD41" s="97"/>
-      <c r="BE41" s="97"/>
-      <c r="BF41" s="97"/>
-      <c r="BG41" s="97"/>
-      <c r="BH41" s="97"/>
-      <c r="BI41" s="97"/>
-      <c r="BJ41" s="97"/>
-      <c r="BK41" s="97"/>
-      <c r="BL41" s="97"/>
-      <c r="BM41" s="97"/>
-      <c r="BN41" s="97"/>
-      <c r="BO41" s="94"/>
-      <c r="BP41" s="95"/>
+      <c r="BB41" s="80"/>
+      <c r="BC41" s="81"/>
+      <c r="BD41" s="81"/>
+      <c r="BE41" s="81"/>
+      <c r="BF41" s="81"/>
+      <c r="BG41" s="81"/>
+      <c r="BH41" s="81"/>
+      <c r="BI41" s="81"/>
+      <c r="BJ41" s="81"/>
+      <c r="BK41" s="81"/>
+      <c r="BL41" s="81"/>
+      <c r="BM41" s="81"/>
+      <c r="BN41" s="81"/>
+      <c r="BO41" s="90"/>
+      <c r="BP41" s="91"/>
       <c r="BQ41" s="39"/>
       <c r="BR41" s="34"/>
       <c r="BS41" s="34"/>
@@ -7850,7 +5906,7 @@
       <c r="CD41" s="39"/>
       <c r="CE41" s="39"/>
     </row>
-    <row r="42" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A42" s="7"/>
       <c r="B42" s="65" t="s">
         <v>44</v>
@@ -7941,7 +5997,7 @@
       <c r="CD42" s="39"/>
       <c r="CE42" s="39"/>
     </row>
-    <row r="43" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A43" s="7"/>
       <c r="B43" s="65" t="s">
         <v>45</v>
@@ -8032,7 +6088,7 @@
       <c r="CD43" s="39"/>
       <c r="CE43" s="39"/>
     </row>
-    <row r="44" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A44" s="7"/>
       <c r="B44" s="76" t="s">
         <v>10</v>
@@ -8041,93 +6097,107 @@
       <c r="D44" s="78"/>
       <c r="E44" s="79"/>
       <c r="F44" s="72"/>
-      <c r="G44" s="89"/>
-      <c r="H44" s="89"/>
-      <c r="I44" s="89"/>
-      <c r="J44" s="89"/>
-      <c r="K44" s="89"/>
-      <c r="L44" s="89"/>
-      <c r="M44" s="89"/>
-      <c r="N44" s="89"/>
-      <c r="O44" s="89"/>
-      <c r="P44" s="89"/>
-      <c r="Q44" s="89"/>
-      <c r="R44" s="89"/>
-      <c r="S44" s="89"/>
-      <c r="T44" s="89"/>
-      <c r="U44" s="89"/>
-      <c r="V44" s="89"/>
-      <c r="W44" s="89"/>
-      <c r="X44" s="89"/>
-      <c r="Y44" s="89"/>
-      <c r="Z44" s="89"/>
-      <c r="AA44" s="89"/>
-      <c r="AB44" s="89"/>
-      <c r="AC44" s="89"/>
-      <c r="AD44" s="89"/>
-      <c r="AE44" s="89"/>
-      <c r="AF44" s="89"/>
-      <c r="AG44" s="89"/>
-      <c r="AH44" s="89"/>
-      <c r="AI44" s="89"/>
-      <c r="AJ44" s="89"/>
-      <c r="AK44" s="89"/>
-      <c r="AL44" s="89"/>
-      <c r="AM44" s="89"/>
-      <c r="AN44" s="89"/>
-      <c r="AO44" s="89"/>
-      <c r="AP44" s="89"/>
-      <c r="AQ44" s="89"/>
-      <c r="AR44" s="89"/>
-      <c r="AS44" s="89"/>
-      <c r="AT44" s="89"/>
-      <c r="AU44" s="89"/>
-      <c r="AV44" s="89"/>
-      <c r="AW44" s="89"/>
-      <c r="AX44" s="89"/>
-      <c r="AY44" s="89"/>
-      <c r="AZ44" s="89"/>
-      <c r="BA44" s="89"/>
-      <c r="BB44" s="89"/>
-      <c r="BC44" s="89"/>
-      <c r="BD44" s="89"/>
-      <c r="BE44" s="89"/>
-      <c r="BF44" s="89"/>
-      <c r="BG44" s="89"/>
-      <c r="BH44" s="89"/>
-      <c r="BI44" s="89"/>
-      <c r="BJ44" s="89"/>
-      <c r="BK44" s="89"/>
-      <c r="BL44" s="89"/>
-      <c r="BM44" s="89"/>
-      <c r="BN44" s="89"/>
-      <c r="BO44" s="89"/>
-      <c r="BP44" s="89"/>
-      <c r="BQ44" s="89"/>
-      <c r="BR44" s="89"/>
-      <c r="BS44" s="89"/>
-      <c r="BT44" s="89"/>
-      <c r="BU44" s="89"/>
-      <c r="BV44" s="89"/>
-      <c r="BW44" s="89"/>
-      <c r="BX44" s="89"/>
-      <c r="BY44" s="89"/>
-      <c r="BZ44" s="89"/>
-      <c r="CA44" s="89"/>
-      <c r="CB44" s="89"/>
-      <c r="CC44" s="89"/>
-      <c r="CD44" s="89"/>
-      <c r="CE44" s="89"/>
+      <c r="G44" s="85"/>
+      <c r="H44" s="85"/>
+      <c r="I44" s="85"/>
+      <c r="J44" s="85"/>
+      <c r="K44" s="85"/>
+      <c r="L44" s="85"/>
+      <c r="M44" s="85"/>
+      <c r="N44" s="85"/>
+      <c r="O44" s="85"/>
+      <c r="P44" s="85"/>
+      <c r="Q44" s="85"/>
+      <c r="R44" s="85"/>
+      <c r="S44" s="85"/>
+      <c r="T44" s="85"/>
+      <c r="U44" s="85"/>
+      <c r="V44" s="85"/>
+      <c r="W44" s="85"/>
+      <c r="X44" s="85"/>
+      <c r="Y44" s="85"/>
+      <c r="Z44" s="85"/>
+      <c r="AA44" s="85"/>
+      <c r="AB44" s="85"/>
+      <c r="AC44" s="85"/>
+      <c r="AD44" s="85"/>
+      <c r="AE44" s="85"/>
+      <c r="AF44" s="85"/>
+      <c r="AG44" s="85"/>
+      <c r="AH44" s="85"/>
+      <c r="AI44" s="85"/>
+      <c r="AJ44" s="85"/>
+      <c r="AK44" s="85"/>
+      <c r="AL44" s="85"/>
+      <c r="AM44" s="85"/>
+      <c r="AN44" s="85"/>
+      <c r="AO44" s="85"/>
+      <c r="AP44" s="85"/>
+      <c r="AQ44" s="85"/>
+      <c r="AR44" s="85"/>
+      <c r="AS44" s="85"/>
+      <c r="AT44" s="85"/>
+      <c r="AU44" s="85"/>
+      <c r="AV44" s="85"/>
+      <c r="AW44" s="85"/>
+      <c r="AX44" s="85"/>
+      <c r="AY44" s="85"/>
+      <c r="AZ44" s="85"/>
+      <c r="BA44" s="85"/>
+      <c r="BB44" s="85"/>
+      <c r="BC44" s="85"/>
+      <c r="BD44" s="85"/>
+      <c r="BE44" s="85"/>
+      <c r="BF44" s="85"/>
+      <c r="BG44" s="85"/>
+      <c r="BH44" s="85"/>
+      <c r="BI44" s="85"/>
+      <c r="BJ44" s="85"/>
+      <c r="BK44" s="85"/>
+      <c r="BL44" s="85"/>
+      <c r="BM44" s="85"/>
+      <c r="BN44" s="85"/>
+      <c r="BO44" s="85"/>
+      <c r="BP44" s="85"/>
+      <c r="BQ44" s="85"/>
+      <c r="BR44" s="85"/>
+      <c r="BS44" s="85"/>
+      <c r="BT44" s="85"/>
+      <c r="BU44" s="85"/>
+      <c r="BV44" s="85"/>
+      <c r="BW44" s="85"/>
+      <c r="BX44" s="85"/>
+      <c r="BY44" s="85"/>
+      <c r="BZ44" s="85"/>
+      <c r="CA44" s="85"/>
+      <c r="CB44" s="85"/>
+      <c r="CC44" s="85"/>
+      <c r="CD44" s="85"/>
+      <c r="CE44" s="85"/>
     </row>
-    <row r="46" spans="1:83" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:83" ht="30" customHeight="1">
       <c r="C46" s="3"/>
       <c r="E46" s="6"/>
     </row>
-    <row r="47" spans="1:83" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:83" ht="30" customHeight="1">
       <c r="C47" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="BK4:BQ4"/>
+    <mergeCell ref="BR4:BX4"/>
+    <mergeCell ref="BY4:CE4"/>
+    <mergeCell ref="AW4:BC4"/>
+    <mergeCell ref="BD4:BJ4"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="AI4:AO4"/>
+    <mergeCell ref="AP4:AV4"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G4:M4"/>
+    <mergeCell ref="N4:T4"/>
+    <mergeCell ref="U4:AA4"/>
+    <mergeCell ref="AB4:AH4"/>
+    <mergeCell ref="F4:F5"/>
     <mergeCell ref="S8:U8"/>
     <mergeCell ref="G44:CE44"/>
     <mergeCell ref="F17:F18"/>
@@ -8139,187 +6209,173 @@
     <mergeCell ref="AQ27:AV27"/>
     <mergeCell ref="AS29:AX29"/>
     <mergeCell ref="BO41:BP41"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="AI4:AO4"/>
-    <mergeCell ref="AP4:AV4"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G4:M4"/>
-    <mergeCell ref="N4:T4"/>
-    <mergeCell ref="U4:AA4"/>
-    <mergeCell ref="AB4:AH4"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="BK4:BQ4"/>
-    <mergeCell ref="BR4:BX4"/>
-    <mergeCell ref="BY4:CE4"/>
-    <mergeCell ref="AW4:BC4"/>
-    <mergeCell ref="BD4:BJ4"/>
   </mergeCells>
   <conditionalFormatting sqref="G5:BW6 BY6:CD6 AI11:AM15 AP11:AT17 AW11:BA17 BD11:BH17 BK11:BO17 BR11:BV17 Z34:Z43 AP34:AT43 AB34:AM43 BY9:CC9 BR9:BV9 BK9:BO9 BD9:BH9 AI9:AM9 AB9:AF9 AP8:AT9 AW8:BA9 AB8:AM8 BD8:CE8 X8:Y9 AB11:AF15 U11:Y17 L34:M43 AW34:BX40 BW9:BX17 BP9:BQ17 BI9:BJ17 AG9:AH15 BB8:BC17 S10:T17 CD9:CE17 AN8:AO17 AU8:AV17 G19:CE24 S34:T43 CD34:CE43 AB16:AE16 AB17:AM17 AL16:AM16 G28:CE28 G25:AN25 AU25:CE25 G26:AO26 AV26:CE26 G27:AP27 AW27:CE27 G30:CE32 G29:AR29 AY29:CE29 AW42:BX43 AW41:BB41 BQ41:BX41">
-    <cfRule type="expression" dxfId="233" priority="152">
+    <cfRule type="expression" dxfId="38" priority="152">
       <formula>AND(TODAY()&gt;=G$5,TODAY()&lt;H$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6:BW6 BY6:CD6 AI11:AM15 AP11:AT17 AW11:BA17 BD11:BH17 BK11:BO17 BR11:BV17 Z34:Z43 AP34:AT43 AB34:AM43 BY9:CC9 BR9:BV9 BK9:BO9 BD9:BH9 AI9:AM9 AB9:AF9 AP8:AT9 AW8:BA9 AB8:AM8 BD8:CE8 X8:Y9 AB11:AF15 U11:Y17 L34:M43 AW34:BX40 BW9:BX17 BP9:BQ17 BI9:BJ17 AG9:AH15 BB8:BC17 S10:T17 CD9:CE17 AN8:AO17 AU8:AV17 G19:CE24 S34:T43 CD34:CE43 AB16:AE16 AB17:AM17 AL16:AM16 G28:CE28 G25:AN25 AU25:CE25 G26:AO26 AV26:CE26 G27:AP27 AW27:CE27 G30:CE32 G29:AR29 AY29:CE29 AW42:BX43 AW41:BB41 BQ41:BX41">
-    <cfRule type="expression" dxfId="232" priority="146">
+    <cfRule type="expression" dxfId="37" priority="146">
       <formula>AND(task_start&lt;=G$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=G$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="231" priority="147" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="147" stopIfTrue="1">
       <formula>AND(task_end&gt;=G$5,task_start&lt;H$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BY5:CE5 BX5:BX6 CE6">
-    <cfRule type="expression" dxfId="230" priority="154">
+    <cfRule type="expression" dxfId="35" priority="154">
       <formula>AND(TODAY()&gt;=BX$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BX6 CE6">
-    <cfRule type="expression" dxfId="229" priority="157">
+    <cfRule type="expression" dxfId="34" priority="157">
       <formula>AND(task_start&lt;=BX$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BX$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="228" priority="158" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="158" stopIfTrue="1">
       <formula>AND(task_end&gt;=BX$5,task_start&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BY10:CC10 U10:Y10 AB10:AF10 AI10:AM10 AP10:AT10 AW10:BA10 BD10:BH10 BK10:BO10 BR10:BV10 G10:R10">
-    <cfRule type="expression" dxfId="227" priority="103">
+    <cfRule type="expression" dxfId="32" priority="103">
       <formula>AND(TODAY()&gt;=G$5,TODAY()&lt;H$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BY10:CC10 U10:Y10 AB10:AF10 AI10:AM10 AP10:AT10 AW10:BA10 BD10:BH10 BK10:BO10 BR10:BV10 G10:R10">
-    <cfRule type="expression" dxfId="226" priority="101">
+    <cfRule type="expression" dxfId="31" priority="101">
       <formula>AND(task_start&lt;=G$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=G$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="225" priority="102" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="102" stopIfTrue="1">
       <formula>AND(task_end&gt;=G$5,task_start&lt;H$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BY11:CC17 G11:R17">
-    <cfRule type="expression" dxfId="224" priority="97">
+    <cfRule type="expression" dxfId="29" priority="97">
       <formula>AND(TODAY()&gt;=G$5,TODAY()&lt;H$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BY11:CC17 G11:R17">
-    <cfRule type="expression" dxfId="223" priority="95">
+    <cfRule type="expression" dxfId="28" priority="95">
       <formula>AND(task_start&lt;=G$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=G$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="222" priority="96" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="96" stopIfTrue="1">
       <formula>AND(task_end&gt;=G$5,task_start&lt;H$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34:K43 BZ34:CC43 U34:Y43 N34:R43">
-    <cfRule type="expression" dxfId="221" priority="73">
+    <cfRule type="expression" dxfId="26" priority="73">
       <formula>AND(TODAY()&gt;=G$5,TODAY()&lt;H$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34:K43 BZ34:CC43 U34:Y43 N34:R43">
-    <cfRule type="expression" dxfId="220" priority="71">
+    <cfRule type="expression" dxfId="25" priority="71">
       <formula>AND(task_start&lt;=G$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=G$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="219" priority="72" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="72" stopIfTrue="1">
       <formula>AND(task_end&gt;=G$5,task_start&lt;H$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z8:AA17">
-    <cfRule type="expression" dxfId="218" priority="61">
+    <cfRule type="expression" dxfId="23" priority="61">
       <formula>AND(TODAY()&gt;=Z$5,TODAY()&lt;AA$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z8:AA17">
-    <cfRule type="expression" dxfId="217" priority="59">
+    <cfRule type="expression" dxfId="22" priority="59">
       <formula>AND(task_start&lt;=Z$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=Z$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="216" priority="60" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="60" stopIfTrue="1">
       <formula>AND(task_end&gt;=Z$5,task_start&lt;AA$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN34:AO43">
-    <cfRule type="expression" dxfId="215" priority="24">
+    <cfRule type="expression" dxfId="20" priority="24">
       <formula>AND(TODAY()&gt;=AN$5,TODAY()&lt;AO$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN34:AO43">
-    <cfRule type="expression" dxfId="214" priority="22">
+    <cfRule type="expression" dxfId="19" priority="22">
       <formula>AND(task_start&lt;=AN$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AN$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="213" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="23" stopIfTrue="1">
       <formula>AND(task_end&gt;=AN$5,task_start&lt;AO$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU34:AV43">
-    <cfRule type="expression" dxfId="212" priority="21">
+    <cfRule type="expression" dxfId="17" priority="21">
       <formula>AND(TODAY()&gt;=AU$5,TODAY()&lt;AV$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU34:AV43">
-    <cfRule type="expression" dxfId="211" priority="19">
+    <cfRule type="expression" dxfId="16" priority="19">
       <formula>AND(task_start&lt;=AU$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AU$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="210" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="20" stopIfTrue="1">
       <formula>AND(task_end&gt;=AU$5,task_start&lt;AV$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA34:AA43 BY34:BY43">
-    <cfRule type="expression" dxfId="209" priority="18">
+    <cfRule type="expression" dxfId="14" priority="18">
       <formula>AND(TODAY()&gt;=AA$5,TODAY()&lt;AB$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA34:AA43 BY34:BY43">
-    <cfRule type="expression" dxfId="208" priority="16">
+    <cfRule type="expression" dxfId="13" priority="16">
       <formula>AND(task_start&lt;=AA$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AA$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="207" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="17" stopIfTrue="1">
       <formula>AND(task_end&gt;=AA$5,task_start&lt;AB$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G44">
-    <cfRule type="expression" dxfId="206" priority="15">
+    <cfRule type="expression" dxfId="11" priority="15">
       <formula>AND(TODAY()&gt;=G$5,TODAY()&lt;H$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G44">
-    <cfRule type="expression" dxfId="205" priority="13">
+    <cfRule type="expression" dxfId="10" priority="13">
       <formula>AND(task_start&lt;=G$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=G$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="204" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="14" stopIfTrue="1">
       <formula>AND(task_end&gt;=G$5,task_start&lt;H$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N9:U9 V8:W8 G9:K9 G8 P8:S8">
-    <cfRule type="expression" dxfId="203" priority="9">
+    <cfRule type="expression" dxfId="8" priority="9">
       <formula>AND(TODAY()&gt;=G$5,TODAY()&lt;H$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N9:U9 V8:W8 G9:K9 G8 P8:S8">
-    <cfRule type="expression" dxfId="202" priority="7">
+    <cfRule type="expression" dxfId="7" priority="7">
       <formula>AND(task_start&lt;=G$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=G$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="201" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="8" stopIfTrue="1">
       <formula>AND(task_end&gt;=G$5,task_start&lt;H$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8 P8:R8">
-    <cfRule type="expression" dxfId="200" priority="6">
+    <cfRule type="expression" dxfId="5" priority="6">
       <formula>AND(TODAY()&gt;=G$5,TODAY()&lt;H$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8 P8:R8">
-    <cfRule type="expression" dxfId="199" priority="4">
+    <cfRule type="expression" dxfId="4" priority="4">
       <formula>AND(task_start&lt;=G$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=G$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="198" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="5" stopIfTrue="1">
       <formula>AND(task_end&gt;=G$5,task_start&lt;H$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9:K9 N9:R9">
-    <cfRule type="expression" dxfId="197" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>AND(TODAY()&gt;=G$5,TODAY()&lt;H$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9:K9 N9:R9">
-    <cfRule type="expression" dxfId="196" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>AND(task_start&lt;=G$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=G$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="195" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
       <formula>AND(task_end&gt;=G$5,task_start&lt;H$5)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/gantt-diagram.xlsx
+++ b/gantt-diagram.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07363DF2-D700-4ABF-A97D-CD23B0E2BADE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12720"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt-diagram" sheetId="11" r:id="rId1"/>
@@ -19,9 +18,9 @@
     <definedName name="task_start" localSheetId="0">'Gantt-diagram'!$D1</definedName>
     <definedName name="today" localSheetId="0">TODAY()</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="55">
   <si>
     <t>Projekt kezdete:</t>
   </si>
@@ -200,11 +199,14 @@
   <si>
     <t>Pszichológus oldal</t>
   </si>
+  <si>
+    <t>Urbán judit</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="m/d/yy;@"/>
@@ -213,7 +215,7 @@
     <numFmt numFmtId="168" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="169" formatCode="\ yyyy/\ mmm/\ d/"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -759,7 +761,7 @@
     <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -960,6 +962,45 @@
     <xf numFmtId="165" fontId="21" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="12" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="2" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="13" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="2" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="13" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="14" fillId="0" borderId="3" xfId="8" applyNumberFormat="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="169" fontId="14" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -969,2019 +1010,31 @@
     <xf numFmtId="169" fontId="14" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="169" fontId="14" fillId="0" borderId="3" xfId="8" applyNumberFormat="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="12" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="2" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="13" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="2" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="13" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" xfId="13"/>
   </cellXfs>
   <cellStyles count="14">
     <cellStyle name="Cím" xfId="4" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Címsor 1" xfId="5" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Címsor 2" xfId="6" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Címsor 3" xfId="7" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Date" xfId="9" xr:uid="{229918B6-DD13-4F5A-97B9-305F7E002AA3}"/>
+    <cellStyle name="Date" xfId="9"/>
     <cellStyle name="Ezres" xfId="3" builtinId="3" customBuiltin="1"/>
     <cellStyle name="Hivatkozás" xfId="1" builtinId="8" customBuiltin="1"/>
-    <cellStyle name="Jelölőszín 5" xfId="13" builtinId="45"/>
-    <cellStyle name="Name" xfId="10" xr:uid="{B2D3C1EE-6B41-4801-AAFC-C2274E49E503}"/>
+    <cellStyle name="Jelölőszín (5)" xfId="13" builtinId="45"/>
+    <cellStyle name="Name" xfId="10"/>
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
-    <cellStyle name="Project Start" xfId="8" xr:uid="{8EB8A09A-C31C-40A3-B2C1-9449520178B8}"/>
+    <cellStyle name="Project Start" xfId="8"/>
     <cellStyle name="Semleges" xfId="12" builtinId="28"/>
-    <cellStyle name="Task" xfId="11" xr:uid="{6391D789-272B-4DD2-9BF3-2CDCF610FA41}"/>
-    <cellStyle name="zHiddenText" xfId="2" xr:uid="{26E66EE6-E33F-4D77-BAE4-0FB4F5BBF673}"/>
+    <cellStyle name="Task" xfId="11"/>
+    <cellStyle name="zHiddenText" xfId="2"/>
   </cellStyles>
-  <dxfs count="243">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="48">
     <dxf>
       <fill>
         <patternFill>
@@ -3467,16 +1520,16 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="242"/>
-      <tableStyleElement type="headerRow" dxfId="241"/>
-      <tableStyleElement type="totalRow" dxfId="240"/>
-      <tableStyleElement type="firstColumn" dxfId="239"/>
-      <tableStyleElement type="lastColumn" dxfId="238"/>
-      <tableStyleElement type="firstRowStripe" dxfId="237"/>
-      <tableStyleElement type="secondRowStripe" dxfId="236"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="235"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="234"/>
+    <tableStyle name="ToDoList" pivot="0" count="9">
+      <tableStyleElement type="wholeTable" dxfId="47"/>
+      <tableStyleElement type="headerRow" dxfId="46"/>
+      <tableStyleElement type="totalRow" dxfId="45"/>
+      <tableStyleElement type="firstColumn" dxfId="44"/>
+      <tableStyleElement type="lastColumn" dxfId="43"/>
+      <tableStyleElement type="firstRowStripe" dxfId="42"/>
+      <tableStyleElement type="secondRowStripe" dxfId="41"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="40"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="39"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -3613,7 +1666,7 @@
     </a:clrScheme>
     <a:fontScheme name="Calibri">
       <a:majorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="メイリオ"/>
@@ -3648,7 +1701,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="メイリオ"/>
@@ -3825,35 +1878,35 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:CE47"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="B1" zoomScale="73" zoomScaleNormal="73" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AG32" sqref="AG32"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AV32" sqref="AV32:BA32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="78.33203125" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="83" width="2.5546875" customWidth="1"/>
+    <col min="1" max="1" width="2.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="78.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="83" width="2.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:83" ht="25.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:83" ht="25.5" customHeight="1">
       <c r="A1" s="7"/>
       <c r="B1" s="8" t="s">
         <v>53</v>
@@ -3958,16 +2011,16 @@
       <c r="CD1" s="12"/>
       <c r="CE1" s="12"/>
     </row>
-    <row r="2" spans="1:83" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:83" ht="25.5" customHeight="1">
       <c r="A2" s="23"/>
       <c r="B2" s="24" t="s">
         <v>46</v>
       </c>
       <c r="C2" s="12"/>
-      <c r="D2" s="83" t="s">
+      <c r="D2" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="83"/>
+      <c r="E2" s="92"/>
       <c r="F2" s="11"/>
       <c r="G2" s="25"/>
       <c r="H2" s="12"/>
@@ -4047,14 +2100,14 @@
       <c r="CD2" s="12"/>
       <c r="CE2" s="12"/>
     </row>
-    <row r="3" spans="1:83" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:83" ht="25.5" customHeight="1">
       <c r="A3" s="23"/>
       <c r="B3" s="26"/>
       <c r="C3" s="12"/>
-      <c r="D3" s="83">
+      <c r="D3" s="92">
         <v>45197</v>
       </c>
-      <c r="E3" s="83"/>
+      <c r="E3" s="92"/>
       <c r="F3" s="11"/>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
@@ -4134,125 +2187,125 @@
       <c r="CD3" s="12"/>
       <c r="CE3" s="12"/>
     </row>
-    <row r="4" spans="1:83" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:83" ht="25.5" customHeight="1">
       <c r="A4" s="7"/>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="80">
+      <c r="F4" s="96"/>
+      <c r="G4" s="93">
         <f>G5</f>
         <v>45194</v>
       </c>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="81"/>
-      <c r="K4" s="81"/>
-      <c r="L4" s="81"/>
-      <c r="M4" s="82"/>
-      <c r="N4" s="80">
+      <c r="H4" s="94"/>
+      <c r="I4" s="94"/>
+      <c r="J4" s="94"/>
+      <c r="K4" s="94"/>
+      <c r="L4" s="94"/>
+      <c r="M4" s="95"/>
+      <c r="N4" s="93">
         <f>N5</f>
         <v>45201</v>
       </c>
-      <c r="O4" s="81"/>
-      <c r="P4" s="81"/>
-      <c r="Q4" s="81"/>
-      <c r="R4" s="81"/>
-      <c r="S4" s="81"/>
-      <c r="T4" s="82"/>
-      <c r="U4" s="80">
+      <c r="O4" s="94"/>
+      <c r="P4" s="94"/>
+      <c r="Q4" s="94"/>
+      <c r="R4" s="94"/>
+      <c r="S4" s="94"/>
+      <c r="T4" s="95"/>
+      <c r="U4" s="93">
         <f>U5</f>
         <v>45208</v>
       </c>
-      <c r="V4" s="81"/>
-      <c r="W4" s="81"/>
-      <c r="X4" s="81"/>
-      <c r="Y4" s="81"/>
-      <c r="Z4" s="81"/>
-      <c r="AA4" s="82"/>
-      <c r="AB4" s="80">
+      <c r="V4" s="94"/>
+      <c r="W4" s="94"/>
+      <c r="X4" s="94"/>
+      <c r="Y4" s="94"/>
+      <c r="Z4" s="94"/>
+      <c r="AA4" s="95"/>
+      <c r="AB4" s="93">
         <f>AB5</f>
         <v>45215</v>
       </c>
-      <c r="AC4" s="81"/>
-      <c r="AD4" s="81"/>
-      <c r="AE4" s="81"/>
-      <c r="AF4" s="81"/>
-      <c r="AG4" s="81"/>
-      <c r="AH4" s="82"/>
-      <c r="AI4" s="80">
+      <c r="AC4" s="94"/>
+      <c r="AD4" s="94"/>
+      <c r="AE4" s="94"/>
+      <c r="AF4" s="94"/>
+      <c r="AG4" s="94"/>
+      <c r="AH4" s="95"/>
+      <c r="AI4" s="93">
         <f>AI5</f>
         <v>45222</v>
       </c>
-      <c r="AJ4" s="81"/>
-      <c r="AK4" s="81"/>
-      <c r="AL4" s="81"/>
-      <c r="AM4" s="81"/>
-      <c r="AN4" s="81"/>
-      <c r="AO4" s="82"/>
-      <c r="AP4" s="80">
+      <c r="AJ4" s="94"/>
+      <c r="AK4" s="94"/>
+      <c r="AL4" s="94"/>
+      <c r="AM4" s="94"/>
+      <c r="AN4" s="94"/>
+      <c r="AO4" s="95"/>
+      <c r="AP4" s="93">
         <f>AP5</f>
         <v>45229</v>
       </c>
-      <c r="AQ4" s="81"/>
-      <c r="AR4" s="81"/>
-      <c r="AS4" s="81"/>
-      <c r="AT4" s="81"/>
-      <c r="AU4" s="81"/>
-      <c r="AV4" s="82"/>
-      <c r="AW4" s="80">
+      <c r="AQ4" s="94"/>
+      <c r="AR4" s="94"/>
+      <c r="AS4" s="94"/>
+      <c r="AT4" s="94"/>
+      <c r="AU4" s="94"/>
+      <c r="AV4" s="95"/>
+      <c r="AW4" s="93">
         <f>AW5</f>
         <v>45236</v>
       </c>
-      <c r="AX4" s="81"/>
-      <c r="AY4" s="81"/>
-      <c r="AZ4" s="81"/>
-      <c r="BA4" s="81"/>
-      <c r="BB4" s="81"/>
-      <c r="BC4" s="82"/>
-      <c r="BD4" s="80">
+      <c r="AX4" s="94"/>
+      <c r="AY4" s="94"/>
+      <c r="AZ4" s="94"/>
+      <c r="BA4" s="94"/>
+      <c r="BB4" s="94"/>
+      <c r="BC4" s="95"/>
+      <c r="BD4" s="93">
         <f>BD5</f>
         <v>45243</v>
       </c>
-      <c r="BE4" s="81"/>
-      <c r="BF4" s="81"/>
-      <c r="BG4" s="81"/>
-      <c r="BH4" s="81"/>
-      <c r="BI4" s="81"/>
-      <c r="BJ4" s="82"/>
-      <c r="BK4" s="80">
+      <c r="BE4" s="94"/>
+      <c r="BF4" s="94"/>
+      <c r="BG4" s="94"/>
+      <c r="BH4" s="94"/>
+      <c r="BI4" s="94"/>
+      <c r="BJ4" s="95"/>
+      <c r="BK4" s="93">
         <f>BK5</f>
         <v>45250</v>
       </c>
-      <c r="BL4" s="81"/>
-      <c r="BM4" s="81"/>
-      <c r="BN4" s="81"/>
-      <c r="BO4" s="81"/>
-      <c r="BP4" s="81"/>
-      <c r="BQ4" s="82"/>
-      <c r="BR4" s="80">
+      <c r="BL4" s="94"/>
+      <c r="BM4" s="94"/>
+      <c r="BN4" s="94"/>
+      <c r="BO4" s="94"/>
+      <c r="BP4" s="94"/>
+      <c r="BQ4" s="95"/>
+      <c r="BR4" s="93">
         <f>BR5</f>
         <v>45257</v>
       </c>
-      <c r="BS4" s="81"/>
-      <c r="BT4" s="81"/>
-      <c r="BU4" s="81"/>
-      <c r="BV4" s="81"/>
-      <c r="BW4" s="81"/>
-      <c r="BX4" s="82"/>
-      <c r="BY4" s="80">
+      <c r="BS4" s="94"/>
+      <c r="BT4" s="94"/>
+      <c r="BU4" s="94"/>
+      <c r="BV4" s="94"/>
+      <c r="BW4" s="94"/>
+      <c r="BX4" s="95"/>
+      <c r="BY4" s="93">
         <f>BY5</f>
         <v>45264</v>
       </c>
-      <c r="BZ4" s="81"/>
-      <c r="CA4" s="81"/>
-      <c r="CB4" s="81"/>
-      <c r="CC4" s="81"/>
-      <c r="CD4" s="81"/>
-      <c r="CE4" s="82"/>
+      <c r="BZ4" s="94"/>
+      <c r="CA4" s="94"/>
+      <c r="CB4" s="94"/>
+      <c r="CC4" s="94"/>
+      <c r="CD4" s="94"/>
+      <c r="CE4" s="95"/>
     </row>
-    <row r="5" spans="1:83" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:83" ht="25.5" customHeight="1" thickBot="1">
       <c r="A5" s="7"/>
       <c r="B5" s="27" t="s">
         <v>1</v>
@@ -4266,7 +2319,7 @@
       <c r="E5" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="85"/>
+      <c r="F5" s="97"/>
       <c r="G5" s="29">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2</f>
         <v>45194</v>
@@ -4576,7 +2629,7 @@
         <v>45270</v>
       </c>
     </row>
-    <row r="6" spans="1:83" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:83" ht="30" hidden="1" customHeight="1" thickBot="1">
       <c r="A6" s="23"/>
       <c r="B6" s="12"/>
       <c r="C6" s="32"/>
@@ -4661,7 +2714,7 @@
       <c r="CD6" s="34"/>
       <c r="CE6" s="34"/>
     </row>
-    <row r="7" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A7" s="7"/>
       <c r="B7" s="35" t="s">
         <v>5</v>
@@ -4748,7 +2801,7 @@
       <c r="CD7" s="69"/>
       <c r="CE7" s="69"/>
     </row>
-    <row r="8" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A8" s="7"/>
       <c r="B8" s="40" t="s">
         <v>11</v>
@@ -4770,15 +2823,15 @@
       <c r="J8" s="44"/>
       <c r="K8" s="44"/>
       <c r="L8" s="44"/>
-      <c r="M8" s="91"/>
-      <c r="N8" s="91"/>
-      <c r="O8" s="92"/>
+      <c r="M8" s="87"/>
+      <c r="N8" s="87"/>
+      <c r="O8" s="88"/>
       <c r="P8" s="34"/>
       <c r="Q8" s="43"/>
       <c r="R8" s="34"/>
-      <c r="S8" s="86"/>
-      <c r="T8" s="87"/>
-      <c r="U8" s="88"/>
+      <c r="S8" s="82"/>
+      <c r="T8" s="83"/>
+      <c r="U8" s="84"/>
       <c r="V8" s="34"/>
       <c r="W8" s="34"/>
       <c r="X8" s="34"/>
@@ -4842,7 +2895,7 @@
       <c r="CD8" s="39"/>
       <c r="CE8" s="39"/>
     </row>
-    <row r="9" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A9" s="7"/>
       <c r="B9" s="40" t="s">
         <v>12</v>
@@ -4936,7 +2989,7 @@
       <c r="CD9" s="39"/>
       <c r="CE9" s="39"/>
     </row>
-    <row r="10" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A10" s="7"/>
       <c r="B10" s="46" t="s">
         <v>6</v>
@@ -5023,7 +3076,7 @@
       <c r="CD10" s="69"/>
       <c r="CE10" s="69"/>
     </row>
-    <row r="11" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A11" s="7"/>
       <c r="B11" s="50" t="s">
         <v>13</v>
@@ -5114,7 +3167,7 @@
       <c r="CD11" s="39"/>
       <c r="CE11" s="39"/>
     </row>
-    <row r="12" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A12" s="7"/>
       <c r="B12" s="50" t="s">
         <v>14</v>
@@ -5205,7 +3258,7 @@
       <c r="CD12" s="39"/>
       <c r="CE12" s="39"/>
     </row>
-    <row r="13" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A13" s="7"/>
       <c r="B13" s="50" t="s">
         <v>15</v>
@@ -5296,7 +3349,7 @@
       <c r="CD13" s="39"/>
       <c r="CE13" s="39"/>
     </row>
-    <row r="14" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A14" s="7"/>
       <c r="B14" s="50" t="s">
         <v>16</v>
@@ -5387,7 +3440,7 @@
       <c r="CD14" s="39"/>
       <c r="CE14" s="39"/>
     </row>
-    <row r="15" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A15" s="7"/>
       <c r="B15" s="50" t="s">
         <v>17</v>
@@ -5478,7 +3531,7 @@
       <c r="CD15" s="39"/>
       <c r="CE15" s="39"/>
     </row>
-    <row r="16" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A16" s="7"/>
       <c r="B16" s="50" t="s">
         <v>18</v>
@@ -5518,12 +3571,12 @@
       <c r="AC16" s="34"/>
       <c r="AD16" s="34"/>
       <c r="AE16" s="34"/>
-      <c r="AF16" s="93"/>
-      <c r="AG16" s="94"/>
-      <c r="AH16" s="94"/>
-      <c r="AI16" s="94"/>
-      <c r="AJ16" s="94"/>
-      <c r="AK16" s="95"/>
+      <c r="AF16" s="89"/>
+      <c r="AG16" s="90"/>
+      <c r="AH16" s="90"/>
+      <c r="AI16" s="90"/>
+      <c r="AJ16" s="90"/>
+      <c r="AK16" s="91"/>
       <c r="AL16" s="34"/>
       <c r="AM16" s="34"/>
       <c r="AN16" s="39"/>
@@ -5571,19 +3624,21 @@
       <c r="CD16" s="39"/>
       <c r="CE16" s="39"/>
     </row>
-    <row r="17" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A17" s="7"/>
       <c r="B17" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="51"/>
+      <c r="C17" s="51" t="s">
+        <v>26</v>
+      </c>
       <c r="D17" s="52">
         <v>45220</v>
       </c>
       <c r="E17" s="52">
         <v>45225</v>
       </c>
-      <c r="F17" s="90"/>
+      <c r="F17" s="86"/>
       <c r="G17" s="34"/>
       <c r="H17" s="34"/>
       <c r="I17" s="34"/>
@@ -5610,12 +3665,12 @@
       <c r="AD17" s="34"/>
       <c r="AE17" s="34"/>
       <c r="AF17" s="34"/>
-      <c r="AG17" s="39"/>
-      <c r="AH17" s="39"/>
-      <c r="AI17" s="34"/>
-      <c r="AJ17" s="34"/>
-      <c r="AK17" s="34"/>
-      <c r="AL17" s="34"/>
+      <c r="AG17" s="98"/>
+      <c r="AH17" s="98"/>
+      <c r="AI17" s="98"/>
+      <c r="AJ17" s="98"/>
+      <c r="AK17" s="98"/>
+      <c r="AL17" s="98"/>
       <c r="AM17" s="34"/>
       <c r="AN17" s="39"/>
       <c r="AO17" s="39"/>
@@ -5662,7 +3717,7 @@
       <c r="CD17" s="39"/>
       <c r="CE17" s="39"/>
     </row>
-    <row r="18" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A18" s="7"/>
       <c r="B18" s="53" t="s">
         <v>9</v>
@@ -5670,7 +3725,7 @@
       <c r="C18" s="54"/>
       <c r="D18" s="55"/>
       <c r="E18" s="56"/>
-      <c r="F18" s="90"/>
+      <c r="F18" s="86"/>
       <c r="G18" s="74"/>
       <c r="H18" s="74"/>
       <c r="I18" s="74"/>
@@ -5749,7 +3804,7 @@
       <c r="CD18" s="74"/>
       <c r="CE18" s="75"/>
     </row>
-    <row r="19" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A19" s="7">
         <v>1</v>
       </c>
@@ -5842,7 +3897,7 @@
       <c r="CD19" s="39"/>
       <c r="CE19" s="39"/>
     </row>
-    <row r="20" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A20" s="7"/>
       <c r="B20" s="57" t="s">
         <v>48</v>
@@ -5933,7 +3988,7 @@
       <c r="CD20" s="39"/>
       <c r="CE20" s="39"/>
     </row>
-    <row r="21" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A21" s="7"/>
       <c r="B21" s="57" t="s">
         <v>52</v>
@@ -6024,7 +4079,7 @@
       <c r="CD21" s="39"/>
       <c r="CE21" s="39"/>
     </row>
-    <row r="22" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A22" s="7"/>
       <c r="B22" s="57" t="s">
         <v>20</v>
@@ -6115,7 +4170,7 @@
       <c r="CD22" s="39"/>
       <c r="CE22" s="39"/>
     </row>
-    <row r="23" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A23" s="7"/>
       <c r="B23" s="57" t="s">
         <v>49</v>
@@ -6206,7 +4261,7 @@
       <c r="CD23" s="39"/>
       <c r="CE23" s="39"/>
     </row>
-    <row r="24" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A24" s="7"/>
       <c r="B24" s="57" t="s">
         <v>50</v>
@@ -6297,7 +4352,7 @@
       <c r="CD24" s="39"/>
       <c r="CE24" s="39"/>
     </row>
-    <row r="25" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A25" s="7"/>
       <c r="B25" s="60" t="s">
         <v>34</v>
@@ -6346,12 +4401,12 @@
       <c r="AL25" s="34"/>
       <c r="AM25" s="34"/>
       <c r="AN25" s="39"/>
-      <c r="AO25" s="93"/>
-      <c r="AP25" s="94"/>
-      <c r="AQ25" s="94"/>
-      <c r="AR25" s="94"/>
-      <c r="AS25" s="94"/>
-      <c r="AT25" s="95"/>
+      <c r="AO25" s="89"/>
+      <c r="AP25" s="90"/>
+      <c r="AQ25" s="90"/>
+      <c r="AR25" s="90"/>
+      <c r="AS25" s="90"/>
+      <c r="AT25" s="91"/>
       <c r="AU25" s="39"/>
       <c r="AV25" s="39"/>
       <c r="AW25" s="34"/>
@@ -6390,7 +4445,7 @@
       <c r="CD25" s="39"/>
       <c r="CE25" s="39"/>
     </row>
-    <row r="26" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A26" s="7"/>
       <c r="B26" s="60" t="s">
         <v>35</v>
@@ -6440,12 +4495,12 @@
       <c r="AM26" s="34"/>
       <c r="AN26" s="39"/>
       <c r="AO26" s="39"/>
-      <c r="AP26" s="93"/>
-      <c r="AQ26" s="94"/>
-      <c r="AR26" s="94"/>
-      <c r="AS26" s="94"/>
-      <c r="AT26" s="94"/>
-      <c r="AU26" s="95"/>
+      <c r="AP26" s="89"/>
+      <c r="AQ26" s="90"/>
+      <c r="AR26" s="90"/>
+      <c r="AS26" s="90"/>
+      <c r="AT26" s="90"/>
+      <c r="AU26" s="91"/>
       <c r="AV26" s="39"/>
       <c r="AW26" s="34"/>
       <c r="AX26" s="34"/>
@@ -6483,7 +4538,7 @@
       <c r="CD26" s="39"/>
       <c r="CE26" s="39"/>
     </row>
-    <row r="27" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A27" s="7"/>
       <c r="B27" s="57" t="s">
         <v>36</v>
@@ -6534,12 +4589,12 @@
       <c r="AN27" s="39"/>
       <c r="AO27" s="39"/>
       <c r="AP27" s="34"/>
-      <c r="AQ27" s="93"/>
-      <c r="AR27" s="94"/>
-      <c r="AS27" s="94"/>
-      <c r="AT27" s="94"/>
-      <c r="AU27" s="94"/>
-      <c r="AV27" s="95"/>
+      <c r="AQ27" s="89"/>
+      <c r="AR27" s="90"/>
+      <c r="AS27" s="90"/>
+      <c r="AT27" s="90"/>
+      <c r="AU27" s="90"/>
+      <c r="AV27" s="91"/>
       <c r="AW27" s="34"/>
       <c r="AX27" s="34"/>
       <c r="AY27" s="34"/>
@@ -6576,7 +4631,7 @@
       <c r="CD27" s="39"/>
       <c r="CE27" s="39"/>
     </row>
-    <row r="28" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A28" s="7"/>
       <c r="B28" s="57" t="s">
         <v>37</v>
@@ -6667,7 +4722,7 @@
       <c r="CD28" s="39"/>
       <c r="CE28" s="39"/>
     </row>
-    <row r="29" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A29" s="7"/>
       <c r="B29" s="57" t="s">
         <v>51</v>
@@ -6720,12 +4775,12 @@
       <c r="AP29" s="34"/>
       <c r="AQ29" s="34"/>
       <c r="AR29" s="34"/>
-      <c r="AS29" s="93"/>
-      <c r="AT29" s="94"/>
-      <c r="AU29" s="94"/>
-      <c r="AV29" s="94"/>
-      <c r="AW29" s="94"/>
-      <c r="AX29" s="95"/>
+      <c r="AS29" s="89"/>
+      <c r="AT29" s="90"/>
+      <c r="AU29" s="90"/>
+      <c r="AV29" s="90"/>
+      <c r="AW29" s="90"/>
+      <c r="AX29" s="91"/>
       <c r="AY29" s="34"/>
       <c r="AZ29" s="34"/>
       <c r="BA29" s="34"/>
@@ -6760,7 +4815,7 @@
       <c r="CD29" s="39"/>
       <c r="CE29" s="39"/>
     </row>
-    <row r="30" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A30" s="7"/>
       <c r="B30" s="57" t="s">
         <v>38</v>
@@ -6851,7 +4906,7 @@
       <c r="CD30" s="39"/>
       <c r="CE30" s="39"/>
     </row>
-    <row r="31" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A31" s="7"/>
       <c r="B31" s="57" t="s">
         <v>39</v>
@@ -6942,19 +4997,21 @@
       <c r="CD31" s="39"/>
       <c r="CE31" s="39"/>
     </row>
-    <row r="32" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A32" s="7"/>
       <c r="B32" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="58"/>
+      <c r="C32" s="58" t="s">
+        <v>54</v>
+      </c>
       <c r="D32" s="59">
         <v>45235</v>
       </c>
       <c r="E32" s="59">
         <v>45240</v>
       </c>
-      <c r="F32" s="90"/>
+      <c r="F32" s="86"/>
       <c r="G32" s="34"/>
       <c r="H32" s="34"/>
       <c r="I32" s="34"/>
@@ -6996,12 +5053,12 @@
       <c r="AS32" s="34"/>
       <c r="AT32" s="34"/>
       <c r="AU32" s="39"/>
-      <c r="AV32" s="39"/>
-      <c r="AW32" s="34"/>
-      <c r="AX32" s="34"/>
-      <c r="AY32" s="34"/>
-      <c r="AZ32" s="34"/>
-      <c r="BA32" s="34"/>
+      <c r="AV32" s="98"/>
+      <c r="AW32" s="98"/>
+      <c r="AX32" s="98"/>
+      <c r="AY32" s="98"/>
+      <c r="AZ32" s="98"/>
+      <c r="BA32" s="98"/>
       <c r="BB32" s="39"/>
       <c r="BC32" s="39"/>
       <c r="BD32" s="34"/>
@@ -7033,7 +5090,7 @@
       <c r="CD32" s="39"/>
       <c r="CE32" s="39"/>
     </row>
-    <row r="33" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A33" s="7"/>
       <c r="B33" s="61" t="s">
         <v>7</v>
@@ -7041,7 +5098,7 @@
       <c r="C33" s="62"/>
       <c r="D33" s="63"/>
       <c r="E33" s="64"/>
-      <c r="F33" s="90"/>
+      <c r="F33" s="86"/>
       <c r="G33" s="74"/>
       <c r="H33" s="74"/>
       <c r="I33" s="74"/>
@@ -7120,7 +5177,7 @@
       <c r="CD33" s="74"/>
       <c r="CE33" s="74"/>
     </row>
-    <row r="34" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A34" s="7"/>
       <c r="B34" s="65" t="s">
         <v>21</v>
@@ -7132,7 +5189,7 @@
       <c r="E34" s="67">
         <v>45244</v>
       </c>
-      <c r="F34" s="90"/>
+      <c r="F34" s="86"/>
       <c r="G34" s="34"/>
       <c r="H34" s="34"/>
       <c r="I34" s="34"/>
@@ -7211,7 +5268,7 @@
       <c r="CD34" s="39"/>
       <c r="CE34" s="39"/>
     </row>
-    <row r="35" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A35" s="7"/>
       <c r="B35" s="65" t="s">
         <v>22</v>
@@ -7302,7 +5359,7 @@
       <c r="CD35" s="39"/>
       <c r="CE35" s="39"/>
     </row>
-    <row r="36" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A36" s="7"/>
       <c r="B36" s="65" t="s">
         <v>23</v>
@@ -7393,7 +5450,7 @@
       <c r="CD36" s="39"/>
       <c r="CE36" s="39"/>
     </row>
-    <row r="37" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A37" s="7"/>
       <c r="B37" s="65" t="s">
         <v>24</v>
@@ -7484,7 +5541,7 @@
       <c r="CD37" s="39"/>
       <c r="CE37" s="39"/>
     </row>
-    <row r="38" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A38" s="7"/>
       <c r="B38" s="65" t="s">
         <v>41</v>
@@ -7575,7 +5632,7 @@
       <c r="CD38" s="39"/>
       <c r="CE38" s="39"/>
     </row>
-    <row r="39" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A39" s="7"/>
       <c r="B39" s="65" t="s">
         <v>42</v>
@@ -7666,7 +5723,7 @@
       <c r="CD39" s="39"/>
       <c r="CE39" s="39"/>
     </row>
-    <row r="40" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A40" s="7"/>
       <c r="B40" s="65" t="s">
         <v>43</v>
@@ -7757,7 +5814,7 @@
       <c r="CD40" s="39"/>
       <c r="CE40" s="39"/>
     </row>
-    <row r="41" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A41" s="7"/>
       <c r="B41" s="65" t="s">
         <v>25</v>
@@ -7819,21 +5876,21 @@
       <c r="AY41" s="34"/>
       <c r="AZ41" s="34"/>
       <c r="BA41" s="34"/>
-      <c r="BB41" s="96"/>
-      <c r="BC41" s="97"/>
-      <c r="BD41" s="97"/>
-      <c r="BE41" s="97"/>
-      <c r="BF41" s="97"/>
-      <c r="BG41" s="97"/>
-      <c r="BH41" s="97"/>
-      <c r="BI41" s="97"/>
-      <c r="BJ41" s="97"/>
-      <c r="BK41" s="97"/>
-      <c r="BL41" s="97"/>
-      <c r="BM41" s="97"/>
-      <c r="BN41" s="97"/>
-      <c r="BO41" s="94"/>
-      <c r="BP41" s="95"/>
+      <c r="BB41" s="80"/>
+      <c r="BC41" s="81"/>
+      <c r="BD41" s="81"/>
+      <c r="BE41" s="81"/>
+      <c r="BF41" s="81"/>
+      <c r="BG41" s="81"/>
+      <c r="BH41" s="81"/>
+      <c r="BI41" s="81"/>
+      <c r="BJ41" s="81"/>
+      <c r="BK41" s="81"/>
+      <c r="BL41" s="81"/>
+      <c r="BM41" s="81"/>
+      <c r="BN41" s="81"/>
+      <c r="BO41" s="90"/>
+      <c r="BP41" s="91"/>
       <c r="BQ41" s="39"/>
       <c r="BR41" s="34"/>
       <c r="BS41" s="34"/>
@@ -7850,7 +5907,7 @@
       <c r="CD41" s="39"/>
       <c r="CE41" s="39"/>
     </row>
-    <row r="42" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A42" s="7"/>
       <c r="B42" s="65" t="s">
         <v>44</v>
@@ -7941,7 +5998,7 @@
       <c r="CD42" s="39"/>
       <c r="CE42" s="39"/>
     </row>
-    <row r="43" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A43" s="7"/>
       <c r="B43" s="65" t="s">
         <v>45</v>
@@ -8032,7 +6089,7 @@
       <c r="CD43" s="39"/>
       <c r="CE43" s="39"/>
     </row>
-    <row r="44" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A44" s="7"/>
       <c r="B44" s="76" t="s">
         <v>10</v>
@@ -8041,93 +6098,107 @@
       <c r="D44" s="78"/>
       <c r="E44" s="79"/>
       <c r="F44" s="72"/>
-      <c r="G44" s="89"/>
-      <c r="H44" s="89"/>
-      <c r="I44" s="89"/>
-      <c r="J44" s="89"/>
-      <c r="K44" s="89"/>
-      <c r="L44" s="89"/>
-      <c r="M44" s="89"/>
-      <c r="N44" s="89"/>
-      <c r="O44" s="89"/>
-      <c r="P44" s="89"/>
-      <c r="Q44" s="89"/>
-      <c r="R44" s="89"/>
-      <c r="S44" s="89"/>
-      <c r="T44" s="89"/>
-      <c r="U44" s="89"/>
-      <c r="V44" s="89"/>
-      <c r="W44" s="89"/>
-      <c r="X44" s="89"/>
-      <c r="Y44" s="89"/>
-      <c r="Z44" s="89"/>
-      <c r="AA44" s="89"/>
-      <c r="AB44" s="89"/>
-      <c r="AC44" s="89"/>
-      <c r="AD44" s="89"/>
-      <c r="AE44" s="89"/>
-      <c r="AF44" s="89"/>
-      <c r="AG44" s="89"/>
-      <c r="AH44" s="89"/>
-      <c r="AI44" s="89"/>
-      <c r="AJ44" s="89"/>
-      <c r="AK44" s="89"/>
-      <c r="AL44" s="89"/>
-      <c r="AM44" s="89"/>
-      <c r="AN44" s="89"/>
-      <c r="AO44" s="89"/>
-      <c r="AP44" s="89"/>
-      <c r="AQ44" s="89"/>
-      <c r="AR44" s="89"/>
-      <c r="AS44" s="89"/>
-      <c r="AT44" s="89"/>
-      <c r="AU44" s="89"/>
-      <c r="AV44" s="89"/>
-      <c r="AW44" s="89"/>
-      <c r="AX44" s="89"/>
-      <c r="AY44" s="89"/>
-      <c r="AZ44" s="89"/>
-      <c r="BA44" s="89"/>
-      <c r="BB44" s="89"/>
-      <c r="BC44" s="89"/>
-      <c r="BD44" s="89"/>
-      <c r="BE44" s="89"/>
-      <c r="BF44" s="89"/>
-      <c r="BG44" s="89"/>
-      <c r="BH44" s="89"/>
-      <c r="BI44" s="89"/>
-      <c r="BJ44" s="89"/>
-      <c r="BK44" s="89"/>
-      <c r="BL44" s="89"/>
-      <c r="BM44" s="89"/>
-      <c r="BN44" s="89"/>
-      <c r="BO44" s="89"/>
-      <c r="BP44" s="89"/>
-      <c r="BQ44" s="89"/>
-      <c r="BR44" s="89"/>
-      <c r="BS44" s="89"/>
-      <c r="BT44" s="89"/>
-      <c r="BU44" s="89"/>
-      <c r="BV44" s="89"/>
-      <c r="BW44" s="89"/>
-      <c r="BX44" s="89"/>
-      <c r="BY44" s="89"/>
-      <c r="BZ44" s="89"/>
-      <c r="CA44" s="89"/>
-      <c r="CB44" s="89"/>
-      <c r="CC44" s="89"/>
-      <c r="CD44" s="89"/>
-      <c r="CE44" s="89"/>
+      <c r="G44" s="85"/>
+      <c r="H44" s="85"/>
+      <c r="I44" s="85"/>
+      <c r="J44" s="85"/>
+      <c r="K44" s="85"/>
+      <c r="L44" s="85"/>
+      <c r="M44" s="85"/>
+      <c r="N44" s="85"/>
+      <c r="O44" s="85"/>
+      <c r="P44" s="85"/>
+      <c r="Q44" s="85"/>
+      <c r="R44" s="85"/>
+      <c r="S44" s="85"/>
+      <c r="T44" s="85"/>
+      <c r="U44" s="85"/>
+      <c r="V44" s="85"/>
+      <c r="W44" s="85"/>
+      <c r="X44" s="85"/>
+      <c r="Y44" s="85"/>
+      <c r="Z44" s="85"/>
+      <c r="AA44" s="85"/>
+      <c r="AB44" s="85"/>
+      <c r="AC44" s="85"/>
+      <c r="AD44" s="85"/>
+      <c r="AE44" s="85"/>
+      <c r="AF44" s="85"/>
+      <c r="AG44" s="85"/>
+      <c r="AH44" s="85"/>
+      <c r="AI44" s="85"/>
+      <c r="AJ44" s="85"/>
+      <c r="AK44" s="85"/>
+      <c r="AL44" s="85"/>
+      <c r="AM44" s="85"/>
+      <c r="AN44" s="85"/>
+      <c r="AO44" s="85"/>
+      <c r="AP44" s="85"/>
+      <c r="AQ44" s="85"/>
+      <c r="AR44" s="85"/>
+      <c r="AS44" s="85"/>
+      <c r="AT44" s="85"/>
+      <c r="AU44" s="85"/>
+      <c r="AV44" s="85"/>
+      <c r="AW44" s="85"/>
+      <c r="AX44" s="85"/>
+      <c r="AY44" s="85"/>
+      <c r="AZ44" s="85"/>
+      <c r="BA44" s="85"/>
+      <c r="BB44" s="85"/>
+      <c r="BC44" s="85"/>
+      <c r="BD44" s="85"/>
+      <c r="BE44" s="85"/>
+      <c r="BF44" s="85"/>
+      <c r="BG44" s="85"/>
+      <c r="BH44" s="85"/>
+      <c r="BI44" s="85"/>
+      <c r="BJ44" s="85"/>
+      <c r="BK44" s="85"/>
+      <c r="BL44" s="85"/>
+      <c r="BM44" s="85"/>
+      <c r="BN44" s="85"/>
+      <c r="BO44" s="85"/>
+      <c r="BP44" s="85"/>
+      <c r="BQ44" s="85"/>
+      <c r="BR44" s="85"/>
+      <c r="BS44" s="85"/>
+      <c r="BT44" s="85"/>
+      <c r="BU44" s="85"/>
+      <c r="BV44" s="85"/>
+      <c r="BW44" s="85"/>
+      <c r="BX44" s="85"/>
+      <c r="BY44" s="85"/>
+      <c r="BZ44" s="85"/>
+      <c r="CA44" s="85"/>
+      <c r="CB44" s="85"/>
+      <c r="CC44" s="85"/>
+      <c r="CD44" s="85"/>
+      <c r="CE44" s="85"/>
     </row>
-    <row r="46" spans="1:83" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:83" ht="30" customHeight="1">
       <c r="C46" s="3"/>
       <c r="E46" s="6"/>
     </row>
-    <row r="47" spans="1:83" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:83" ht="30" customHeight="1">
       <c r="C47" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="BK4:BQ4"/>
+    <mergeCell ref="BR4:BX4"/>
+    <mergeCell ref="BY4:CE4"/>
+    <mergeCell ref="AW4:BC4"/>
+    <mergeCell ref="BD4:BJ4"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="AI4:AO4"/>
+    <mergeCell ref="AP4:AV4"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G4:M4"/>
+    <mergeCell ref="N4:T4"/>
+    <mergeCell ref="U4:AA4"/>
+    <mergeCell ref="AB4:AH4"/>
+    <mergeCell ref="F4:F5"/>
     <mergeCell ref="S8:U8"/>
     <mergeCell ref="G44:CE44"/>
     <mergeCell ref="F17:F18"/>
@@ -8139,187 +6210,173 @@
     <mergeCell ref="AQ27:AV27"/>
     <mergeCell ref="AS29:AX29"/>
     <mergeCell ref="BO41:BP41"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="AI4:AO4"/>
-    <mergeCell ref="AP4:AV4"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G4:M4"/>
-    <mergeCell ref="N4:T4"/>
-    <mergeCell ref="U4:AA4"/>
-    <mergeCell ref="AB4:AH4"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="BK4:BQ4"/>
-    <mergeCell ref="BR4:BX4"/>
-    <mergeCell ref="BY4:CE4"/>
-    <mergeCell ref="AW4:BC4"/>
-    <mergeCell ref="BD4:BJ4"/>
   </mergeCells>
-  <conditionalFormatting sqref="G5:BW6 BY6:CD6 AI11:AM15 AP11:AT17 AW11:BA17 BD11:BH17 BK11:BO17 BR11:BV17 Z34:Z43 AP34:AT43 AB34:AM43 BY9:CC9 BR9:BV9 BK9:BO9 BD9:BH9 AI9:AM9 AB9:AF9 AP8:AT9 AW8:BA9 AB8:AM8 BD8:CE8 X8:Y9 AB11:AF15 U11:Y17 L34:M43 AW34:BX40 BW9:BX17 BP9:BQ17 BI9:BJ17 AG9:AH15 BB8:BC17 S10:T17 CD9:CE17 AN8:AO17 AU8:AV17 G19:CE24 S34:T43 CD34:CE43 AB16:AE16 AB17:AM17 AL16:AM16 G28:CE28 G25:AN25 AU25:CE25 G26:AO26 AV26:CE26 G27:AP27 AW27:CE27 G30:CE32 G29:AR29 AY29:CE29 AW42:BX43 AW41:BB41 BQ41:BX41">
-    <cfRule type="expression" dxfId="233" priority="152">
+  <conditionalFormatting sqref="G5:BW6 BY6:CD6 AI11:AM15 AP11:AT17 AW11:BA17 BD11:BH17 BK11:BO17 BR11:BV17 Z34:Z43 AP34:AT43 AB34:AM43 BY9:CC9 BR9:BV9 BK9:BO9 BD9:BH9 AI9:AM9 AB9:AF9 AP8:AT9 AW8:BA9 AB8:AM8 BD8:CE8 X8:Y9 AB11:AF15 U11:Y17 L34:M43 AW34:BX40 BW9:BX17 BP9:BQ17 BI9:BJ17 AG9:AH15 BB8:BC17 S10:T17 CD9:CE17 AN8:AO17 AU8:AV17 G19:CE24 S34:T43 CD34:CE43 AB16:AE16 BQ41:BX41 AL16:AM16 G28:CE28 G25:AN25 AU25:CE25 G26:AO26 AV26:CE26 G27:AP27 AW27:CE27 AM17 G29:AR29 AY29:CE29 AW42:BX43 AW41:BB41 AB17:AF17 G30:AU32 BB30:CE32 AV30:BA31">
+    <cfRule type="expression" dxfId="38" priority="152">
       <formula>AND(TODAY()&gt;=G$5,TODAY()&lt;H$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G6:BW6 BY6:CD6 AI11:AM15 AP11:AT17 AW11:BA17 BD11:BH17 BK11:BO17 BR11:BV17 Z34:Z43 AP34:AT43 AB34:AM43 BY9:CC9 BR9:BV9 BK9:BO9 BD9:BH9 AI9:AM9 AB9:AF9 AP8:AT9 AW8:BA9 AB8:AM8 BD8:CE8 X8:Y9 AB11:AF15 U11:Y17 L34:M43 AW34:BX40 BW9:BX17 BP9:BQ17 BI9:BJ17 AG9:AH15 BB8:BC17 S10:T17 CD9:CE17 AN8:AO17 AU8:AV17 G19:CE24 S34:T43 CD34:CE43 AB16:AE16 AB17:AM17 AL16:AM16 G28:CE28 G25:AN25 AU25:CE25 G26:AO26 AV26:CE26 G27:AP27 AW27:CE27 G30:CE32 G29:AR29 AY29:CE29 AW42:BX43 AW41:BB41 BQ41:BX41">
-    <cfRule type="expression" dxfId="232" priority="146">
+  <conditionalFormatting sqref="G6:BW6 BY6:CD6 AI11:AM15 AP11:AT17 AW11:BA17 BD11:BH17 BK11:BO17 BR11:BV17 Z34:Z43 AP34:AT43 AB34:AM43 BY9:CC9 BR9:BV9 BK9:BO9 BD9:BH9 AI9:AM9 AB9:AF9 AP8:AT9 AW8:BA9 AB8:AM8 BD8:CE8 X8:Y9 AB11:AF15 U11:Y17 L34:M43 AW34:BX40 BW9:BX17 BP9:BQ17 BI9:BJ17 AG9:AH15 BB8:BC17 S10:T17 CD9:CE17 AN8:AO17 AU8:AV17 G19:CE24 S34:T43 CD34:CE43 AB16:AE16 BQ41:BX41 AL16:AM16 G28:CE28 G25:AN25 AU25:CE25 G26:AO26 AV26:CE26 G27:AP27 AW27:CE27 AM17 G29:AR29 AY29:CE29 AW42:BX43 AW41:BB41 AB17:AF17 G30:AU32 BB30:CE32 AV30:BA31">
+    <cfRule type="expression" dxfId="37" priority="146">
       <formula>AND(task_start&lt;=G$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=G$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="231" priority="147" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="147" stopIfTrue="1">
       <formula>AND(task_end&gt;=G$5,task_start&lt;H$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BY5:CE5 BX5:BX6 CE6">
-    <cfRule type="expression" dxfId="230" priority="154">
+    <cfRule type="expression" dxfId="35" priority="154">
       <formula>AND(TODAY()&gt;=BX$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BX6 CE6">
-    <cfRule type="expression" dxfId="229" priority="157">
+    <cfRule type="expression" dxfId="34" priority="157">
       <formula>AND(task_start&lt;=BX$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BX$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="228" priority="158" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="158" stopIfTrue="1">
       <formula>AND(task_end&gt;=BX$5,task_start&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BY10:CC10 U10:Y10 AB10:AF10 AI10:AM10 AP10:AT10 AW10:BA10 BD10:BH10 BK10:BO10 BR10:BV10 G10:R10">
-    <cfRule type="expression" dxfId="227" priority="103">
+    <cfRule type="expression" dxfId="32" priority="103">
       <formula>AND(TODAY()&gt;=G$5,TODAY()&lt;H$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BY10:CC10 U10:Y10 AB10:AF10 AI10:AM10 AP10:AT10 AW10:BA10 BD10:BH10 BK10:BO10 BR10:BV10 G10:R10">
-    <cfRule type="expression" dxfId="226" priority="101">
+    <cfRule type="expression" dxfId="31" priority="101">
       <formula>AND(task_start&lt;=G$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=G$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="225" priority="102" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="102" stopIfTrue="1">
       <formula>AND(task_end&gt;=G$5,task_start&lt;H$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BY11:CC17 G11:R17">
-    <cfRule type="expression" dxfId="224" priority="97">
+    <cfRule type="expression" dxfId="29" priority="97">
       <formula>AND(TODAY()&gt;=G$5,TODAY()&lt;H$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BY11:CC17 G11:R17">
-    <cfRule type="expression" dxfId="223" priority="95">
+    <cfRule type="expression" dxfId="28" priority="95">
       <formula>AND(task_start&lt;=G$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=G$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="222" priority="96" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="96" stopIfTrue="1">
       <formula>AND(task_end&gt;=G$5,task_start&lt;H$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34:K43 BZ34:CC43 U34:Y43 N34:R43">
-    <cfRule type="expression" dxfId="221" priority="73">
+    <cfRule type="expression" dxfId="26" priority="73">
       <formula>AND(TODAY()&gt;=G$5,TODAY()&lt;H$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34:K43 BZ34:CC43 U34:Y43 N34:R43">
-    <cfRule type="expression" dxfId="220" priority="71">
+    <cfRule type="expression" dxfId="25" priority="71">
       <formula>AND(task_start&lt;=G$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=G$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="219" priority="72" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="72" stopIfTrue="1">
       <formula>AND(task_end&gt;=G$5,task_start&lt;H$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z8:AA17">
-    <cfRule type="expression" dxfId="218" priority="61">
+    <cfRule type="expression" dxfId="23" priority="61">
       <formula>AND(TODAY()&gt;=Z$5,TODAY()&lt;AA$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z8:AA17">
-    <cfRule type="expression" dxfId="217" priority="59">
+    <cfRule type="expression" dxfId="22" priority="59">
       <formula>AND(task_start&lt;=Z$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=Z$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="216" priority="60" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="60" stopIfTrue="1">
       <formula>AND(task_end&gt;=Z$5,task_start&lt;AA$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN34:AO43">
-    <cfRule type="expression" dxfId="215" priority="24">
+    <cfRule type="expression" dxfId="20" priority="24">
       <formula>AND(TODAY()&gt;=AN$5,TODAY()&lt;AO$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN34:AO43">
-    <cfRule type="expression" dxfId="214" priority="22">
+    <cfRule type="expression" dxfId="19" priority="22">
       <formula>AND(task_start&lt;=AN$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AN$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="213" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="23" stopIfTrue="1">
       <formula>AND(task_end&gt;=AN$5,task_start&lt;AO$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU34:AV43">
-    <cfRule type="expression" dxfId="212" priority="21">
+    <cfRule type="expression" dxfId="17" priority="21">
       <formula>AND(TODAY()&gt;=AU$5,TODAY()&lt;AV$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU34:AV43">
-    <cfRule type="expression" dxfId="211" priority="19">
+    <cfRule type="expression" dxfId="16" priority="19">
       <formula>AND(task_start&lt;=AU$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AU$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="210" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="20" stopIfTrue="1">
       <formula>AND(task_end&gt;=AU$5,task_start&lt;AV$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA34:AA43 BY34:BY43">
-    <cfRule type="expression" dxfId="209" priority="18">
+    <cfRule type="expression" dxfId="14" priority="18">
       <formula>AND(TODAY()&gt;=AA$5,TODAY()&lt;AB$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA34:AA43 BY34:BY43">
-    <cfRule type="expression" dxfId="208" priority="16">
+    <cfRule type="expression" dxfId="13" priority="16">
       <formula>AND(task_start&lt;=AA$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AA$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="207" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="17" stopIfTrue="1">
       <formula>AND(task_end&gt;=AA$5,task_start&lt;AB$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G44">
-    <cfRule type="expression" dxfId="206" priority="15">
+    <cfRule type="expression" dxfId="11" priority="15">
       <formula>AND(TODAY()&gt;=G$5,TODAY()&lt;H$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G44">
-    <cfRule type="expression" dxfId="205" priority="13">
+    <cfRule type="expression" dxfId="10" priority="13">
       <formula>AND(task_start&lt;=G$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=G$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="204" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="14" stopIfTrue="1">
       <formula>AND(task_end&gt;=G$5,task_start&lt;H$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N9:U9 V8:W8 G9:K9 G8 P8:S8">
-    <cfRule type="expression" dxfId="203" priority="9">
+    <cfRule type="expression" dxfId="8" priority="9">
       <formula>AND(TODAY()&gt;=G$5,TODAY()&lt;H$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N9:U9 V8:W8 G9:K9 G8 P8:S8">
-    <cfRule type="expression" dxfId="202" priority="7">
+    <cfRule type="expression" dxfId="7" priority="7">
       <formula>AND(task_start&lt;=G$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=G$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="201" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="8" stopIfTrue="1">
       <formula>AND(task_end&gt;=G$5,task_start&lt;H$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8 P8:R8">
-    <cfRule type="expression" dxfId="200" priority="6">
+    <cfRule type="expression" dxfId="5" priority="6">
       <formula>AND(TODAY()&gt;=G$5,TODAY()&lt;H$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8 P8:R8">
-    <cfRule type="expression" dxfId="199" priority="4">
+    <cfRule type="expression" dxfId="4" priority="4">
       <formula>AND(task_start&lt;=G$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=G$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="198" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="5" stopIfTrue="1">
       <formula>AND(task_end&gt;=G$5,task_start&lt;H$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9:K9 N9:R9">
-    <cfRule type="expression" dxfId="197" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>AND(TODAY()&gt;=G$5,TODAY()&lt;H$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9:K9 N9:R9">
-    <cfRule type="expression" dxfId="196" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>AND(task_start&lt;=G$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=G$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="195" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
       <formula>AND(task_end&gt;=G$5,task_start&lt;H$5)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/gantt-diagram.xlsx
+++ b/gantt-diagram.xlsx
@@ -968,6 +968,25 @@
     <xf numFmtId="0" fontId="14" fillId="24" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" xfId="13"/>
+    <xf numFmtId="169" fontId="14" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="14" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="14" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="14" fillId="0" borderId="3" xfId="8" applyNumberFormat="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="14" borderId="12" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -998,25 +1017,6 @@
     <xf numFmtId="0" fontId="14" fillId="24" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="14" fillId="0" borderId="3" xfId="8" applyNumberFormat="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="14" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="14" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="14" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" xfId="13"/>
   </cellXfs>
   <cellStyles count="14">
     <cellStyle name="Cím" xfId="4" builtinId="15" customBuiltin="1"/>
@@ -1878,7 +1878,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1893,7 +1893,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="B1" zoomScale="73" zoomScaleNormal="73" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AV32" sqref="AV32:BA32"/>
+      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
@@ -1901,8 +1901,8 @@
     <col min="1" max="1" width="2.140625" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="78.28515625" customWidth="1"/>
     <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="83" width="2.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2017,10 +2017,10 @@
         <v>46</v>
       </c>
       <c r="C2" s="12"/>
-      <c r="D2" s="92" t="s">
+      <c r="D2" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="92"/>
+      <c r="E2" s="86"/>
       <c r="F2" s="11"/>
       <c r="G2" s="25"/>
       <c r="H2" s="12"/>
@@ -2104,10 +2104,10 @@
       <c r="A3" s="23"/>
       <c r="B3" s="26"/>
       <c r="C3" s="12"/>
-      <c r="D3" s="92">
+      <c r="D3" s="86">
         <v>45197</v>
       </c>
-      <c r="E3" s="92"/>
+      <c r="E3" s="86"/>
       <c r="F3" s="11"/>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
@@ -2193,117 +2193,117 @@
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="93">
+      <c r="F4" s="87"/>
+      <c r="G4" s="83">
         <f>G5</f>
         <v>45194</v>
       </c>
-      <c r="H4" s="94"/>
-      <c r="I4" s="94"/>
-      <c r="J4" s="94"/>
-      <c r="K4" s="94"/>
-      <c r="L4" s="94"/>
-      <c r="M4" s="95"/>
-      <c r="N4" s="93">
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="84"/>
+      <c r="K4" s="84"/>
+      <c r="L4" s="84"/>
+      <c r="M4" s="85"/>
+      <c r="N4" s="83">
         <f>N5</f>
         <v>45201</v>
       </c>
-      <c r="O4" s="94"/>
-      <c r="P4" s="94"/>
-      <c r="Q4" s="94"/>
-      <c r="R4" s="94"/>
-      <c r="S4" s="94"/>
-      <c r="T4" s="95"/>
-      <c r="U4" s="93">
+      <c r="O4" s="84"/>
+      <c r="P4" s="84"/>
+      <c r="Q4" s="84"/>
+      <c r="R4" s="84"/>
+      <c r="S4" s="84"/>
+      <c r="T4" s="85"/>
+      <c r="U4" s="83">
         <f>U5</f>
         <v>45208</v>
       </c>
-      <c r="V4" s="94"/>
-      <c r="W4" s="94"/>
-      <c r="X4" s="94"/>
-      <c r="Y4" s="94"/>
-      <c r="Z4" s="94"/>
-      <c r="AA4" s="95"/>
-      <c r="AB4" s="93">
+      <c r="V4" s="84"/>
+      <c r="W4" s="84"/>
+      <c r="X4" s="84"/>
+      <c r="Y4" s="84"/>
+      <c r="Z4" s="84"/>
+      <c r="AA4" s="85"/>
+      <c r="AB4" s="83">
         <f>AB5</f>
         <v>45215</v>
       </c>
-      <c r="AC4" s="94"/>
-      <c r="AD4" s="94"/>
-      <c r="AE4" s="94"/>
-      <c r="AF4" s="94"/>
-      <c r="AG4" s="94"/>
-      <c r="AH4" s="95"/>
-      <c r="AI4" s="93">
+      <c r="AC4" s="84"/>
+      <c r="AD4" s="84"/>
+      <c r="AE4" s="84"/>
+      <c r="AF4" s="84"/>
+      <c r="AG4" s="84"/>
+      <c r="AH4" s="85"/>
+      <c r="AI4" s="83">
         <f>AI5</f>
         <v>45222</v>
       </c>
-      <c r="AJ4" s="94"/>
-      <c r="AK4" s="94"/>
-      <c r="AL4" s="94"/>
-      <c r="AM4" s="94"/>
-      <c r="AN4" s="94"/>
-      <c r="AO4" s="95"/>
-      <c r="AP4" s="93">
+      <c r="AJ4" s="84"/>
+      <c r="AK4" s="84"/>
+      <c r="AL4" s="84"/>
+      <c r="AM4" s="84"/>
+      <c r="AN4" s="84"/>
+      <c r="AO4" s="85"/>
+      <c r="AP4" s="83">
         <f>AP5</f>
         <v>45229</v>
       </c>
-      <c r="AQ4" s="94"/>
-      <c r="AR4" s="94"/>
-      <c r="AS4" s="94"/>
-      <c r="AT4" s="94"/>
-      <c r="AU4" s="94"/>
-      <c r="AV4" s="95"/>
-      <c r="AW4" s="93">
+      <c r="AQ4" s="84"/>
+      <c r="AR4" s="84"/>
+      <c r="AS4" s="84"/>
+      <c r="AT4" s="84"/>
+      <c r="AU4" s="84"/>
+      <c r="AV4" s="85"/>
+      <c r="AW4" s="83">
         <f>AW5</f>
         <v>45236</v>
       </c>
-      <c r="AX4" s="94"/>
-      <c r="AY4" s="94"/>
-      <c r="AZ4" s="94"/>
-      <c r="BA4" s="94"/>
-      <c r="BB4" s="94"/>
-      <c r="BC4" s="95"/>
-      <c r="BD4" s="93">
+      <c r="AX4" s="84"/>
+      <c r="AY4" s="84"/>
+      <c r="AZ4" s="84"/>
+      <c r="BA4" s="84"/>
+      <c r="BB4" s="84"/>
+      <c r="BC4" s="85"/>
+      <c r="BD4" s="83">
         <f>BD5</f>
         <v>45243</v>
       </c>
-      <c r="BE4" s="94"/>
-      <c r="BF4" s="94"/>
-      <c r="BG4" s="94"/>
-      <c r="BH4" s="94"/>
-      <c r="BI4" s="94"/>
-      <c r="BJ4" s="95"/>
-      <c r="BK4" s="93">
+      <c r="BE4" s="84"/>
+      <c r="BF4" s="84"/>
+      <c r="BG4" s="84"/>
+      <c r="BH4" s="84"/>
+      <c r="BI4" s="84"/>
+      <c r="BJ4" s="85"/>
+      <c r="BK4" s="83">
         <f>BK5</f>
         <v>45250</v>
       </c>
-      <c r="BL4" s="94"/>
-      <c r="BM4" s="94"/>
-      <c r="BN4" s="94"/>
-      <c r="BO4" s="94"/>
-      <c r="BP4" s="94"/>
-      <c r="BQ4" s="95"/>
-      <c r="BR4" s="93">
+      <c r="BL4" s="84"/>
+      <c r="BM4" s="84"/>
+      <c r="BN4" s="84"/>
+      <c r="BO4" s="84"/>
+      <c r="BP4" s="84"/>
+      <c r="BQ4" s="85"/>
+      <c r="BR4" s="83">
         <f>BR5</f>
         <v>45257</v>
       </c>
-      <c r="BS4" s="94"/>
-      <c r="BT4" s="94"/>
-      <c r="BU4" s="94"/>
-      <c r="BV4" s="94"/>
-      <c r="BW4" s="94"/>
-      <c r="BX4" s="95"/>
-      <c r="BY4" s="93">
+      <c r="BS4" s="84"/>
+      <c r="BT4" s="84"/>
+      <c r="BU4" s="84"/>
+      <c r="BV4" s="84"/>
+      <c r="BW4" s="84"/>
+      <c r="BX4" s="85"/>
+      <c r="BY4" s="83">
         <f>BY5</f>
         <v>45264</v>
       </c>
-      <c r="BZ4" s="94"/>
-      <c r="CA4" s="94"/>
-      <c r="CB4" s="94"/>
-      <c r="CC4" s="94"/>
-      <c r="CD4" s="94"/>
-      <c r="CE4" s="95"/>
+      <c r="BZ4" s="84"/>
+      <c r="CA4" s="84"/>
+      <c r="CB4" s="84"/>
+      <c r="CC4" s="84"/>
+      <c r="CD4" s="84"/>
+      <c r="CE4" s="85"/>
     </row>
     <row r="5" spans="1:83" ht="25.5" customHeight="1" thickBot="1">
       <c r="A5" s="7"/>
@@ -2319,7 +2319,7 @@
       <c r="E5" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="97"/>
+      <c r="F5" s="88"/>
       <c r="G5" s="29">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2</f>
         <v>45194</v>
@@ -2823,15 +2823,15 @@
       <c r="J8" s="44"/>
       <c r="K8" s="44"/>
       <c r="L8" s="44"/>
-      <c r="M8" s="87"/>
-      <c r="N8" s="87"/>
-      <c r="O8" s="88"/>
+      <c r="M8" s="94"/>
+      <c r="N8" s="94"/>
+      <c r="O8" s="95"/>
       <c r="P8" s="34"/>
       <c r="Q8" s="43"/>
       <c r="R8" s="34"/>
-      <c r="S8" s="82"/>
-      <c r="T8" s="83"/>
-      <c r="U8" s="84"/>
+      <c r="S8" s="89"/>
+      <c r="T8" s="90"/>
+      <c r="U8" s="91"/>
       <c r="V8" s="34"/>
       <c r="W8" s="34"/>
       <c r="X8" s="34"/>
@@ -3083,10 +3083,10 @@
       </c>
       <c r="C11" s="51"/>
       <c r="D11" s="52">
-        <v>45214</v>
+        <v>45215</v>
       </c>
       <c r="E11" s="52">
-        <v>45219</v>
+        <v>45220</v>
       </c>
       <c r="F11" s="71"/>
       <c r="G11" s="34"/>
@@ -3571,12 +3571,12 @@
       <c r="AC16" s="34"/>
       <c r="AD16" s="34"/>
       <c r="AE16" s="34"/>
-      <c r="AF16" s="89"/>
-      <c r="AG16" s="90"/>
-      <c r="AH16" s="90"/>
-      <c r="AI16" s="90"/>
-      <c r="AJ16" s="90"/>
-      <c r="AK16" s="91"/>
+      <c r="AF16" s="96"/>
+      <c r="AG16" s="97"/>
+      <c r="AH16" s="97"/>
+      <c r="AI16" s="97"/>
+      <c r="AJ16" s="97"/>
+      <c r="AK16" s="98"/>
       <c r="AL16" s="34"/>
       <c r="AM16" s="34"/>
       <c r="AN16" s="39"/>
@@ -3638,7 +3638,7 @@
       <c r="E17" s="52">
         <v>45225</v>
       </c>
-      <c r="F17" s="86"/>
+      <c r="F17" s="93"/>
       <c r="G17" s="34"/>
       <c r="H17" s="34"/>
       <c r="I17" s="34"/>
@@ -3665,12 +3665,12 @@
       <c r="AD17" s="34"/>
       <c r="AE17" s="34"/>
       <c r="AF17" s="34"/>
-      <c r="AG17" s="98"/>
-      <c r="AH17" s="98"/>
-      <c r="AI17" s="98"/>
-      <c r="AJ17" s="98"/>
-      <c r="AK17" s="98"/>
-      <c r="AL17" s="98"/>
+      <c r="AG17" s="82"/>
+      <c r="AH17" s="82"/>
+      <c r="AI17" s="82"/>
+      <c r="AJ17" s="82"/>
+      <c r="AK17" s="82"/>
+      <c r="AL17" s="82"/>
       <c r="AM17" s="34"/>
       <c r="AN17" s="39"/>
       <c r="AO17" s="39"/>
@@ -3725,7 +3725,7 @@
       <c r="C18" s="54"/>
       <c r="D18" s="55"/>
       <c r="E18" s="56"/>
-      <c r="F18" s="86"/>
+      <c r="F18" s="93"/>
       <c r="G18" s="74"/>
       <c r="H18" s="74"/>
       <c r="I18" s="74"/>
@@ -4401,12 +4401,12 @@
       <c r="AL25" s="34"/>
       <c r="AM25" s="34"/>
       <c r="AN25" s="39"/>
-      <c r="AO25" s="89"/>
-      <c r="AP25" s="90"/>
-      <c r="AQ25" s="90"/>
-      <c r="AR25" s="90"/>
-      <c r="AS25" s="90"/>
-      <c r="AT25" s="91"/>
+      <c r="AO25" s="96"/>
+      <c r="AP25" s="97"/>
+      <c r="AQ25" s="97"/>
+      <c r="AR25" s="97"/>
+      <c r="AS25" s="97"/>
+      <c r="AT25" s="98"/>
       <c r="AU25" s="39"/>
       <c r="AV25" s="39"/>
       <c r="AW25" s="34"/>
@@ -4495,12 +4495,12 @@
       <c r="AM26" s="34"/>
       <c r="AN26" s="39"/>
       <c r="AO26" s="39"/>
-      <c r="AP26" s="89"/>
-      <c r="AQ26" s="90"/>
-      <c r="AR26" s="90"/>
-      <c r="AS26" s="90"/>
-      <c r="AT26" s="90"/>
-      <c r="AU26" s="91"/>
+      <c r="AP26" s="96"/>
+      <c r="AQ26" s="97"/>
+      <c r="AR26" s="97"/>
+      <c r="AS26" s="97"/>
+      <c r="AT26" s="97"/>
+      <c r="AU26" s="98"/>
       <c r="AV26" s="39"/>
       <c r="AW26" s="34"/>
       <c r="AX26" s="34"/>
@@ -4589,12 +4589,12 @@
       <c r="AN27" s="39"/>
       <c r="AO27" s="39"/>
       <c r="AP27" s="34"/>
-      <c r="AQ27" s="89"/>
-      <c r="AR27" s="90"/>
-      <c r="AS27" s="90"/>
-      <c r="AT27" s="90"/>
-      <c r="AU27" s="90"/>
-      <c r="AV27" s="91"/>
+      <c r="AQ27" s="96"/>
+      <c r="AR27" s="97"/>
+      <c r="AS27" s="97"/>
+      <c r="AT27" s="97"/>
+      <c r="AU27" s="97"/>
+      <c r="AV27" s="98"/>
       <c r="AW27" s="34"/>
       <c r="AX27" s="34"/>
       <c r="AY27" s="34"/>
@@ -4775,12 +4775,12 @@
       <c r="AP29" s="34"/>
       <c r="AQ29" s="34"/>
       <c r="AR29" s="34"/>
-      <c r="AS29" s="89"/>
-      <c r="AT29" s="90"/>
-      <c r="AU29" s="90"/>
-      <c r="AV29" s="90"/>
-      <c r="AW29" s="90"/>
-      <c r="AX29" s="91"/>
+      <c r="AS29" s="96"/>
+      <c r="AT29" s="97"/>
+      <c r="AU29" s="97"/>
+      <c r="AV29" s="97"/>
+      <c r="AW29" s="97"/>
+      <c r="AX29" s="98"/>
       <c r="AY29" s="34"/>
       <c r="AZ29" s="34"/>
       <c r="BA29" s="34"/>
@@ -5011,7 +5011,7 @@
       <c r="E32" s="59">
         <v>45240</v>
       </c>
-      <c r="F32" s="86"/>
+      <c r="F32" s="93"/>
       <c r="G32" s="34"/>
       <c r="H32" s="34"/>
       <c r="I32" s="34"/>
@@ -5053,12 +5053,12 @@
       <c r="AS32" s="34"/>
       <c r="AT32" s="34"/>
       <c r="AU32" s="39"/>
-      <c r="AV32" s="98"/>
-      <c r="AW32" s="98"/>
-      <c r="AX32" s="98"/>
-      <c r="AY32" s="98"/>
-      <c r="AZ32" s="98"/>
-      <c r="BA32" s="98"/>
+      <c r="AV32" s="82"/>
+      <c r="AW32" s="82"/>
+      <c r="AX32" s="82"/>
+      <c r="AY32" s="82"/>
+      <c r="AZ32" s="82"/>
+      <c r="BA32" s="82"/>
       <c r="BB32" s="39"/>
       <c r="BC32" s="39"/>
       <c r="BD32" s="34"/>
@@ -5098,7 +5098,7 @@
       <c r="C33" s="62"/>
       <c r="D33" s="63"/>
       <c r="E33" s="64"/>
-      <c r="F33" s="86"/>
+      <c r="F33" s="93"/>
       <c r="G33" s="74"/>
       <c r="H33" s="74"/>
       <c r="I33" s="74"/>
@@ -5189,7 +5189,7 @@
       <c r="E34" s="67">
         <v>45244</v>
       </c>
-      <c r="F34" s="86"/>
+      <c r="F34" s="93"/>
       <c r="G34" s="34"/>
       <c r="H34" s="34"/>
       <c r="I34" s="34"/>
@@ -5889,8 +5889,8 @@
       <c r="BL41" s="81"/>
       <c r="BM41" s="81"/>
       <c r="BN41" s="81"/>
-      <c r="BO41" s="90"/>
-      <c r="BP41" s="91"/>
+      <c r="BO41" s="97"/>
+      <c r="BP41" s="98"/>
       <c r="BQ41" s="39"/>
       <c r="BR41" s="34"/>
       <c r="BS41" s="34"/>
@@ -6098,83 +6098,83 @@
       <c r="D44" s="78"/>
       <c r="E44" s="79"/>
       <c r="F44" s="72"/>
-      <c r="G44" s="85"/>
-      <c r="H44" s="85"/>
-      <c r="I44" s="85"/>
-      <c r="J44" s="85"/>
-      <c r="K44" s="85"/>
-      <c r="L44" s="85"/>
-      <c r="M44" s="85"/>
-      <c r="N44" s="85"/>
-      <c r="O44" s="85"/>
-      <c r="P44" s="85"/>
-      <c r="Q44" s="85"/>
-      <c r="R44" s="85"/>
-      <c r="S44" s="85"/>
-      <c r="T44" s="85"/>
-      <c r="U44" s="85"/>
-      <c r="V44" s="85"/>
-      <c r="W44" s="85"/>
-      <c r="X44" s="85"/>
-      <c r="Y44" s="85"/>
-      <c r="Z44" s="85"/>
-      <c r="AA44" s="85"/>
-      <c r="AB44" s="85"/>
-      <c r="AC44" s="85"/>
-      <c r="AD44" s="85"/>
-      <c r="AE44" s="85"/>
-      <c r="AF44" s="85"/>
-      <c r="AG44" s="85"/>
-      <c r="AH44" s="85"/>
-      <c r="AI44" s="85"/>
-      <c r="AJ44" s="85"/>
-      <c r="AK44" s="85"/>
-      <c r="AL44" s="85"/>
-      <c r="AM44" s="85"/>
-      <c r="AN44" s="85"/>
-      <c r="AO44" s="85"/>
-      <c r="AP44" s="85"/>
-      <c r="AQ44" s="85"/>
-      <c r="AR44" s="85"/>
-      <c r="AS44" s="85"/>
-      <c r="AT44" s="85"/>
-      <c r="AU44" s="85"/>
-      <c r="AV44" s="85"/>
-      <c r="AW44" s="85"/>
-      <c r="AX44" s="85"/>
-      <c r="AY44" s="85"/>
-      <c r="AZ44" s="85"/>
-      <c r="BA44" s="85"/>
-      <c r="BB44" s="85"/>
-      <c r="BC44" s="85"/>
-      <c r="BD44" s="85"/>
-      <c r="BE44" s="85"/>
-      <c r="BF44" s="85"/>
-      <c r="BG44" s="85"/>
-      <c r="BH44" s="85"/>
-      <c r="BI44" s="85"/>
-      <c r="BJ44" s="85"/>
-      <c r="BK44" s="85"/>
-      <c r="BL44" s="85"/>
-      <c r="BM44" s="85"/>
-      <c r="BN44" s="85"/>
-      <c r="BO44" s="85"/>
-      <c r="BP44" s="85"/>
-      <c r="BQ44" s="85"/>
-      <c r="BR44" s="85"/>
-      <c r="BS44" s="85"/>
-      <c r="BT44" s="85"/>
-      <c r="BU44" s="85"/>
-      <c r="BV44" s="85"/>
-      <c r="BW44" s="85"/>
-      <c r="BX44" s="85"/>
-      <c r="BY44" s="85"/>
-      <c r="BZ44" s="85"/>
-      <c r="CA44" s="85"/>
-      <c r="CB44" s="85"/>
-      <c r="CC44" s="85"/>
-      <c r="CD44" s="85"/>
-      <c r="CE44" s="85"/>
+      <c r="G44" s="92"/>
+      <c r="H44" s="92"/>
+      <c r="I44" s="92"/>
+      <c r="J44" s="92"/>
+      <c r="K44" s="92"/>
+      <c r="L44" s="92"/>
+      <c r="M44" s="92"/>
+      <c r="N44" s="92"/>
+      <c r="O44" s="92"/>
+      <c r="P44" s="92"/>
+      <c r="Q44" s="92"/>
+      <c r="R44" s="92"/>
+      <c r="S44" s="92"/>
+      <c r="T44" s="92"/>
+      <c r="U44" s="92"/>
+      <c r="V44" s="92"/>
+      <c r="W44" s="92"/>
+      <c r="X44" s="92"/>
+      <c r="Y44" s="92"/>
+      <c r="Z44" s="92"/>
+      <c r="AA44" s="92"/>
+      <c r="AB44" s="92"/>
+      <c r="AC44" s="92"/>
+      <c r="AD44" s="92"/>
+      <c r="AE44" s="92"/>
+      <c r="AF44" s="92"/>
+      <c r="AG44" s="92"/>
+      <c r="AH44" s="92"/>
+      <c r="AI44" s="92"/>
+      <c r="AJ44" s="92"/>
+      <c r="AK44" s="92"/>
+      <c r="AL44" s="92"/>
+      <c r="AM44" s="92"/>
+      <c r="AN44" s="92"/>
+      <c r="AO44" s="92"/>
+      <c r="AP44" s="92"/>
+      <c r="AQ44" s="92"/>
+      <c r="AR44" s="92"/>
+      <c r="AS44" s="92"/>
+      <c r="AT44" s="92"/>
+      <c r="AU44" s="92"/>
+      <c r="AV44" s="92"/>
+      <c r="AW44" s="92"/>
+      <c r="AX44" s="92"/>
+      <c r="AY44" s="92"/>
+      <c r="AZ44" s="92"/>
+      <c r="BA44" s="92"/>
+      <c r="BB44" s="92"/>
+      <c r="BC44" s="92"/>
+      <c r="BD44" s="92"/>
+      <c r="BE44" s="92"/>
+      <c r="BF44" s="92"/>
+      <c r="BG44" s="92"/>
+      <c r="BH44" s="92"/>
+      <c r="BI44" s="92"/>
+      <c r="BJ44" s="92"/>
+      <c r="BK44" s="92"/>
+      <c r="BL44" s="92"/>
+      <c r="BM44" s="92"/>
+      <c r="BN44" s="92"/>
+      <c r="BO44" s="92"/>
+      <c r="BP44" s="92"/>
+      <c r="BQ44" s="92"/>
+      <c r="BR44" s="92"/>
+      <c r="BS44" s="92"/>
+      <c r="BT44" s="92"/>
+      <c r="BU44" s="92"/>
+      <c r="BV44" s="92"/>
+      <c r="BW44" s="92"/>
+      <c r="BX44" s="92"/>
+      <c r="BY44" s="92"/>
+      <c r="BZ44" s="92"/>
+      <c r="CA44" s="92"/>
+      <c r="CB44" s="92"/>
+      <c r="CC44" s="92"/>
+      <c r="CD44" s="92"/>
+      <c r="CE44" s="92"/>
     </row>
     <row r="46" spans="1:83" ht="30" customHeight="1">
       <c r="C46" s="3"/>
@@ -6185,20 +6185,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="BK4:BQ4"/>
-    <mergeCell ref="BR4:BX4"/>
-    <mergeCell ref="BY4:CE4"/>
-    <mergeCell ref="AW4:BC4"/>
-    <mergeCell ref="BD4:BJ4"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="AI4:AO4"/>
-    <mergeCell ref="AP4:AV4"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G4:M4"/>
-    <mergeCell ref="N4:T4"/>
-    <mergeCell ref="U4:AA4"/>
-    <mergeCell ref="AB4:AH4"/>
-    <mergeCell ref="F4:F5"/>
     <mergeCell ref="S8:U8"/>
     <mergeCell ref="G44:CE44"/>
     <mergeCell ref="F17:F18"/>
@@ -6210,6 +6196,20 @@
     <mergeCell ref="AQ27:AV27"/>
     <mergeCell ref="AS29:AX29"/>
     <mergeCell ref="BO41:BP41"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="AI4:AO4"/>
+    <mergeCell ref="AP4:AV4"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G4:M4"/>
+    <mergeCell ref="N4:T4"/>
+    <mergeCell ref="U4:AA4"/>
+    <mergeCell ref="AB4:AH4"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="BK4:BQ4"/>
+    <mergeCell ref="BR4:BX4"/>
+    <mergeCell ref="BY4:CE4"/>
+    <mergeCell ref="AW4:BC4"/>
+    <mergeCell ref="BD4:BJ4"/>
   </mergeCells>
   <conditionalFormatting sqref="G5:BW6 BY6:CD6 AI11:AM15 AP11:AT17 AW11:BA17 BD11:BH17 BK11:BO17 BR11:BV17 Z34:Z43 AP34:AT43 AB34:AM43 BY9:CC9 BR9:BV9 BK9:BO9 BD9:BH9 AI9:AM9 AB9:AF9 AP8:AT9 AW8:BA9 AB8:AM8 BD8:CE8 X8:Y9 AB11:AF15 U11:Y17 L34:M43 AW34:BX40 BW9:BX17 BP9:BQ17 BI9:BJ17 AG9:AH15 BB8:BC17 S10:T17 CD9:CE17 AN8:AO17 AU8:AV17 G19:CE24 S34:T43 CD34:CE43 AB16:AE16 BQ41:BX41 AL16:AM16 G28:CE28 G25:AN25 AU25:CE25 G26:AO26 AV26:CE26 G27:AP27 AW27:CE27 AM17 G29:AR29 AY29:CE29 AW42:BX43 AW41:BB41 AB17:AF17 G30:AU32 BB30:CE32 AV30:BA31">
     <cfRule type="expression" dxfId="38" priority="152">

--- a/gantt-diagram.xlsx
+++ b/gantt-diagram.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="55">
   <si>
     <t>Projekt kezdete:</t>
   </si>
@@ -1893,7 +1893,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="B1" zoomScale="73" zoomScaleNormal="73" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomLeft" activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
@@ -4911,7 +4911,9 @@
       <c r="B31" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="58"/>
+      <c r="C31" s="58" t="s">
+        <v>26</v>
+      </c>
       <c r="D31" s="59">
         <v>45234</v>
       </c>

--- a/gantt-diagram.xlsx
+++ b/gantt-diagram.xlsx
@@ -1893,7 +1893,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="B1" zoomScale="73" zoomScaleNormal="73" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C32" sqref="C32"/>
+      <selection pane="bottomLeft" activeCell="AO29" sqref="AO29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1"/>

--- a/gantt-diagram.xlsx
+++ b/gantt-diagram.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07363DF2-D700-4ABF-A97D-CD23B0E2BADE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12720"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt-diagram" sheetId="11" r:id="rId1"/>
@@ -18,9 +19,9 @@
     <definedName name="task_start" localSheetId="0">'Gantt-diagram'!$D1</definedName>
     <definedName name="today" localSheetId="0">TODAY()</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="54">
   <si>
     <t>Projekt kezdete:</t>
   </si>
@@ -199,14 +200,11 @@
   <si>
     <t>Pszichológus oldal</t>
   </si>
-  <si>
-    <t>Urbán judit</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="6">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="m/d/yy;@"/>
@@ -215,7 +213,7 @@
     <numFmt numFmtId="168" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="169" formatCode="\ yyyy/\ mmm/\ d/"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -761,7 +759,7 @@
     <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -962,60 +960,59 @@
     <xf numFmtId="165" fontId="21" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="169" fontId="14" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="14" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="14" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="14" fillId="0" borderId="3" xfId="8" applyNumberFormat="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="12" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="2" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="13" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="2" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="13" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="24" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="24" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" xfId="13"/>
-    <xf numFmtId="169" fontId="14" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="14" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="14" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="14" fillId="0" borderId="3" xfId="8" applyNumberFormat="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="12" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="2" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="13" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="2" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="13" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -1023,18 +1020,1968 @@
     <cellStyle name="Címsor 1" xfId="5" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Címsor 2" xfId="6" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Címsor 3" xfId="7" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Date" xfId="9"/>
+    <cellStyle name="Date" xfId="9" xr:uid="{229918B6-DD13-4F5A-97B9-305F7E002AA3}"/>
     <cellStyle name="Ezres" xfId="3" builtinId="3" customBuiltin="1"/>
     <cellStyle name="Hivatkozás" xfId="1" builtinId="8" customBuiltin="1"/>
-    <cellStyle name="Jelölőszín (5)" xfId="13" builtinId="45"/>
-    <cellStyle name="Name" xfId="10"/>
+    <cellStyle name="Jelölőszín 5" xfId="13" builtinId="45"/>
+    <cellStyle name="Name" xfId="10" xr:uid="{B2D3C1EE-6B41-4801-AAFC-C2274E49E503}"/>
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
-    <cellStyle name="Project Start" xfId="8"/>
+    <cellStyle name="Project Start" xfId="8" xr:uid="{8EB8A09A-C31C-40A3-B2C1-9449520178B8}"/>
     <cellStyle name="Semleges" xfId="12" builtinId="28"/>
-    <cellStyle name="Task" xfId="11"/>
-    <cellStyle name="zHiddenText" xfId="2"/>
+    <cellStyle name="Task" xfId="11" xr:uid="{6391D789-272B-4DD2-9BF3-2CDCF610FA41}"/>
+    <cellStyle name="zHiddenText" xfId="2" xr:uid="{26E66EE6-E33F-4D77-BAE4-0FB4F5BBF673}"/>
   </cellStyles>
-  <dxfs count="48">
+  <dxfs count="243">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1520,16 +3467,16 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="ToDoList" pivot="0" count="9">
-      <tableStyleElement type="wholeTable" dxfId="47"/>
-      <tableStyleElement type="headerRow" dxfId="46"/>
-      <tableStyleElement type="totalRow" dxfId="45"/>
-      <tableStyleElement type="firstColumn" dxfId="44"/>
-      <tableStyleElement type="lastColumn" dxfId="43"/>
-      <tableStyleElement type="firstRowStripe" dxfId="42"/>
-      <tableStyleElement type="secondRowStripe" dxfId="41"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="40"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="39"/>
+    <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+      <tableStyleElement type="wholeTable" dxfId="242"/>
+      <tableStyleElement type="headerRow" dxfId="241"/>
+      <tableStyleElement type="totalRow" dxfId="240"/>
+      <tableStyleElement type="firstColumn" dxfId="239"/>
+      <tableStyleElement type="lastColumn" dxfId="238"/>
+      <tableStyleElement type="firstRowStripe" dxfId="237"/>
+      <tableStyleElement type="secondRowStripe" dxfId="236"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="235"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="234"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1666,7 +3613,7 @@
     </a:clrScheme>
     <a:fontScheme name="Calibri">
       <a:majorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="メイリオ"/>
@@ -1701,7 +3648,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="メイリオ"/>
@@ -1878,35 +3825,35 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:CE47"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="B1" zoomScale="73" zoomScaleNormal="73" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AO29" sqref="AO29"/>
+      <pane ySplit="5" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AG32" sqref="AG32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="78.28515625" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="83" width="2.5703125" customWidth="1"/>
+    <col min="1" max="1" width="2.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="78.33203125" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="83" width="2.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:83" ht="25.5" customHeight="1">
+    <row r="1" spans="1:83" ht="25.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="7"/>
       <c r="B1" s="8" t="s">
         <v>53</v>
@@ -2011,16 +3958,16 @@
       <c r="CD1" s="12"/>
       <c r="CE1" s="12"/>
     </row>
-    <row r="2" spans="1:83" ht="25.5" customHeight="1">
+    <row r="2" spans="1:83" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="23"/>
       <c r="B2" s="24" t="s">
         <v>46</v>
       </c>
       <c r="C2" s="12"/>
-      <c r="D2" s="86" t="s">
+      <c r="D2" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="86"/>
+      <c r="E2" s="83"/>
       <c r="F2" s="11"/>
       <c r="G2" s="25"/>
       <c r="H2" s="12"/>
@@ -2100,14 +4047,14 @@
       <c r="CD2" s="12"/>
       <c r="CE2" s="12"/>
     </row>
-    <row r="3" spans="1:83" ht="25.5" customHeight="1">
+    <row r="3" spans="1:83" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="23"/>
       <c r="B3" s="26"/>
       <c r="C3" s="12"/>
-      <c r="D3" s="86">
+      <c r="D3" s="83">
         <v>45197</v>
       </c>
-      <c r="E3" s="86"/>
+      <c r="E3" s="83"/>
       <c r="F3" s="11"/>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
@@ -2187,125 +4134,125 @@
       <c r="CD3" s="12"/>
       <c r="CE3" s="12"/>
     </row>
-    <row r="4" spans="1:83" ht="25.5" customHeight="1">
+    <row r="4" spans="1:83" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7"/>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="83">
+      <c r="F4" s="84"/>
+      <c r="G4" s="80">
         <f>G5</f>
         <v>45194</v>
       </c>
-      <c r="H4" s="84"/>
-      <c r="I4" s="84"/>
-      <c r="J4" s="84"/>
-      <c r="K4" s="84"/>
-      <c r="L4" s="84"/>
-      <c r="M4" s="85"/>
-      <c r="N4" s="83">
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81"/>
+      <c r="K4" s="81"/>
+      <c r="L4" s="81"/>
+      <c r="M4" s="82"/>
+      <c r="N4" s="80">
         <f>N5</f>
         <v>45201</v>
       </c>
-      <c r="O4" s="84"/>
-      <c r="P4" s="84"/>
-      <c r="Q4" s="84"/>
-      <c r="R4" s="84"/>
-      <c r="S4" s="84"/>
-      <c r="T4" s="85"/>
-      <c r="U4" s="83">
+      <c r="O4" s="81"/>
+      <c r="P4" s="81"/>
+      <c r="Q4" s="81"/>
+      <c r="R4" s="81"/>
+      <c r="S4" s="81"/>
+      <c r="T4" s="82"/>
+      <c r="U4" s="80">
         <f>U5</f>
         <v>45208</v>
       </c>
-      <c r="V4" s="84"/>
-      <c r="W4" s="84"/>
-      <c r="X4" s="84"/>
-      <c r="Y4" s="84"/>
-      <c r="Z4" s="84"/>
-      <c r="AA4" s="85"/>
-      <c r="AB4" s="83">
+      <c r="V4" s="81"/>
+      <c r="W4" s="81"/>
+      <c r="X4" s="81"/>
+      <c r="Y4" s="81"/>
+      <c r="Z4" s="81"/>
+      <c r="AA4" s="82"/>
+      <c r="AB4" s="80">
         <f>AB5</f>
         <v>45215</v>
       </c>
-      <c r="AC4" s="84"/>
-      <c r="AD4" s="84"/>
-      <c r="AE4" s="84"/>
-      <c r="AF4" s="84"/>
-      <c r="AG4" s="84"/>
-      <c r="AH4" s="85"/>
-      <c r="AI4" s="83">
+      <c r="AC4" s="81"/>
+      <c r="AD4" s="81"/>
+      <c r="AE4" s="81"/>
+      <c r="AF4" s="81"/>
+      <c r="AG4" s="81"/>
+      <c r="AH4" s="82"/>
+      <c r="AI4" s="80">
         <f>AI5</f>
         <v>45222</v>
       </c>
-      <c r="AJ4" s="84"/>
-      <c r="AK4" s="84"/>
-      <c r="AL4" s="84"/>
-      <c r="AM4" s="84"/>
-      <c r="AN4" s="84"/>
-      <c r="AO4" s="85"/>
-      <c r="AP4" s="83">
+      <c r="AJ4" s="81"/>
+      <c r="AK4" s="81"/>
+      <c r="AL4" s="81"/>
+      <c r="AM4" s="81"/>
+      <c r="AN4" s="81"/>
+      <c r="AO4" s="82"/>
+      <c r="AP4" s="80">
         <f>AP5</f>
         <v>45229</v>
       </c>
-      <c r="AQ4" s="84"/>
-      <c r="AR4" s="84"/>
-      <c r="AS4" s="84"/>
-      <c r="AT4" s="84"/>
-      <c r="AU4" s="84"/>
-      <c r="AV4" s="85"/>
-      <c r="AW4" s="83">
+      <c r="AQ4" s="81"/>
+      <c r="AR4" s="81"/>
+      <c r="AS4" s="81"/>
+      <c r="AT4" s="81"/>
+      <c r="AU4" s="81"/>
+      <c r="AV4" s="82"/>
+      <c r="AW4" s="80">
         <f>AW5</f>
         <v>45236</v>
       </c>
-      <c r="AX4" s="84"/>
-      <c r="AY4" s="84"/>
-      <c r="AZ4" s="84"/>
-      <c r="BA4" s="84"/>
-      <c r="BB4" s="84"/>
-      <c r="BC4" s="85"/>
-      <c r="BD4" s="83">
+      <c r="AX4" s="81"/>
+      <c r="AY4" s="81"/>
+      <c r="AZ4" s="81"/>
+      <c r="BA4" s="81"/>
+      <c r="BB4" s="81"/>
+      <c r="BC4" s="82"/>
+      <c r="BD4" s="80">
         <f>BD5</f>
         <v>45243</v>
       </c>
-      <c r="BE4" s="84"/>
-      <c r="BF4" s="84"/>
-      <c r="BG4" s="84"/>
-      <c r="BH4" s="84"/>
-      <c r="BI4" s="84"/>
-      <c r="BJ4" s="85"/>
-      <c r="BK4" s="83">
+      <c r="BE4" s="81"/>
+      <c r="BF4" s="81"/>
+      <c r="BG4" s="81"/>
+      <c r="BH4" s="81"/>
+      <c r="BI4" s="81"/>
+      <c r="BJ4" s="82"/>
+      <c r="BK4" s="80">
         <f>BK5</f>
         <v>45250</v>
       </c>
-      <c r="BL4" s="84"/>
-      <c r="BM4" s="84"/>
-      <c r="BN4" s="84"/>
-      <c r="BO4" s="84"/>
-      <c r="BP4" s="84"/>
-      <c r="BQ4" s="85"/>
-      <c r="BR4" s="83">
+      <c r="BL4" s="81"/>
+      <c r="BM4" s="81"/>
+      <c r="BN4" s="81"/>
+      <c r="BO4" s="81"/>
+      <c r="BP4" s="81"/>
+      <c r="BQ4" s="82"/>
+      <c r="BR4" s="80">
         <f>BR5</f>
         <v>45257</v>
       </c>
-      <c r="BS4" s="84"/>
-      <c r="BT4" s="84"/>
-      <c r="BU4" s="84"/>
-      <c r="BV4" s="84"/>
-      <c r="BW4" s="84"/>
-      <c r="BX4" s="85"/>
-      <c r="BY4" s="83">
+      <c r="BS4" s="81"/>
+      <c r="BT4" s="81"/>
+      <c r="BU4" s="81"/>
+      <c r="BV4" s="81"/>
+      <c r="BW4" s="81"/>
+      <c r="BX4" s="82"/>
+      <c r="BY4" s="80">
         <f>BY5</f>
         <v>45264</v>
       </c>
-      <c r="BZ4" s="84"/>
-      <c r="CA4" s="84"/>
-      <c r="CB4" s="84"/>
-      <c r="CC4" s="84"/>
-      <c r="CD4" s="84"/>
-      <c r="CE4" s="85"/>
+      <c r="BZ4" s="81"/>
+      <c r="CA4" s="81"/>
+      <c r="CB4" s="81"/>
+      <c r="CC4" s="81"/>
+      <c r="CD4" s="81"/>
+      <c r="CE4" s="82"/>
     </row>
-    <row r="5" spans="1:83" ht="25.5" customHeight="1" thickBot="1">
+    <row r="5" spans="1:83" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7"/>
       <c r="B5" s="27" t="s">
         <v>1</v>
@@ -2319,7 +4266,7 @@
       <c r="E5" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="88"/>
+      <c r="F5" s="85"/>
       <c r="G5" s="29">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2</f>
         <v>45194</v>
@@ -2629,7 +4576,7 @@
         <v>45270</v>
       </c>
     </row>
-    <row r="6" spans="1:83" ht="30" hidden="1" customHeight="1" thickBot="1">
+    <row r="6" spans="1:83" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="23"/>
       <c r="B6" s="12"/>
       <c r="C6" s="32"/>
@@ -2714,7 +4661,7 @@
       <c r="CD6" s="34"/>
       <c r="CE6" s="34"/>
     </row>
-    <row r="7" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="7" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7"/>
       <c r="B7" s="35" t="s">
         <v>5</v>
@@ -2801,7 +4748,7 @@
       <c r="CD7" s="69"/>
       <c r="CE7" s="69"/>
     </row>
-    <row r="8" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="8" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="7"/>
       <c r="B8" s="40" t="s">
         <v>11</v>
@@ -2823,15 +4770,15 @@
       <c r="J8" s="44"/>
       <c r="K8" s="44"/>
       <c r="L8" s="44"/>
-      <c r="M8" s="94"/>
-      <c r="N8" s="94"/>
-      <c r="O8" s="95"/>
+      <c r="M8" s="91"/>
+      <c r="N8" s="91"/>
+      <c r="O8" s="92"/>
       <c r="P8" s="34"/>
       <c r="Q8" s="43"/>
       <c r="R8" s="34"/>
-      <c r="S8" s="89"/>
-      <c r="T8" s="90"/>
-      <c r="U8" s="91"/>
+      <c r="S8" s="86"/>
+      <c r="T8" s="87"/>
+      <c r="U8" s="88"/>
       <c r="V8" s="34"/>
       <c r="W8" s="34"/>
       <c r="X8" s="34"/>
@@ -2895,7 +4842,7 @@
       <c r="CD8" s="39"/>
       <c r="CE8" s="39"/>
     </row>
-    <row r="9" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="9" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="7"/>
       <c r="B9" s="40" t="s">
         <v>12</v>
@@ -2989,7 +4936,7 @@
       <c r="CD9" s="39"/>
       <c r="CE9" s="39"/>
     </row>
-    <row r="10" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="10" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="7"/>
       <c r="B10" s="46" t="s">
         <v>6</v>
@@ -3076,17 +5023,17 @@
       <c r="CD10" s="69"/>
       <c r="CE10" s="69"/>
     </row>
-    <row r="11" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="11" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="7"/>
       <c r="B11" s="50" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="51"/>
       <c r="D11" s="52">
-        <v>45215</v>
+        <v>45214</v>
       </c>
       <c r="E11" s="52">
-        <v>45220</v>
+        <v>45219</v>
       </c>
       <c r="F11" s="71"/>
       <c r="G11" s="34"/>
@@ -3167,7 +5114,7 @@
       <c r="CD11" s="39"/>
       <c r="CE11" s="39"/>
     </row>
-    <row r="12" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="12" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="7"/>
       <c r="B12" s="50" t="s">
         <v>14</v>
@@ -3258,7 +5205,7 @@
       <c r="CD12" s="39"/>
       <c r="CE12" s="39"/>
     </row>
-    <row r="13" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="13" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="7"/>
       <c r="B13" s="50" t="s">
         <v>15</v>
@@ -3349,7 +5296,7 @@
       <c r="CD13" s="39"/>
       <c r="CE13" s="39"/>
     </row>
-    <row r="14" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="14" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="7"/>
       <c r="B14" s="50" t="s">
         <v>16</v>
@@ -3440,7 +5387,7 @@
       <c r="CD14" s="39"/>
       <c r="CE14" s="39"/>
     </row>
-    <row r="15" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="15" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="7"/>
       <c r="B15" s="50" t="s">
         <v>17</v>
@@ -3531,7 +5478,7 @@
       <c r="CD15" s="39"/>
       <c r="CE15" s="39"/>
     </row>
-    <row r="16" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="16" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="7"/>
       <c r="B16" s="50" t="s">
         <v>18</v>
@@ -3571,12 +5518,12 @@
       <c r="AC16" s="34"/>
       <c r="AD16" s="34"/>
       <c r="AE16" s="34"/>
-      <c r="AF16" s="96"/>
-      <c r="AG16" s="97"/>
-      <c r="AH16" s="97"/>
-      <c r="AI16" s="97"/>
-      <c r="AJ16" s="97"/>
-      <c r="AK16" s="98"/>
+      <c r="AF16" s="93"/>
+      <c r="AG16" s="94"/>
+      <c r="AH16" s="94"/>
+      <c r="AI16" s="94"/>
+      <c r="AJ16" s="94"/>
+      <c r="AK16" s="95"/>
       <c r="AL16" s="34"/>
       <c r="AM16" s="34"/>
       <c r="AN16" s="39"/>
@@ -3624,21 +5571,19 @@
       <c r="CD16" s="39"/>
       <c r="CE16" s="39"/>
     </row>
-    <row r="17" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="17" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="7"/>
       <c r="B17" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="51" t="s">
-        <v>26</v>
-      </c>
+      <c r="C17" s="51"/>
       <c r="D17" s="52">
         <v>45220</v>
       </c>
       <c r="E17" s="52">
         <v>45225</v>
       </c>
-      <c r="F17" s="93"/>
+      <c r="F17" s="90"/>
       <c r="G17" s="34"/>
       <c r="H17" s="34"/>
       <c r="I17" s="34"/>
@@ -3665,12 +5610,12 @@
       <c r="AD17" s="34"/>
       <c r="AE17" s="34"/>
       <c r="AF17" s="34"/>
-      <c r="AG17" s="82"/>
-      <c r="AH17" s="82"/>
-      <c r="AI17" s="82"/>
-      <c r="AJ17" s="82"/>
-      <c r="AK17" s="82"/>
-      <c r="AL17" s="82"/>
+      <c r="AG17" s="39"/>
+      <c r="AH17" s="39"/>
+      <c r="AI17" s="34"/>
+      <c r="AJ17" s="34"/>
+      <c r="AK17" s="34"/>
+      <c r="AL17" s="34"/>
       <c r="AM17" s="34"/>
       <c r="AN17" s="39"/>
       <c r="AO17" s="39"/>
@@ -3717,7 +5662,7 @@
       <c r="CD17" s="39"/>
       <c r="CE17" s="39"/>
     </row>
-    <row r="18" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="18" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="7"/>
       <c r="B18" s="53" t="s">
         <v>9</v>
@@ -3725,7 +5670,7 @@
       <c r="C18" s="54"/>
       <c r="D18" s="55"/>
       <c r="E18" s="56"/>
-      <c r="F18" s="93"/>
+      <c r="F18" s="90"/>
       <c r="G18" s="74"/>
       <c r="H18" s="74"/>
       <c r="I18" s="74"/>
@@ -3804,7 +5749,7 @@
       <c r="CD18" s="74"/>
       <c r="CE18" s="75"/>
     </row>
-    <row r="19" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="19" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="7">
         <v>1</v>
       </c>
@@ -3897,7 +5842,7 @@
       <c r="CD19" s="39"/>
       <c r="CE19" s="39"/>
     </row>
-    <row r="20" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="20" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="7"/>
       <c r="B20" s="57" t="s">
         <v>48</v>
@@ -3988,7 +5933,7 @@
       <c r="CD20" s="39"/>
       <c r="CE20" s="39"/>
     </row>
-    <row r="21" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="21" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="7"/>
       <c r="B21" s="57" t="s">
         <v>52</v>
@@ -4079,7 +6024,7 @@
       <c r="CD21" s="39"/>
       <c r="CE21" s="39"/>
     </row>
-    <row r="22" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="22" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="7"/>
       <c r="B22" s="57" t="s">
         <v>20</v>
@@ -4170,7 +6115,7 @@
       <c r="CD22" s="39"/>
       <c r="CE22" s="39"/>
     </row>
-    <row r="23" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="23" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="7"/>
       <c r="B23" s="57" t="s">
         <v>49</v>
@@ -4261,7 +6206,7 @@
       <c r="CD23" s="39"/>
       <c r="CE23" s="39"/>
     </row>
-    <row r="24" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="24" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="7"/>
       <c r="B24" s="57" t="s">
         <v>50</v>
@@ -4352,7 +6297,7 @@
       <c r="CD24" s="39"/>
       <c r="CE24" s="39"/>
     </row>
-    <row r="25" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="25" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="7"/>
       <c r="B25" s="60" t="s">
         <v>34</v>
@@ -4401,12 +6346,12 @@
       <c r="AL25" s="34"/>
       <c r="AM25" s="34"/>
       <c r="AN25" s="39"/>
-      <c r="AO25" s="96"/>
-      <c r="AP25" s="97"/>
-      <c r="AQ25" s="97"/>
-      <c r="AR25" s="97"/>
-      <c r="AS25" s="97"/>
-      <c r="AT25" s="98"/>
+      <c r="AO25" s="93"/>
+      <c r="AP25" s="94"/>
+      <c r="AQ25" s="94"/>
+      <c r="AR25" s="94"/>
+      <c r="AS25" s="94"/>
+      <c r="AT25" s="95"/>
       <c r="AU25" s="39"/>
       <c r="AV25" s="39"/>
       <c r="AW25" s="34"/>
@@ -4445,7 +6390,7 @@
       <c r="CD25" s="39"/>
       <c r="CE25" s="39"/>
     </row>
-    <row r="26" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="26" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="7"/>
       <c r="B26" s="60" t="s">
         <v>35</v>
@@ -4495,12 +6440,12 @@
       <c r="AM26" s="34"/>
       <c r="AN26" s="39"/>
       <c r="AO26" s="39"/>
-      <c r="AP26" s="96"/>
-      <c r="AQ26" s="97"/>
-      <c r="AR26" s="97"/>
-      <c r="AS26" s="97"/>
-      <c r="AT26" s="97"/>
-      <c r="AU26" s="98"/>
+      <c r="AP26" s="93"/>
+      <c r="AQ26" s="94"/>
+      <c r="AR26" s="94"/>
+      <c r="AS26" s="94"/>
+      <c r="AT26" s="94"/>
+      <c r="AU26" s="95"/>
       <c r="AV26" s="39"/>
       <c r="AW26" s="34"/>
       <c r="AX26" s="34"/>
@@ -4538,7 +6483,7 @@
       <c r="CD26" s="39"/>
       <c r="CE26" s="39"/>
     </row>
-    <row r="27" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="27" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="7"/>
       <c r="B27" s="57" t="s">
         <v>36</v>
@@ -4589,12 +6534,12 @@
       <c r="AN27" s="39"/>
       <c r="AO27" s="39"/>
       <c r="AP27" s="34"/>
-      <c r="AQ27" s="96"/>
-      <c r="AR27" s="97"/>
-      <c r="AS27" s="97"/>
-      <c r="AT27" s="97"/>
-      <c r="AU27" s="97"/>
-      <c r="AV27" s="98"/>
+      <c r="AQ27" s="93"/>
+      <c r="AR27" s="94"/>
+      <c r="AS27" s="94"/>
+      <c r="AT27" s="94"/>
+      <c r="AU27" s="94"/>
+      <c r="AV27" s="95"/>
       <c r="AW27" s="34"/>
       <c r="AX27" s="34"/>
       <c r="AY27" s="34"/>
@@ -4631,7 +6576,7 @@
       <c r="CD27" s="39"/>
       <c r="CE27" s="39"/>
     </row>
-    <row r="28" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="28" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="7"/>
       <c r="B28" s="57" t="s">
         <v>37</v>
@@ -4722,7 +6667,7 @@
       <c r="CD28" s="39"/>
       <c r="CE28" s="39"/>
     </row>
-    <row r="29" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="29" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="7"/>
       <c r="B29" s="57" t="s">
         <v>51</v>
@@ -4775,12 +6720,12 @@
       <c r="AP29" s="34"/>
       <c r="AQ29" s="34"/>
       <c r="AR29" s="34"/>
-      <c r="AS29" s="96"/>
-      <c r="AT29" s="97"/>
-      <c r="AU29" s="97"/>
-      <c r="AV29" s="97"/>
-      <c r="AW29" s="97"/>
-      <c r="AX29" s="98"/>
+      <c r="AS29" s="93"/>
+      <c r="AT29" s="94"/>
+      <c r="AU29" s="94"/>
+      <c r="AV29" s="94"/>
+      <c r="AW29" s="94"/>
+      <c r="AX29" s="95"/>
       <c r="AY29" s="34"/>
       <c r="AZ29" s="34"/>
       <c r="BA29" s="34"/>
@@ -4815,7 +6760,7 @@
       <c r="CD29" s="39"/>
       <c r="CE29" s="39"/>
     </row>
-    <row r="30" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="30" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="7"/>
       <c r="B30" s="57" t="s">
         <v>38</v>
@@ -4906,14 +6851,12 @@
       <c r="CD30" s="39"/>
       <c r="CE30" s="39"/>
     </row>
-    <row r="31" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="31" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="7"/>
       <c r="B31" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="58" t="s">
-        <v>26</v>
-      </c>
+      <c r="C31" s="58"/>
       <c r="D31" s="59">
         <v>45234</v>
       </c>
@@ -4999,21 +6942,19 @@
       <c r="CD31" s="39"/>
       <c r="CE31" s="39"/>
     </row>
-    <row r="32" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="32" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="7"/>
       <c r="B32" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="58" t="s">
-        <v>54</v>
-      </c>
+      <c r="C32" s="58"/>
       <c r="D32" s="59">
         <v>45235</v>
       </c>
       <c r="E32" s="59">
         <v>45240</v>
       </c>
-      <c r="F32" s="93"/>
+      <c r="F32" s="90"/>
       <c r="G32" s="34"/>
       <c r="H32" s="34"/>
       <c r="I32" s="34"/>
@@ -5055,12 +6996,12 @@
       <c r="AS32" s="34"/>
       <c r="AT32" s="34"/>
       <c r="AU32" s="39"/>
-      <c r="AV32" s="82"/>
-      <c r="AW32" s="82"/>
-      <c r="AX32" s="82"/>
-      <c r="AY32" s="82"/>
-      <c r="AZ32" s="82"/>
-      <c r="BA32" s="82"/>
+      <c r="AV32" s="39"/>
+      <c r="AW32" s="34"/>
+      <c r="AX32" s="34"/>
+      <c r="AY32" s="34"/>
+      <c r="AZ32" s="34"/>
+      <c r="BA32" s="34"/>
       <c r="BB32" s="39"/>
       <c r="BC32" s="39"/>
       <c r="BD32" s="34"/>
@@ -5092,7 +7033,7 @@
       <c r="CD32" s="39"/>
       <c r="CE32" s="39"/>
     </row>
-    <row r="33" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="33" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="7"/>
       <c r="B33" s="61" t="s">
         <v>7</v>
@@ -5100,7 +7041,7 @@
       <c r="C33" s="62"/>
       <c r="D33" s="63"/>
       <c r="E33" s="64"/>
-      <c r="F33" s="93"/>
+      <c r="F33" s="90"/>
       <c r="G33" s="74"/>
       <c r="H33" s="74"/>
       <c r="I33" s="74"/>
@@ -5179,7 +7120,7 @@
       <c r="CD33" s="74"/>
       <c r="CE33" s="74"/>
     </row>
-    <row r="34" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="34" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="7"/>
       <c r="B34" s="65" t="s">
         <v>21</v>
@@ -5191,7 +7132,7 @@
       <c r="E34" s="67">
         <v>45244</v>
       </c>
-      <c r="F34" s="93"/>
+      <c r="F34" s="90"/>
       <c r="G34" s="34"/>
       <c r="H34" s="34"/>
       <c r="I34" s="34"/>
@@ -5270,7 +7211,7 @@
       <c r="CD34" s="39"/>
       <c r="CE34" s="39"/>
     </row>
-    <row r="35" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="35" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="7"/>
       <c r="B35" s="65" t="s">
         <v>22</v>
@@ -5361,7 +7302,7 @@
       <c r="CD35" s="39"/>
       <c r="CE35" s="39"/>
     </row>
-    <row r="36" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="36" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="7"/>
       <c r="B36" s="65" t="s">
         <v>23</v>
@@ -5452,7 +7393,7 @@
       <c r="CD36" s="39"/>
       <c r="CE36" s="39"/>
     </row>
-    <row r="37" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="37" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="7"/>
       <c r="B37" s="65" t="s">
         <v>24</v>
@@ -5543,7 +7484,7 @@
       <c r="CD37" s="39"/>
       <c r="CE37" s="39"/>
     </row>
-    <row r="38" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="38" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="7"/>
       <c r="B38" s="65" t="s">
         <v>41</v>
@@ -5634,7 +7575,7 @@
       <c r="CD38" s="39"/>
       <c r="CE38" s="39"/>
     </row>
-    <row r="39" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="39" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="7"/>
       <c r="B39" s="65" t="s">
         <v>42</v>
@@ -5725,7 +7666,7 @@
       <c r="CD39" s="39"/>
       <c r="CE39" s="39"/>
     </row>
-    <row r="40" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="40" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="7"/>
       <c r="B40" s="65" t="s">
         <v>43</v>
@@ -5816,7 +7757,7 @@
       <c r="CD40" s="39"/>
       <c r="CE40" s="39"/>
     </row>
-    <row r="41" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="41" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="7"/>
       <c r="B41" s="65" t="s">
         <v>25</v>
@@ -5878,21 +7819,21 @@
       <c r="AY41" s="34"/>
       <c r="AZ41" s="34"/>
       <c r="BA41" s="34"/>
-      <c r="BB41" s="80"/>
-      <c r="BC41" s="81"/>
-      <c r="BD41" s="81"/>
-      <c r="BE41" s="81"/>
-      <c r="BF41" s="81"/>
-      <c r="BG41" s="81"/>
-      <c r="BH41" s="81"/>
-      <c r="BI41" s="81"/>
-      <c r="BJ41" s="81"/>
-      <c r="BK41" s="81"/>
-      <c r="BL41" s="81"/>
-      <c r="BM41" s="81"/>
-      <c r="BN41" s="81"/>
-      <c r="BO41" s="97"/>
-      <c r="BP41" s="98"/>
+      <c r="BB41" s="96"/>
+      <c r="BC41" s="97"/>
+      <c r="BD41" s="97"/>
+      <c r="BE41" s="97"/>
+      <c r="BF41" s="97"/>
+      <c r="BG41" s="97"/>
+      <c r="BH41" s="97"/>
+      <c r="BI41" s="97"/>
+      <c r="BJ41" s="97"/>
+      <c r="BK41" s="97"/>
+      <c r="BL41" s="97"/>
+      <c r="BM41" s="97"/>
+      <c r="BN41" s="97"/>
+      <c r="BO41" s="94"/>
+      <c r="BP41" s="95"/>
       <c r="BQ41" s="39"/>
       <c r="BR41" s="34"/>
       <c r="BS41" s="34"/>
@@ -5909,7 +7850,7 @@
       <c r="CD41" s="39"/>
       <c r="CE41" s="39"/>
     </row>
-    <row r="42" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="42" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="7"/>
       <c r="B42" s="65" t="s">
         <v>44</v>
@@ -6000,7 +7941,7 @@
       <c r="CD42" s="39"/>
       <c r="CE42" s="39"/>
     </row>
-    <row r="43" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="43" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="7"/>
       <c r="B43" s="65" t="s">
         <v>45</v>
@@ -6091,7 +8032,7 @@
       <c r="CD43" s="39"/>
       <c r="CE43" s="39"/>
     </row>
-    <row r="44" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="44" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="7"/>
       <c r="B44" s="76" t="s">
         <v>10</v>
@@ -6100,89 +8041,89 @@
       <c r="D44" s="78"/>
       <c r="E44" s="79"/>
       <c r="F44" s="72"/>
-      <c r="G44" s="92"/>
-      <c r="H44" s="92"/>
-      <c r="I44" s="92"/>
-      <c r="J44" s="92"/>
-      <c r="K44" s="92"/>
-      <c r="L44" s="92"/>
-      <c r="M44" s="92"/>
-      <c r="N44" s="92"/>
-      <c r="O44" s="92"/>
-      <c r="P44" s="92"/>
-      <c r="Q44" s="92"/>
-      <c r="R44" s="92"/>
-      <c r="S44" s="92"/>
-      <c r="T44" s="92"/>
-      <c r="U44" s="92"/>
-      <c r="V44" s="92"/>
-      <c r="W44" s="92"/>
-      <c r="X44" s="92"/>
-      <c r="Y44" s="92"/>
-      <c r="Z44" s="92"/>
-      <c r="AA44" s="92"/>
-      <c r="AB44" s="92"/>
-      <c r="AC44" s="92"/>
-      <c r="AD44" s="92"/>
-      <c r="AE44" s="92"/>
-      <c r="AF44" s="92"/>
-      <c r="AG44" s="92"/>
-      <c r="AH44" s="92"/>
-      <c r="AI44" s="92"/>
-      <c r="AJ44" s="92"/>
-      <c r="AK44" s="92"/>
-      <c r="AL44" s="92"/>
-      <c r="AM44" s="92"/>
-      <c r="AN44" s="92"/>
-      <c r="AO44" s="92"/>
-      <c r="AP44" s="92"/>
-      <c r="AQ44" s="92"/>
-      <c r="AR44" s="92"/>
-      <c r="AS44" s="92"/>
-      <c r="AT44" s="92"/>
-      <c r="AU44" s="92"/>
-      <c r="AV44" s="92"/>
-      <c r="AW44" s="92"/>
-      <c r="AX44" s="92"/>
-      <c r="AY44" s="92"/>
-      <c r="AZ44" s="92"/>
-      <c r="BA44" s="92"/>
-      <c r="BB44" s="92"/>
-      <c r="BC44" s="92"/>
-      <c r="BD44" s="92"/>
-      <c r="BE44" s="92"/>
-      <c r="BF44" s="92"/>
-      <c r="BG44" s="92"/>
-      <c r="BH44" s="92"/>
-      <c r="BI44" s="92"/>
-      <c r="BJ44" s="92"/>
-      <c r="BK44" s="92"/>
-      <c r="BL44" s="92"/>
-      <c r="BM44" s="92"/>
-      <c r="BN44" s="92"/>
-      <c r="BO44" s="92"/>
-      <c r="BP44" s="92"/>
-      <c r="BQ44" s="92"/>
-      <c r="BR44" s="92"/>
-      <c r="BS44" s="92"/>
-      <c r="BT44" s="92"/>
-      <c r="BU44" s="92"/>
-      <c r="BV44" s="92"/>
-      <c r="BW44" s="92"/>
-      <c r="BX44" s="92"/>
-      <c r="BY44" s="92"/>
-      <c r="BZ44" s="92"/>
-      <c r="CA44" s="92"/>
-      <c r="CB44" s="92"/>
-      <c r="CC44" s="92"/>
-      <c r="CD44" s="92"/>
-      <c r="CE44" s="92"/>
+      <c r="G44" s="89"/>
+      <c r="H44" s="89"/>
+      <c r="I44" s="89"/>
+      <c r="J44" s="89"/>
+      <c r="K44" s="89"/>
+      <c r="L44" s="89"/>
+      <c r="M44" s="89"/>
+      <c r="N44" s="89"/>
+      <c r="O44" s="89"/>
+      <c r="P44" s="89"/>
+      <c r="Q44" s="89"/>
+      <c r="R44" s="89"/>
+      <c r="S44" s="89"/>
+      <c r="T44" s="89"/>
+      <c r="U44" s="89"/>
+      <c r="V44" s="89"/>
+      <c r="W44" s="89"/>
+      <c r="X44" s="89"/>
+      <c r="Y44" s="89"/>
+      <c r="Z44" s="89"/>
+      <c r="AA44" s="89"/>
+      <c r="AB44" s="89"/>
+      <c r="AC44" s="89"/>
+      <c r="AD44" s="89"/>
+      <c r="AE44" s="89"/>
+      <c r="AF44" s="89"/>
+      <c r="AG44" s="89"/>
+      <c r="AH44" s="89"/>
+      <c r="AI44" s="89"/>
+      <c r="AJ44" s="89"/>
+      <c r="AK44" s="89"/>
+      <c r="AL44" s="89"/>
+      <c r="AM44" s="89"/>
+      <c r="AN44" s="89"/>
+      <c r="AO44" s="89"/>
+      <c r="AP44" s="89"/>
+      <c r="AQ44" s="89"/>
+      <c r="AR44" s="89"/>
+      <c r="AS44" s="89"/>
+      <c r="AT44" s="89"/>
+      <c r="AU44" s="89"/>
+      <c r="AV44" s="89"/>
+      <c r="AW44" s="89"/>
+      <c r="AX44" s="89"/>
+      <c r="AY44" s="89"/>
+      <c r="AZ44" s="89"/>
+      <c r="BA44" s="89"/>
+      <c r="BB44" s="89"/>
+      <c r="BC44" s="89"/>
+      <c r="BD44" s="89"/>
+      <c r="BE44" s="89"/>
+      <c r="BF44" s="89"/>
+      <c r="BG44" s="89"/>
+      <c r="BH44" s="89"/>
+      <c r="BI44" s="89"/>
+      <c r="BJ44" s="89"/>
+      <c r="BK44" s="89"/>
+      <c r="BL44" s="89"/>
+      <c r="BM44" s="89"/>
+      <c r="BN44" s="89"/>
+      <c r="BO44" s="89"/>
+      <c r="BP44" s="89"/>
+      <c r="BQ44" s="89"/>
+      <c r="BR44" s="89"/>
+      <c r="BS44" s="89"/>
+      <c r="BT44" s="89"/>
+      <c r="BU44" s="89"/>
+      <c r="BV44" s="89"/>
+      <c r="BW44" s="89"/>
+      <c r="BX44" s="89"/>
+      <c r="BY44" s="89"/>
+      <c r="BZ44" s="89"/>
+      <c r="CA44" s="89"/>
+      <c r="CB44" s="89"/>
+      <c r="CC44" s="89"/>
+      <c r="CD44" s="89"/>
+      <c r="CE44" s="89"/>
     </row>
-    <row r="46" spans="1:83" ht="30" customHeight="1">
+    <row r="46" spans="1:83" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C46" s="3"/>
       <c r="E46" s="6"/>
     </row>
-    <row r="47" spans="1:83" ht="30" customHeight="1">
+    <row r="47" spans="1:83" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C47" s="4"/>
     </row>
   </sheetData>
@@ -6213,172 +8154,172 @@
     <mergeCell ref="AW4:BC4"/>
     <mergeCell ref="BD4:BJ4"/>
   </mergeCells>
-  <conditionalFormatting sqref="G5:BW6 BY6:CD6 AI11:AM15 AP11:AT17 AW11:BA17 BD11:BH17 BK11:BO17 BR11:BV17 Z34:Z43 AP34:AT43 AB34:AM43 BY9:CC9 BR9:BV9 BK9:BO9 BD9:BH9 AI9:AM9 AB9:AF9 AP8:AT9 AW8:BA9 AB8:AM8 BD8:CE8 X8:Y9 AB11:AF15 U11:Y17 L34:M43 AW34:BX40 BW9:BX17 BP9:BQ17 BI9:BJ17 AG9:AH15 BB8:BC17 S10:T17 CD9:CE17 AN8:AO17 AU8:AV17 G19:CE24 S34:T43 CD34:CE43 AB16:AE16 BQ41:BX41 AL16:AM16 G28:CE28 G25:AN25 AU25:CE25 G26:AO26 AV26:CE26 G27:AP27 AW27:CE27 AM17 G29:AR29 AY29:CE29 AW42:BX43 AW41:BB41 AB17:AF17 G30:AU32 BB30:CE32 AV30:BA31">
-    <cfRule type="expression" dxfId="38" priority="152">
+  <conditionalFormatting sqref="G5:BW6 BY6:CD6 AI11:AM15 AP11:AT17 AW11:BA17 BD11:BH17 BK11:BO17 BR11:BV17 Z34:Z43 AP34:AT43 AB34:AM43 BY9:CC9 BR9:BV9 BK9:BO9 BD9:BH9 AI9:AM9 AB9:AF9 AP8:AT9 AW8:BA9 AB8:AM8 BD8:CE8 X8:Y9 AB11:AF15 U11:Y17 L34:M43 AW34:BX40 BW9:BX17 BP9:BQ17 BI9:BJ17 AG9:AH15 BB8:BC17 S10:T17 CD9:CE17 AN8:AO17 AU8:AV17 G19:CE24 S34:T43 CD34:CE43 AB16:AE16 AB17:AM17 AL16:AM16 G28:CE28 G25:AN25 AU25:CE25 G26:AO26 AV26:CE26 G27:AP27 AW27:CE27 G30:CE32 G29:AR29 AY29:CE29 AW42:BX43 AW41:BB41 BQ41:BX41">
+    <cfRule type="expression" dxfId="233" priority="152">
       <formula>AND(TODAY()&gt;=G$5,TODAY()&lt;H$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G6:BW6 BY6:CD6 AI11:AM15 AP11:AT17 AW11:BA17 BD11:BH17 BK11:BO17 BR11:BV17 Z34:Z43 AP34:AT43 AB34:AM43 BY9:CC9 BR9:BV9 BK9:BO9 BD9:BH9 AI9:AM9 AB9:AF9 AP8:AT9 AW8:BA9 AB8:AM8 BD8:CE8 X8:Y9 AB11:AF15 U11:Y17 L34:M43 AW34:BX40 BW9:BX17 BP9:BQ17 BI9:BJ17 AG9:AH15 BB8:BC17 S10:T17 CD9:CE17 AN8:AO17 AU8:AV17 G19:CE24 S34:T43 CD34:CE43 AB16:AE16 BQ41:BX41 AL16:AM16 G28:CE28 G25:AN25 AU25:CE25 G26:AO26 AV26:CE26 G27:AP27 AW27:CE27 AM17 G29:AR29 AY29:CE29 AW42:BX43 AW41:BB41 AB17:AF17 G30:AU32 BB30:CE32 AV30:BA31">
-    <cfRule type="expression" dxfId="37" priority="146">
+  <conditionalFormatting sqref="G6:BW6 BY6:CD6 AI11:AM15 AP11:AT17 AW11:BA17 BD11:BH17 BK11:BO17 BR11:BV17 Z34:Z43 AP34:AT43 AB34:AM43 BY9:CC9 BR9:BV9 BK9:BO9 BD9:BH9 AI9:AM9 AB9:AF9 AP8:AT9 AW8:BA9 AB8:AM8 BD8:CE8 X8:Y9 AB11:AF15 U11:Y17 L34:M43 AW34:BX40 BW9:BX17 BP9:BQ17 BI9:BJ17 AG9:AH15 BB8:BC17 S10:T17 CD9:CE17 AN8:AO17 AU8:AV17 G19:CE24 S34:T43 CD34:CE43 AB16:AE16 AB17:AM17 AL16:AM16 G28:CE28 G25:AN25 AU25:CE25 G26:AO26 AV26:CE26 G27:AP27 AW27:CE27 G30:CE32 G29:AR29 AY29:CE29 AW42:BX43 AW41:BB41 BQ41:BX41">
+    <cfRule type="expression" dxfId="232" priority="146">
       <formula>AND(task_start&lt;=G$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=G$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="147" stopIfTrue="1">
+    <cfRule type="expression" dxfId="231" priority="147" stopIfTrue="1">
       <formula>AND(task_end&gt;=G$5,task_start&lt;H$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BY5:CE5 BX5:BX6 CE6">
-    <cfRule type="expression" dxfId="35" priority="154">
+    <cfRule type="expression" dxfId="230" priority="154">
       <formula>AND(TODAY()&gt;=BX$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BX6 CE6">
-    <cfRule type="expression" dxfId="34" priority="157">
+    <cfRule type="expression" dxfId="229" priority="157">
       <formula>AND(task_start&lt;=BX$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BX$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="158" stopIfTrue="1">
+    <cfRule type="expression" dxfId="228" priority="158" stopIfTrue="1">
       <formula>AND(task_end&gt;=BX$5,task_start&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BY10:CC10 U10:Y10 AB10:AF10 AI10:AM10 AP10:AT10 AW10:BA10 BD10:BH10 BK10:BO10 BR10:BV10 G10:R10">
-    <cfRule type="expression" dxfId="32" priority="103">
+    <cfRule type="expression" dxfId="227" priority="103">
       <formula>AND(TODAY()&gt;=G$5,TODAY()&lt;H$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BY10:CC10 U10:Y10 AB10:AF10 AI10:AM10 AP10:AT10 AW10:BA10 BD10:BH10 BK10:BO10 BR10:BV10 G10:R10">
-    <cfRule type="expression" dxfId="31" priority="101">
+    <cfRule type="expression" dxfId="226" priority="101">
       <formula>AND(task_start&lt;=G$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=G$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="102" stopIfTrue="1">
+    <cfRule type="expression" dxfId="225" priority="102" stopIfTrue="1">
       <formula>AND(task_end&gt;=G$5,task_start&lt;H$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BY11:CC17 G11:R17">
-    <cfRule type="expression" dxfId="29" priority="97">
+    <cfRule type="expression" dxfId="224" priority="97">
       <formula>AND(TODAY()&gt;=G$5,TODAY()&lt;H$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BY11:CC17 G11:R17">
-    <cfRule type="expression" dxfId="28" priority="95">
+    <cfRule type="expression" dxfId="223" priority="95">
       <formula>AND(task_start&lt;=G$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=G$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="96" stopIfTrue="1">
+    <cfRule type="expression" dxfId="222" priority="96" stopIfTrue="1">
       <formula>AND(task_end&gt;=G$5,task_start&lt;H$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34:K43 BZ34:CC43 U34:Y43 N34:R43">
-    <cfRule type="expression" dxfId="26" priority="73">
+    <cfRule type="expression" dxfId="221" priority="73">
       <formula>AND(TODAY()&gt;=G$5,TODAY()&lt;H$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34:K43 BZ34:CC43 U34:Y43 N34:R43">
-    <cfRule type="expression" dxfId="25" priority="71">
+    <cfRule type="expression" dxfId="220" priority="71">
       <formula>AND(task_start&lt;=G$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=G$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="72" stopIfTrue="1">
+    <cfRule type="expression" dxfId="219" priority="72" stopIfTrue="1">
       <formula>AND(task_end&gt;=G$5,task_start&lt;H$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z8:AA17">
-    <cfRule type="expression" dxfId="23" priority="61">
+    <cfRule type="expression" dxfId="218" priority="61">
       <formula>AND(TODAY()&gt;=Z$5,TODAY()&lt;AA$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z8:AA17">
-    <cfRule type="expression" dxfId="22" priority="59">
+    <cfRule type="expression" dxfId="217" priority="59">
       <formula>AND(task_start&lt;=Z$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=Z$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="60" stopIfTrue="1">
+    <cfRule type="expression" dxfId="216" priority="60" stopIfTrue="1">
       <formula>AND(task_end&gt;=Z$5,task_start&lt;AA$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN34:AO43">
-    <cfRule type="expression" dxfId="20" priority="24">
+    <cfRule type="expression" dxfId="215" priority="24">
       <formula>AND(TODAY()&gt;=AN$5,TODAY()&lt;AO$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN34:AO43">
-    <cfRule type="expression" dxfId="19" priority="22">
+    <cfRule type="expression" dxfId="214" priority="22">
       <formula>AND(task_start&lt;=AN$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AN$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="213" priority="23" stopIfTrue="1">
       <formula>AND(task_end&gt;=AN$5,task_start&lt;AO$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU34:AV43">
-    <cfRule type="expression" dxfId="17" priority="21">
+    <cfRule type="expression" dxfId="212" priority="21">
       <formula>AND(TODAY()&gt;=AU$5,TODAY()&lt;AV$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU34:AV43">
-    <cfRule type="expression" dxfId="16" priority="19">
+    <cfRule type="expression" dxfId="211" priority="19">
       <formula>AND(task_start&lt;=AU$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AU$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="210" priority="20" stopIfTrue="1">
       <formula>AND(task_end&gt;=AU$5,task_start&lt;AV$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA34:AA43 BY34:BY43">
-    <cfRule type="expression" dxfId="14" priority="18">
+    <cfRule type="expression" dxfId="209" priority="18">
       <formula>AND(TODAY()&gt;=AA$5,TODAY()&lt;AB$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA34:AA43 BY34:BY43">
-    <cfRule type="expression" dxfId="13" priority="16">
+    <cfRule type="expression" dxfId="208" priority="16">
       <formula>AND(task_start&lt;=AA$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AA$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="207" priority="17" stopIfTrue="1">
       <formula>AND(task_end&gt;=AA$5,task_start&lt;AB$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G44">
-    <cfRule type="expression" dxfId="11" priority="15">
+    <cfRule type="expression" dxfId="206" priority="15">
       <formula>AND(TODAY()&gt;=G$5,TODAY()&lt;H$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G44">
-    <cfRule type="expression" dxfId="10" priority="13">
+    <cfRule type="expression" dxfId="205" priority="13">
       <formula>AND(task_start&lt;=G$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=G$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="204" priority="14" stopIfTrue="1">
       <formula>AND(task_end&gt;=G$5,task_start&lt;H$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N9:U9 V8:W8 G9:K9 G8 P8:S8">
-    <cfRule type="expression" dxfId="8" priority="9">
+    <cfRule type="expression" dxfId="203" priority="9">
       <formula>AND(TODAY()&gt;=G$5,TODAY()&lt;H$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N9:U9 V8:W8 G9:K9 G8 P8:S8">
-    <cfRule type="expression" dxfId="7" priority="7">
+    <cfRule type="expression" dxfId="202" priority="7">
       <formula>AND(task_start&lt;=G$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=G$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="201" priority="8" stopIfTrue="1">
       <formula>AND(task_end&gt;=G$5,task_start&lt;H$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8 P8:R8">
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="200" priority="6">
       <formula>AND(TODAY()&gt;=G$5,TODAY()&lt;H$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8 P8:R8">
-    <cfRule type="expression" dxfId="4" priority="4">
+    <cfRule type="expression" dxfId="199" priority="4">
       <formula>AND(task_start&lt;=G$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=G$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="198" priority="5" stopIfTrue="1">
       <formula>AND(task_end&gt;=G$5,task_start&lt;H$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9:K9 N9:R9">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="197" priority="3">
       <formula>AND(TODAY()&gt;=G$5,TODAY()&lt;H$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9:K9 N9:R9">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="196" priority="1">
       <formula>AND(task_start&lt;=G$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=G$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="195" priority="2" stopIfTrue="1">
       <formula>AND(task_end&gt;=G$5,task_start&lt;H$5)</formula>
     </cfRule>
   </conditionalFormatting>
